--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strath-my.sharepoint.com/personal/lewis_alexander_2022_uni_strath_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="8_{FCFB571D-E77E-4428-ABC3-E78C6D727C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71585A32-DAAC-482B-9AF7-C5CBCDBEB6B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25849236-BBFB-4A29-8AF8-53846B5C566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:EV159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EU157" sqref="EU157"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33136,11 +33136,11 @@
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" ref="D70:D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
+        <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
         <v>0</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" ref="E70:E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
+        <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
         <v>0</v>
       </c>
       <c r="F73" s="1" t="str">
@@ -44428,7 +44428,7 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="2">
-        <f t="shared" ref="C78:E99" si="188">SUM(H99,M99,R99,W99,AB99,AG99,AL99,AQ99,AV99,BA99,BF99,BK99,BP99,BU99,BZ99,CE99,CJ99,CO99,CT99,CY99,DD99,DI99,DN99,DS99,DX99,EC99,EH99,EM99)</f>
+        <f t="shared" ref="C99:E99" si="188">SUM(H99,M99,R99,W99,AB99,AG99,AL99,AQ99,AV99,BA99,BF99,BK99,BP99,BU99,BZ99,CE99,CJ99,CO99,CT99,CY99,DD99,DI99,DN99,DS99,DX99,EC99,EH99,EM99)</f>
         <v>0</v>
       </c>
       <c r="D99" s="2">

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25849236-BBFB-4A29-8AF8-53846B5C566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644342C-57BD-43F4-9710-89EA54164BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:EV159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="S141" sqref="S141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,19 +1989,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f>SUM(H5,M5,R5,W5,AB5,AG5,AL5,AQ5,AV5,BA5,BF5,BK5,BP5,BU5,BZ5,CE5,CJ5,CO5,CT5,CY5,DD5,DI5,DN5,DS5,DX5,EC5,EH5,EM5,ER5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:E20" si="0">SUM(I5,N5,S5,X5,AC5,AH5,AM5,AR5,AW5,BB5,BG5,BL5,BQ5,BV5,CA5,CF5,CK5,CP5,CU5,CZ5,DE5,DJ5,DO5,DT5,DY5,ED5,EI5,EN5,ES5)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(C5,D5/C5*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1">
@@ -2036,17 +2036,17 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="1">
         <f>SUM(S5,T5)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" s="1" t="str">
         <f>IF(R5,S5/R5*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="1">
@@ -27637,11 +27637,11 @@
       <c r="B61" s="2"/>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="62"/>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1">
@@ -27684,17 +27684,17 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S61" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
       </c>
       <c r="U61" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -33133,19 +33133,19 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>71.4285714285714%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33184,19 +33184,19 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S73" s="1">
         <f>SUM(S5:S72)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T73" s="1">
         <f>SUM(T5:T72)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>0%</v>
+        <v>71.4285714285714%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
@@ -38933,7 +38933,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="2">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="125"/>
@@ -38941,7 +38941,7 @@
       </c>
       <c r="E87" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="126"/>
@@ -38980,13 +38980,13 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="2">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S87" s="2">
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U87" s="2" t="str">
         <f t="shared" si="133"/>
@@ -44429,7 +44429,7 @@
       <c r="B99" s="5"/>
       <c r="C99" s="2">
         <f t="shared" ref="C99:E99" si="188">SUM(H99,M99,R99,W99,AB99,AG99,AL99,AQ99,AV99,BA99,BF99,BK99,BP99,BU99,BZ99,CE99,CJ99,CO99,CT99,CY99,DD99,DI99,DN99,DS99,DX99,EC99,EH99,EM99)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="188"/>
@@ -44437,7 +44437,7 @@
       </c>
       <c r="E99" s="2">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="2" t="str">
         <f>IF(C99,D99/C99*100,0) &amp; "%"</f>
@@ -44480,7 +44480,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="2">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" s="2">
         <f>SUM(S77:S98)</f>
@@ -44488,7 +44488,7 @@
       </c>
       <c r="T99" s="2">
         <f>SUM(T77:T98)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U99" s="2" t="str">
         <f>IF(R99,S99/R99*100,0) &amp; "%"</f>
@@ -45258,7 +45258,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>62.5%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
@@ -45288,7 +45288,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="str">
         <f>IF(SUM(S73,S99),SUM(S73,S99)*100/SUM(R73,R99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>62.5%</v>
       </c>
       <c r="V102" s="10"/>
       <c r="W102" s="9" t="s">
@@ -49469,11 +49469,11 @@
       <c r="B113" s="8"/>
       <c r="C113" s="7">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="189"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" s="7">
         <f t="shared" si="189"/>
@@ -49481,7 +49481,7 @@
       </c>
       <c r="F113" s="7" t="str">
         <f t="shared" si="190"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
@@ -49516,17 +49516,17 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="7">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S113" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T113" s="7">
         <v>0</v>
       </c>
       <c r="U113" s="7" t="str">
         <f t="shared" si="197"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V113" s="8"/>
       <c r="W113" s="7">
@@ -57255,11 +57255,11 @@
       <c r="B130" s="8"/>
       <c r="C130" s="7">
         <f>SUM(C106:C129)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D130" s="7">
         <f>SUM(D106:D129)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E130" s="7">
         <f>SUM(E106:E129)</f>
@@ -57267,7 +57267,7 @@
       </c>
       <c r="F130" s="7" t="str">
         <f>IF(C130,D130/C130*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="7">
@@ -57306,11 +57306,11 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="7">
         <f>SUM(R106:R129)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S130" s="7">
         <f>SUM(S106:S129)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T130" s="7">
         <f>SUM(T106:T129)</f>
@@ -57318,7 +57318,7 @@
       </c>
       <c r="U130" s="7" t="str">
         <f>IF(R130,S130/R130*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V130" s="8"/>
       <c r="W130" s="7">
@@ -58933,7 +58933,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="12">
         <f t="shared" ref="C135:C152" si="254">SUM(H135,M135,R135,W135,AB135,AG135,AL135,AQ135,AV135,BA135,BF135,BK135,BP135,BU135,BZ135,CE135,CJ135,CO135,CT135,CY135,DD135,DI135,DN135,DS135,DX135,EC135,EH135,EM135,ER135)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D135" s="12">
         <f t="shared" si="252"/>
@@ -58941,7 +58941,7 @@
       </c>
       <c r="E135" s="12">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F135" s="13" t="str">
         <f t="shared" si="253"/>
@@ -58980,13 +58980,13 @@
       <c r="Q135" s="11"/>
       <c r="R135" s="12">
         <f t="shared" ref="R135:R152" si="259">+SUM(S135,T135)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S135" s="13">
         <v>0</v>
       </c>
       <c r="T135" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U135" s="13" t="str">
         <f t="shared" ref="U135:U152" si="260">IF(R135,S135/R135*100,0) &amp; "%"</f>
@@ -61223,11 +61223,11 @@
       <c r="B140" s="11"/>
       <c r="C140" s="12">
         <f t="shared" si="254"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" s="12">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="12">
         <f t="shared" si="252"/>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="F140" s="13" t="str">
         <f t="shared" si="253"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="12">
@@ -61270,17 +61270,17 @@
       <c r="Q140" s="11"/>
       <c r="R140" s="12">
         <f t="shared" si="259"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" s="13">
         <v>0</v>
       </c>
       <c r="U140" s="13" t="str">
         <f t="shared" si="260"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V140" s="11"/>
       <c r="W140" s="12">
@@ -67177,19 +67177,19 @@
       <c r="B153" s="11"/>
       <c r="C153" s="12">
         <f>SUM(C134:C151)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D153" s="12">
         <f>SUM(D134:D151)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="12">
         <f>SUM(E134:E151)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F153" s="13" t="str">
         <f>IF(C153,D153/C153*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>33.3333333333333%</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="13">
@@ -67228,19 +67228,19 @@
       <c r="Q153" s="11"/>
       <c r="R153" s="13">
         <f>SUM(R129:R152)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S153" s="12">
         <f>SUM(S134:S151)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T153" s="12">
         <f>SUM(T134:T151)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U153" s="13" t="str">
         <f>IF(R153,S153/R153*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>16.6666666666667%</v>
       </c>
       <c r="V153" s="11"/>
       <c r="W153" s="13">
@@ -68006,7 +68006,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="str">
         <f>IF(SUM(D130,D153),SUM(D130,D153)*100/SUM(C130,C153),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.6666666666667%</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9" t="s">
@@ -68036,7 +68036,7 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9" t="str">
         <f>IF(SUM(S130,S153),SUM(S130,S153)*100/SUM(R130,R153),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>44.4444444444444%</v>
       </c>
       <c r="V156" s="10"/>
       <c r="W156" s="9" t="s">

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644342C-57BD-43F4-9710-89EA54164BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EC4A0-E4AE-4ED7-9825-094DEA5B3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-32805" yWindow="2535" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1045,11 +1045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8A5E5A-9AF3-4435-B5F4-E9654445F5CB}">
   <dimension ref="A1:EV159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S141" sqref="S141"/>
+      <selection pane="bottomRight" activeCell="S113" sqref="S113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3363,11 +3363,11 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1">
@@ -3500,17 +3500,17 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX8" s="1">
         <v>0</v>
       </c>
       <c r="AY8" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="1">
@@ -33133,11 +33133,11 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>71.4285714285714%</v>
+        <v>92.5925925925926%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33286,11 +33286,11 @@
       <c r="AU73" s="2"/>
       <c r="AV73" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW73" s="1">
         <f>SUM(AW5:AW72)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AX73" s="1">
         <f>SUM(AX5:AX72)</f>
@@ -33298,7 +33298,7 @@
       </c>
       <c r="AY73" s="1" t="str">
         <f t="shared" si="82"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ73" s="2"/>
       <c r="BA73" s="1">
@@ -42139,11 +42139,11 @@
       <c r="B94" s="5"/>
       <c r="C94" s="2">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" si="186"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="187"/>
@@ -42151,7 +42151,7 @@
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="126"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="2">
@@ -42276,17 +42276,17 @@
       <c r="AU94" s="5"/>
       <c r="AV94" s="2">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW94" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX94" s="2">
         <v>0</v>
       </c>
       <c r="AY94" s="2" t="str">
         <f t="shared" si="145"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ94" s="5"/>
       <c r="BA94" s="2">
@@ -44429,11 +44429,11 @@
       <c r="B99" s="5"/>
       <c r="C99" s="2">
         <f t="shared" ref="C99:E99" si="188">SUM(H99,M99,R99,W99,AB99,AG99,AL99,AQ99,AV99,BA99,BF99,BK99,BP99,BU99,BZ99,CE99,CJ99,CO99,CT99,CY99,DD99,DI99,DN99,DS99,DX99,EC99,EH99,EM99)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="188"/>
@@ -44441,7 +44441,7 @@
       </c>
       <c r="F99" s="2" t="str">
         <f>IF(C99,D99/C99*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>83.3333333333333%</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="2">
@@ -44582,11 +44582,11 @@
       <c r="AU99" s="5"/>
       <c r="AV99" s="2">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW99" s="2">
         <f>SUM(AW77:AW98)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX99" s="2">
         <f>SUM(AX77:AX98)</f>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="AY99" s="2" t="str">
         <f>IF(AV99,AW99/AV99*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ99" s="5"/>
       <c r="BA99" s="2">
@@ -45258,7 +45258,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>90.9090909090909%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
@@ -45348,7 +45348,7 @@
       <c r="AX102" s="9"/>
       <c r="AY102" s="9" t="str">
         <f>IF(SUM(AW73,AW99),SUM(AW73,AW99)*100/SUM(AV73,AV99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ102" s="10"/>
       <c r="BA102" s="9" t="s">
@@ -56339,11 +56339,11 @@
       <c r="B128" s="8"/>
       <c r="C128" s="7">
         <f t="shared" si="191"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="250"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" s="7">
         <f t="shared" si="251"/>
@@ -56351,7 +56351,7 @@
       </c>
       <c r="F128" s="7" t="str">
         <f t="shared" si="190"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
@@ -56476,17 +56476,17 @@
       <c r="AU128" s="8"/>
       <c r="AV128" s="7">
         <f t="shared" si="208"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW128" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX128" s="7">
         <v>0</v>
       </c>
       <c r="AY128" s="7" t="str">
         <f t="shared" si="209"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ128" s="8"/>
       <c r="BA128" s="7">
@@ -57255,11 +57255,11 @@
       <c r="B130" s="8"/>
       <c r="C130" s="7">
         <f>SUM(C106:C129)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D130" s="7">
         <f>SUM(D106:D129)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130" s="7">
         <f>SUM(E106:E129)</f>
@@ -57408,11 +57408,11 @@
       <c r="AU130" s="8"/>
       <c r="AV130" s="7">
         <f>SUM(AV106:AV129)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW130" s="7">
         <f>SUM(AW106:AW129)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX130" s="7">
         <f>SUM(AX106:AX129)</f>
@@ -57420,7 +57420,7 @@
       </c>
       <c r="AY130" s="7" t="str">
         <f>IF(AV130,AW130/AV130*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ130" s="8"/>
       <c r="BA130" s="7">
@@ -61223,11 +61223,11 @@
       <c r="B140" s="11"/>
       <c r="C140" s="12">
         <f t="shared" si="254"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" s="12">
         <f t="shared" si="252"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140" s="12">
         <f t="shared" si="252"/>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="F140" s="13" t="str">
         <f t="shared" si="253"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G140" s="11"/>
       <c r="H140" s="12">
@@ -61270,17 +61270,17 @@
       <c r="Q140" s="11"/>
       <c r="R140" s="12">
         <f t="shared" si="259"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S140" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T140" s="13">
         <v>0</v>
       </c>
       <c r="U140" s="13" t="str">
         <f t="shared" si="260"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V140" s="11"/>
       <c r="W140" s="12">
@@ -65345,11 +65345,11 @@
       <c r="B149" s="11"/>
       <c r="C149" s="12">
         <f t="shared" si="254"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" s="12">
         <f t="shared" si="252"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="12">
         <f t="shared" si="252"/>
@@ -65357,7 +65357,7 @@
       </c>
       <c r="F149" s="13" t="str">
         <f t="shared" si="253"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="12">
@@ -65482,17 +65482,17 @@
       <c r="AU149" s="11"/>
       <c r="AV149" s="12">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW149" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX149" s="13">
         <v>0</v>
       </c>
       <c r="AY149" s="13" t="str">
         <f t="shared" si="272"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ149" s="11"/>
       <c r="BA149" s="12">
@@ -67228,11 +67228,11 @@
       <c r="Q153" s="11"/>
       <c r="R153" s="13">
         <f>SUM(R129:R152)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S153" s="12">
         <f>SUM(S134:S151)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T153" s="12">
         <f>SUM(T134:T151)</f>
@@ -67240,7 +67240,7 @@
       </c>
       <c r="U153" s="13" t="str">
         <f>IF(R153,S153/R153*100,0) &amp; "%"</f>
-        <v>16.6666666666667%</v>
+        <v>0%</v>
       </c>
       <c r="V153" s="11"/>
       <c r="W153" s="13">
@@ -67330,11 +67330,11 @@
       <c r="AU153" s="11"/>
       <c r="AV153" s="13">
         <f>SUM(AV129:AV152)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW153" s="12">
         <f>SUM(AW134:AW151)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX153" s="12">
         <f>SUM(AX134:AX151)</f>
@@ -67342,7 +67342,7 @@
       </c>
       <c r="AY153" s="13" t="str">
         <f>IF(AV153,AW153/AV153*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AZ153" s="11"/>
       <c r="BA153" s="13">
@@ -68006,7 +68006,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="str">
         <f>IF(SUM(D130,D153),SUM(D130,D153)*100/SUM(C130,C153),0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <v>71.4285714285714%</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9" t="s">
@@ -68036,7 +68036,7 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9" t="str">
         <f>IF(SUM(S130,S153),SUM(S130,S153)*100/SUM(R130,R153),0) &amp; "%"</f>
-        <v>44.4444444444444%</v>
+        <v>37.5%</v>
       </c>
       <c r="V156" s="10"/>
       <c r="W156" s="9" t="s">
@@ -68096,7 +68096,7 @@
       <c r="AX156" s="9"/>
       <c r="AY156" s="9" t="str">
         <f>IF(SUM(AW130,AW153),SUM(AW130,AW153)*100/SUM(AV130,AV153),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.6666666666667%</v>
       </c>
       <c r="AZ156" s="10"/>
       <c r="BA156" s="9" t="s">
@@ -68309,8 +68309,8 @@
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="str">
-        <f>IF(SUM(F156,F102),SUM(F156,F102)/SUM(NOT(COUNTIF(F156,"0%")),NOT(COUNTIF(F102,"0%"))),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>((F156 + F102)/2)*100 &amp; "%"</f>
+        <v>81.1688311688311%</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
@@ -68319,7 +68319,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
       <c r="K157" s="9" t="str">
-        <f>IF(SUM(K156,K102),SUM(K156,K102)/SUM(NOT(COUNTIF(K156,"0%")),NOT(COUNTIF(K102,"0%"))),0) &amp; "%"</f>
+        <f>((K156 + K102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L157" s="10"/>
@@ -68329,7 +68329,7 @@
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
       <c r="P157" s="9" t="str">
-        <f>IF(SUM(P156,P102),SUM(P156,P102)/SUM(NOT(COUNTIF(P156,"0%")),NOT(COUNTIF(P102,"0%"))),0) &amp; "%"</f>
+        <f>((P156 + P102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q157" s="10"/>
@@ -68339,8 +68339,8 @@
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
       <c r="U157" s="9" t="str">
-        <f>IF(SUM(U156,U102),SUM(U156,U102)/SUM(NOT(COUNTIF(U156,"0%")),NOT(COUNTIF(U102,"0%"))),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>((U156 + U102)/2)*100 &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="V157" s="10"/>
       <c r="W157" s="9" t="s">
@@ -68349,7 +68349,7 @@
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>
       <c r="Z157" s="9" t="str">
-        <f>IF(SUM(Z156,Z102),SUM(Z156,Z102)/SUM(NOT(COUNTIF(Z156,"0%")),NOT(COUNTIF(Z102,"0%"))),0) &amp; "%"</f>
+        <f>((Z156 + Z102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA157" s="10"/>
@@ -68359,7 +68359,7 @@
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
       <c r="AE157" s="9" t="str">
-        <f>IF(SUM(AE156,AE102),SUM(AE156,AE102)/SUM(NOT(COUNTIF(AE156,"0%")),NOT(COUNTIF(AE102,"0%"))),0) &amp; "%"</f>
+        <f>((AE156 + AE102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF157" s="10"/>
@@ -68369,7 +68369,7 @@
       <c r="AH157" s="9"/>
       <c r="AI157" s="9"/>
       <c r="AJ157" s="9" t="str">
-        <f>IF(SUM(AJ156,AJ102),SUM(AJ156,AJ102)/SUM(NOT(COUNTIF(AJ156,"0%")),NOT(COUNTIF(AJ102,"0%"))),0) &amp; "%"</f>
+        <f>((AJ156 + AJ102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK157" s="10"/>
@@ -68379,7 +68379,7 @@
       <c r="AM157" s="9"/>
       <c r="AN157" s="9"/>
       <c r="AO157" s="9" t="str">
-        <f>IF(SUM(AO156,AO102),SUM(AO156,AO102)/SUM(NOT(COUNTIF(AO156,"0%")),NOT(COUNTIF(AO102,"0%"))),0) &amp; "%"</f>
+        <f>((AO156 + AO102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP157" s="10"/>
@@ -68389,7 +68389,7 @@
       <c r="AR157" s="9"/>
       <c r="AS157" s="9"/>
       <c r="AT157" s="9" t="str">
-        <f>IF(SUM(AT156,AT102),SUM(AT156,AT102)/SUM(NOT(COUNTIF(AT156,"0%")),NOT(COUNTIF(AT102,"0%"))),0) &amp; "%"</f>
+        <f>((AT156 + AT102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU157" s="10"/>
@@ -68399,8 +68399,8 @@
       <c r="AW157" s="9"/>
       <c r="AX157" s="9"/>
       <c r="AY157" s="9" t="str">
-        <f>IF(SUM(AY156,AY102),SUM(AY156,AY102)/SUM(NOT(COUNTIF(AY156,"0%")),NOT(COUNTIF(AY102,"0%"))),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>((AY156 + AY102)/2)*100 &amp; "%"</f>
+        <v>83.3333333333333%</v>
       </c>
       <c r="AZ157" s="10"/>
       <c r="BA157" s="9" t="s">
@@ -68409,7 +68409,7 @@
       <c r="BB157" s="9"/>
       <c r="BC157" s="9"/>
       <c r="BD157" s="9" t="str">
-        <f>IF(SUM(BD156,BD102),SUM(BD156,BD102)/SUM(NOT(COUNTIF(BD156,"0%")),NOT(COUNTIF(BD102,"0%"))),0) &amp; "%"</f>
+        <f>((BD156 + BD102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE157" s="10"/>
@@ -68419,7 +68419,7 @@
       <c r="BG157" s="9"/>
       <c r="BH157" s="9"/>
       <c r="BI157" s="9" t="str">
-        <f>IF(SUM(BI156,BI102),SUM(BI156,BI102)/SUM(NOT(COUNTIF(BI156,"0%")),NOT(COUNTIF(BI102,"0%"))),0) &amp; "%"</f>
+        <f>((BI156 + BI102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ157" s="10"/>
@@ -68429,7 +68429,7 @@
       <c r="BL157" s="9"/>
       <c r="BM157" s="9"/>
       <c r="BN157" s="9" t="str">
-        <f>IF(SUM(BN156,BN102),SUM(BN156,BN102)/SUM(NOT(COUNTIF(BN156,"0%")),NOT(COUNTIF(BN102,"0%"))),0) &amp; "%"</f>
+        <f>((BN156 + BN102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO157" s="10"/>
@@ -68439,7 +68439,7 @@
       <c r="BQ157" s="9"/>
       <c r="BR157" s="9"/>
       <c r="BS157" s="9" t="str">
-        <f>IF(SUM(BS156,BS102),SUM(BS156,BS102)/SUM(NOT(COUNTIF(BS156,"0%")),NOT(COUNTIF(BS102,"0%"))),0) &amp; "%"</f>
+        <f>((BS156 + BS102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT157" s="10"/>
@@ -68449,7 +68449,7 @@
       <c r="BV157" s="9"/>
       <c r="BW157" s="9"/>
       <c r="BX157" s="9" t="str">
-        <f>IF(SUM(BX156,BX102),SUM(BX156,BX102)/SUM(NOT(COUNTIF(BX156,"0%")),NOT(COUNTIF(BX102,"0%"))),0) &amp; "%"</f>
+        <f>((BX156 + BX102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY157" s="10"/>
@@ -68459,7 +68459,7 @@
       <c r="CA157" s="9"/>
       <c r="CB157" s="9"/>
       <c r="CC157" s="9" t="str">
-        <f>IF(SUM(CC156,CC102),SUM(CC156,CC102)/SUM(NOT(COUNTIF(CC156,"0%")),NOT(COUNTIF(CC102,"0%"))),0) &amp; "%"</f>
+        <f>((CC156 + CC102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD157" s="10"/>
@@ -68469,7 +68469,7 @@
       <c r="CF157" s="9"/>
       <c r="CG157" s="9"/>
       <c r="CH157" s="9" t="str">
-        <f>IF(SUM(CH156,CH102),SUM(CH156,CH102)/SUM(NOT(COUNTIF(CH156,"0%")),NOT(COUNTIF(CH102,"0%"))),0) &amp; "%"</f>
+        <f>((CH156 + CH102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI157" s="10"/>
@@ -68479,7 +68479,7 @@
       <c r="CK157" s="9"/>
       <c r="CL157" s="9"/>
       <c r="CM157" s="9" t="str">
-        <f>IF(SUM(CM156,CM102),SUM(CM156,CM102)/SUM(NOT(COUNTIF(CM156,"0%")),NOT(COUNTIF(CM102,"0%"))),0) &amp; "%"</f>
+        <f>((CM156 + CM102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN157" s="10"/>
@@ -68489,7 +68489,7 @@
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
       <c r="CR157" s="9" t="str">
-        <f>IF(SUM(CR156,CR102),SUM(CR156,CR102)/SUM(NOT(COUNTIF(CR156,"0%")),NOT(COUNTIF(CR102,"0%"))),0) &amp; "%"</f>
+        <f>((CR156 + CR102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS157" s="10"/>
@@ -68499,7 +68499,7 @@
       <c r="CU157" s="9"/>
       <c r="CV157" s="9"/>
       <c r="CW157" s="9" t="str">
-        <f>IF(SUM(CW156,CW102),SUM(CW156,CW102)/SUM(NOT(COUNTIF(CW156,"0%")),NOT(COUNTIF(CW102,"0%"))),0) &amp; "%"</f>
+        <f>((CW156 + CW102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX157" s="10"/>
@@ -68509,7 +68509,7 @@
       <c r="CZ157" s="9"/>
       <c r="DA157" s="9"/>
       <c r="DB157" s="9" t="str">
-        <f>IF(SUM(DB156,DB102),SUM(DB156,DB102)/SUM(NOT(COUNTIF(DB156,"0%")),NOT(COUNTIF(DB102,"0%"))),0) &amp; "%"</f>
+        <f>((DB156 + DB102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC157" s="10"/>
@@ -68519,7 +68519,7 @@
       <c r="DE157" s="9"/>
       <c r="DF157" s="9"/>
       <c r="DG157" s="9" t="str">
-        <f>IF(SUM(DG156,DG102),SUM(DG156,DG102)/SUM(NOT(COUNTIF(DG156,"0%")),NOT(COUNTIF(DG102,"0%"))),0) &amp; "%"</f>
+        <f>((DG156 + DG102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH157" s="10"/>
@@ -68529,7 +68529,7 @@
       <c r="DJ157" s="9"/>
       <c r="DK157" s="9"/>
       <c r="DL157" s="9" t="str">
-        <f>IF(SUM(DL156,DL102),SUM(DL156,DL102)/SUM(NOT(COUNTIF(DL156,"0%")),NOT(COUNTIF(DL102,"0%"))),0) &amp; "%"</f>
+        <f>((DL156 + DL102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM157" s="10"/>
@@ -68539,7 +68539,7 @@
       <c r="DO157" s="9"/>
       <c r="DP157" s="9"/>
       <c r="DQ157" s="9" t="str">
-        <f>IF(SUM(DQ156,DQ102),SUM(DQ156,DQ102)/SUM(NOT(COUNTIF(DQ156,"0%")),NOT(COUNTIF(DQ102,"0%"))),0) &amp; "%"</f>
+        <f>((DQ156 + DQ102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR157" s="10"/>
@@ -68549,7 +68549,7 @@
       <c r="DT157" s="9"/>
       <c r="DU157" s="9"/>
       <c r="DV157" s="9" t="str">
-        <f>IF(SUM(DV156,DV102),SUM(DV156,DV102)/SUM(NOT(COUNTIF(DV156,"0%")),NOT(COUNTIF(DV102,"0%"))),0) &amp; "%"</f>
+        <f>((DV156 + DV102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW157" s="10"/>
@@ -68559,7 +68559,7 @@
       <c r="DY157" s="9"/>
       <c r="DZ157" s="9"/>
       <c r="EA157" s="9" t="str">
-        <f>IF(SUM(EA156,EA102),SUM(EA156,EA102)/SUM(NOT(COUNTIF(EA156,"0%")),NOT(COUNTIF(EA102,"0%"))),0) &amp; "%"</f>
+        <f>((EA156 + EA102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB157" s="10"/>
@@ -68569,7 +68569,7 @@
       <c r="ED157" s="9"/>
       <c r="EE157" s="9"/>
       <c r="EF157" s="9" t="str">
-        <f>IF(SUM(EF156,EF102),SUM(EF156,EF102)/SUM(NOT(COUNTIF(EF156,"0%")),NOT(COUNTIF(EF102,"0%"))),0) &amp; "%"</f>
+        <f>((EF156 + EF102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG157" s="10"/>
@@ -68579,7 +68579,7 @@
       <c r="EI157" s="9"/>
       <c r="EJ157" s="9"/>
       <c r="EK157" s="9" t="str">
-        <f>IF(SUM(EK156,EK102),SUM(EK156,EK102)/SUM(NOT(COUNTIF(EK156,"0%")),NOT(COUNTIF(EK102,"0%"))),0) &amp; "%"</f>
+        <f>((EK156 + EK102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL157" s="10"/>
@@ -68589,7 +68589,7 @@
       <c r="EN157" s="9"/>
       <c r="EO157" s="9"/>
       <c r="EP157" s="9" t="str">
-        <f>IF(SUM(EP156,EP102),SUM(EP156,EP102)/SUM(NOT(COUNTIF(EP156,"0%")),NOT(COUNTIF(EP102,"0%"))),0) &amp; "%"</f>
+        <f>((EP156 + EP102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ157" s="15"/>
@@ -68599,7 +68599,7 @@
       <c r="ES157" s="9"/>
       <c r="ET157" s="9"/>
       <c r="EU157" s="9" t="str">
-        <f>IF(SUM(EU156,EU102),SUM(EU156,EU102)/SUM(NOT(COUNTIF(EU156,"0%")),NOT(COUNTIF(EU102,"0%"))),0) &amp; "%"</f>
+        <f>((EU156 + EU102)/2)*100 &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV157" s="3"/>
@@ -68919,14 +68919,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -69141,6 +69133,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -69151,23 +69151,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69186,6 +69169,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58EC4A0-E4AE-4ED7-9825-094DEA5B3DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4D034-6272-418A-995C-A80AE3E90E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32805" yWindow="2535" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1046,10 +1046,10 @@
   <dimension ref="A1:EV159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S113" sqref="S113"/>
+      <selection pane="bottomRight" activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,19 +1989,19 @@
       <c r="B5" s="2"/>
       <c r="C5" s="1">
         <f>SUM(H5,M5,R5,W5,AB5,AG5,AL5,AQ5,AV5,BA5,BF5,BK5,BP5,BU5,BZ5,CE5,CJ5,CO5,CT5,CY5,DD5,DI5,DN5,DS5,DX5,EC5,EH5,EM5,ER5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:E20" si="0">SUM(I5,N5,S5,X5,AC5,AH5,AM5,AR5,AW5,BB5,BG5,BL5,BQ5,BV5,CA5,CF5,CK5,CP5,CU5,CZ5,DE5,DJ5,DO5,DT5,DY5,ED5,EI5,EN5,ES5)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1" t="str">
         <f>IF(C5,D5/C5*100,0) &amp; "%"</f>
-        <v>60%</v>
+        <v>0%</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="1">
@@ -2036,17 +2036,17 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="1">
         <f>SUM(S5,T5)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1" t="str">
         <f>IF(R5,S5/R5*100,0) &amp; "%"</f>
-        <v>60%</v>
+        <v>0%</v>
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="1">
@@ -3363,11 +3363,11 @@
       <c r="B8" s="2"/>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="1">
@@ -3500,17 +3500,17 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="1">
         <f t="shared" si="19"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
         <v>0</v>
       </c>
       <c r="AY8" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="1">
@@ -27637,11 +27637,11 @@
       <c r="B61" s="2"/>
       <c r="C61" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" si="61"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
         <f t="shared" si="62"/>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="F61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="1">
@@ -27684,17 +27684,17 @@
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S61" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T61" s="1">
         <v>0</v>
       </c>
       <c r="U61" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V61" s="2"/>
       <c r="W61" s="1">
@@ -33133,19 +33133,19 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>92.5925925925926%</v>
+        <v>0%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33184,19 +33184,19 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
         <f>SUM(S5:S72)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <f>SUM(T5:T72)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>71.4285714285714%</v>
+        <v>0%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
@@ -33286,11 +33286,11 @@
       <c r="AU73" s="2"/>
       <c r="AV73" s="1">
         <f t="shared" si="81"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="1">
         <f>SUM(AW5:AW72)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX73" s="1">
         <f>SUM(AX5:AX72)</f>
@@ -33298,7 +33298,7 @@
       </c>
       <c r="AY73" s="1" t="str">
         <f t="shared" si="82"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ73" s="2"/>
       <c r="BA73" s="1">
@@ -38933,7 +38933,7 @@
       <c r="B87" s="5"/>
       <c r="C87" s="2">
         <f t="shared" si="127"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2">
         <f t="shared" si="125"/>
@@ -38941,7 +38941,7 @@
       </c>
       <c r="E87" s="2">
         <f t="shared" si="125"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="126"/>
@@ -38980,13 +38980,13 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="2">
         <f t="shared" si="132"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87" s="2">
         <v>0</v>
       </c>
       <c r="T87" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" s="2" t="str">
         <f t="shared" si="133"/>
@@ -42139,11 +42139,11 @@
       <c r="B94" s="5"/>
       <c r="C94" s="2">
         <f t="shared" si="127"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" si="186"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" si="187"/>
@@ -42151,7 +42151,7 @@
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="126"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="2">
@@ -42276,17 +42276,17 @@
       <c r="AU94" s="5"/>
       <c r="AV94" s="2">
         <f t="shared" si="144"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW94" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX94" s="2">
         <v>0</v>
       </c>
       <c r="AY94" s="2" t="str">
         <f t="shared" si="145"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ94" s="5"/>
       <c r="BA94" s="2">
@@ -44429,19 +44429,19 @@
       <c r="B99" s="5"/>
       <c r="C99" s="2">
         <f t="shared" ref="C99:E99" si="188">SUM(H99,M99,R99,W99,AB99,AG99,AL99,AQ99,AV99,BA99,BF99,BK99,BP99,BU99,BZ99,CE99,CJ99,CO99,CT99,CY99,DD99,DI99,DN99,DS99,DX99,EC99,EH99,EM99)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D99" s="2">
         <f t="shared" si="188"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2">
         <f t="shared" si="188"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="str">
         <f>IF(C99,D99/C99*100,0) &amp; "%"</f>
-        <v>83.3333333333333%</v>
+        <v>0%</v>
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="2">
@@ -44480,7 +44480,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="2">
         <f t="shared" si="132"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99" s="2">
         <f>SUM(S77:S98)</f>
@@ -44488,7 +44488,7 @@
       </c>
       <c r="T99" s="2">
         <f>SUM(T77:T98)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" s="2" t="str">
         <f>IF(R99,S99/R99*100,0) &amp; "%"</f>
@@ -44582,11 +44582,11 @@
       <c r="AU99" s="5"/>
       <c r="AV99" s="2">
         <f t="shared" si="144"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW99" s="2">
         <f>SUM(AW77:AW98)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX99" s="2">
         <f>SUM(AX77:AX98)</f>
@@ -44594,7 +44594,7 @@
       </c>
       <c r="AY99" s="2" t="str">
         <f>IF(AV99,AW99/AV99*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ99" s="5"/>
       <c r="BA99" s="2">
@@ -45258,7 +45258,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>90.9090909090909%</v>
+        <v>0%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
@@ -45288,7 +45288,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="str">
         <f>IF(SUM(S73,S99),SUM(S73,S99)*100/SUM(R73,R99),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>0%</v>
       </c>
       <c r="V102" s="10"/>
       <c r="W102" s="9" t="s">
@@ -45348,7 +45348,7 @@
       <c r="AX102" s="9"/>
       <c r="AY102" s="9" t="str">
         <f>IF(SUM(AW73,AW99),SUM(AW73,AW99)*100/SUM(AV73,AV99),0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ102" s="10"/>
       <c r="BA102" s="9" t="s">
@@ -49469,11 +49469,11 @@
       <c r="B113" s="8"/>
       <c r="C113" s="7">
         <f t="shared" si="191"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D113" s="7">
         <f t="shared" si="189"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E113" s="7">
         <f t="shared" si="189"/>
@@ -49481,7 +49481,7 @@
       </c>
       <c r="F113" s="7" t="str">
         <f t="shared" si="190"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="7">
@@ -49516,17 +49516,17 @@
       <c r="Q113" s="8"/>
       <c r="R113" s="7">
         <f t="shared" si="196"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S113" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T113" s="7">
         <v>0</v>
       </c>
       <c r="U113" s="7" t="str">
         <f t="shared" si="197"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V113" s="8"/>
       <c r="W113" s="7">
@@ -56339,11 +56339,11 @@
       <c r="B128" s="8"/>
       <c r="C128" s="7">
         <f t="shared" si="191"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" s="7">
         <f t="shared" si="250"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="7">
         <f t="shared" si="251"/>
@@ -56351,7 +56351,7 @@
       </c>
       <c r="F128" s="7" t="str">
         <f t="shared" si="190"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="7">
@@ -56476,17 +56476,17 @@
       <c r="AU128" s="8"/>
       <c r="AV128" s="7">
         <f t="shared" si="208"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW128" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX128" s="7">
         <v>0</v>
       </c>
       <c r="AY128" s="7" t="str">
         <f t="shared" si="209"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ128" s="8"/>
       <c r="BA128" s="7">
@@ -57255,11 +57255,11 @@
       <c r="B130" s="8"/>
       <c r="C130" s="7">
         <f>SUM(C106:C129)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D130" s="7">
         <f>SUM(D106:D129)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E130" s="7">
         <f>SUM(E106:E129)</f>
@@ -57267,7 +57267,7 @@
       </c>
       <c r="F130" s="7" t="str">
         <f>IF(C130,D130/C130*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="7">
@@ -57306,11 +57306,11 @@
       <c r="Q130" s="8"/>
       <c r="R130" s="7">
         <f>SUM(R106:R129)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S130" s="7">
         <f>SUM(S106:S129)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T130" s="7">
         <f>SUM(T106:T129)</f>
@@ -57318,7 +57318,7 @@
       </c>
       <c r="U130" s="7" t="str">
         <f>IF(R130,S130/R130*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V130" s="8"/>
       <c r="W130" s="7">
@@ -57408,11 +57408,11 @@
       <c r="AU130" s="8"/>
       <c r="AV130" s="7">
         <f>SUM(AV106:AV129)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW130" s="7">
         <f>SUM(AW106:AW129)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX130" s="7">
         <f>SUM(AX106:AX129)</f>
@@ -57420,7 +57420,7 @@
       </c>
       <c r="AY130" s="7" t="str">
         <f>IF(AV130,AW130/AV130*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ130" s="8"/>
       <c r="BA130" s="7">
@@ -58933,7 +58933,7 @@
       <c r="B135" s="11"/>
       <c r="C135" s="12">
         <f t="shared" ref="C135:C152" si="254">SUM(H135,M135,R135,W135,AB135,AG135,AL135,AQ135,AV135,BA135,BF135,BK135,BP135,BU135,BZ135,CE135,CJ135,CO135,CT135,CY135,DD135,DI135,DN135,DS135,DX135,EC135,EH135,EM135,ER135)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D135" s="12">
         <f t="shared" si="252"/>
@@ -58941,7 +58941,7 @@
       </c>
       <c r="E135" s="12">
         <f t="shared" si="252"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F135" s="13" t="str">
         <f t="shared" si="253"/>
@@ -58980,13 +58980,13 @@
       <c r="Q135" s="11"/>
       <c r="R135" s="12">
         <f t="shared" ref="R135:R152" si="259">+SUM(S135,T135)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S135" s="13">
         <v>0</v>
       </c>
       <c r="T135" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U135" s="13" t="str">
         <f t="shared" ref="U135:U152" si="260">IF(R135,S135/R135*100,0) &amp; "%"</f>
@@ -65345,11 +65345,11 @@
       <c r="B149" s="11"/>
       <c r="C149" s="12">
         <f t="shared" si="254"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" s="12">
         <f t="shared" si="252"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" s="12">
         <f t="shared" si="252"/>
@@ -65357,7 +65357,7 @@
       </c>
       <c r="F149" s="13" t="str">
         <f t="shared" si="253"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="12">
@@ -65482,17 +65482,17 @@
       <c r="AU149" s="11"/>
       <c r="AV149" s="12">
         <f t="shared" si="271"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW149" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX149" s="13">
         <v>0</v>
       </c>
       <c r="AY149" s="13" t="str">
         <f t="shared" si="272"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="AZ149" s="11"/>
       <c r="BA149" s="12">
@@ -67175,25 +67175,25 @@
         <v>98</v>
       </c>
       <c r="B153" s="11"/>
-      <c r="C153" s="12">
-        <f>SUM(C134:C151)</f>
-        <v>3</v>
+      <c r="C153" s="13">
+        <f>SUM(C134:C152)</f>
+        <v>0</v>
       </c>
       <c r="D153" s="12">
         <f>SUM(D134:D151)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="12">
         <f>SUM(E134:E151)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F153" s="13" t="str">
         <f>IF(C153,D153/C153*100,0) &amp; "%"</f>
-        <v>33.3333333333333%</v>
+        <v>0%</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="13">
-        <f>SUM(H129:H152)</f>
+        <f>SUM(H134:H152)</f>
         <v>0</v>
       </c>
       <c r="I153" s="12">
@@ -67210,7 +67210,7 @@
       </c>
       <c r="L153" s="11"/>
       <c r="M153" s="13">
-        <f>SUM(M129:M152)</f>
+        <f>SUM(M134:M152)</f>
         <v>0</v>
       </c>
       <c r="N153" s="12">
@@ -67227,8 +67227,8 @@
       </c>
       <c r="Q153" s="11"/>
       <c r="R153" s="13">
-        <f>SUM(R129:R152)</f>
-        <v>5</v>
+        <f>SUM(R134:R152)</f>
+        <v>0</v>
       </c>
       <c r="S153" s="12">
         <f>SUM(S134:S151)</f>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="T153" s="12">
         <f>SUM(T134:T151)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U153" s="13" t="str">
         <f>IF(R153,S153/R153*100,0) &amp; "%"</f>
@@ -67244,7 +67244,7 @@
       </c>
       <c r="V153" s="11"/>
       <c r="W153" s="13">
-        <f>SUM(W129:W152)</f>
+        <f>SUM(W134:W152)</f>
         <v>0</v>
       </c>
       <c r="X153" s="12">
@@ -67261,7 +67261,7 @@
       </c>
       <c r="AA153" s="11"/>
       <c r="AB153" s="13">
-        <f>SUM(AB129:AB152)</f>
+        <f>SUM(AB134:AB152)</f>
         <v>0</v>
       </c>
       <c r="AC153" s="12">
@@ -67278,7 +67278,7 @@
       </c>
       <c r="AF153" s="11"/>
       <c r="AG153" s="13">
-        <f>SUM(AG129:AG152)</f>
+        <f>SUM(AG134:AG152)</f>
         <v>0</v>
       </c>
       <c r="AH153" s="12">
@@ -67295,7 +67295,7 @@
       </c>
       <c r="AK153" s="11"/>
       <c r="AL153" s="13">
-        <f>SUM(AL129:AL152)</f>
+        <f>SUM(AL134:AL152)</f>
         <v>0</v>
       </c>
       <c r="AM153" s="12">
@@ -67312,7 +67312,7 @@
       </c>
       <c r="AP153" s="11"/>
       <c r="AQ153" s="13">
-        <f>SUM(AQ129:AQ152)</f>
+        <f>SUM(AQ134:AQ152)</f>
         <v>0</v>
       </c>
       <c r="AR153" s="12">
@@ -67329,12 +67329,12 @@
       </c>
       <c r="AU153" s="11"/>
       <c r="AV153" s="13">
-        <f>SUM(AV129:AV152)</f>
-        <v>2</v>
+        <f>SUM(AV134:AV152)</f>
+        <v>0</v>
       </c>
       <c r="AW153" s="12">
         <f>SUM(AW134:AW151)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX153" s="12">
         <f>SUM(AX134:AX151)</f>
@@ -67342,11 +67342,11 @@
       </c>
       <c r="AY153" s="13" t="str">
         <f>IF(AV153,AW153/AV153*100,0) &amp; "%"</f>
-        <v>50%</v>
+        <v>0%</v>
       </c>
       <c r="AZ153" s="11"/>
       <c r="BA153" s="13">
-        <f>SUM(BA129:BA152)</f>
+        <f>SUM(BA134:BA152)</f>
         <v>0</v>
       </c>
       <c r="BB153" s="12">
@@ -67363,7 +67363,7 @@
       </c>
       <c r="BE153" s="11"/>
       <c r="BF153" s="13">
-        <f>SUM(BF129:BF152)</f>
+        <f>SUM(BF134:BF152)</f>
         <v>0</v>
       </c>
       <c r="BG153" s="12">
@@ -67380,7 +67380,7 @@
       </c>
       <c r="BJ153" s="11"/>
       <c r="BK153" s="13">
-        <f>SUM(BK129:BK152)</f>
+        <f>SUM(BK134:BK152)</f>
         <v>0</v>
       </c>
       <c r="BL153" s="12">
@@ -67397,7 +67397,7 @@
       </c>
       <c r="BO153" s="11"/>
       <c r="BP153" s="13">
-        <f>SUM(BP129:BP152)</f>
+        <f>SUM(BP134:BP152)</f>
         <v>0</v>
       </c>
       <c r="BQ153" s="12">
@@ -67414,7 +67414,7 @@
       </c>
       <c r="BT153" s="11"/>
       <c r="BU153" s="13">
-        <f>SUM(BU129:BU152)</f>
+        <f>SUM(BU134:BU152)</f>
         <v>0</v>
       </c>
       <c r="BV153" s="12">
@@ -67431,7 +67431,7 @@
       </c>
       <c r="BY153" s="11"/>
       <c r="BZ153" s="13">
-        <f>SUM(BZ129:BZ152)</f>
+        <f>SUM(BZ134:BZ152)</f>
         <v>0</v>
       </c>
       <c r="CA153" s="12">
@@ -67448,7 +67448,7 @@
       </c>
       <c r="CD153" s="11"/>
       <c r="CE153" s="13">
-        <f>SUM(CE129:CE152)</f>
+        <f>SUM(CE134:CE152)</f>
         <v>0</v>
       </c>
       <c r="CF153" s="12">
@@ -67465,7 +67465,7 @@
       </c>
       <c r="CI153" s="11"/>
       <c r="CJ153" s="13">
-        <f>SUM(CJ129:CJ152)</f>
+        <f>SUM(CJ134:CJ152)</f>
         <v>0</v>
       </c>
       <c r="CK153" s="12">
@@ -67482,7 +67482,7 @@
       </c>
       <c r="CN153" s="11"/>
       <c r="CO153" s="13">
-        <f>SUM(CO129:CO152)</f>
+        <f>SUM(CO134:CO152)</f>
         <v>0</v>
       </c>
       <c r="CP153" s="12">
@@ -67499,7 +67499,7 @@
       </c>
       <c r="CS153" s="11"/>
       <c r="CT153" s="13">
-        <f>SUM(CT129:CT152)</f>
+        <f>SUM(CT134:CT152)</f>
         <v>0</v>
       </c>
       <c r="CU153" s="12">
@@ -67516,7 +67516,7 @@
       </c>
       <c r="CX153" s="11"/>
       <c r="CY153" s="13">
-        <f>SUM(CY129:CY152)</f>
+        <f>SUM(CY134:CY152)</f>
         <v>0</v>
       </c>
       <c r="CZ153" s="12">
@@ -67533,7 +67533,7 @@
       </c>
       <c r="DC153" s="11"/>
       <c r="DD153" s="13">
-        <f>SUM(DD129:DD152)</f>
+        <f>SUM(DD134:DD152)</f>
         <v>0</v>
       </c>
       <c r="DE153" s="12">
@@ -67550,7 +67550,7 @@
       </c>
       <c r="DH153" s="11"/>
       <c r="DI153" s="13">
-        <f>SUM(DI129:DI152)</f>
+        <f>SUM(DI134:DI152)</f>
         <v>0</v>
       </c>
       <c r="DJ153" s="12">
@@ -67567,7 +67567,7 @@
       </c>
       <c r="DM153" s="11"/>
       <c r="DN153" s="13">
-        <f>SUM(DN129:DN152)</f>
+        <f>SUM(DN134:DN152)</f>
         <v>0</v>
       </c>
       <c r="DO153" s="12">
@@ -67584,7 +67584,7 @@
       </c>
       <c r="DR153" s="11"/>
       <c r="DS153" s="13">
-        <f>SUM(DS129:DS152)</f>
+        <f>SUM(DS134:DS152)</f>
         <v>0</v>
       </c>
       <c r="DT153" s="12">
@@ -67601,7 +67601,7 @@
       </c>
       <c r="DW153" s="11"/>
       <c r="DX153" s="13">
-        <f>SUM(DX129:DX152)</f>
+        <f>SUM(DX134:DX152)</f>
         <v>0</v>
       </c>
       <c r="DY153" s="12">
@@ -67618,7 +67618,7 @@
       </c>
       <c r="EB153" s="11"/>
       <c r="EC153" s="13">
-        <f>SUM(EC129:EC152)</f>
+        <f>SUM(EC134:EC152)</f>
         <v>0</v>
       </c>
       <c r="ED153" s="12">
@@ -67635,7 +67635,7 @@
       </c>
       <c r="EG153" s="11"/>
       <c r="EH153" s="13">
-        <f>SUM(EH129:EH152)</f>
+        <f>SUM(EH134:EH152)</f>
         <v>0</v>
       </c>
       <c r="EI153" s="12">
@@ -67652,7 +67652,7 @@
       </c>
       <c r="EL153" s="11"/>
       <c r="EM153" s="13">
-        <f>SUM(EM129:EM152)</f>
+        <f>SUM(EM134:EM152)</f>
         <v>0</v>
       </c>
       <c r="EN153" s="12">
@@ -67669,7 +67669,7 @@
       </c>
       <c r="EQ153" s="14"/>
       <c r="ER153" s="13">
-        <f>SUM(ER129:ER152)</f>
+        <f>SUM(ER134:ER152)</f>
         <v>0</v>
       </c>
       <c r="ES153" s="12">
@@ -68006,7 +68006,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="str">
         <f>IF(SUM(D130,D153),SUM(D130,D153)*100/SUM(C130,C153),0) &amp; "%"</f>
-        <v>71.4285714285714%</v>
+        <v>0%</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9" t="s">
@@ -68036,7 +68036,7 @@
       <c r="T156" s="9"/>
       <c r="U156" s="9" t="str">
         <f>IF(SUM(S130,S153),SUM(S130,S153)*100/SUM(R130,R153),0) &amp; "%"</f>
-        <v>37.5%</v>
+        <v>0%</v>
       </c>
       <c r="V156" s="10"/>
       <c r="W156" s="9" t="s">
@@ -68096,7 +68096,7 @@
       <c r="AX156" s="9"/>
       <c r="AY156" s="9" t="str">
         <f>IF(SUM(AW130,AW153),SUM(AW130,AW153)*100/SUM(AV130,AV153),0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <v>0%</v>
       </c>
       <c r="AZ156" s="10"/>
       <c r="BA156" s="9" t="s">
@@ -68310,7 +68310,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="str">
         <f>((F156 + F102)/2)*100 &amp; "%"</f>
-        <v>81.1688311688311%</v>
+        <v>0%</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
@@ -68340,7 +68340,7 @@
       <c r="T157" s="9"/>
       <c r="U157" s="9" t="str">
         <f>((U156 + U102)/2)*100 &amp; "%"</f>
-        <v>50%</v>
+        <v>0%</v>
       </c>
       <c r="V157" s="10"/>
       <c r="W157" s="9" t="s">
@@ -68400,7 +68400,7 @@
       <c r="AX157" s="9"/>
       <c r="AY157" s="9" t="str">
         <f>((AY156 + AY102)/2)*100 &amp; "%"</f>
-        <v>83.3333333333333%</v>
+        <v>0%</v>
       </c>
       <c r="AZ157" s="10"/>
       <c r="BA157" s="9" t="s">
@@ -68919,6 +68919,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -69133,14 +69141,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -69151,6 +69151,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69169,23 +69186,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB4D034-6272-418A-995C-A80AE3E90E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D6CB0-3C09-41F0-9699-9C355B4258C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="180">
   <si>
     <t>Players</t>
   </si>
@@ -574,6 +574,9 @@
   <si>
     <t>Total Average win%</t>
   </si>
+  <si>
+    <t>Total Played</t>
+  </si>
 </sst>
 </file>
 
@@ -1043,13 +1046,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C8A5E5A-9AF3-4435-B5F4-E9654445F5CB}">
-  <dimension ref="A1:EV159"/>
+  <dimension ref="A1:EV160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P162" sqref="P162"/>
+      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,11 +2908,11 @@
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -2917,7 +2920,7 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1">
@@ -2952,17 +2955,17 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S7" s="1">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
@@ -33133,11 +33136,11 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
@@ -33145,7 +33148,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33184,11 +33187,11 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="S73" s="1">
         <f>SUM(S5:S72)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="T73" s="1">
         <f>SUM(T5:T72)</f>
@@ -33196,7 +33199,7 @@
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
@@ -45258,7 +45261,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
@@ -45288,7 +45291,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="str">
         <f>IF(SUM(S73,S99),SUM(S73,S99)*100/SUM(R73,R99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V102" s="10"/>
       <c r="W102" s="9" t="s">
@@ -68310,7 +68313,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="str">
         <f>((F156 + F102)/2)*100 &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
@@ -68340,7 +68343,7 @@
       <c r="T157" s="9"/>
       <c r="U157" s="9" t="str">
         <f>((U156 + U102)/2)*100 &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="V157" s="10"/>
       <c r="W157" s="9" t="s">
@@ -68605,157 +68608,307 @@
       <c r="EV157" s="3"/>
     </row>
     <row r="158" spans="1:152" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
-      <c r="K158" s="3"/>
-      <c r="L158" s="3"/>
-      <c r="M158" s="3"/>
-      <c r="N158" s="3"/>
-      <c r="O158" s="3"/>
-      <c r="P158" s="3"/>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="3"/>
-      <c r="S158" s="3"/>
-      <c r="T158" s="3"/>
-      <c r="U158" s="3"/>
-      <c r="V158" s="3"/>
-      <c r="W158" s="3"/>
-      <c r="X158" s="3"/>
-      <c r="Y158" s="3"/>
-      <c r="Z158" s="3"/>
-      <c r="AA158" s="3"/>
-      <c r="AB158" s="3"/>
-      <c r="AC158" s="3"/>
-      <c r="AD158" s="3"/>
-      <c r="AE158" s="3"/>
-      <c r="AF158" s="3"/>
-      <c r="AG158" s="3"/>
-      <c r="AH158" s="3"/>
-      <c r="AI158" s="3"/>
-      <c r="AJ158" s="3"/>
-      <c r="AK158" s="3"/>
-      <c r="AL158" s="3"/>
-      <c r="AM158" s="3"/>
-      <c r="AN158" s="3"/>
-      <c r="AO158" s="3"/>
-      <c r="AP158" s="3"/>
-      <c r="AQ158" s="3"/>
-      <c r="AR158" s="3"/>
-      <c r="AS158" s="3"/>
-      <c r="AT158" s="3"/>
-      <c r="AU158" s="3"/>
-      <c r="AV158" s="3"/>
-      <c r="AW158" s="3"/>
-      <c r="AX158" s="3"/>
-      <c r="AY158" s="3"/>
-      <c r="AZ158" s="3"/>
-      <c r="BA158" s="3"/>
-      <c r="BB158" s="3"/>
-      <c r="BC158" s="3"/>
-      <c r="BD158" s="3"/>
-      <c r="BE158" s="3"/>
-      <c r="BF158" s="3"/>
-      <c r="BG158" s="3"/>
-      <c r="BH158" s="3"/>
-      <c r="BI158" s="3"/>
-      <c r="BJ158" s="3"/>
-      <c r="BK158" s="3"/>
-      <c r="BL158" s="3"/>
-      <c r="BM158" s="3"/>
-      <c r="BN158" s="3"/>
-      <c r="BO158" s="3"/>
-      <c r="BP158" s="3"/>
-      <c r="BQ158" s="3"/>
-      <c r="BR158" s="3"/>
-      <c r="BS158" s="3"/>
-      <c r="BT158" s="3"/>
-      <c r="BU158" s="3"/>
-      <c r="BV158" s="3"/>
-      <c r="BW158" s="3"/>
-      <c r="BX158" s="3"/>
-      <c r="BY158" s="3"/>
-      <c r="BZ158" s="3"/>
-      <c r="CA158" s="3"/>
-      <c r="CB158" s="3"/>
-      <c r="CC158" s="3"/>
-      <c r="CD158" s="3"/>
-      <c r="CE158" s="3"/>
-      <c r="CF158" s="3"/>
-      <c r="CG158" s="3"/>
-      <c r="CH158" s="3"/>
-      <c r="CI158" s="3"/>
-      <c r="CJ158" s="3"/>
-      <c r="CK158" s="3"/>
-      <c r="CL158" s="3"/>
-      <c r="CM158" s="3"/>
-      <c r="CN158" s="3"/>
-      <c r="CO158" s="3"/>
-      <c r="CP158" s="3"/>
-      <c r="CQ158" s="3"/>
-      <c r="CR158" s="3"/>
-      <c r="CS158" s="3"/>
-      <c r="CT158" s="3"/>
-      <c r="CU158" s="3"/>
-      <c r="CV158" s="3"/>
-      <c r="CW158" s="3"/>
-      <c r="CX158" s="3"/>
-      <c r="CY158" s="3"/>
-      <c r="CZ158" s="3"/>
-      <c r="DA158" s="3"/>
-      <c r="DB158" s="3"/>
-      <c r="DC158" s="3"/>
-      <c r="DD158" s="3"/>
-      <c r="DE158" s="3"/>
-      <c r="DF158" s="3"/>
-      <c r="DG158" s="3"/>
-      <c r="DH158" s="3"/>
-      <c r="DI158" s="3"/>
-      <c r="DJ158" s="3"/>
-      <c r="DK158" s="3"/>
-      <c r="DL158" s="3"/>
-      <c r="DM158" s="3"/>
-      <c r="DN158" s="3"/>
-      <c r="DO158" s="3"/>
-      <c r="DP158" s="3"/>
-      <c r="DQ158" s="3"/>
-      <c r="DR158" s="3"/>
-      <c r="DS158" s="3"/>
-      <c r="DT158" s="3"/>
-      <c r="DU158" s="3"/>
-      <c r="DV158" s="3"/>
-      <c r="DW158" s="3"/>
-      <c r="DX158" s="3"/>
-      <c r="DY158" s="3"/>
-      <c r="DZ158" s="3"/>
-      <c r="EA158" s="3"/>
-      <c r="EB158" s="3"/>
-      <c r="EC158" s="3"/>
-      <c r="ED158" s="3"/>
-      <c r="EE158" s="3"/>
-      <c r="EF158" s="3"/>
-      <c r="EG158" s="3"/>
-      <c r="EH158" s="3"/>
-      <c r="EI158" s="3"/>
-      <c r="EJ158" s="3"/>
-      <c r="EK158" s="3"/>
-      <c r="EL158" s="3"/>
-      <c r="EM158" s="3"/>
-      <c r="EN158" s="3"/>
-      <c r="EO158" s="3"/>
-      <c r="EP158" s="3"/>
-      <c r="EQ158" s="3"/>
-      <c r="ER158" s="3"/>
-      <c r="ES158" s="3"/>
-      <c r="ET158" s="3"/>
-      <c r="EU158" s="3"/>
+      <c r="A158" s="9"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="9">
+        <f>+SUM(C153,C130,C99,C73)</f>
+        <v>61</v>
+      </c>
+      <c r="G158" s="10"/>
+      <c r="H158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I158" s="9"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="9">
+        <f>+SUM(H153,H130,H99,H73)</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="10"/>
+      <c r="M158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9">
+        <f>+SUM(M153,M130,M99,M73)</f>
+        <v>0</v>
+      </c>
+      <c r="Q158" s="10"/>
+      <c r="R158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
+      <c r="U158" s="9">
+        <f>+SUM(R153,R130,R99,R73)</f>
+        <v>61</v>
+      </c>
+      <c r="V158" s="10"/>
+      <c r="W158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="X158" s="9"/>
+      <c r="Y158" s="9"/>
+      <c r="Z158" s="9">
+        <f>+SUM(W153,W130,W99,W73)</f>
+        <v>0</v>
+      </c>
+      <c r="AA158" s="10"/>
+      <c r="AB158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC158" s="9"/>
+      <c r="AD158" s="9"/>
+      <c r="AE158" s="9">
+        <f>+SUM(AB153,AB130,AB99,AB73)</f>
+        <v>0</v>
+      </c>
+      <c r="AF158" s="10"/>
+      <c r="AG158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH158" s="9"/>
+      <c r="AI158" s="9"/>
+      <c r="AJ158" s="9">
+        <f>+SUM(AG153,AG130,AG99,AG73)</f>
+        <v>0</v>
+      </c>
+      <c r="AK158" s="10"/>
+      <c r="AL158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AM158" s="9"/>
+      <c r="AN158" s="9"/>
+      <c r="AO158" s="9">
+        <f>+SUM(AL153,AL130,AL99,AL73)</f>
+        <v>0</v>
+      </c>
+      <c r="AP158" s="10"/>
+      <c r="AQ158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AR158" s="9"/>
+      <c r="AS158" s="9"/>
+      <c r="AT158" s="9">
+        <f>+SUM(AQ153,AQ130,AQ99,AQ73)</f>
+        <v>0</v>
+      </c>
+      <c r="AU158" s="10"/>
+      <c r="AV158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW158" s="9"/>
+      <c r="AX158" s="9"/>
+      <c r="AY158" s="9">
+        <f>+SUM(AV153,AV130,AV99,AV73)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ158" s="10"/>
+      <c r="BA158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB158" s="9"/>
+      <c r="BC158" s="9"/>
+      <c r="BD158" s="9">
+        <f>+SUM(BA153,BA130,BA99,BA73)</f>
+        <v>0</v>
+      </c>
+      <c r="BE158" s="10"/>
+      <c r="BF158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BG158" s="9"/>
+      <c r="BH158" s="9"/>
+      <c r="BI158" s="9">
+        <f>+SUM(BF153,BF130,BF99,BF73)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ158" s="10"/>
+      <c r="BK158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL158" s="9"/>
+      <c r="BM158" s="9"/>
+      <c r="BN158" s="9">
+        <f>+SUM(BK153,BK130,BK99,BK73)</f>
+        <v>0</v>
+      </c>
+      <c r="BO158" s="10"/>
+      <c r="BP158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BQ158" s="9"/>
+      <c r="BR158" s="9"/>
+      <c r="BS158" s="9">
+        <f>+SUM(BP153,BP130,BP99,BP73)</f>
+        <v>0</v>
+      </c>
+      <c r="BT158" s="10"/>
+      <c r="BU158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV158" s="9"/>
+      <c r="BW158" s="9"/>
+      <c r="BX158" s="9">
+        <f>+SUM(BU153,BU130,BU99,BU73)</f>
+        <v>0</v>
+      </c>
+      <c r="BY158" s="10"/>
+      <c r="BZ158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA158" s="9"/>
+      <c r="CB158" s="9"/>
+      <c r="CC158" s="9">
+        <f>+SUM(BZ153,BZ130,BZ99,BZ73)</f>
+        <v>0</v>
+      </c>
+      <c r="CD158" s="10"/>
+      <c r="CE158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CF158" s="9"/>
+      <c r="CG158" s="9"/>
+      <c r="CH158" s="9">
+        <f>+SUM(CE153,CE130,CE99,CE73)</f>
+        <v>0</v>
+      </c>
+      <c r="CI158" s="10"/>
+      <c r="CJ158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CK158" s="9"/>
+      <c r="CL158" s="9"/>
+      <c r="CM158" s="9">
+        <f>+SUM(CJ153,CJ130,CJ99,CJ73)</f>
+        <v>0</v>
+      </c>
+      <c r="CN158" s="10"/>
+      <c r="CO158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CP158" s="9"/>
+      <c r="CQ158" s="9"/>
+      <c r="CR158" s="9">
+        <f>+SUM(CO153,CO130,CO99,CO73)</f>
+        <v>0</v>
+      </c>
+      <c r="CS158" s="10"/>
+      <c r="CT158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CU158" s="9"/>
+      <c r="CV158" s="9"/>
+      <c r="CW158" s="9">
+        <f>+SUM(CT153,CT130,CT99,CT73)</f>
+        <v>0</v>
+      </c>
+      <c r="CX158" s="10"/>
+      <c r="CY158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="CZ158" s="9"/>
+      <c r="DA158" s="9"/>
+      <c r="DB158" s="9">
+        <f>+SUM(CY153,CY130,CY99,CY73)</f>
+        <v>0</v>
+      </c>
+      <c r="DC158" s="10"/>
+      <c r="DD158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DE158" s="9"/>
+      <c r="DF158" s="9"/>
+      <c r="DG158" s="9">
+        <f>+SUM(DD153,DD130,DD99,DD73)</f>
+        <v>0</v>
+      </c>
+      <c r="DH158" s="10"/>
+      <c r="DI158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DJ158" s="9"/>
+      <c r="DK158" s="9"/>
+      <c r="DL158" s="9">
+        <f>+SUM(DI153,DI130,DI99,DI73)</f>
+        <v>0</v>
+      </c>
+      <c r="DM158" s="10"/>
+      <c r="DN158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DO158" s="9"/>
+      <c r="DP158" s="9"/>
+      <c r="DQ158" s="9">
+        <f>+SUM(DN153,DN130,DN99,DN73)</f>
+        <v>0</v>
+      </c>
+      <c r="DR158" s="10"/>
+      <c r="DS158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DT158" s="9"/>
+      <c r="DU158" s="9"/>
+      <c r="DV158" s="9">
+        <f>+SUM(DS153,DS130,DS99,DS73)</f>
+        <v>0</v>
+      </c>
+      <c r="DW158" s="10"/>
+      <c r="DX158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="DY158" s="9"/>
+      <c r="DZ158" s="9"/>
+      <c r="EA158" s="9">
+        <f>+SUM(DX153,DX130,DX99,DX73)</f>
+        <v>0</v>
+      </c>
+      <c r="EB158" s="10"/>
+      <c r="EC158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="ED158" s="9"/>
+      <c r="EE158" s="9"/>
+      <c r="EF158" s="9">
+        <f>+SUM(EC153,EC130,EC99,EC73)</f>
+        <v>0</v>
+      </c>
+      <c r="EG158" s="10"/>
+      <c r="EH158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EI158" s="9"/>
+      <c r="EJ158" s="9"/>
+      <c r="EK158" s="9">
+        <f>+SUM(EH153,EH130,EH99,EH73)</f>
+        <v>0</v>
+      </c>
+      <c r="EL158" s="10"/>
+      <c r="EM158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="EN158" s="9"/>
+      <c r="EO158" s="9"/>
+      <c r="EP158" s="9">
+        <f>+SUM(EM153,EM130,EM99,EM73)</f>
+        <v>0</v>
+      </c>
+      <c r="EQ158" s="15"/>
+      <c r="ER158" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="ES158" s="9"/>
+      <c r="ET158" s="9"/>
+      <c r="EU158" s="9">
+        <f>+SUM(ER153,ER130,ER99,ER73)</f>
+        <v>0</v>
+      </c>
       <c r="EV158" s="3"/>
     </row>
     <row r="159" spans="1:152" x14ac:dyDescent="0.25">
@@ -68912,6 +69065,160 @@
       <c r="EU159" s="3"/>
       <c r="EV159" s="3"/>
     </row>
+    <row r="160" spans="1:152" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="3"/>
+      <c r="J160" s="3"/>
+      <c r="K160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+      <c r="AC160" s="3"/>
+      <c r="AD160" s="3"/>
+      <c r="AE160" s="3"/>
+      <c r="AF160" s="3"/>
+      <c r="AG160" s="3"/>
+      <c r="AH160" s="3"/>
+      <c r="AI160" s="3"/>
+      <c r="AJ160" s="3"/>
+      <c r="AK160" s="3"/>
+      <c r="AL160" s="3"/>
+      <c r="AM160" s="3"/>
+      <c r="AN160" s="3"/>
+      <c r="AO160" s="3"/>
+      <c r="AP160" s="3"/>
+      <c r="AQ160" s="3"/>
+      <c r="AR160" s="3"/>
+      <c r="AS160" s="3"/>
+      <c r="AT160" s="3"/>
+      <c r="AU160" s="3"/>
+      <c r="AV160" s="3"/>
+      <c r="AW160" s="3"/>
+      <c r="AX160" s="3"/>
+      <c r="AY160" s="3"/>
+      <c r="AZ160" s="3"/>
+      <c r="BA160" s="3"/>
+      <c r="BB160" s="3"/>
+      <c r="BC160" s="3"/>
+      <c r="BD160" s="3"/>
+      <c r="BE160" s="3"/>
+      <c r="BF160" s="3"/>
+      <c r="BG160" s="3"/>
+      <c r="BH160" s="3"/>
+      <c r="BI160" s="3"/>
+      <c r="BJ160" s="3"/>
+      <c r="BK160" s="3"/>
+      <c r="BL160" s="3"/>
+      <c r="BM160" s="3"/>
+      <c r="BN160" s="3"/>
+      <c r="BO160" s="3"/>
+      <c r="BP160" s="3"/>
+      <c r="BQ160" s="3"/>
+      <c r="BR160" s="3"/>
+      <c r="BS160" s="3"/>
+      <c r="BT160" s="3"/>
+      <c r="BU160" s="3"/>
+      <c r="BV160" s="3"/>
+      <c r="BW160" s="3"/>
+      <c r="BX160" s="3"/>
+      <c r="BY160" s="3"/>
+      <c r="BZ160" s="3"/>
+      <c r="CA160" s="3"/>
+      <c r="CB160" s="3"/>
+      <c r="CC160" s="3"/>
+      <c r="CD160" s="3"/>
+      <c r="CE160" s="3"/>
+      <c r="CF160" s="3"/>
+      <c r="CG160" s="3"/>
+      <c r="CH160" s="3"/>
+      <c r="CI160" s="3"/>
+      <c r="CJ160" s="3"/>
+      <c r="CK160" s="3"/>
+      <c r="CL160" s="3"/>
+      <c r="CM160" s="3"/>
+      <c r="CN160" s="3"/>
+      <c r="CO160" s="3"/>
+      <c r="CP160" s="3"/>
+      <c r="CQ160" s="3"/>
+      <c r="CR160" s="3"/>
+      <c r="CS160" s="3"/>
+      <c r="CT160" s="3"/>
+      <c r="CU160" s="3"/>
+      <c r="CV160" s="3"/>
+      <c r="CW160" s="3"/>
+      <c r="CX160" s="3"/>
+      <c r="CY160" s="3"/>
+      <c r="CZ160" s="3"/>
+      <c r="DA160" s="3"/>
+      <c r="DB160" s="3"/>
+      <c r="DC160" s="3"/>
+      <c r="DD160" s="3"/>
+      <c r="DE160" s="3"/>
+      <c r="DF160" s="3"/>
+      <c r="DG160" s="3"/>
+      <c r="DH160" s="3"/>
+      <c r="DI160" s="3"/>
+      <c r="DJ160" s="3"/>
+      <c r="DK160" s="3"/>
+      <c r="DL160" s="3"/>
+      <c r="DM160" s="3"/>
+      <c r="DN160" s="3"/>
+      <c r="DO160" s="3"/>
+      <c r="DP160" s="3"/>
+      <c r="DQ160" s="3"/>
+      <c r="DR160" s="3"/>
+      <c r="DS160" s="3"/>
+      <c r="DT160" s="3"/>
+      <c r="DU160" s="3"/>
+      <c r="DV160" s="3"/>
+      <c r="DW160" s="3"/>
+      <c r="DX160" s="3"/>
+      <c r="DY160" s="3"/>
+      <c r="DZ160" s="3"/>
+      <c r="EA160" s="3"/>
+      <c r="EB160" s="3"/>
+      <c r="EC160" s="3"/>
+      <c r="ED160" s="3"/>
+      <c r="EE160" s="3"/>
+      <c r="EF160" s="3"/>
+      <c r="EG160" s="3"/>
+      <c r="EH160" s="3"/>
+      <c r="EI160" s="3"/>
+      <c r="EJ160" s="3"/>
+      <c r="EK160" s="3"/>
+      <c r="EL160" s="3"/>
+      <c r="EM160" s="3"/>
+      <c r="EN160" s="3"/>
+      <c r="EO160" s="3"/>
+      <c r="EP160" s="3"/>
+      <c r="EQ160" s="3"/>
+      <c r="ER160" s="3"/>
+      <c r="ES160" s="3"/>
+      <c r="ET160" s="3"/>
+      <c r="EU160" s="3"/>
+      <c r="EV160" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -68919,14 +69226,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -69141,6 +69440,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -69151,23 +69458,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69186,6 +69476,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D6CB0-3C09-41F0-9699-9C355B4258C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67841163-94C5-4357-8D5C-7AF2A756D470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-32805" yWindow="2535" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,16 +89,7 @@
     <t>Laurence</t>
   </si>
   <si>
-    <t>Ben (Dunblane)</t>
-  </si>
-  <si>
-    <t>Ben (Glasgow)</t>
-  </si>
-  <si>
     <t>Andy</t>
-  </si>
-  <si>
-    <t>Ben (the third)</t>
   </si>
   <si>
     <t>Carrick</t>
@@ -577,6 +568,15 @@
   <si>
     <t>Total Played</t>
   </si>
+  <si>
+    <t>BenN</t>
+  </si>
+  <si>
+    <t>BenS</t>
+  </si>
+  <si>
+    <t>Ben3</t>
+  </si>
 </sst>
 </file>
 
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:EV160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
@@ -1072,7 +1072,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1191,91 +1191,91 @@
       <c r="CI1" s="4"/>
       <c r="CJ1" s="4"/>
       <c r="CK1" s="4" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="CL1" s="4"/>
       <c r="CM1" s="4"/>
       <c r="CN1" s="4"/>
       <c r="CO1" s="4"/>
       <c r="CP1" s="4" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="CQ1" s="4"/>
       <c r="CR1" s="4"/>
       <c r="CS1" s="4"/>
       <c r="CT1" s="4"/>
       <c r="CU1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="CV1" s="4"/>
       <c r="CW1" s="4"/>
       <c r="CX1" s="4"/>
       <c r="CY1" s="4"/>
       <c r="CZ1" s="4" t="s">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="DA1" s="4"/>
       <c r="DB1" s="4"/>
       <c r="DC1" s="4"/>
       <c r="DD1" s="4"/>
       <c r="DE1" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="DF1" s="4"/>
       <c r="DG1" s="4"/>
       <c r="DH1" s="4"/>
       <c r="DI1" s="4"/>
       <c r="DJ1" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="DK1" s="4"/>
       <c r="DL1" s="4"/>
       <c r="DM1" s="4"/>
       <c r="DN1" s="4"/>
       <c r="DO1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="DP1" s="4"/>
       <c r="DQ1" s="4"/>
       <c r="DR1" s="4"/>
       <c r="DS1" s="4"/>
       <c r="DT1" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="DU1" s="4"/>
       <c r="DV1" s="4"/>
       <c r="DW1" s="4"/>
       <c r="DX1" s="4"/>
       <c r="DY1" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="DZ1" s="4"/>
       <c r="EA1" s="4"/>
       <c r="EB1" s="4"/>
       <c r="EC1" s="4"/>
       <c r="ED1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="EE1" s="4"/>
       <c r="EF1" s="4"/>
       <c r="EG1" s="4"/>
       <c r="EH1" s="4"/>
       <c r="EI1" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="EJ1" s="4"/>
       <c r="EK1" s="4"/>
       <c r="EL1" s="4"/>
       <c r="EM1" s="4"/>
       <c r="EN1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="EO1" s="4"/>
       <c r="EP1" s="4"/>
       <c r="EQ1" s="4"/>
       <c r="ER1" s="4"/>
       <c r="ES1" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="ET1" s="4"/>
       <c r="EU1" s="4"/>
@@ -1591,403 +1591,403 @@
     </row>
     <row r="4" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AF4" s="2"/>
       <c r="AG4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AP4" s="2"/>
       <c r="AQ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AU4" s="2"/>
       <c r="AV4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="BE4" s="2"/>
       <c r="BF4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="BO4" s="2"/>
       <c r="BP4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BQ4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="BT4" s="2"/>
       <c r="BU4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="BV4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="BY4" s="2"/>
       <c r="BZ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CD4" s="2"/>
       <c r="CE4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CI4" s="2"/>
       <c r="CJ4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CN4" s="2"/>
       <c r="CO4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CS4" s="2"/>
       <c r="CT4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CW4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CU4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="CW4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="CX4" s="2"/>
       <c r="CY4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CZ4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DB4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="CZ4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DA4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DB4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="DC4" s="2"/>
       <c r="DD4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="DH4" s="2"/>
       <c r="DI4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DJ4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DK4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="DM4" s="2"/>
       <c r="DN4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="DR4" s="2"/>
       <c r="DS4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="DW4" s="2"/>
       <c r="DX4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EA4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="DZ4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EA4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="EB4" s="2"/>
       <c r="EC4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="ED4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="EG4" s="2"/>
       <c r="EH4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EI4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EK4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="EI4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EK4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="EL4" s="2"/>
       <c r="EM4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="EO4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EP4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="EN4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="EO4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EP4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="EQ4" s="2"/>
       <c r="ER4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="ES4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="ET4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="EU4" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="ES4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="ET4" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="EV4" s="3"/>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1">
@@ -2445,7 +2445,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1">
@@ -2903,16 +2903,16 @@
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="1">
@@ -2955,17 +2955,17 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
         <v>0</v>
       </c>
       <c r="U7" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
@@ -3361,7 +3361,7 @@
     </row>
     <row r="8" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="1">
@@ -3819,7 +3819,7 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
@@ -4277,7 +4277,7 @@
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1">
@@ -4735,7 +4735,7 @@
     </row>
     <row r="11" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1">
@@ -5193,7 +5193,7 @@
     </row>
     <row r="12" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1">
@@ -5651,7 +5651,7 @@
     </row>
     <row r="13" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="1">
@@ -6109,7 +6109,7 @@
     </row>
     <row r="14" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -6567,7 +6567,7 @@
     </row>
     <row r="15" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1">
@@ -7025,7 +7025,7 @@
     </row>
     <row r="16" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1">
@@ -7483,7 +7483,7 @@
     </row>
     <row r="17" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1">
@@ -7941,7 +7941,7 @@
     </row>
     <row r="18" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1">
@@ -8399,7 +8399,7 @@
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1">
@@ -8857,7 +8857,7 @@
     </row>
     <row r="20" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1">
@@ -9315,7 +9315,7 @@
     </row>
     <row r="21" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1">
@@ -9773,7 +9773,7 @@
     </row>
     <row r="22" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="1">
@@ -10231,7 +10231,7 @@
     </row>
     <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="1">
@@ -10689,7 +10689,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="1">
@@ -11147,7 +11147,7 @@
     </row>
     <row r="25" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1">
@@ -11605,7 +11605,7 @@
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
@@ -12063,7 +12063,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
@@ -12521,7 +12521,7 @@
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="1">
@@ -12979,7 +12979,7 @@
     </row>
     <row r="29" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1">
@@ -13437,7 +13437,7 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
@@ -13895,7 +13895,7 @@
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
@@ -14353,7 +14353,7 @@
     </row>
     <row r="32" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1">
@@ -14811,7 +14811,7 @@
     </row>
     <row r="33" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
@@ -15269,7 +15269,7 @@
     </row>
     <row r="34" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
@@ -15727,7 +15727,7 @@
     </row>
     <row r="35" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1">
@@ -16185,7 +16185,7 @@
     </row>
     <row r="36" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
@@ -16643,7 +16643,7 @@
     </row>
     <row r="37" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1">
@@ -17101,7 +17101,7 @@
     </row>
     <row r="38" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
@@ -17559,7 +17559,7 @@
     </row>
     <row r="39" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1">
@@ -18017,7 +18017,7 @@
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="1">
@@ -18475,7 +18475,7 @@
     </row>
     <row r="41" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1">
@@ -18933,7 +18933,7 @@
     </row>
     <row r="42" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="1">
@@ -19391,7 +19391,7 @@
     </row>
     <row r="43" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="1">
@@ -19849,7 +19849,7 @@
     </row>
     <row r="44" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="1">
@@ -20307,7 +20307,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="1">
@@ -20765,7 +20765,7 @@
     </row>
     <row r="46" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1">
@@ -21223,7 +21223,7 @@
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
@@ -21681,7 +21681,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="1">
@@ -22139,7 +22139,7 @@
     </row>
     <row r="49" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1">
@@ -22597,7 +22597,7 @@
     </row>
     <row r="50" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1">
@@ -23055,7 +23055,7 @@
     </row>
     <row r="51" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1">
@@ -23513,7 +23513,7 @@
     </row>
     <row r="52" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1">
@@ -23971,7 +23971,7 @@
     </row>
     <row r="53" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1">
@@ -24429,7 +24429,7 @@
     </row>
     <row r="54" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="1">
@@ -24887,7 +24887,7 @@
     </row>
     <row r="55" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="1">
@@ -25345,7 +25345,7 @@
     </row>
     <row r="56" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
@@ -25803,7 +25803,7 @@
     </row>
     <row r="57" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="1">
@@ -26261,7 +26261,7 @@
     </row>
     <row r="58" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="1">
@@ -26719,7 +26719,7 @@
     </row>
     <row r="59" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
@@ -27177,7 +27177,7 @@
     </row>
     <row r="60" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="1">
@@ -27635,7 +27635,7 @@
     </row>
     <row r="61" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="1">
@@ -28093,7 +28093,7 @@
     </row>
     <row r="62" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
@@ -28551,7 +28551,7 @@
     </row>
     <row r="63" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
@@ -29009,7 +29009,7 @@
     </row>
     <row r="64" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="1">
@@ -29467,7 +29467,7 @@
     </row>
     <row r="65" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="1">
@@ -29925,7 +29925,7 @@
     </row>
     <row r="66" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="1">
@@ -30383,7 +30383,7 @@
     </row>
     <row r="67" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="1">
@@ -30841,7 +30841,7 @@
     </row>
     <row r="68" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
@@ -31299,7 +31299,7 @@
     </row>
     <row r="69" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="1">
@@ -31757,7 +31757,7 @@
     </row>
     <row r="70" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="1">
@@ -32215,7 +32215,7 @@
     </row>
     <row r="71" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
@@ -32673,7 +32673,7 @@
     </row>
     <row r="72" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="1">
@@ -33131,16 +33131,16 @@
     </row>
     <row r="73" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73" si="123">SUM(I73,N73,S73,X73,AC73,AH73,AM73,AR73,AW73,BB73,BG73,BL73,BQ73,BV73,CA73,CF73,CK73,CP73,CU73,CZ73,DE73,DJ73,DO73,DT73,DY73,ED73,EI73,EN73)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" ref="E73" si="124">SUM(J73,O73,T73,Y73,AD73,AI73,AN73,AS73,AX73,BC73,BH73,BM73,BR73,BW73,CB73,CG73,CL73,CQ73,CV73,DA73,DF73,DK73,DP73,DU73,DZ73,EE73,EJ73,EO73)</f>
@@ -33148,7 +33148,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33187,11 +33187,11 @@
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1">
         <f>SUM(S5:S72)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="T73" s="1">
         <f>SUM(T5:T72)</f>
@@ -33199,7 +33199,7 @@
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
@@ -33955,403 +33955,403 @@
     </row>
     <row r="76" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="L76" s="5"/>
       <c r="M76" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="U76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="V76" s="5"/>
       <c r="W76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AA76" s="5"/>
       <c r="AB76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AC76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AF76" s="5"/>
       <c r="AG76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AH76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AK76" s="5"/>
       <c r="AL76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AM76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AP76" s="5"/>
       <c r="AQ76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AR76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AU76" s="5"/>
       <c r="AV76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="AW76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="AZ76" s="5"/>
       <c r="BA76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="BB76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BE76" s="5"/>
       <c r="BF76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="BG76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BJ76" s="5"/>
       <c r="BK76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="BL76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BO76" s="5"/>
       <c r="BP76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="BQ76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BT76" s="5"/>
       <c r="BU76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="BV76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="BY76" s="5"/>
       <c r="BZ76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CA76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="CD76" s="5"/>
       <c r="CE76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CF76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="CI76" s="5"/>
       <c r="CJ76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CK76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="CN76" s="5"/>
       <c r="CO76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CP76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="CS76" s="5"/>
       <c r="CT76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="CW76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CU76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CW76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="CX76" s="5"/>
       <c r="CY76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CZ76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DB76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="CZ76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DA76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DB76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="DC76" s="5"/>
       <c r="DD76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DF76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="DE76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DF76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="DH76" s="5"/>
       <c r="DI76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DJ76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DK76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="DJ76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DK76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DL76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="DM76" s="5"/>
       <c r="DN76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="DO76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DP76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DQ76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="DR76" s="5"/>
       <c r="DS76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="DT76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DU76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DV76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="DW76" s="5"/>
       <c r="DX76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EA76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="DY76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="DZ76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EA76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="EB76" s="5"/>
       <c r="EC76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="ED76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="ED76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="EG76" s="5"/>
       <c r="EH76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="EI76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="EJ76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EK76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="EI76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EK76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="EL76" s="5"/>
       <c r="EM76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="EO76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EP76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="EN76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="EO76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EP76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="EQ76" s="5"/>
       <c r="ER76" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="ES76" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="ET76" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="EU76" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="ES76" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="ET76" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU76" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="EV76" s="3"/>
     </row>
     <row r="77" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="2">
@@ -34809,7 +34809,7 @@
     </row>
     <row r="78" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="2">
@@ -35267,7 +35267,7 @@
     </row>
     <row r="79" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="2">
@@ -35725,7 +35725,7 @@
     </row>
     <row r="80" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="2">
@@ -36183,7 +36183,7 @@
     </row>
     <row r="81" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="2">
@@ -36641,7 +36641,7 @@
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="2">
@@ -37099,7 +37099,7 @@
     </row>
     <row r="83" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="2">
@@ -37557,7 +37557,7 @@
     </row>
     <row r="84" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="2">
@@ -38015,7 +38015,7 @@
     </row>
     <row r="85" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="2">
@@ -38473,7 +38473,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="2">
@@ -38931,7 +38931,7 @@
     </row>
     <row r="87" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="2">
@@ -39389,7 +39389,7 @@
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="2">
@@ -39847,7 +39847,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="2">
@@ -40305,7 +40305,7 @@
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="2">
@@ -40763,7 +40763,7 @@
     </row>
     <row r="91" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="2">
@@ -41221,7 +41221,7 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="2">
@@ -41679,7 +41679,7 @@
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="2">
@@ -42137,7 +42137,7 @@
     </row>
     <row r="94" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="2">
@@ -42595,7 +42595,7 @@
     </row>
     <row r="95" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="2">
@@ -43053,7 +43053,7 @@
     </row>
     <row r="96" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="2">
@@ -43511,7 +43511,7 @@
     </row>
     <row r="97" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="2">
@@ -43969,7 +43969,7 @@
     </row>
     <row r="98" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="2">
@@ -44427,7 +44427,7 @@
     </row>
     <row r="99" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="2">
@@ -45251,21 +45251,21 @@
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -45275,7 +45275,7 @@
       </c>
       <c r="L102" s="10"/>
       <c r="M102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N102" s="9"/>
       <c r="O102" s="9"/>
@@ -45285,17 +45285,17 @@
       </c>
       <c r="Q102" s="10"/>
       <c r="R102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S102" s="9"/>
       <c r="T102" s="9"/>
       <c r="U102" s="9" t="str">
         <f>IF(SUM(S73,S99),SUM(S73,S99)*100/SUM(R73,R99),0) &amp; "%"</f>
-        <v>100%</v>
+        <v>0%</v>
       </c>
       <c r="V102" s="10"/>
       <c r="W102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X102" s="9"/>
       <c r="Y102" s="9"/>
@@ -45305,7 +45305,7 @@
       </c>
       <c r="AA102" s="10"/>
       <c r="AB102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AC102" s="9"/>
       <c r="AD102" s="9"/>
@@ -45315,7 +45315,7 @@
       </c>
       <c r="AF102" s="10"/>
       <c r="AG102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AH102" s="9"/>
       <c r="AI102" s="9"/>
@@ -45325,7 +45325,7 @@
       </c>
       <c r="AK102" s="10"/>
       <c r="AL102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AM102" s="9"/>
       <c r="AN102" s="9"/>
@@ -45335,7 +45335,7 @@
       </c>
       <c r="AP102" s="10"/>
       <c r="AQ102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AR102" s="9"/>
       <c r="AS102" s="9"/>
@@ -45345,7 +45345,7 @@
       </c>
       <c r="AU102" s="10"/>
       <c r="AV102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AW102" s="9"/>
       <c r="AX102" s="9"/>
@@ -45355,7 +45355,7 @@
       </c>
       <c r="AZ102" s="10"/>
       <c r="BA102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BB102" s="9"/>
       <c r="BC102" s="9"/>
@@ -45365,7 +45365,7 @@
       </c>
       <c r="BE102" s="10"/>
       <c r="BF102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BG102" s="9"/>
       <c r="BH102" s="9"/>
@@ -45375,7 +45375,7 @@
       </c>
       <c r="BJ102" s="10"/>
       <c r="BK102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BL102" s="9"/>
       <c r="BM102" s="9"/>
@@ -45385,7 +45385,7 @@
       </c>
       <c r="BO102" s="10"/>
       <c r="BP102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BQ102" s="9"/>
       <c r="BR102" s="9"/>
@@ -45395,7 +45395,7 @@
       </c>
       <c r="BT102" s="10"/>
       <c r="BU102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BV102" s="9"/>
       <c r="BW102" s="9"/>
@@ -45405,7 +45405,7 @@
       </c>
       <c r="BY102" s="10"/>
       <c r="BZ102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CA102" s="9"/>
       <c r="CB102" s="9"/>
@@ -45415,7 +45415,7 @@
       </c>
       <c r="CD102" s="10"/>
       <c r="CE102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CF102" s="9"/>
       <c r="CG102" s="9"/>
@@ -45425,7 +45425,7 @@
       </c>
       <c r="CI102" s="10"/>
       <c r="CJ102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CK102" s="9"/>
       <c r="CL102" s="9"/>
@@ -45435,7 +45435,7 @@
       </c>
       <c r="CN102" s="10"/>
       <c r="CO102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CP102" s="9"/>
       <c r="CQ102" s="9"/>
@@ -45445,7 +45445,7 @@
       </c>
       <c r="CS102" s="10"/>
       <c r="CT102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CU102" s="9"/>
       <c r="CV102" s="9"/>
@@ -45455,7 +45455,7 @@
       </c>
       <c r="CX102" s="10"/>
       <c r="CY102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="CZ102" s="9"/>
       <c r="DA102" s="9"/>
@@ -45465,7 +45465,7 @@
       </c>
       <c r="DC102" s="10"/>
       <c r="DD102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DE102" s="9"/>
       <c r="DF102" s="9"/>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="DH102" s="10"/>
       <c r="DI102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DJ102" s="9"/>
       <c r="DK102" s="9"/>
@@ -45485,7 +45485,7 @@
       </c>
       <c r="DM102" s="10"/>
       <c r="DN102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DO102" s="9"/>
       <c r="DP102" s="9"/>
@@ -45495,7 +45495,7 @@
       </c>
       <c r="DR102" s="10"/>
       <c r="DS102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DT102" s="9"/>
       <c r="DU102" s="9"/>
@@ -45505,7 +45505,7 @@
       </c>
       <c r="DW102" s="10"/>
       <c r="DX102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="DY102" s="9"/>
       <c r="DZ102" s="9"/>
@@ -45515,7 +45515,7 @@
       </c>
       <c r="EB102" s="10"/>
       <c r="EC102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="ED102" s="9"/>
       <c r="EE102" s="9"/>
@@ -45525,7 +45525,7 @@
       </c>
       <c r="EG102" s="10"/>
       <c r="EH102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="EI102" s="9"/>
       <c r="EJ102" s="9"/>
@@ -45535,7 +45535,7 @@
       </c>
       <c r="EL102" s="10"/>
       <c r="EM102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="EN102" s="9"/>
       <c r="EO102" s="9"/>
@@ -45545,7 +45545,7 @@
       </c>
       <c r="EQ102" s="9"/>
       <c r="ER102" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="ES102" s="9"/>
       <c r="ET102" s="9"/>
@@ -45865,403 +45865,403 @@
     </row>
     <row r="105" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="I105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="L105" s="8"/>
       <c r="M105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="N105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="N105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="Q105" s="8"/>
       <c r="R105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="T105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="U105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="V105" s="8"/>
       <c r="W105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="X105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AA105" s="8"/>
       <c r="AB105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AC105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AF105" s="8"/>
       <c r="AG105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AH105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AK105" s="8"/>
       <c r="AL105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AM105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AP105" s="8"/>
       <c r="AQ105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AR105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AU105" s="8"/>
       <c r="AV105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="AW105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="AZ105" s="8"/>
       <c r="BA105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="BB105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BE105" s="8"/>
       <c r="BF105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="BG105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BJ105" s="8"/>
       <c r="BK105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="BL105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BO105" s="8"/>
       <c r="BP105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="BQ105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BT105" s="8"/>
       <c r="BU105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="BV105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="BY105" s="8"/>
       <c r="BZ105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CA105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CD105" s="8"/>
       <c r="CE105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CF105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CI105" s="8"/>
       <c r="CJ105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CK105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CN105" s="8"/>
       <c r="CO105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CP105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CS105" s="8"/>
       <c r="CT105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="CW105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CU105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="CW105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="CX105" s="8"/>
       <c r="CY105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="CZ105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DB105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="CZ105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DA105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="DB105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="DC105" s="8"/>
       <c r="DD105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DF105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="DE105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DF105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="DH105" s="8"/>
       <c r="DI105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DJ105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DK105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="DJ105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DK105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="DL105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="DM105" s="8"/>
       <c r="DN105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="DO105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DP105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="DQ105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="DR105" s="8"/>
       <c r="DS105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="DT105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DU105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="DV105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="DW105" s="8"/>
       <c r="DX105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EA105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="DY105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="DZ105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="EA105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="EB105" s="8"/>
       <c r="EC105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="ED105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="ED105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="EG105" s="8"/>
       <c r="EH105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="EI105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="EJ105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EK105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="EI105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="EK105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="EL105" s="8"/>
       <c r="EM105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="EO105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EP105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="EN105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="EO105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="EP105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="EQ105" s="8"/>
       <c r="ER105" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="ES105" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="ET105" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="EU105" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="ES105" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="ET105" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU105" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="EV105" s="3"/>
     </row>
     <row r="106" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="7">
@@ -46719,7 +46719,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="7">
@@ -47177,7 +47177,7 @@
     </row>
     <row r="108" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="7">
@@ -47635,7 +47635,7 @@
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="7">
@@ -48093,7 +48093,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="7">
@@ -48551,7 +48551,7 @@
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="7">
@@ -49009,7 +49009,7 @@
     </row>
     <row r="112" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7">
@@ -49467,7 +49467,7 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="7">
@@ -49925,7 +49925,7 @@
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="7">
@@ -50383,7 +50383,7 @@
     </row>
     <row r="115" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="7">
@@ -50841,7 +50841,7 @@
     </row>
     <row r="116" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="7">
@@ -51299,7 +51299,7 @@
     </row>
     <row r="117" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="7">
@@ -51757,7 +51757,7 @@
     </row>
     <row r="118" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="7">
@@ -52215,7 +52215,7 @@
     </row>
     <row r="119" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="7">
@@ -52673,7 +52673,7 @@
     </row>
     <row r="120" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="7">
@@ -53131,7 +53131,7 @@
     </row>
     <row r="121" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="7">
@@ -53589,7 +53589,7 @@
     </row>
     <row r="122" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="7">
@@ -54047,7 +54047,7 @@
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="7">
@@ -54505,7 +54505,7 @@
     </row>
     <row r="124" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="7">
@@ -54963,7 +54963,7 @@
     </row>
     <row r="125" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="7">
@@ -55421,7 +55421,7 @@
     </row>
     <row r="126" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="7">
@@ -55879,7 +55879,7 @@
     </row>
     <row r="127" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="7">
@@ -56337,7 +56337,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="7">
@@ -56795,7 +56795,7 @@
     </row>
     <row r="129" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="7">
@@ -57253,7 +57253,7 @@
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="7">
@@ -58077,403 +58077,403 @@
     </row>
     <row r="133" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="G133" s="11"/>
       <c r="H133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="K133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="I133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="L133" s="11"/>
       <c r="M133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="P133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="N133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="O133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="P133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="Q133" s="11"/>
       <c r="R133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="S133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="T133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="U133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="S133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="T133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="U133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="V133" s="11"/>
       <c r="W133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="X133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="X133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AA133" s="11"/>
       <c r="AB133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AC133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AF133" s="11"/>
       <c r="AG133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AH133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AJ133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AK133" s="11"/>
       <c r="AL133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AO133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AM133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AO133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AP133" s="11"/>
       <c r="AQ133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AR133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AU133" s="11"/>
       <c r="AV133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AY133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AW133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AX133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="AZ133" s="11"/>
       <c r="BA133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BB133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BD133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="BE133" s="11"/>
       <c r="BF133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BH133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BI133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BG133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BH133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="BJ133" s="11"/>
       <c r="BK133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BL133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BM133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BN133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BL133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BM133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BN133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="BO133" s="11"/>
       <c r="BP133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BQ133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BR133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BQ133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BR133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BS133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="BT133" s="11"/>
       <c r="BU133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="BW133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BX133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="BV133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="BW133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BX133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="BY133" s="11"/>
       <c r="BZ133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CB133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CA133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="CB133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="CD133" s="11"/>
       <c r="CE133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CF133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CG133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CH133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CF133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="CG133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CH133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="CI133" s="11"/>
       <c r="CJ133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CK133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CL133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CM133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CK133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="CL133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CM133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="CN133" s="11"/>
       <c r="CO133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CP133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CQ133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CR133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CP133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="CQ133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CR133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="CS133" s="11"/>
       <c r="CT133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="CW133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CU133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CW133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="CX133" s="11"/>
       <c r="CY133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="CZ133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DA133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DB133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="CZ133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DA133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DB133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="DC133" s="11"/>
       <c r="DD133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="DE133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DF133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DG133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="DE133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DF133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DG133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="DH133" s="11"/>
       <c r="DI133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="DJ133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DK133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DL133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="DJ133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DK133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DL133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="DM133" s="11"/>
       <c r="DN133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="DO133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DP133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DQ133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="DO133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DP133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DQ133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="DR133" s="11"/>
       <c r="DS133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="DT133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DU133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="DT133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DU133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="DV133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="DW133" s="11"/>
       <c r="DX133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="DY133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="DZ133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EA133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="DY133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="DZ133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EA133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="EB133" s="11"/>
       <c r="EC133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="ED133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="EE133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EF133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="ED133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="EE133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EF133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="EG133" s="11"/>
       <c r="EH133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="EI133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="EJ133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EK133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="EI133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="EJ133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EK133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="EL133" s="11"/>
       <c r="EM133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="EN133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="EO133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EP133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="EN133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="EO133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EP133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="EQ133" s="11"/>
       <c r="ER133" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="ES133" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="ET133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="EU133" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="ES133" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="ET133" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="EU133" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="EV133" s="3"/>
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="12">
@@ -58931,7 +58931,7 @@
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="12">
@@ -59389,7 +59389,7 @@
     </row>
     <row r="136" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="12">
@@ -59847,7 +59847,7 @@
     </row>
     <row r="137" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="12">
@@ -60305,7 +60305,7 @@
     </row>
     <row r="138" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12">
@@ -60763,7 +60763,7 @@
     </row>
     <row r="139" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12">
@@ -61221,7 +61221,7 @@
     </row>
     <row r="140" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="12">
@@ -61679,7 +61679,7 @@
     </row>
     <row r="141" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="12">
@@ -62137,7 +62137,7 @@
     </row>
     <row r="142" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="12">
@@ -62595,7 +62595,7 @@
     </row>
     <row r="143" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="12">
@@ -63053,7 +63053,7 @@
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="12">
@@ -63511,7 +63511,7 @@
     </row>
     <row r="145" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="12">
@@ -63969,7 +63969,7 @@
     </row>
     <row r="146" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12">
@@ -64427,7 +64427,7 @@
     </row>
     <row r="147" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12">
@@ -64885,7 +64885,7 @@
     </row>
     <row r="148" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="12">
@@ -65343,7 +65343,7 @@
     </row>
     <row r="149" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="12">
@@ -65801,7 +65801,7 @@
     </row>
     <row r="150" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="12">
@@ -66259,7 +66259,7 @@
     </row>
     <row r="151" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="12">
@@ -66717,7 +66717,7 @@
     </row>
     <row r="152" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="12">
@@ -67175,7 +67175,7 @@
     </row>
     <row r="153" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="13">
@@ -67999,11 +67999,11 @@
     </row>
     <row r="156" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
@@ -68013,7 +68013,7 @@
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
@@ -68023,7 +68023,7 @@
       </c>
       <c r="L156" s="10"/>
       <c r="M156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N156" s="9"/>
       <c r="O156" s="9"/>
@@ -68033,7 +68033,7 @@
       </c>
       <c r="Q156" s="10"/>
       <c r="R156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S156" s="9"/>
       <c r="T156" s="9"/>
@@ -68043,7 +68043,7 @@
       </c>
       <c r="V156" s="10"/>
       <c r="W156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X156" s="9"/>
       <c r="Y156" s="9"/>
@@ -68053,7 +68053,7 @@
       </c>
       <c r="AA156" s="10"/>
       <c r="AB156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AC156" s="9"/>
       <c r="AD156" s="9"/>
@@ -68063,7 +68063,7 @@
       </c>
       <c r="AF156" s="10"/>
       <c r="AG156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AH156" s="9"/>
       <c r="AI156" s="9"/>
@@ -68073,7 +68073,7 @@
       </c>
       <c r="AK156" s="10"/>
       <c r="AL156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AM156" s="9"/>
       <c r="AN156" s="9"/>
@@ -68083,7 +68083,7 @@
       </c>
       <c r="AP156" s="10"/>
       <c r="AQ156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AR156" s="9"/>
       <c r="AS156" s="9"/>
@@ -68093,7 +68093,7 @@
       </c>
       <c r="AU156" s="10"/>
       <c r="AV156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AW156" s="9"/>
       <c r="AX156" s="9"/>
@@ -68103,7 +68103,7 @@
       </c>
       <c r="AZ156" s="10"/>
       <c r="BA156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BB156" s="9"/>
       <c r="BC156" s="9"/>
@@ -68113,7 +68113,7 @@
       </c>
       <c r="BE156" s="10"/>
       <c r="BF156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BG156" s="9"/>
       <c r="BH156" s="9"/>
@@ -68123,7 +68123,7 @@
       </c>
       <c r="BJ156" s="10"/>
       <c r="BK156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BL156" s="9"/>
       <c r="BM156" s="9"/>
@@ -68133,7 +68133,7 @@
       </c>
       <c r="BO156" s="10"/>
       <c r="BP156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BQ156" s="9"/>
       <c r="BR156" s="9"/>
@@ -68143,7 +68143,7 @@
       </c>
       <c r="BT156" s="10"/>
       <c r="BU156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BV156" s="9"/>
       <c r="BW156" s="9"/>
@@ -68153,7 +68153,7 @@
       </c>
       <c r="BY156" s="10"/>
       <c r="BZ156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CA156" s="9"/>
       <c r="CB156" s="9"/>
@@ -68163,7 +68163,7 @@
       </c>
       <c r="CD156" s="10"/>
       <c r="CE156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CF156" s="9"/>
       <c r="CG156" s="9"/>
@@ -68173,7 +68173,7 @@
       </c>
       <c r="CI156" s="10"/>
       <c r="CJ156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CK156" s="9"/>
       <c r="CL156" s="9"/>
@@ -68183,7 +68183,7 @@
       </c>
       <c r="CN156" s="10"/>
       <c r="CO156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CP156" s="9"/>
       <c r="CQ156" s="9"/>
@@ -68193,7 +68193,7 @@
       </c>
       <c r="CS156" s="10"/>
       <c r="CT156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CU156" s="9"/>
       <c r="CV156" s="9"/>
@@ -68203,7 +68203,7 @@
       </c>
       <c r="CX156" s="10"/>
       <c r="CY156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="CZ156" s="9"/>
       <c r="DA156" s="9"/>
@@ -68213,7 +68213,7 @@
       </c>
       <c r="DC156" s="10"/>
       <c r="DD156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DE156" s="9"/>
       <c r="DF156" s="9"/>
@@ -68223,7 +68223,7 @@
       </c>
       <c r="DH156" s="10"/>
       <c r="DI156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DJ156" s="9"/>
       <c r="DK156" s="9"/>
@@ -68233,7 +68233,7 @@
       </c>
       <c r="DM156" s="10"/>
       <c r="DN156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DO156" s="9"/>
       <c r="DP156" s="9"/>
@@ -68243,7 +68243,7 @@
       </c>
       <c r="DR156" s="10"/>
       <c r="DS156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DT156" s="9"/>
       <c r="DU156" s="9"/>
@@ -68253,7 +68253,7 @@
       </c>
       <c r="DW156" s="10"/>
       <c r="DX156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DY156" s="9"/>
       <c r="DZ156" s="9"/>
@@ -68263,7 +68263,7 @@
       </c>
       <c r="EB156" s="10"/>
       <c r="EC156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="ED156" s="9"/>
       <c r="EE156" s="9"/>
@@ -68273,7 +68273,7 @@
       </c>
       <c r="EG156" s="10"/>
       <c r="EH156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="EI156" s="9"/>
       <c r="EJ156" s="9"/>
@@ -68283,7 +68283,7 @@
       </c>
       <c r="EL156" s="10"/>
       <c r="EM156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="EN156" s="9"/>
       <c r="EO156" s="9"/>
@@ -68293,7 +68293,7 @@
       </c>
       <c r="EQ156" s="15"/>
       <c r="ER156" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="ES156" s="9"/>
       <c r="ET156" s="9"/>
@@ -68307,17 +68307,17 @@
       <c r="A157" s="9"/>
       <c r="B157" s="10"/>
       <c r="C157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
       <c r="F157" s="9" t="str">
         <f>((F156 + F102)/2)*100 &amp; "%"</f>
-        <v>50%</v>
+        <v>0%</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
@@ -68327,7 +68327,7 @@
       </c>
       <c r="L157" s="10"/>
       <c r="M157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N157" s="9"/>
       <c r="O157" s="9"/>
@@ -68337,17 +68337,17 @@
       </c>
       <c r="Q157" s="10"/>
       <c r="R157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="S157" s="9"/>
       <c r="T157" s="9"/>
       <c r="U157" s="9" t="str">
         <f>((U156 + U102)/2)*100 &amp; "%"</f>
-        <v>50%</v>
+        <v>0%</v>
       </c>
       <c r="V157" s="10"/>
       <c r="W157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="X157" s="9"/>
       <c r="Y157" s="9"/>
@@ -68357,7 +68357,7 @@
       </c>
       <c r="AA157" s="10"/>
       <c r="AB157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AC157" s="9"/>
       <c r="AD157" s="9"/>
@@ -68367,7 +68367,7 @@
       </c>
       <c r="AF157" s="10"/>
       <c r="AG157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AH157" s="9"/>
       <c r="AI157" s="9"/>
@@ -68377,7 +68377,7 @@
       </c>
       <c r="AK157" s="10"/>
       <c r="AL157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AM157" s="9"/>
       <c r="AN157" s="9"/>
@@ -68387,7 +68387,7 @@
       </c>
       <c r="AP157" s="10"/>
       <c r="AQ157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AR157" s="9"/>
       <c r="AS157" s="9"/>
@@ -68397,7 +68397,7 @@
       </c>
       <c r="AU157" s="10"/>
       <c r="AV157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AW157" s="9"/>
       <c r="AX157" s="9"/>
@@ -68407,7 +68407,7 @@
       </c>
       <c r="AZ157" s="10"/>
       <c r="BA157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BB157" s="9"/>
       <c r="BC157" s="9"/>
@@ -68417,7 +68417,7 @@
       </c>
       <c r="BE157" s="10"/>
       <c r="BF157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BG157" s="9"/>
       <c r="BH157" s="9"/>
@@ -68427,7 +68427,7 @@
       </c>
       <c r="BJ157" s="10"/>
       <c r="BK157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BL157" s="9"/>
       <c r="BM157" s="9"/>
@@ -68437,7 +68437,7 @@
       </c>
       <c r="BO157" s="10"/>
       <c r="BP157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BQ157" s="9"/>
       <c r="BR157" s="9"/>
@@ -68447,7 +68447,7 @@
       </c>
       <c r="BT157" s="10"/>
       <c r="BU157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BV157" s="9"/>
       <c r="BW157" s="9"/>
@@ -68457,7 +68457,7 @@
       </c>
       <c r="BY157" s="10"/>
       <c r="BZ157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CA157" s="9"/>
       <c r="CB157" s="9"/>
@@ -68467,7 +68467,7 @@
       </c>
       <c r="CD157" s="10"/>
       <c r="CE157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CF157" s="9"/>
       <c r="CG157" s="9"/>
@@ -68477,7 +68477,7 @@
       </c>
       <c r="CI157" s="10"/>
       <c r="CJ157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CK157" s="9"/>
       <c r="CL157" s="9"/>
@@ -68487,7 +68487,7 @@
       </c>
       <c r="CN157" s="10"/>
       <c r="CO157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CP157" s="9"/>
       <c r="CQ157" s="9"/>
@@ -68497,7 +68497,7 @@
       </c>
       <c r="CS157" s="10"/>
       <c r="CT157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CU157" s="9"/>
       <c r="CV157" s="9"/>
@@ -68507,7 +68507,7 @@
       </c>
       <c r="CX157" s="10"/>
       <c r="CY157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="CZ157" s="9"/>
       <c r="DA157" s="9"/>
@@ -68517,7 +68517,7 @@
       </c>
       <c r="DC157" s="10"/>
       <c r="DD157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DE157" s="9"/>
       <c r="DF157" s="9"/>
@@ -68527,7 +68527,7 @@
       </c>
       <c r="DH157" s="10"/>
       <c r="DI157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DJ157" s="9"/>
       <c r="DK157" s="9"/>
@@ -68537,7 +68537,7 @@
       </c>
       <c r="DM157" s="10"/>
       <c r="DN157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DO157" s="9"/>
       <c r="DP157" s="9"/>
@@ -68547,7 +68547,7 @@
       </c>
       <c r="DR157" s="10"/>
       <c r="DS157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DT157" s="9"/>
       <c r="DU157" s="9"/>
@@ -68557,7 +68557,7 @@
       </c>
       <c r="DW157" s="10"/>
       <c r="DX157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="DY157" s="9"/>
       <c r="DZ157" s="9"/>
@@ -68567,7 +68567,7 @@
       </c>
       <c r="EB157" s="10"/>
       <c r="EC157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="ED157" s="9"/>
       <c r="EE157" s="9"/>
@@ -68577,7 +68577,7 @@
       </c>
       <c r="EG157" s="10"/>
       <c r="EH157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="EI157" s="9"/>
       <c r="EJ157" s="9"/>
@@ -68587,7 +68587,7 @@
       </c>
       <c r="EL157" s="10"/>
       <c r="EM157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="EN157" s="9"/>
       <c r="EO157" s="9"/>
@@ -68597,7 +68597,7 @@
       </c>
       <c r="EQ157" s="15"/>
       <c r="ER157" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="ES157" s="9"/>
       <c r="ET157" s="9"/>
@@ -68611,17 +68611,17 @@
       <c r="A158" s="9"/>
       <c r="B158" s="10"/>
       <c r="C158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
       <c r="F158" s="9">
         <f>+SUM(C153,C130,C99,C73)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
@@ -68631,7 +68631,7 @@
       </c>
       <c r="L158" s="10"/>
       <c r="M158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N158" s="9"/>
       <c r="O158" s="9"/>
@@ -68641,17 +68641,17 @@
       </c>
       <c r="Q158" s="10"/>
       <c r="R158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S158" s="9"/>
       <c r="T158" s="9"/>
       <c r="U158" s="9">
         <f>+SUM(R153,R130,R99,R73)</f>
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="V158" s="10"/>
       <c r="W158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="X158" s="9"/>
       <c r="Y158" s="9"/>
@@ -68661,7 +68661,7 @@
       </c>
       <c r="AA158" s="10"/>
       <c r="AB158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AC158" s="9"/>
       <c r="AD158" s="9"/>
@@ -68671,7 +68671,7 @@
       </c>
       <c r="AF158" s="10"/>
       <c r="AG158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AH158" s="9"/>
       <c r="AI158" s="9"/>
@@ -68681,7 +68681,7 @@
       </c>
       <c r="AK158" s="10"/>
       <c r="AL158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM158" s="9"/>
       <c r="AN158" s="9"/>
@@ -68691,7 +68691,7 @@
       </c>
       <c r="AP158" s="10"/>
       <c r="AQ158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AR158" s="9"/>
       <c r="AS158" s="9"/>
@@ -68701,7 +68701,7 @@
       </c>
       <c r="AU158" s="10"/>
       <c r="AV158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AW158" s="9"/>
       <c r="AX158" s="9"/>
@@ -68711,7 +68711,7 @@
       </c>
       <c r="AZ158" s="10"/>
       <c r="BA158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BB158" s="9"/>
       <c r="BC158" s="9"/>
@@ -68721,7 +68721,7 @@
       </c>
       <c r="BE158" s="10"/>
       <c r="BF158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BG158" s="9"/>
       <c r="BH158" s="9"/>
@@ -68731,7 +68731,7 @@
       </c>
       <c r="BJ158" s="10"/>
       <c r="BK158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BL158" s="9"/>
       <c r="BM158" s="9"/>
@@ -68741,7 +68741,7 @@
       </c>
       <c r="BO158" s="10"/>
       <c r="BP158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BQ158" s="9"/>
       <c r="BR158" s="9"/>
@@ -68751,7 +68751,7 @@
       </c>
       <c r="BT158" s="10"/>
       <c r="BU158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BV158" s="9"/>
       <c r="BW158" s="9"/>
@@ -68761,7 +68761,7 @@
       </c>
       <c r="BY158" s="10"/>
       <c r="BZ158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CA158" s="9"/>
       <c r="CB158" s="9"/>
@@ -68771,7 +68771,7 @@
       </c>
       <c r="CD158" s="10"/>
       <c r="CE158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CF158" s="9"/>
       <c r="CG158" s="9"/>
@@ -68781,7 +68781,7 @@
       </c>
       <c r="CI158" s="10"/>
       <c r="CJ158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CK158" s="9"/>
       <c r="CL158" s="9"/>
@@ -68791,7 +68791,7 @@
       </c>
       <c r="CN158" s="10"/>
       <c r="CO158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CP158" s="9"/>
       <c r="CQ158" s="9"/>
@@ -68801,7 +68801,7 @@
       </c>
       <c r="CS158" s="10"/>
       <c r="CT158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CU158" s="9"/>
       <c r="CV158" s="9"/>
@@ -68811,7 +68811,7 @@
       </c>
       <c r="CX158" s="10"/>
       <c r="CY158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="CZ158" s="9"/>
       <c r="DA158" s="9"/>
@@ -68821,7 +68821,7 @@
       </c>
       <c r="DC158" s="10"/>
       <c r="DD158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DE158" s="9"/>
       <c r="DF158" s="9"/>
@@ -68831,7 +68831,7 @@
       </c>
       <c r="DH158" s="10"/>
       <c r="DI158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DJ158" s="9"/>
       <c r="DK158" s="9"/>
@@ -68841,7 +68841,7 @@
       </c>
       <c r="DM158" s="10"/>
       <c r="DN158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DO158" s="9"/>
       <c r="DP158" s="9"/>
@@ -68851,7 +68851,7 @@
       </c>
       <c r="DR158" s="10"/>
       <c r="DS158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DT158" s="9"/>
       <c r="DU158" s="9"/>
@@ -68861,7 +68861,7 @@
       </c>
       <c r="DW158" s="10"/>
       <c r="DX158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="DY158" s="9"/>
       <c r="DZ158" s="9"/>
@@ -68871,7 +68871,7 @@
       </c>
       <c r="EB158" s="10"/>
       <c r="EC158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="ED158" s="9"/>
       <c r="EE158" s="9"/>
@@ -68881,7 +68881,7 @@
       </c>
       <c r="EG158" s="10"/>
       <c r="EH158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="EI158" s="9"/>
       <c r="EJ158" s="9"/>
@@ -68891,7 +68891,7 @@
       </c>
       <c r="EL158" s="10"/>
       <c r="EM158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="EN158" s="9"/>
       <c r="EO158" s="9"/>
@@ -68901,7 +68901,7 @@
       </c>
       <c r="EQ158" s="15"/>
       <c r="ER158" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="ES158" s="9"/>
       <c r="ET158" s="9"/>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4182E1-A349-4AB2-8CA4-AE2D0D44FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A87B4C-D963-471C-901D-71B584BCC6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-32640" yWindow="3855" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1050,10 +1050,10 @@
   <dimension ref="A1:EV160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="V131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F159" sqref="F159"/>
+      <selection pane="bottomRight" activeCell="AD146" sqref="AD146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11611,7 +11611,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="61"/>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11688,13 +11688,13 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1" t="str">
         <f t="shared" si="12"/>
@@ -15275,7 +15275,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="61"/>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="62"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15352,13 +15352,13 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="1" t="str">
         <f t="shared" si="12"/>
@@ -28099,11 +28099,11 @@
       <c r="B62" s="2"/>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="61"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="62"/>
@@ -28111,7 +28111,7 @@
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.3333333333333%</v>
+        <v>50%</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1">
@@ -28176,17 +28176,17 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="1">
         <v>0</v>
       </c>
       <c r="AE62" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="1">
@@ -33137,19 +33137,19 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f>SUM(C5:C72)</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" ref="D73:E73" si="123">SUM(D5:D72)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="123"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F73" s="1" t="str">
         <f>IF(C73,D73/C73*100,0) &amp; "%"</f>
-        <v>41.3793103448276%</v>
+        <v>40.625%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
@@ -33222,19 +33222,19 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC73" s="1">
         <f>SUM(AC5:AC72)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD73" s="1">
         <f>SUM(AD5:AD72)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" s="1" t="str">
         <f t="shared" si="74"/>
-        <v>0%</v>
+        <v>33.3333333333333%</v>
       </c>
       <c r="AF73" s="2"/>
       <c r="AG73" s="1">
@@ -45262,7 +45262,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="9" t="str">
         <f>IF(SUM(D73,D99),SUM(D73,D99)*100/SUM(C73,C99),0) &amp; "%"</f>
-        <v>42.4242424242424%</v>
+        <v>41.6666666666667%</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="9" t="s">
@@ -45312,7 +45312,7 @@
       <c r="AD102" s="9"/>
       <c r="AE102" s="9" t="str">
         <f>IF(SUM(AC73,AC99),SUM(AC73,AC99)*100/SUM(AB73,AB99),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>33.3333333333333%</v>
       </c>
       <c r="AF102" s="10"/>
       <c r="AG102" s="9" t="s">
@@ -62601,11 +62601,11 @@
       <c r="B143" s="11"/>
       <c r="C143" s="12">
         <f t="shared" si="256"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143" s="12">
         <f t="shared" si="254"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" s="12">
         <f t="shared" si="254"/>
@@ -62678,17 +62678,17 @@
       <c r="AA143" s="11"/>
       <c r="AB143" s="12">
         <f t="shared" si="265"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC143" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD143" s="13">
         <v>0</v>
       </c>
       <c r="AE143" s="13" t="str">
         <f t="shared" si="266"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF143" s="11"/>
       <c r="AG143" s="12">
@@ -63517,7 +63517,7 @@
       <c r="B145" s="11"/>
       <c r="C145" s="12">
         <f t="shared" si="256"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D145" s="12">
         <f t="shared" si="254"/>
@@ -63525,7 +63525,7 @@
       </c>
       <c r="E145" s="12">
         <f t="shared" si="254"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" s="13" t="str">
         <f t="shared" si="255"/>
@@ -63594,13 +63594,13 @@
       <c r="AA145" s="11"/>
       <c r="AB145" s="12">
         <f t="shared" si="265"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC145" s="13">
         <v>0</v>
       </c>
       <c r="AD145" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE145" s="13" t="str">
         <f t="shared" si="266"/>
@@ -67181,19 +67181,19 @@
       <c r="B153" s="11"/>
       <c r="C153" s="13">
         <f>SUM(C134:C152)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D153" s="13">
         <f t="shared" ref="D153:E153" si="317">SUM(D134:D152)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E153" s="13">
         <f t="shared" si="317"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F153" s="13" t="str">
         <f>IF(C153,D153/C153*100,0) &amp; "%"</f>
-        <v>60%</v>
+        <v>57.1428571428571%</v>
       </c>
       <c r="G153" s="11"/>
       <c r="H153" s="13">
@@ -67266,19 +67266,19 @@
       <c r="AA153" s="11"/>
       <c r="AB153" s="13">
         <f>SUM(AB134:AB152)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC153" s="12">
         <f>SUM(AC134:AC151)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD153" s="12">
         <f>SUM(AD134:AD151)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE153" s="13" t="str">
         <f>IF(AB153,AC153/AB153*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF153" s="11"/>
       <c r="AG153" s="13">
@@ -68010,7 +68010,7 @@
       <c r="E156" s="9"/>
       <c r="F156" s="9" t="str">
         <f>IF(SUM(D130,D153),SUM(D130,D153)*100/SUM(C130,C153),0) &amp; "%"</f>
-        <v>64.2857142857143%</v>
+        <v>62.5%</v>
       </c>
       <c r="G156" s="10"/>
       <c r="H156" s="9" t="s">
@@ -68060,7 +68060,7 @@
       <c r="AD156" s="9"/>
       <c r="AE156" s="9" t="str">
         <f>IF(SUM(AC130,AC153),SUM(AC130,AC153)*100/SUM(AB130,AB153),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF156" s="10"/>
       <c r="AG156" s="9" t="s">
@@ -68314,7 +68314,7 @@
       <c r="E157" s="9"/>
       <c r="F157" s="16">
         <f>(SUM(D73,D99)/SUM(C73,C99)+SUM(D130,D153)/SUM(C130,C153))/2</f>
-        <v>0.53354978354978355</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
@@ -68364,7 +68364,7 @@
       <c r="AD157" s="9"/>
       <c r="AE157" s="9" t="str">
         <f>((AE156 + AE102)/2)*100 &amp; "%"</f>
-        <v>0%</v>
+        <v>41.6666666666667%</v>
       </c>
       <c r="AF157" s="10"/>
       <c r="AG157" s="9" t="s">
@@ -68618,7 +68618,7 @@
       <c r="E158" s="9"/>
       <c r="F158" s="9">
         <f>+SUM(C153,C130,C99,C73)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="9" t="s">
@@ -68668,7 +68668,7 @@
       <c r="AD158" s="9"/>
       <c r="AE158" s="9">
         <f>+SUM(AB153,AB130,AB99,AB73)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF158" s="10"/>
       <c r="AG158" s="9" t="s">
@@ -69227,14 +69227,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -69449,6 +69441,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -69459,23 +69459,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -69494,6 +69477,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88C0DB9-E24A-4F88-84DF-665089EE222E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ECE2CD-E455-4323-BF8B-4952BE732D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="185">
   <si>
     <t>Players</t>
   </si>
@@ -589,6 +589,9 @@
   <si>
     <t>Homebrew Demon</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -1062,10 +1065,10 @@
   <dimension ref="A1:EV164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="BF134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="DR146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="BV164" sqref="BV164"/>
+      <selection pane="bottomRight" activeCell="EU161" sqref="EU161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="str">
-        <f>IF(C5,D5/C5*100,0) &amp; "%"</f>
+        <f>IF(C5,ROUND(D5/C5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G5" s="2"/>
@@ -2031,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1" t="str">
-        <f>IF(H5,I5/H5*100,0) &amp; "%"</f>
+        <f>IF(H5,ROUND(I5/H5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L5" s="2"/>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="str">
-        <f>IF(M5,N5/M5*100,0) &amp; "%"</f>
+        <f>IF(M5,ROUND(N5/M5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q5" s="2"/>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f>IF(R5,S5/R5*100,0) &amp; "%"</f>
+        <f>IF(R5,ROUND(S5/R5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V5" s="2"/>
@@ -2076,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="1" t="str">
-        <f>IF(W5,X5/W5*100,0) &amp; "%"</f>
+        <f>IF(W5,ROUND(X5/W5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA5" s="2"/>
@@ -2091,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1" t="str">
-        <f>IF(AB5,AC5/AB5*100,0) &amp; "%"</f>
+        <f>IF(AB5,ROUND(AC5/AB5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF5" s="2"/>
@@ -2106,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1" t="str">
-        <f>IF(AG5,AH5/AG5*100,0) &amp; "%"</f>
+        <f>IF(AG5,ROUND(AH5/AG5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK5" s="2"/>
@@ -2121,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="1" t="str">
-        <f>IF(AL5,AM5/AL5*100,0) &amp; "%"</f>
+        <f>IF(AL5,ROUND(AM5/AL5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP5" s="2"/>
@@ -2136,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1" t="str">
-        <f>IF(AQ5,AR5/AQ5*100,0) &amp; "%"</f>
+        <f>IF(AQ5,ROUND(AR5/AQ5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU5" s="2"/>
@@ -2151,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="1" t="str">
-        <f>IF(AV5,AW5/AV5*100,0) &amp; "%"</f>
+        <f>IF(AV5,ROUND(AW5/AV5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ5" s="2"/>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="1" t="str">
-        <f>IF(BA5,BB5/BA5*100,0) &amp; "%"</f>
+        <f>IF(BA5,ROUND(BB5/BA5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE5" s="2"/>
@@ -2181,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="1" t="str">
-        <f>IF(BF5,BG5/BF5*100,0) &amp; "%"</f>
+        <f>IF(BF5,ROUND(BG5/BF5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ5" s="2"/>
@@ -2196,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1" t="str">
-        <f>IF(BK5,BL5/BK5*100,0) &amp; "%"</f>
+        <f>IF(BK5,ROUND(BL5/BK5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO5" s="2"/>
@@ -2211,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="BS5" s="1" t="str">
-        <f>IF(BP5,BQ5/BP5*100,0) &amp; "%"</f>
+        <f>IF(BP5,ROUND(BQ5/BP5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT5" s="2"/>
@@ -2226,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="BX5" s="1" t="str">
-        <f>IF(BU5,BV5/BU5*100,0) &amp; "%"</f>
+        <f>IF(BU5,ROUND(BV5/BU5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY5" s="2"/>
@@ -2241,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="CC5" s="1" t="str">
-        <f>IF(BZ5,CA5/BZ5*100,0) &amp; "%"</f>
+        <f>IF(BZ5,ROUND(CA5/BZ5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD5" s="2"/>
@@ -2256,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="CH5" s="1" t="str">
-        <f>IF(CE5,CF5/CE5*100,0) &amp; "%"</f>
+        <f>IF(CE5,ROUND(CF5/CE5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI5" s="2"/>
@@ -2271,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="CM5" s="1" t="str">
-        <f>IF(CJ5,CK5/CJ5*100,0) &amp; "%"</f>
+        <f>IF(CJ5,ROUND(CK5/CJ5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN5" s="2"/>
@@ -2286,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="CR5" s="1" t="str">
-        <f>IF(CO5,CP5/CO5*100,0) &amp; "%"</f>
+        <f>IF(CO5,ROUND(CP5/CO5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS5" s="2"/>
@@ -2301,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="CW5" s="1" t="str">
-        <f>IF(CT5,CU5/CT5*100,0) &amp; "%"</f>
+        <f>IF(CT5,ROUND(CU5/CT5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX5" s="2"/>
@@ -2316,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="DB5" s="1" t="str">
-        <f>IF(CY5,CZ5/CY5*100,0) &amp; "%"</f>
+        <f>IF(CY5,ROUND(CZ5/CY5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC5" s="2"/>
@@ -2331,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="DG5" s="1" t="str">
-        <f>IF(DD5,DE5/DD5*100,0) &amp; "%"</f>
+        <f>IF(DD5,ROUND(DE5/DD5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH5" s="2"/>
@@ -2346,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="DL5" s="1" t="str">
-        <f>IF(DI5,DJ5/DI5*100,0) &amp; "%"</f>
+        <f>IF(DI5,ROUND(DJ5/DI5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM5" s="2"/>
@@ -2361,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="DQ5" s="1" t="str">
-        <f>IF(DN5,DO5/DN5*100,0) &amp; "%"</f>
+        <f>IF(DN5,ROUND(DO5/DN5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR5" s="2"/>
@@ -2376,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="DV5" s="1" t="str">
-        <f>IF(DS5,DT5/DS5*100,0) &amp; "%"</f>
+        <f>IF(DS5,ROUND(DT5/DS5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW5" s="2"/>
@@ -2391,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="EA5" s="1" t="str">
-        <f>IF(DX5,DY5/DX5*100,0) &amp; "%"</f>
+        <f>IF(DX5,ROUND(DY5/DX5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB5" s="2"/>
@@ -2406,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="EF5" s="1" t="str">
-        <f>IF(EC5,ED5/EC5*100,0) &amp; "%"</f>
+        <f>IF(EC5,ROUND(ED5/EC5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG5" s="2"/>
@@ -2421,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="EK5" s="1" t="str">
-        <f>IF(EH5,EI5/EH5*100,0) &amp; "%"</f>
+        <f>IF(EH5,ROUND(EI5/EH5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL5" s="2"/>
@@ -2436,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="EP5" s="1" t="str">
-        <f>IF(EM5,EN5/EM5*100,0) &amp; "%"</f>
+        <f>IF(EM5,ROUND(EN5/EM5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ5" s="2"/>
@@ -2451,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="EU5" s="1" t="str">
-        <f>IF(ER5,ES5/ER5*100,0) &amp; "%"</f>
+        <f>IF(ER5,ROUND(ES5/ER5*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV5" s="3"/>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="str">
-        <f t="shared" ref="F6:F69" si="2">IF(C6,D6/C6*100,0) &amp; "%"</f>
+        <f t="shared" ref="F6:F69" si="2">IF(C6,ROUND(D6/C6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G6" s="2"/>
@@ -2489,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="str">
-        <f t="shared" ref="K6:K69" si="4">IF(H6,I6/H6*100,0) &amp; "%"</f>
+        <f t="shared" ref="K6:K69" si="4">IF(H6,ROUND(I6/H6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L6" s="2"/>
@@ -2504,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="str">
-        <f t="shared" ref="P6:P69" si="6">IF(M6,N6/M6*100,0) &amp; "%"</f>
+        <f t="shared" ref="P6:P69" si="6">IF(M6,ROUND(N6/M6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q6" s="2"/>
@@ -2519,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f t="shared" ref="U6:U69" si="8">IF(R6,S6/R6*100,0) &amp; "%"</f>
+        <f t="shared" ref="U6:U69" si="8">IF(R6,ROUND(S6/R6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V6" s="2"/>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="1" t="str">
-        <f t="shared" ref="Z6:Z69" si="10">IF(W6,X6/W6*100,0) &amp; "%"</f>
+        <f t="shared" ref="Z6:Z69" si="10">IF(W6,ROUND(X6/W6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA6" s="2"/>
@@ -2549,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="1" t="str">
-        <f t="shared" ref="AE6:AE69" si="12">IF(AB6,AC6/AB6*100,0) &amp; "%"</f>
+        <f t="shared" ref="AE6:AE69" si="12">IF(AB6,ROUND(AC6/AB6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF6" s="2"/>
@@ -2564,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="1" t="str">
-        <f t="shared" ref="AJ6:AJ69" si="14">IF(AG6,AH6/AG6*100,0) &amp; "%"</f>
+        <f t="shared" ref="AJ6:AJ69" si="14">IF(AG6,ROUND(AH6/AG6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK6" s="2"/>
@@ -2579,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="AO6" s="1" t="str">
-        <f t="shared" ref="AO6:AO69" si="16">IF(AL6,AM6/AL6*100,0) &amp; "%"</f>
+        <f t="shared" ref="AO6:AO69" si="16">IF(AL6,ROUND(AM6/AL6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP6" s="2"/>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="1" t="str">
-        <f t="shared" ref="AT6:AT69" si="18">IF(AQ6,AR6/AQ6*100,0) &amp; "%"</f>
+        <f t="shared" ref="AT6:AT69" si="18">IF(AQ6,ROUND(AR6/AQ6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU6" s="2"/>
@@ -2609,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="AY6" s="1" t="str">
-        <f t="shared" ref="AY6:AY69" si="20">IF(AV6,AW6/AV6*100,0) &amp; "%"</f>
+        <f t="shared" ref="AY6:AY69" si="20">IF(AV6,ROUND(AW6/AV6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ6" s="2"/>
@@ -2624,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="BD6" s="1" t="str">
-        <f t="shared" ref="BD6:BD69" si="22">IF(BA6,BB6/BA6*100,0) &amp; "%"</f>
+        <f t="shared" ref="BD6:BD69" si="22">IF(BA6,ROUND(BB6/BA6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE6" s="2"/>
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="1" t="str">
-        <f t="shared" ref="BI6:BI69" si="24">IF(BF6,BG6/BF6*100,0) &amp; "%"</f>
+        <f t="shared" ref="BI6:BI69" si="24">IF(BF6,ROUND(BG6/BF6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ6" s="2"/>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="1" t="str">
-        <f t="shared" ref="BN6:BN69" si="26">IF(BK6,BL6/BK6*100,0) &amp; "%"</f>
+        <f t="shared" ref="BN6:BN69" si="26">IF(BK6,ROUND(BL6/BK6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO6" s="2"/>
@@ -2669,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="BS6" s="1" t="str">
-        <f t="shared" ref="BS6:BS69" si="28">IF(BP6,BQ6/BP6*100,0) &amp; "%"</f>
+        <f t="shared" ref="BS6:BS69" si="28">IF(BP6,ROUND(BQ6/BP6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT6" s="2"/>
@@ -2684,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="BX6" s="1" t="str">
-        <f t="shared" ref="BX6:BX69" si="30">IF(BU6,BV6/BU6*100,0) &amp; "%"</f>
+        <f t="shared" ref="BX6:BX69" si="30">IF(BU6,ROUND(BV6/BU6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY6" s="2"/>
@@ -2699,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="CC6" s="1" t="str">
-        <f t="shared" ref="CC6:CC69" si="32">IF(BZ6,CA6/BZ6*100,0) &amp; "%"</f>
+        <f t="shared" ref="CC6:CC69" si="32">IF(BZ6,ROUND(CA6/BZ6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD6" s="2"/>
@@ -2714,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="CH6" s="1" t="str">
-        <f t="shared" ref="CH6:CH69" si="34">IF(CE6,CF6/CE6*100,0) &amp; "%"</f>
+        <f t="shared" ref="CH6:CH69" si="34">IF(CE6,ROUND(CF6/CE6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI6" s="2"/>
@@ -2729,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="1" t="str">
-        <f t="shared" ref="CM6:CM69" si="36">IF(CJ6,CK6/CJ6*100,0) &amp; "%"</f>
+        <f t="shared" ref="CM6:CM69" si="36">IF(CJ6,ROUND(CK6/CJ6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN6" s="2"/>
@@ -2744,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="CR6" s="1" t="str">
-        <f t="shared" ref="CR6:CR69" si="38">IF(CO6,CP6/CO6*100,0) &amp; "%"</f>
+        <f t="shared" ref="CR6:CR69" si="38">IF(CO6,ROUND(CP6/CO6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS6" s="2"/>
@@ -2759,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="CW6" s="1" t="str">
-        <f t="shared" ref="CW6:CW69" si="40">IF(CT6,CU6/CT6*100,0) &amp; "%"</f>
+        <f t="shared" ref="CW6:CW69" si="40">IF(CT6,ROUND(CU6/CT6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX6" s="2"/>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="DB6" s="1" t="str">
-        <f t="shared" ref="DB6:DB69" si="42">IF(CY6,CZ6/CY6*100,0) &amp; "%"</f>
+        <f t="shared" ref="DB6:DB69" si="42">IF(CY6,ROUND(CZ6/CY6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC6" s="2"/>
@@ -2789,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="DG6" s="1" t="str">
-        <f t="shared" ref="DG6:DG69" si="44">IF(DD6,DE6/DD6*100,0) &amp; "%"</f>
+        <f t="shared" ref="DG6:DG69" si="44">IF(DD6,ROUND(DE6/DD6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH6" s="2"/>
@@ -2804,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="DL6" s="1" t="str">
-        <f t="shared" ref="DL6:DL69" si="46">IF(DI6,DJ6/DI6*100,0) &amp; "%"</f>
+        <f t="shared" ref="DL6:DL69" si="46">IF(DI6,ROUND(DJ6/DI6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM6" s="2"/>
@@ -2819,7 +2822,7 @@
         <v>0</v>
       </c>
       <c r="DQ6" s="1" t="str">
-        <f t="shared" ref="DQ6:DQ69" si="48">IF(DN6,DO6/DN6*100,0) &amp; "%"</f>
+        <f t="shared" ref="DQ6:DQ69" si="48">IF(DN6,ROUND(DO6/DN6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR6" s="2"/>
@@ -2834,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="DV6" s="1" t="str">
-        <f t="shared" ref="DV6:DV69" si="50">IF(DS6,DT6/DS6*100,0) &amp; "%"</f>
+        <f t="shared" ref="DV6:DV69" si="50">IF(DS6,ROUND(DT6/DS6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW6" s="2"/>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="EA6" s="1" t="str">
-        <f t="shared" ref="EA6:EA69" si="52">IF(DX6,DY6/DX6*100,0) &amp; "%"</f>
+        <f t="shared" ref="EA6:EA69" si="52">IF(DX6,ROUND(DY6/DX6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB6" s="2"/>
@@ -2864,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="EF6" s="1" t="str">
-        <f t="shared" ref="EF6:EF69" si="54">IF(EC6,ED6/EC6*100,0) &amp; "%"</f>
+        <f t="shared" ref="EF6:EF69" si="54">IF(EC6,ROUND(ED6/EC6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG6" s="2"/>
@@ -2879,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="EK6" s="1" t="str">
-        <f t="shared" ref="EK6:EK69" si="56">IF(EH6,EI6/EH6*100,0) &amp; "%"</f>
+        <f t="shared" ref="EK6:EK69" si="56">IF(EH6,ROUND(EI6/EH6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL6" s="2"/>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="EP6" s="1" t="str">
-        <f t="shared" ref="EP6:EP69" si="58">IF(EM6,EN6/EM6*100,0) &amp; "%"</f>
+        <f t="shared" ref="EP6:EP69" si="58">IF(EM6,ROUND(EN6/EM6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ6" s="2"/>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="EU6" s="1" t="str">
-        <f t="shared" ref="EU6:EU69" si="60">IF(ER6,ES6/ER6*100,0) &amp; "%"</f>
+        <f t="shared" ref="EU6:EU69" si="60">IF(ER6,ROUND(ES6/ER6*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV6" s="3"/>
@@ -21253,7 +21256,7 @@
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.3333333333333%</v>
+        <v>33.33%</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1">
@@ -28123,7 +28126,7 @@
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.3333333333333%</v>
+        <v>33.33%</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1">
@@ -31786,7 +31789,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="1" t="str">
-        <f t="shared" ref="F70:F73" si="64">IF(C70,D70/C70*100,0) &amp; "%"</f>
+        <f t="shared" ref="F70:F73" si="64">IF(C70,ROUND(D70/C70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G70" s="2"/>
@@ -31801,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="1" t="str">
-        <f t="shared" ref="K70:K73" si="66">IF(H70,I70/H70*100,0) &amp; "%"</f>
+        <f t="shared" ref="K70:K73" si="66">IF(H70,ROUND(I70/H70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L70" s="2"/>
@@ -31816,7 +31819,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="1" t="str">
-        <f t="shared" ref="P70:P73" si="68">IF(M70,N70/M70*100,0) &amp; "%"</f>
+        <f t="shared" ref="P70:P73" si="68">IF(M70,ROUND(N70/M70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q70" s="2"/>
@@ -31831,7 +31834,7 @@
         <v>0</v>
       </c>
       <c r="U70" s="1" t="str">
-        <f t="shared" ref="U70:U73" si="70">IF(R70,S70/R70*100,0) &amp; "%"</f>
+        <f t="shared" ref="U70:U73" si="70">IF(R70,ROUND(S70/R70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V70" s="2"/>
@@ -31846,7 +31849,7 @@
         <v>0</v>
       </c>
       <c r="Z70" s="1" t="str">
-        <f t="shared" ref="Z70:Z73" si="72">IF(W70,X70/W70*100,0) &amp; "%"</f>
+        <f t="shared" ref="Z70:Z73" si="72">IF(W70,ROUND(X70/W70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA70" s="2"/>
@@ -31861,7 +31864,7 @@
         <v>0</v>
       </c>
       <c r="AE70" s="1" t="str">
-        <f t="shared" ref="AE70:AE73" si="74">IF(AB70,AC70/AB70*100,0) &amp; "%"</f>
+        <f t="shared" ref="AE70:AE73" si="74">IF(AB70,ROUND(AC70/AB70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF70" s="2"/>
@@ -31876,7 +31879,7 @@
         <v>0</v>
       </c>
       <c r="AJ70" s="1" t="str">
-        <f t="shared" ref="AJ70:AJ73" si="76">IF(AG70,AH70/AG70*100,0) &amp; "%"</f>
+        <f t="shared" ref="AJ70:AJ73" si="76">IF(AG70,ROUND(AH70/AG70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK70" s="2"/>
@@ -31891,7 +31894,7 @@
         <v>0</v>
       </c>
       <c r="AO70" s="1" t="str">
-        <f t="shared" ref="AO70:AO73" si="78">IF(AL70,AM70/AL70*100,0) &amp; "%"</f>
+        <f t="shared" ref="AO70:AO73" si="78">IF(AL70,ROUND(AM70/AL70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP70" s="2"/>
@@ -31906,7 +31909,7 @@
         <v>0</v>
       </c>
       <c r="AT70" s="1" t="str">
-        <f t="shared" ref="AT70:AT73" si="80">IF(AQ70,AR70/AQ70*100,0) &amp; "%"</f>
+        <f t="shared" ref="AT70:AT73" si="80">IF(AQ70,ROUND(AR70/AQ70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU70" s="2"/>
@@ -31921,7 +31924,7 @@
         <v>0</v>
       </c>
       <c r="AY70" s="1" t="str">
-        <f t="shared" ref="AY70:AY73" si="82">IF(AV70,AW70/AV70*100,0) &amp; "%"</f>
+        <f t="shared" ref="AY70:AY73" si="82">IF(AV70,ROUND(AW70/AV70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ70" s="2"/>
@@ -31936,7 +31939,7 @@
         <v>0</v>
       </c>
       <c r="BD70" s="1" t="str">
-        <f t="shared" ref="BD70:BD73" si="84">IF(BA70,BB70/BA70*100,0) &amp; "%"</f>
+        <f t="shared" ref="BD70:BD73" si="84">IF(BA70,ROUND(BB70/BA70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE70" s="2"/>
@@ -31951,7 +31954,7 @@
         <v>0</v>
       </c>
       <c r="BI70" s="1" t="str">
-        <f t="shared" ref="BI70:BI73" si="86">IF(BF70,BG70/BF70*100,0) &amp; "%"</f>
+        <f t="shared" ref="BI70:BI73" si="86">IF(BF70,ROUND(BG70/BF70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ70" s="2"/>
@@ -31966,7 +31969,7 @@
         <v>0</v>
       </c>
       <c r="BN70" s="1" t="str">
-        <f t="shared" ref="BN70:BN73" si="88">IF(BK70,BL70/BK70*100,0) &amp; "%"</f>
+        <f t="shared" ref="BN70:BN73" si="88">IF(BK70,ROUND(BL70/BK70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO70" s="2"/>
@@ -31981,7 +31984,7 @@
         <v>0</v>
       </c>
       <c r="BS70" s="1" t="str">
-        <f t="shared" ref="BS70:BS73" si="90">IF(BP70,BQ70/BP70*100,0) &amp; "%"</f>
+        <f t="shared" ref="BS70:BS73" si="90">IF(BP70,ROUND(BQ70/BP70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT70" s="2"/>
@@ -31996,7 +31999,7 @@
         <v>0</v>
       </c>
       <c r="BX70" s="1" t="str">
-        <f t="shared" ref="BX70:BX73" si="92">IF(BU70,BV70/BU70*100,0) &amp; "%"</f>
+        <f t="shared" ref="BX70:BX73" si="92">IF(BU70,ROUND(BV70/BU70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY70" s="2"/>
@@ -32011,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="CC70" s="1" t="str">
-        <f t="shared" ref="CC70:CC73" si="94">IF(BZ70,CA70/BZ70*100,0) &amp; "%"</f>
+        <f t="shared" ref="CC70:CC73" si="94">IF(BZ70,ROUND(CA70/BZ70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD70" s="2"/>
@@ -32026,7 +32029,7 @@
         <v>0</v>
       </c>
       <c r="CH70" s="1" t="str">
-        <f t="shared" ref="CH70:CH73" si="96">IF(CE70,CF70/CE70*100,0) &amp; "%"</f>
+        <f t="shared" ref="CH70:CH73" si="96">IF(CE70,ROUND(CF70/CE70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI70" s="2"/>
@@ -32041,7 +32044,7 @@
         <v>0</v>
       </c>
       <c r="CM70" s="1" t="str">
-        <f t="shared" ref="CM70:CM73" si="98">IF(CJ70,CK70/CJ70*100,0) &amp; "%"</f>
+        <f t="shared" ref="CM70:CM73" si="98">IF(CJ70,ROUND(CK70/CJ70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN70" s="2"/>
@@ -32056,7 +32059,7 @@
         <v>0</v>
       </c>
       <c r="CR70" s="1" t="str">
-        <f t="shared" ref="CR70:CR73" si="100">IF(CO70,CP70/CO70*100,0) &amp; "%"</f>
+        <f t="shared" ref="CR70:CR73" si="100">IF(CO70,ROUND(CP70/CO70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS70" s="2"/>
@@ -32071,7 +32074,7 @@
         <v>0</v>
       </c>
       <c r="CW70" s="1" t="str">
-        <f t="shared" ref="CW70:CW73" si="102">IF(CT70,CU70/CT70*100,0) &amp; "%"</f>
+        <f t="shared" ref="CW70:CW73" si="102">IF(CT70,ROUND(CU70/CT70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX70" s="2"/>
@@ -32086,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="DB70" s="1" t="str">
-        <f t="shared" ref="DB70:DB73" si="104">IF(CY70,CZ70/CY70*100,0) &amp; "%"</f>
+        <f t="shared" ref="DB70:DB73" si="104">IF(CY70,ROUND(CZ70/CY70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC70" s="2"/>
@@ -32101,7 +32104,7 @@
         <v>0</v>
       </c>
       <c r="DG70" s="1" t="str">
-        <f t="shared" ref="DG70:DG73" si="106">IF(DD70,DE70/DD70*100,0) &amp; "%"</f>
+        <f t="shared" ref="DG70:DG73" si="106">IF(DD70,ROUND(DE70/DD70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH70" s="2"/>
@@ -32116,7 +32119,7 @@
         <v>0</v>
       </c>
       <c r="DL70" s="1" t="str">
-        <f t="shared" ref="DL70:DL73" si="108">IF(DI70,DJ70/DI70*100,0) &amp; "%"</f>
+        <f t="shared" ref="DL70:DL73" si="108">IF(DI70,ROUND(DJ70/DI70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM70" s="2"/>
@@ -32131,7 +32134,7 @@
         <v>0</v>
       </c>
       <c r="DQ70" s="1" t="str">
-        <f t="shared" ref="DQ70:DQ73" si="110">IF(DN70,DO70/DN70*100,0) &amp; "%"</f>
+        <f t="shared" ref="DQ70:DQ73" si="110">IF(DN70,ROUND(DO70/DN70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR70" s="2"/>
@@ -32146,7 +32149,7 @@
         <v>0</v>
       </c>
       <c r="DV70" s="1" t="str">
-        <f t="shared" ref="DV70:DV73" si="112">IF(DS70,DT70/DS70*100,0) &amp; "%"</f>
+        <f t="shared" ref="DV70:DV73" si="112">IF(DS70,ROUND(DT70/DS70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW70" s="2"/>
@@ -32161,7 +32164,7 @@
         <v>0</v>
       </c>
       <c r="EA70" s="1" t="str">
-        <f t="shared" ref="EA70:EA73" si="114">IF(DX70,DY70/DX70*100,0) &amp; "%"</f>
+        <f t="shared" ref="EA70:EA73" si="114">IF(DX70,ROUND(DY70/DX70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB70" s="2"/>
@@ -32176,7 +32179,7 @@
         <v>0</v>
       </c>
       <c r="EF70" s="1" t="str">
-        <f t="shared" ref="EF70:EF73" si="116">IF(EC70,ED70/EC70*100,0) &amp; "%"</f>
+        <f t="shared" ref="EF70:EF73" si="116">IF(EC70,ROUND(ED70/EC70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG70" s="2"/>
@@ -32191,7 +32194,7 @@
         <v>0</v>
       </c>
       <c r="EK70" s="1" t="str">
-        <f t="shared" ref="EK70:EK73" si="118">IF(EH70,EI70/EH70*100,0) &amp; "%"</f>
+        <f t="shared" ref="EK70:EK73" si="118">IF(EH70,ROUND(EI70/EH70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL70" s="2"/>
@@ -32206,7 +32209,7 @@
         <v>0</v>
       </c>
       <c r="EP70" s="1" t="str">
-        <f t="shared" ref="EP70:EP73" si="120">IF(EM70,EN70/EM70*100,0) &amp; "%"</f>
+        <f t="shared" ref="EP70:EP73" si="120">IF(EM70,ROUND(EN70/EM70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ70" s="2"/>
@@ -32221,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="EU70" s="1" t="str">
-        <f t="shared" ref="EU70:EU73" si="122">IF(ER70,ES70/ER70*100,0) &amp; "%"</f>
+        <f t="shared" ref="EU70:EU73" si="122">IF(ER70,ROUND(ES70/ER70*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV70" s="3"/>
@@ -33149,94 +33152,94 @@
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="64"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K73" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" s="1">
         <v>0</v>
       </c>
       <c r="P73" s="1" t="str">
         <f t="shared" si="68"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z73" s="1" t="str">
         <f t="shared" si="72"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AA73" s="2"/>
       <c r="AB73" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" s="1" t="str">
         <f t="shared" si="74"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF73" s="2"/>
       <c r="AG73" s="1">
@@ -33316,17 +33319,17 @@
       <c r="BE73" s="2"/>
       <c r="BF73" s="1">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH73" s="1">
         <v>0</v>
       </c>
       <c r="BI73" s="1" t="str">
         <f t="shared" si="86"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="BJ73" s="2"/>
       <c r="BK73" s="1">
@@ -33481,17 +33484,17 @@
       <c r="DH73" s="2"/>
       <c r="DI73" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL73" s="1" t="str">
         <f t="shared" si="108"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="DM73" s="2"/>
       <c r="DN73" s="1">
@@ -33607,104 +33610,104 @@
       <c r="B74" s="2"/>
       <c r="C74" s="1">
         <f>SUM(C5:C73)</f>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" ref="D74:E74" si="123">SUM(D5:D73)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="123"/>
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F74" s="1" t="str">
-        <f>IF(C74,D74/C74*100,0) &amp; "%"</f>
-        <v>41.3793103448276%</v>
+        <f>IF(C74,ROUND(D74/C74*100,2),0) &amp; "%"</f>
+        <v>44.9%</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" s="1">
         <f>SUM(I5:I73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
         <f>SUM(J5:J73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" s="1" t="str">
-        <f>IF(H74,I74/H74*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(H74,ROUND(I74/H74*100,2),0) &amp; "%"</f>
+        <v>33.33%</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="1">
         <f t="shared" si="67"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N74" s="1">
         <f>SUM(N5:N73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O74" s="1">
         <f>SUM(O5:O73)</f>
         <v>3</v>
       </c>
       <c r="P74" s="1" t="str">
-        <f>IF(M74,N74/M74*100,0) &amp; "%"</f>
-        <v>25%</v>
+        <f>IF(M74,ROUND(N74/M74*100,2),0) &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="1">
         <f t="shared" si="69"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S74" s="1">
         <f>SUM(S5:S73)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T74" s="1">
         <f>SUM(T5:T73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U74" s="1" t="str">
-        <f>IF(R74,S74/R74*100,0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(R74,ROUND(S74/R74*100,2),0) &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="1">
         <f t="shared" si="71"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="X74" s="1">
         <f>SUM(X5:X73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y74" s="1">
         <f>SUM(Y5:Y73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z74" s="1" t="str">
-        <f>IF(W74,X74/W74*100,0) &amp; "%"</f>
+        <f>IF(W74,ROUND(X74/W74*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="1">
         <f t="shared" si="73"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC74" s="1">
         <f>SUM(AC5:AC73)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD74" s="1">
         <f>SUM(AD5:AD73)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE74" s="1" t="str">
-        <f>IF(AB74,AC74/AB74*100,0) &amp; "%"</f>
-        <v>33.3333333333333%</v>
+        <f>IF(AB74,ROUND(AC74/AB74*100,2),0) &amp; "%"</f>
+        <v>42.86%</v>
       </c>
       <c r="AF74" s="2"/>
       <c r="AG74" s="1">
@@ -33720,8 +33723,8 @@
         <v>1</v>
       </c>
       <c r="AJ74" s="1" t="str">
-        <f>IF(AG74,AH74/AG74*100,0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(AG74,ROUND(AH74/AG74*100,2),0) &amp; "%"</f>
+        <v>66.67%</v>
       </c>
       <c r="AK74" s="2"/>
       <c r="AL74" s="1">
@@ -33737,7 +33740,7 @@
         <v>1</v>
       </c>
       <c r="AO74" s="1" t="str">
-        <f>IF(AL74,AM74/AL74*100,0) &amp; "%"</f>
+        <f>IF(AL74,ROUND(AM74/AL74*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AP74" s="2"/>
@@ -33754,7 +33757,7 @@
         <v>3</v>
       </c>
       <c r="AT74" s="1" t="str">
-        <f>IF(AQ74,AR74/AQ74*100,0) &amp; "%"</f>
+        <f>IF(AQ74,ROUND(AR74/AQ74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU74" s="2"/>
@@ -33771,7 +33774,7 @@
         <v>0</v>
       </c>
       <c r="AY74" s="1" t="str">
-        <f>IF(AV74,AW74/AV74*100,0) &amp; "%"</f>
+        <f>IF(AV74,ROUND(AW74/AV74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ74" s="2"/>
@@ -33788,25 +33791,25 @@
         <v>0</v>
       </c>
       <c r="BD74" s="1" t="str">
-        <f>IF(BA74,BB74/BA74*100,0) &amp; "%"</f>
+        <f>IF(BA74,ROUND(BB74/BA74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE74" s="2"/>
       <c r="BF74" s="1">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG74" s="1">
         <f>SUM(BG5:BG73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH74" s="1">
         <f>SUM(BH5:BH73)</f>
         <v>0</v>
       </c>
       <c r="BI74" s="1" t="str">
-        <f>IF(BF74,BG74/BF74*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(BF74,ROUND(BG74/BF74*100,2),0) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="BJ74" s="2"/>
       <c r="BK74" s="1">
@@ -33822,7 +33825,7 @@
         <v>0</v>
       </c>
       <c r="BN74" s="1" t="str">
-        <f>IF(BK74,BL74/BK74*100,0) &amp; "%"</f>
+        <f>IF(BK74,ROUND(BL74/BK74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO74" s="2"/>
@@ -33839,7 +33842,7 @@
         <v>0</v>
       </c>
       <c r="BS74" s="1" t="str">
-        <f>IF(BP74,BQ74/BP74*100,0) &amp; "%"</f>
+        <f>IF(BP74,ROUND(BQ74/BP74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT74" s="2"/>
@@ -33856,7 +33859,7 @@
         <v>0</v>
       </c>
       <c r="BX74" s="1" t="str">
-        <f>IF(BU74,BV74/BU74*100,0) &amp; "%"</f>
+        <f>IF(BU74,ROUND(BV74/BU74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY74" s="2"/>
@@ -33873,7 +33876,7 @@
         <v>0</v>
       </c>
       <c r="CC74" s="1" t="str">
-        <f>IF(BZ74,CA74/BZ74*100,0) &amp; "%"</f>
+        <f>IF(BZ74,ROUND(CA74/BZ74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD74" s="2"/>
@@ -33890,7 +33893,7 @@
         <v>0</v>
       </c>
       <c r="CH74" s="1" t="str">
-        <f>IF(CE74,CF74/CE74*100,0) &amp; "%"</f>
+        <f>IF(CE74,ROUND(CF74/CE74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI74" s="2"/>
@@ -33907,7 +33910,7 @@
         <v>0</v>
       </c>
       <c r="CM74" s="1" t="str">
-        <f>IF(CJ74,CK74/CJ74*100,0) &amp; "%"</f>
+        <f>IF(CJ74,ROUND(CK74/CJ74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN74" s="2"/>
@@ -33924,7 +33927,7 @@
         <v>0</v>
       </c>
       <c r="CR74" s="1" t="str">
-        <f>IF(CO74,CP74/CO74*100,0) &amp; "%"</f>
+        <f>IF(CO74,ROUND(CP74/CO74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS74" s="2"/>
@@ -33941,7 +33944,7 @@
         <v>0</v>
       </c>
       <c r="CW74" s="1" t="str">
-        <f>IF(CT74,CU74/CT74*100,0) &amp; "%"</f>
+        <f>IF(CT74,ROUND(CU74/CT74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX74" s="2"/>
@@ -33958,7 +33961,7 @@
         <v>0</v>
       </c>
       <c r="DB74" s="1" t="str">
-        <f>IF(CY74,CZ74/CY74*100,0) &amp; "%"</f>
+        <f>IF(CY74,ROUND(CZ74/CY74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC74" s="2"/>
@@ -33975,25 +33978,25 @@
         <v>0</v>
       </c>
       <c r="DG74" s="1" t="str">
-        <f>IF(DD74,DE74/DD74*100,0) &amp; "%"</f>
+        <f>IF(DD74,ROUND(DE74/DD74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH74" s="2"/>
       <c r="DI74" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ74" s="1">
         <f>SUM(DJ5:DJ73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK74" s="1">
         <f>SUM(DK5:DK73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL74" s="1" t="str">
-        <f>IF(DI74,DJ74/DI74*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(DI74,ROUND(DJ74/DI74*100,2),0) &amp; "%"</f>
+        <v>33.33%</v>
       </c>
       <c r="DM74" s="2"/>
       <c r="DN74" s="1">
@@ -34009,8 +34012,8 @@
         <v>1</v>
       </c>
       <c r="DQ74" s="1" t="str">
-        <f>IF(DN74,DO74/DN74*100,0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(DN74,ROUND(DO74/DN74*100,2),0) &amp; "%"</f>
+        <v>66.67%</v>
       </c>
       <c r="DR74" s="2"/>
       <c r="DS74" s="1">
@@ -34026,7 +34029,7 @@
         <v>0</v>
       </c>
       <c r="DV74" s="1" t="str">
-        <f>IF(DS74,DT74/DS74*100,0) &amp; "%"</f>
+        <f>IF(DS74,ROUND(DT74/DS74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW74" s="2"/>
@@ -34043,7 +34046,7 @@
         <v>0</v>
       </c>
       <c r="EA74" s="1" t="str">
-        <f>IF(DX74,DY74/DX74*100,0) &amp; "%"</f>
+        <f>IF(DX74,ROUND(DY74/DX74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB74" s="2"/>
@@ -34060,7 +34063,7 @@
         <v>2</v>
       </c>
       <c r="EF74" s="1" t="str">
-        <f>IF(EC74,ED74/EC74*100,0) &amp; "%"</f>
+        <f>IF(EC74,ROUND(ED74/EC74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG74" s="2"/>
@@ -34077,7 +34080,7 @@
         <v>0</v>
       </c>
       <c r="EK74" s="1" t="str">
-        <f>IF(EH74,EI74/EH74*100,0) &amp; "%"</f>
+        <f>IF(EH74,ROUND(EI74/EH74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL74" s="2"/>
@@ -34094,7 +34097,7 @@
         <v>0</v>
       </c>
       <c r="EP74" s="1" t="str">
-        <f>IF(EM74,EN74/EM74*100,0) &amp; "%"</f>
+        <f>IF(EM74,ROUND(EN74/EM74*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ74" s="2"/>
@@ -34111,7 +34114,7 @@
         <v>2</v>
       </c>
       <c r="EU74" s="1" t="str">
-        <f>IF(ER74,ES74/ER74*100,0) &amp; "%"</f>
+        <f>IF(ER74,ROUND(ES74/ER74*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="EV74" s="3"/>
@@ -34838,7 +34841,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="2" t="str">
-        <f t="shared" ref="F78:F100" si="125">IF(C78,D78/C78*100,0) &amp; "%"</f>
+        <f>IF(C78,ROUND(D78/C78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G78" s="5"/>
@@ -34853,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f>IF(H78,I78/H78*100,0) &amp; "%"</f>
+        <f>IF(H78,ROUND(I78/H78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L78" s="5"/>
@@ -34868,7 +34871,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="2" t="str">
-        <f>IF(M78,N78/M78*100,0) &amp; "%"</f>
+        <f>IF(M78,ROUND(N78/M78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q78" s="5"/>
@@ -34883,7 +34886,7 @@
         <v>0</v>
       </c>
       <c r="U78" s="2" t="str">
-        <f>IF(R78,S78/R78*100,0) &amp; "%"</f>
+        <f>IF(R78,ROUND(S78/R78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V78" s="5"/>
@@ -34898,7 +34901,7 @@
         <v>0</v>
       </c>
       <c r="Z78" s="2" t="str">
-        <f>IF(W78,X78/W78*100,0) &amp; "%"</f>
+        <f>IF(W78,ROUND(X78/W78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA78" s="5"/>
@@ -34913,7 +34916,7 @@
         <v>0</v>
       </c>
       <c r="AE78" s="2" t="str">
-        <f>IF(AB78,AC78/AB78*100,0) &amp; "%"</f>
+        <f>IF(AB78,ROUND(AC78/AB78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF78" s="5"/>
@@ -34928,7 +34931,7 @@
         <v>0</v>
       </c>
       <c r="AJ78" s="2" t="str">
-        <f>IF(AG78,AH78/AG78*100,0) &amp; "%"</f>
+        <f>IF(AG78,ROUND(AH78/AG78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK78" s="5"/>
@@ -34943,7 +34946,7 @@
         <v>0</v>
       </c>
       <c r="AO78" s="2" t="str">
-        <f>IF(AL78,AM78/AL78*100,0) &amp; "%"</f>
+        <f>IF(AL78,ROUND(AM78/AL78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP78" s="5"/>
@@ -34958,7 +34961,7 @@
         <v>0</v>
       </c>
       <c r="AT78" s="2" t="str">
-        <f>IF(AQ78,AR78/AQ78*100,0) &amp; "%"</f>
+        <f>IF(AQ78,ROUND(AR78/AQ78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU78" s="5"/>
@@ -34973,7 +34976,7 @@
         <v>0</v>
       </c>
       <c r="AY78" s="2" t="str">
-        <f>IF(AV78,AW78/AV78*100,0) &amp; "%"</f>
+        <f>IF(AV78,ROUND(AW78/AV78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ78" s="5"/>
@@ -34988,7 +34991,7 @@
         <v>0</v>
       </c>
       <c r="BD78" s="2" t="str">
-        <f>IF(BA78,BB78/BA78*100,0) &amp; "%"</f>
+        <f>IF(BA78,ROUND(BB78/BA78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE78" s="5"/>
@@ -35003,7 +35006,7 @@
         <v>0</v>
       </c>
       <c r="BI78" s="2" t="str">
-        <f>IF(BF78,BG78/BF78*100,0) &amp; "%"</f>
+        <f>IF(BF78,ROUND(BG78/BF78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ78" s="5"/>
@@ -35018,7 +35021,7 @@
         <v>0</v>
       </c>
       <c r="BN78" s="2" t="str">
-        <f>IF(BK78,BL78/BK78*100,0) &amp; "%"</f>
+        <f>IF(BK78,ROUND(BL78/BK78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO78" s="5"/>
@@ -35033,7 +35036,7 @@
         <v>0</v>
       </c>
       <c r="BS78" s="2" t="str">
-        <f>IF(BP78,BQ78/BP78*100,0) &amp; "%"</f>
+        <f>IF(BP78,ROUND(BQ78/BP78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT78" s="5"/>
@@ -35048,7 +35051,7 @@
         <v>0</v>
       </c>
       <c r="BX78" s="2" t="str">
-        <f>IF(BU78,BV78/BU78*100,0) &amp; "%"</f>
+        <f>IF(BU78,ROUND(BV78/BU78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY78" s="5"/>
@@ -35063,7 +35066,7 @@
         <v>0</v>
       </c>
       <c r="CC78" s="2" t="str">
-        <f>IF(BZ78,CA78/BZ78*100,0) &amp; "%"</f>
+        <f>IF(BZ78,ROUND(CA78/BZ78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD78" s="5"/>
@@ -35078,7 +35081,7 @@
         <v>0</v>
       </c>
       <c r="CH78" s="2" t="str">
-        <f>IF(CE78,CF78/CE78*100,0) &amp; "%"</f>
+        <f>IF(CE78,ROUND(CF78/CE78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI78" s="5"/>
@@ -35093,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="CM78" s="2" t="str">
-        <f>IF(CJ78,CK78/CJ78*100,0) &amp; "%"</f>
+        <f>IF(CJ78,ROUND(CK78/CJ78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN78" s="5"/>
@@ -35108,7 +35111,7 @@
         <v>0</v>
       </c>
       <c r="CR78" s="2" t="str">
-        <f>IF(CO78,CP78/CO78*100,0) &amp; "%"</f>
+        <f>IF(CO78,ROUND(CP78/CO78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS78" s="5"/>
@@ -35123,7 +35126,7 @@
         <v>0</v>
       </c>
       <c r="CW78" s="2" t="str">
-        <f>IF(CT78,CU78/CT78*100,0) &amp; "%"</f>
+        <f>IF(CT78,ROUND(CU78/CT78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX78" s="5"/>
@@ -35138,7 +35141,7 @@
         <v>0</v>
       </c>
       <c r="DB78" s="2" t="str">
-        <f>IF(CY78,CZ78/CY78*100,0) &amp; "%"</f>
+        <f>IF(CY78,ROUND(CZ78/CY78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC78" s="5"/>
@@ -35153,7 +35156,7 @@
         <v>0</v>
       </c>
       <c r="DG78" s="2" t="str">
-        <f>IF(DD78,DE78/DD78*100,0) &amp; "%"</f>
+        <f>IF(DD78,ROUND(DE78/DD78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH78" s="5"/>
@@ -35168,7 +35171,7 @@
         <v>0</v>
       </c>
       <c r="DL78" s="2" t="str">
-        <f>IF(DI78,DJ78/DI78*100,0) &amp; "%"</f>
+        <f>IF(DI78,ROUND(DJ78/DI78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM78" s="5"/>
@@ -35183,7 +35186,7 @@
         <v>0</v>
       </c>
       <c r="DQ78" s="2" t="str">
-        <f>IF(DN78,DO78/DN78*100,0) &amp; "%"</f>
+        <f>IF(DN78,ROUND(DO78/DN78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR78" s="5"/>
@@ -35198,7 +35201,7 @@
         <v>0</v>
       </c>
       <c r="DV78" s="2" t="str">
-        <f>IF(DS78,DT78/DS78*100,0) &amp; "%"</f>
+        <f>IF(DS78,ROUND(DT78/DS78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW78" s="5"/>
@@ -35213,7 +35216,7 @@
         <v>0</v>
       </c>
       <c r="EA78" s="2" t="str">
-        <f>IF(DX78,DY78/DX78*100,0) &amp; "%"</f>
+        <f>IF(DX78,ROUND(DY78/DX78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB78" s="5"/>
@@ -35228,7 +35231,7 @@
         <v>0</v>
       </c>
       <c r="EF78" s="2" t="str">
-        <f>IF(EC78,ED78/EC78*100,0) &amp; "%"</f>
+        <f>IF(EC78,ROUND(ED78/EC78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG78" s="5"/>
@@ -35243,7 +35246,7 @@
         <v>0</v>
       </c>
       <c r="EK78" s="2" t="str">
-        <f>IF(EH78,EI78/EH78*100,0) &amp; "%"</f>
+        <f>IF(EH78,ROUND(EI78/EH78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL78" s="5"/>
@@ -35258,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="EP78" s="2" t="str">
-        <f>IF(EM78,EN78/EM78*100,0) &amp; "%"</f>
+        <f>IF(EM78,ROUND(EN78/EM78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ78" s="5"/>
@@ -35273,7 +35276,7 @@
         <v>0</v>
       </c>
       <c r="EU78" s="2" t="str">
-        <f>IF(ER78,ES78/ER78*100,0) &amp; "%"</f>
+        <f>IF(ER78,ROUND(ES78/ER78*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV78" s="3"/>
@@ -35284,7 +35287,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="2">
-        <f t="shared" ref="C79:C100" si="126">SUM(H79,M79,R79,W79,AB79,AG79,AL79,AQ79,AV79,BA79,BF79,BK79,BP79,BU79,BZ79,CE79,CJ79,CO79,CT79,CY79,DD79,DI79,DN79,DS79,DX79,EC79,EH79,EM79,ER79)</f>
+        <f t="shared" ref="C79:C100" si="125">SUM(H79,M79,R79,W79,AB79,AG79,AL79,AQ79,AV79,BA79,BF79,BK79,BP79,BU79,BZ79,CE79,CJ79,CO79,CT79,CY79,DD79,DI79,DN79,DS79,DX79,EC79,EH79,EM79,ER79)</f>
         <v>0</v>
       </c>
       <c r="D79" s="2">
@@ -35296,7 +35299,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="F79:F100" si="126">IF(C79,ROUND(D79/C79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G79" s="5"/>
@@ -35311,7 +35314,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" ref="K79:K100" si="128">IF(H79,I79/H79*100,0) &amp; "%"</f>
+        <f t="shared" ref="K79:K100" si="128">IF(H79,ROUND(I79/H79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L79" s="5"/>
@@ -35326,7 +35329,7 @@
         <v>0</v>
       </c>
       <c r="P79" s="2" t="str">
-        <f t="shared" ref="P79:P100" si="130">IF(M79,N79/M79*100,0) &amp; "%"</f>
+        <f t="shared" ref="P79:P100" si="130">IF(M79,ROUND(N79/M79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q79" s="5"/>
@@ -35341,7 +35344,7 @@
         <v>0</v>
       </c>
       <c r="U79" s="2" t="str">
-        <f t="shared" ref="U79:U100" si="132">IF(R79,S79/R79*100,0) &amp; "%"</f>
+        <f t="shared" ref="U79:U100" si="132">IF(R79,ROUND(S79/R79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V79" s="5"/>
@@ -35356,7 +35359,7 @@
         <v>0</v>
       </c>
       <c r="Z79" s="2" t="str">
-        <f t="shared" ref="Z79:Z100" si="134">IF(W79,X79/W79*100,0) &amp; "%"</f>
+        <f t="shared" ref="Z79:Z100" si="134">IF(W79,ROUND(X79/W79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA79" s="5"/>
@@ -35371,7 +35374,7 @@
         <v>0</v>
       </c>
       <c r="AE79" s="2" t="str">
-        <f t="shared" ref="AE79:AE100" si="136">IF(AB79,AC79/AB79*100,0) &amp; "%"</f>
+        <f t="shared" ref="AE79:AE100" si="136">IF(AB79,ROUND(AC79/AB79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF79" s="5"/>
@@ -35386,7 +35389,7 @@
         <v>0</v>
       </c>
       <c r="AJ79" s="2" t="str">
-        <f t="shared" ref="AJ79:AJ100" si="138">IF(AG79,AH79/AG79*100,0) &amp; "%"</f>
+        <f t="shared" ref="AJ79:AJ100" si="138">IF(AG79,ROUND(AH79/AG79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK79" s="5"/>
@@ -35401,7 +35404,7 @@
         <v>0</v>
       </c>
       <c r="AO79" s="2" t="str">
-        <f t="shared" ref="AO79:AO100" si="140">IF(AL79,AM79/AL79*100,0) &amp; "%"</f>
+        <f t="shared" ref="AO79:AO100" si="140">IF(AL79,ROUND(AM79/AL79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP79" s="5"/>
@@ -35416,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="AT79" s="2" t="str">
-        <f t="shared" ref="AT79:AT100" si="142">IF(AQ79,AR79/AQ79*100,0) &amp; "%"</f>
+        <f t="shared" ref="AT79:AT100" si="142">IF(AQ79,ROUND(AR79/AQ79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU79" s="5"/>
@@ -35431,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="AY79" s="2" t="str">
-        <f t="shared" ref="AY79:AY100" si="144">IF(AV79,AW79/AV79*100,0) &amp; "%"</f>
+        <f t="shared" ref="AY79:AY100" si="144">IF(AV79,ROUND(AW79/AV79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ79" s="5"/>
@@ -35446,7 +35449,7 @@
         <v>0</v>
       </c>
       <c r="BD79" s="2" t="str">
-        <f t="shared" ref="BD79:BD100" si="146">IF(BA79,BB79/BA79*100,0) &amp; "%"</f>
+        <f t="shared" ref="BD79:BD100" si="146">IF(BA79,ROUND(BB79/BA79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE79" s="5"/>
@@ -35461,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="BI79" s="2" t="str">
-        <f t="shared" ref="BI79:BI100" si="148">IF(BF79,BG79/BF79*100,0) &amp; "%"</f>
+        <f t="shared" ref="BI79:BI100" si="148">IF(BF79,ROUND(BG79/BF79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ79" s="5"/>
@@ -35476,7 +35479,7 @@
         <v>0</v>
       </c>
       <c r="BN79" s="2" t="str">
-        <f t="shared" ref="BN79:BN100" si="150">IF(BK79,BL79/BK79*100,0) &amp; "%"</f>
+        <f t="shared" ref="BN79:BN100" si="150">IF(BK79,ROUND(BL79/BK79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO79" s="5"/>
@@ -35491,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="BS79" s="2" t="str">
-        <f t="shared" ref="BS79:BS100" si="152">IF(BP79,BQ79/BP79*100,0) &amp; "%"</f>
+        <f t="shared" ref="BS79:BS100" si="152">IF(BP79,ROUND(BQ79/BP79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT79" s="5"/>
@@ -35506,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="BX79" s="2" t="str">
-        <f t="shared" ref="BX79:BX100" si="154">IF(BU79,BV79/BU79*100,0) &amp; "%"</f>
+        <f t="shared" ref="BX79:BX100" si="154">IF(BU79,ROUND(BV79/BU79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY79" s="5"/>
@@ -35521,7 +35524,7 @@
         <v>0</v>
       </c>
       <c r="CC79" s="2" t="str">
-        <f t="shared" ref="CC79:CC100" si="156">IF(BZ79,CA79/BZ79*100,0) &amp; "%"</f>
+        <f t="shared" ref="CC79:CC100" si="156">IF(BZ79,ROUND(CA79/BZ79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD79" s="5"/>
@@ -35536,7 +35539,7 @@
         <v>0</v>
       </c>
       <c r="CH79" s="2" t="str">
-        <f t="shared" ref="CH79:CH100" si="158">IF(CE79,CF79/CE79*100,0) &amp; "%"</f>
+        <f t="shared" ref="CH79:CH100" si="158">IF(CE79,ROUND(CF79/CE79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI79" s="5"/>
@@ -35551,7 +35554,7 @@
         <v>0</v>
       </c>
       <c r="CM79" s="2" t="str">
-        <f t="shared" ref="CM79:CM100" si="160">IF(CJ79,CK79/CJ79*100,0) &amp; "%"</f>
+        <f t="shared" ref="CM79:CM100" si="160">IF(CJ79,ROUND(CK79/CJ79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN79" s="5"/>
@@ -35566,7 +35569,7 @@
         <v>0</v>
       </c>
       <c r="CR79" s="2" t="str">
-        <f t="shared" ref="CR79:CR100" si="162">IF(CO79,CP79/CO79*100,0) &amp; "%"</f>
+        <f t="shared" ref="CR79:CR100" si="162">IF(CO79,ROUND(CP79/CO79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS79" s="5"/>
@@ -35581,7 +35584,7 @@
         <v>0</v>
       </c>
       <c r="CW79" s="2" t="str">
-        <f t="shared" ref="CW79:CW100" si="164">IF(CT79,CU79/CT79*100,0) &amp; "%"</f>
+        <f t="shared" ref="CW79:CW100" si="164">IF(CT79,ROUND(CU79/CT79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX79" s="5"/>
@@ -35596,7 +35599,7 @@
         <v>0</v>
       </c>
       <c r="DB79" s="2" t="str">
-        <f t="shared" ref="DB79:DB100" si="166">IF(CY79,CZ79/CY79*100,0) &amp; "%"</f>
+        <f t="shared" ref="DB79:DB100" si="166">IF(CY79,ROUND(CZ79/CY79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC79" s="5"/>
@@ -35611,7 +35614,7 @@
         <v>0</v>
       </c>
       <c r="DG79" s="2" t="str">
-        <f t="shared" ref="DG79:DG100" si="168">IF(DD79,DE79/DD79*100,0) &amp; "%"</f>
+        <f t="shared" ref="DG79:DG100" si="168">IF(DD79,ROUND(DE79/DD79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH79" s="5"/>
@@ -35626,7 +35629,7 @@
         <v>0</v>
       </c>
       <c r="DL79" s="2" t="str">
-        <f t="shared" ref="DL79:DL100" si="170">IF(DI79,DJ79/DI79*100,0) &amp; "%"</f>
+        <f t="shared" ref="DL79:DL100" si="170">IF(DI79,ROUND(DJ79/DI79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM79" s="5"/>
@@ -35641,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="DQ79" s="2" t="str">
-        <f t="shared" ref="DQ79:DQ100" si="172">IF(DN79,DO79/DN79*100,0) &amp; "%"</f>
+        <f t="shared" ref="DQ79:DQ100" si="172">IF(DN79,ROUND(DO79/DN79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR79" s="5"/>
@@ -35656,7 +35659,7 @@
         <v>0</v>
       </c>
       <c r="DV79" s="2" t="str">
-        <f t="shared" ref="DV79:DV100" si="174">IF(DS79,DT79/DS79*100,0) &amp; "%"</f>
+        <f t="shared" ref="DV79:DV100" si="174">IF(DS79,ROUND(DT79/DS79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW79" s="5"/>
@@ -35671,7 +35674,7 @@
         <v>0</v>
       </c>
       <c r="EA79" s="2" t="str">
-        <f t="shared" ref="EA79:EA100" si="176">IF(DX79,DY79/DX79*100,0) &amp; "%"</f>
+        <f t="shared" ref="EA79:EA100" si="176">IF(DX79,ROUND(DY79/DX79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB79" s="5"/>
@@ -35686,7 +35689,7 @@
         <v>0</v>
       </c>
       <c r="EF79" s="2" t="str">
-        <f t="shared" ref="EF79:EF100" si="178">IF(EC79,ED79/EC79*100,0) &amp; "%"</f>
+        <f t="shared" ref="EF79:EF100" si="178">IF(EC79,ROUND(ED79/EC79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG79" s="5"/>
@@ -35701,7 +35704,7 @@
         <v>0</v>
       </c>
       <c r="EK79" s="2" t="str">
-        <f t="shared" ref="EK79:EK100" si="180">IF(EH79,EI79/EH79*100,0) &amp; "%"</f>
+        <f t="shared" ref="EK79:EK100" si="180">IF(EH79,ROUND(EI79/EH79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL79" s="5"/>
@@ -35716,7 +35719,7 @@
         <v>0</v>
       </c>
       <c r="EP79" s="2" t="str">
-        <f t="shared" ref="EP79:EP100" si="182">IF(EM79,EN79/EM79*100,0) &amp; "%"</f>
+        <f t="shared" ref="EP79:EP100" si="182">IF(EM79,ROUND(EN79/EM79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ79" s="5"/>
@@ -35731,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="EU79" s="2" t="str">
-        <f t="shared" ref="EU79:EU100" si="184">IF(ER79,ES79/ER79*100,0) &amp; "%"</f>
+        <f t="shared" ref="EU79:EU100" si="184">IF(ER79,ROUND(ES79/ER79*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV79" s="3"/>
@@ -35742,7 +35745,7 @@
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D80" s="2">
@@ -35754,7 +35757,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G80" s="5"/>
@@ -36200,7 +36203,7 @@
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D81" s="2">
@@ -36212,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G81" s="5"/>
@@ -36658,7 +36661,7 @@
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="D82" s="2">
@@ -36670,7 +36673,7 @@
         <v>1</v>
       </c>
       <c r="F82" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G82" s="5"/>
@@ -37116,7 +37119,7 @@
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="D83" s="2">
@@ -37128,7 +37131,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>100%</v>
       </c>
       <c r="G83" s="5"/>
@@ -37574,7 +37577,7 @@
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D84" s="2">
@@ -37586,7 +37589,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G84" s="5"/>
@@ -38032,7 +38035,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D85" s="2">
@@ -38044,7 +38047,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G85" s="5"/>
@@ -38490,7 +38493,7 @@
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="D86" s="2">
@@ -38502,7 +38505,7 @@
         <v>0</v>
       </c>
       <c r="F86" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>100%</v>
       </c>
       <c r="G86" s="5"/>
@@ -38948,7 +38951,7 @@
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D87" s="2">
@@ -38960,7 +38963,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G87" s="5"/>
@@ -39406,7 +39409,7 @@
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D88" s="2">
@@ -39418,7 +39421,7 @@
         <v>0</v>
       </c>
       <c r="F88" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G88" s="5"/>
@@ -39864,7 +39867,7 @@
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D89" s="2">
@@ -39876,7 +39879,7 @@
         <v>0</v>
       </c>
       <c r="F89" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G89" s="5"/>
@@ -40322,7 +40325,7 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D90" s="2">
@@ -40334,7 +40337,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G90" s="5"/>
@@ -40780,7 +40783,7 @@
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D91" s="2">
@@ -40792,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="F91" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G91" s="5"/>
@@ -41238,7 +41241,7 @@
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D92" s="2">
@@ -41250,7 +41253,7 @@
         <v>0</v>
       </c>
       <c r="F92" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G92" s="5"/>
@@ -41696,7 +41699,7 @@
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>1</v>
       </c>
       <c r="D93" s="2">
@@ -41708,7 +41711,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G93" s="5"/>
@@ -42154,7 +42157,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D94" s="2">
@@ -42166,7 +42169,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G94" s="5"/>
@@ -42612,7 +42615,7 @@
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D95" s="2">
@@ -42624,7 +42627,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G95" s="5"/>
@@ -43082,7 +43085,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G96" s="5"/>
@@ -43528,7 +43531,7 @@
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D97" s="2">
@@ -43540,7 +43543,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G97" s="5"/>
@@ -43986,7 +43989,7 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D98" s="2">
@@ -43998,7 +44001,7 @@
         <v>0</v>
       </c>
       <c r="F98" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G98" s="5"/>
@@ -44444,7 +44447,7 @@
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="D99" s="2">
@@ -44456,7 +44459,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="2" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" si="126"/>
         <v>0%</v>
       </c>
       <c r="G99" s="5"/>
@@ -44902,20 +44905,20 @@
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="2">
-        <f t="shared" si="126"/>
-        <v>0</v>
+        <f t="shared" si="125"/>
+        <v>1</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="185"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
       <c r="F100" s="2" t="str">
-        <f t="shared" si="125"/>
-        <v>0%</v>
+        <f t="shared" si="126"/>
+        <v>100%</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="2">
@@ -44995,17 +44998,17 @@
       <c r="AF100" s="5"/>
       <c r="AG100" s="2">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI100" s="2">
         <v>0</v>
       </c>
       <c r="AJ100" s="2" t="str">
         <f t="shared" si="138"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK100" s="5"/>
       <c r="AL100" s="2">
@@ -45361,19 +45364,19 @@
       <c r="B101" s="5"/>
       <c r="C101" s="2">
         <f>SUM(C78:C100)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" s="2">
         <f>SUM(D78:D100)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="2">
         <f>SUM(E78:E100)</f>
         <v>2</v>
       </c>
       <c r="F101" s="2" t="str">
-        <f>IF(C101,D101/C101*100,0) &amp; "%"</f>
-        <v>50%</v>
+        <f>IF(C101,ROUND(D101/C101*100,2),0) &amp; "%"</f>
+        <v>60%</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="2">
@@ -45389,7 +45392,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="2" t="str">
-        <f>IF(H101,I101/H101*100,0) &amp; "%"</f>
+        <f>IF(H101,ROUND(I101/H101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L101" s="5"/>
@@ -45406,7 +45409,7 @@
         <v>0</v>
       </c>
       <c r="P101" s="2" t="str">
-        <f>IF(M101,N101/M101*100,0) &amp; "%"</f>
+        <f>IF(M101,ROUND(N101/M101*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="Q101" s="5"/>
@@ -45423,7 +45426,7 @@
         <v>1</v>
       </c>
       <c r="U101" s="2" t="str">
-        <f>IF(R101,S101/R101*100,0) &amp; "%"</f>
+        <f>IF(R101,ROUND(S101/R101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V101" s="5"/>
@@ -45440,7 +45443,7 @@
         <v>0</v>
       </c>
       <c r="Z101" s="2" t="str">
-        <f>IF(W101,X101/W101*100,0) &amp; "%"</f>
+        <f>IF(W101,ROUND(X101/W101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA101" s="5"/>
@@ -45457,25 +45460,25 @@
         <v>0</v>
       </c>
       <c r="AE101" s="2" t="str">
-        <f>IF(AB101,AC101/AB101*100,0) &amp; "%"</f>
+        <f>IF(AB101,ROUND(AC101/AB101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF101" s="5"/>
       <c r="AG101" s="2">
         <f>+SUM(AH101,AI101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH101" s="2">
         <f>SUM(AH78:AH100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI101" s="2">
         <f>SUM(AI78:AI100)</f>
         <v>0</v>
       </c>
       <c r="AJ101" s="2" t="str">
-        <f>IF(AG101,AH101/AG101*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(AG101,ROUND(AH101/AG101*100,2),0) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="AK101" s="5"/>
       <c r="AL101" s="2">
@@ -45491,7 +45494,7 @@
         <v>0</v>
       </c>
       <c r="AO101" s="2" t="str">
-        <f>IF(AL101,AM101/AL101*100,0) &amp; "%"</f>
+        <f>IF(AL101,ROUND(AM101/AL101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP101" s="5"/>
@@ -45508,7 +45511,7 @@
         <v>0</v>
       </c>
       <c r="AT101" s="2" t="str">
-        <f>IF(AQ101,AR101/AQ101*100,0) &amp; "%"</f>
+        <f>IF(AQ101,ROUND(AR101/AQ101*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="AU101" s="5"/>
@@ -45525,7 +45528,7 @@
         <v>0</v>
       </c>
       <c r="AY101" s="2" t="str">
-        <f>IF(AV101,AW101/AV101*100,0) &amp; "%"</f>
+        <f>IF(AV101,ROUND(AW101/AV101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ101" s="5"/>
@@ -45542,7 +45545,7 @@
         <v>0</v>
       </c>
       <c r="BD101" s="2" t="str">
-        <f>IF(BA101,BB101/BA101*100,0) &amp; "%"</f>
+        <f>IF(BA101,ROUND(BB101/BA101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE101" s="5"/>
@@ -45559,7 +45562,7 @@
         <v>0</v>
       </c>
       <c r="BI101" s="2" t="str">
-        <f>IF(BF101,BG101/BF101*100,0) &amp; "%"</f>
+        <f>IF(BF101,ROUND(BG101/BF101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ101" s="5"/>
@@ -45576,7 +45579,7 @@
         <v>0</v>
       </c>
       <c r="BN101" s="2" t="str">
-        <f>IF(BK101,BL101/BK101*100,0) &amp; "%"</f>
+        <f>IF(BK101,ROUND(BL101/BK101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO101" s="5"/>
@@ -45593,7 +45596,7 @@
         <v>0</v>
       </c>
       <c r="BS101" s="2" t="str">
-        <f>IF(BP101,BQ101/BP101*100,0) &amp; "%"</f>
+        <f>IF(BP101,ROUND(BQ101/BP101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT101" s="5"/>
@@ -45610,7 +45613,7 @@
         <v>0</v>
       </c>
       <c r="BX101" s="2" t="str">
-        <f>IF(BU101,BV101/BU101*100,0) &amp; "%"</f>
+        <f>IF(BU101,ROUND(BV101/BU101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY101" s="5"/>
@@ -45627,7 +45630,7 @@
         <v>0</v>
       </c>
       <c r="CC101" s="2" t="str">
-        <f>IF(BZ101,CA101/BZ101*100,0) &amp; "%"</f>
+        <f>IF(BZ101,ROUND(CA101/BZ101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD101" s="5"/>
@@ -45644,7 +45647,7 @@
         <v>0</v>
       </c>
       <c r="CH101" s="2" t="str">
-        <f>IF(CE101,CF101/CE101*100,0) &amp; "%"</f>
+        <f>IF(CE101,ROUND(CF101/CE101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI101" s="5"/>
@@ -45661,7 +45664,7 @@
         <v>0</v>
       </c>
       <c r="CM101" s="2" t="str">
-        <f>IF(CJ101,CK101/CJ101*100,0) &amp; "%"</f>
+        <f>IF(CJ101,ROUND(CK101/CJ101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN101" s="5"/>
@@ -45678,7 +45681,7 @@
         <v>0</v>
       </c>
       <c r="CR101" s="2" t="str">
-        <f>IF(CO101,CP101/CO101*100,0) &amp; "%"</f>
+        <f>IF(CO101,ROUND(CP101/CO101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS101" s="5"/>
@@ -45695,7 +45698,7 @@
         <v>0</v>
       </c>
       <c r="CW101" s="2" t="str">
-        <f>IF(CT101,CU101/CT101*100,0) &amp; "%"</f>
+        <f>IF(CT101,ROUND(CU101/CT101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX101" s="5"/>
@@ -45712,7 +45715,7 @@
         <v>0</v>
       </c>
       <c r="DB101" s="2" t="str">
-        <f>IF(CY101,CZ101/CY101*100,0) &amp; "%"</f>
+        <f>IF(CY101,ROUND(CZ101/CY101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC101" s="5"/>
@@ -45729,7 +45732,7 @@
         <v>0</v>
       </c>
       <c r="DG101" s="2" t="str">
-        <f>IF(DD101,DE101/DD101*100,0) &amp; "%"</f>
+        <f>IF(DD101,ROUND(DE101/DD101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH101" s="5"/>
@@ -45746,7 +45749,7 @@
         <v>0</v>
       </c>
       <c r="DL101" s="2" t="str">
-        <f>IF(DI101,DJ101/DI101*100,0) &amp; "%"</f>
+        <f>IF(DI101,ROUND(DJ101/DI101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM101" s="5"/>
@@ -45763,7 +45766,7 @@
         <v>0</v>
       </c>
       <c r="DQ101" s="2" t="str">
-        <f>IF(DN101,DO101/DN101*100,0) &amp; "%"</f>
+        <f>IF(DN101,ROUND(DO101/DN101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR101" s="5"/>
@@ -45780,7 +45783,7 @@
         <v>0</v>
       </c>
       <c r="DV101" s="2" t="str">
-        <f>IF(DS101,DT101/DS101*100,0) &amp; "%"</f>
+        <f>IF(DS101,ROUND(DT101/DS101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW101" s="5"/>
@@ -45797,7 +45800,7 @@
         <v>0</v>
       </c>
       <c r="EA101" s="2" t="str">
-        <f>IF(DX101,DY101/DX101*100,0) &amp; "%"</f>
+        <f>IF(DX101,ROUND(DY101/DX101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB101" s="5"/>
@@ -45814,7 +45817,7 @@
         <v>1</v>
       </c>
       <c r="EF101" s="2" t="str">
-        <f>IF(EC101,ED101/EC101*100,0) &amp; "%"</f>
+        <f>IF(EC101,ROUND(ED101/EC101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG101" s="5"/>
@@ -45831,7 +45834,7 @@
         <v>0</v>
       </c>
       <c r="EK101" s="2" t="str">
-        <f>IF(EH101,EI101/EH101*100,0) &amp; "%"</f>
+        <f>IF(EH101,ROUND(EI101/EH101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL101" s="5"/>
@@ -45848,7 +45851,7 @@
         <v>0</v>
       </c>
       <c r="EP101" s="2" t="str">
-        <f>IF(EM101,EN101/EM101*100,0) &amp; "%"</f>
+        <f>IF(EM101,ROUND(EN101/EM101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ101" s="5"/>
@@ -45865,7 +45868,7 @@
         <v>0</v>
       </c>
       <c r="EU101" s="2" t="str">
-        <f>IF(ER101,ES101/ER101*100,0) &amp; "%"</f>
+        <f>IF(ER101,ROUND(ES101/ER101*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV101" s="3"/>
@@ -46189,8 +46192,8 @@
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="str">
-        <f>IF(SUM(D74,D101),SUM(D74,D101)*100/SUM(C74,C101),0) &amp; "%"</f>
-        <v>42.4242424242424%</v>
+        <f>IF(SUM(D74,D101),ROUND(SUM(D74,D101)*100/SUM(C74,C101),2),0) &amp; "%"</f>
+        <v>46.3%</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9" t="s">
@@ -46199,8 +46202,8 @@
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="str">
-        <f>IF(SUM(I74,I101),SUM(I74,I101)*100/SUM(H74,H101),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(SUM(I74,I101),ROUND(SUM(I74,I101)*100/SUM(H74,H101),2),0) &amp; "%"</f>
+        <v>33.33%</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
@@ -46209,8 +46212,8 @@
       <c r="N104" s="9"/>
       <c r="O104" s="9"/>
       <c r="P104" s="9" t="str">
-        <f>IF(SUM(N74,N101),SUM(N74,N101)*100/SUM(M74,M101),0) &amp; "%"</f>
-        <v>40%</v>
+        <f>IF(SUM(N74,N101),ROUND(SUM(N74,N101)*100/SUM(M74,M101),2),0) &amp; "%"</f>
+        <v>57.14%</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="9" t="s">
@@ -46219,8 +46222,8 @@
       <c r="S104" s="9"/>
       <c r="T104" s="9"/>
       <c r="U104" s="9" t="str">
-        <f>IF(SUM(S74,S101),SUM(S74,S101)*100/SUM(R74,R101),0) &amp; "%"</f>
-        <v>50%</v>
+        <f>IF(SUM(S74,S101),ROUND(SUM(S74,S101)*100/SUM(R74,R101),2),0) &amp; "%"</f>
+        <v>42.86%</v>
       </c>
       <c r="V104" s="10"/>
       <c r="W104" s="9" t="s">
@@ -46229,7 +46232,7 @@
       <c r="X104" s="9"/>
       <c r="Y104" s="9"/>
       <c r="Z104" s="9" t="str">
-        <f>IF(SUM(X74,X101),SUM(X74,X101)*100/SUM(W74,W101),0) &amp; "%"</f>
+        <f>IF(SUM(X74,X101),ROUND(SUM(X74,X101)*100/SUM(W74,W101),2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AA104" s="10"/>
@@ -46239,8 +46242,8 @@
       <c r="AC104" s="9"/>
       <c r="AD104" s="9"/>
       <c r="AE104" s="9" t="str">
-        <f>IF(SUM(AC74,AC101),SUM(AC74,AC101)*100/SUM(AB74,AB101),0) &amp; "%"</f>
-        <v>33.3333333333333%</v>
+        <f>IF(SUM(AC74,AC101),ROUND(SUM(AC74,AC101)*100/SUM(AB74,AB101),2),0) &amp; "%"</f>
+        <v>42.86%</v>
       </c>
       <c r="AF104" s="10"/>
       <c r="AG104" s="9" t="s">
@@ -46249,8 +46252,8 @@
       <c r="AH104" s="9"/>
       <c r="AI104" s="9"/>
       <c r="AJ104" s="9" t="str">
-        <f>IF(SUM(AH74,AH101),SUM(AH74,AH101)*100/SUM(AG74,AG101),0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(SUM(AH74,AH101),ROUND(SUM(AH74,AH101)*100/SUM(AG74,AG101),2),0) &amp; "%"</f>
+        <v>75%</v>
       </c>
       <c r="AK104" s="10"/>
       <c r="AL104" s="9" t="s">
@@ -46259,7 +46262,7 @@
       <c r="AM104" s="9"/>
       <c r="AN104" s="9"/>
       <c r="AO104" s="9" t="str">
-        <f>IF(SUM(AM74,AM101),SUM(AM74,AM101)*100/SUM(AL74,AL101),0) &amp; "%"</f>
+        <f>IF(SUM(AM74,AM101),ROUND(SUM(AM74,AM101)*100/SUM(AL74,AL101),2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AP104" s="10"/>
@@ -46269,7 +46272,7 @@
       <c r="AR104" s="9"/>
       <c r="AS104" s="9"/>
       <c r="AT104" s="9" t="str">
-        <f>IF(SUM(AR74,AR101),SUM(AR74,AR101)*100/SUM(AQ74,AQ101),0) &amp; "%"</f>
+        <f>IF(SUM(AR74,AR101),ROUND(SUM(AR74,AR101)*100/SUM(AQ74,AQ101),2),0) &amp; "%"</f>
         <v>25%</v>
       </c>
       <c r="AU104" s="10"/>
@@ -46279,7 +46282,7 @@
       <c r="AW104" s="9"/>
       <c r="AX104" s="9"/>
       <c r="AY104" s="9" t="str">
-        <f>IF(SUM(AW74,AW101),SUM(AW74,AW101)*100/SUM(AV74,AV101),0) &amp; "%"</f>
+        <f>IF(SUM(AW74,AW101),ROUND(SUM(AW74,AW101)*100/SUM(AV74,AV101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ104" s="10"/>
@@ -46289,7 +46292,7 @@
       <c r="BB104" s="9"/>
       <c r="BC104" s="9"/>
       <c r="BD104" s="9" t="str">
-        <f>IF(SUM(BB74,BB101),SUM(BB74,BB101)*100/SUM(BA74,BA101),0) &amp; "%"</f>
+        <f>IF(SUM(BB74,BB101),ROUND(SUM(BB74,BB101)*100/SUM(BA74,BA101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE104" s="10"/>
@@ -46299,8 +46302,8 @@
       <c r="BG104" s="9"/>
       <c r="BH104" s="9"/>
       <c r="BI104" s="9" t="str">
-        <f>IF(SUM(BG74,BG101),SUM(BG74,BG101)*100/SUM(BF74,BF101),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(SUM(BG74,BG101),ROUND(SUM(BG74,BG101)*100/SUM(BF74,BF101),2),0) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="BJ104" s="10"/>
       <c r="BK104" s="9" t="s">
@@ -46309,7 +46312,7 @@
       <c r="BL104" s="9"/>
       <c r="BM104" s="9"/>
       <c r="BN104" s="9" t="str">
-        <f>IF(SUM(BL74,BL101),SUM(BL74,BL101)*100/SUM(BK74,BK101),0) &amp; "%"</f>
+        <f>IF(SUM(BL74,BL101),ROUND(SUM(BL74,BL101)*100/SUM(BK74,BK101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO104" s="10"/>
@@ -46319,7 +46322,7 @@
       <c r="BQ104" s="9"/>
       <c r="BR104" s="9"/>
       <c r="BS104" s="9" t="str">
-        <f>IF(SUM(BQ74,BQ101),SUM(BQ74,BQ101)*100/SUM(BP74,BP101),0) &amp; "%"</f>
+        <f>IF(SUM(BQ74,BQ101),ROUND(SUM(BQ74,BQ101)*100/SUM(BP74,BP101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT104" s="10"/>
@@ -46329,7 +46332,7 @@
       <c r="BV104" s="9"/>
       <c r="BW104" s="9"/>
       <c r="BX104" s="9" t="str">
-        <f>IF(SUM(BV74,BV101),SUM(BV74,BV101)*100/SUM(BU74,BU101),0) &amp; "%"</f>
+        <f>IF(SUM(BV74,BV101),ROUND(SUM(BV74,BV101)*100/SUM(BU74,BU101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY104" s="10"/>
@@ -46339,7 +46342,7 @@
       <c r="CA104" s="9"/>
       <c r="CB104" s="9"/>
       <c r="CC104" s="9" t="str">
-        <f>IF(SUM(CA74,CA101),SUM(CA74,CA101)*100/SUM(BZ74,BZ101),0) &amp; "%"</f>
+        <f>IF(SUM(CA74,CA101),ROUND(SUM(CA74,CA101)*100/SUM(BZ74,BZ101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD104" s="10"/>
@@ -46349,7 +46352,7 @@
       <c r="CF104" s="9"/>
       <c r="CG104" s="9"/>
       <c r="CH104" s="9" t="str">
-        <f>IF(SUM(CF74,CF101),SUM(CF74,CF101)*100/SUM(CE74,CE101),0) &amp; "%"</f>
+        <f>IF(SUM(CF74,CF101),ROUND(SUM(CF74,CF101)*100/SUM(CE74,CE101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI104" s="10"/>
@@ -46359,7 +46362,7 @@
       <c r="CK104" s="9"/>
       <c r="CL104" s="9"/>
       <c r="CM104" s="9" t="str">
-        <f>IF(SUM(CK74,CK101),SUM(CK74,CK101)*100/SUM(CJ74,CJ101),0) &amp; "%"</f>
+        <f>IF(SUM(CK74,CK101),ROUND(SUM(CK74,CK101)*100/SUM(CJ74,CJ101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN104" s="10"/>
@@ -46369,7 +46372,7 @@
       <c r="CP104" s="9"/>
       <c r="CQ104" s="9"/>
       <c r="CR104" s="9" t="str">
-        <f>IF(SUM(CP74,CP101),SUM(CP74,CP101)*100/SUM(CO74,CO101),0) &amp; "%"</f>
+        <f>IF(SUM(CP74,CP101),ROUND(SUM(CP74,CP101)*100/SUM(CO74,CO101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS104" s="10"/>
@@ -46379,7 +46382,7 @@
       <c r="CU104" s="9"/>
       <c r="CV104" s="9"/>
       <c r="CW104" s="9" t="str">
-        <f>IF(SUM(CU74,CU101),SUM(CU74,CU101)*100/SUM(CT74,CT101),0) &amp; "%"</f>
+        <f>IF(SUM(CU74,CU101),ROUND(SUM(CU74,CU101)*100/SUM(CT74,CT101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX104" s="10"/>
@@ -46389,7 +46392,7 @@
       <c r="CZ104" s="9"/>
       <c r="DA104" s="9"/>
       <c r="DB104" s="9" t="str">
-        <f>IF(SUM(CZ74,CZ101),SUM(CZ74,CZ101)*100/SUM(CY74,CY101),0) &amp; "%"</f>
+        <f>IF(SUM(CZ74,CZ101),ROUND(SUM(CZ74,CZ101)*100/SUM(CY74,CY101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC104" s="10"/>
@@ -46399,7 +46402,7 @@
       <c r="DE104" s="9"/>
       <c r="DF104" s="9"/>
       <c r="DG104" s="9" t="str">
-        <f>IF(SUM(DE74,DE101),SUM(DE74,DE101)*100/SUM(DD74,DD101),0) &amp; "%"</f>
+        <f>IF(SUM(DE74,DE101),ROUND(SUM(DE74,DE101)*100/SUM(DD74,DD101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH104" s="10"/>
@@ -46409,8 +46412,8 @@
       <c r="DJ104" s="9"/>
       <c r="DK104" s="9"/>
       <c r="DL104" s="9" t="str">
-        <f>IF(SUM(DJ74,DJ101),SUM(DJ74,DJ101)*100/SUM(DI74,DI101),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(SUM(DJ74,DJ101),ROUND(SUM(DJ74,DJ101)*100/SUM(DI74,DI101),2),0) &amp; "%"</f>
+        <v>33.33%</v>
       </c>
       <c r="DM104" s="10"/>
       <c r="DN104" s="9" t="s">
@@ -46419,8 +46422,8 @@
       <c r="DO104" s="9"/>
       <c r="DP104" s="9"/>
       <c r="DQ104" s="9" t="str">
-        <f>IF(SUM(DO74,DO101),SUM(DO74,DO101)*100/SUM(DN74,DN101),0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(SUM(DO74,DO101),ROUND(SUM(DO74,DO101)*100/SUM(DN74,DN101),2),0) &amp; "%"</f>
+        <v>66.67%</v>
       </c>
       <c r="DR104" s="10"/>
       <c r="DS104" s="9" t="s">
@@ -46429,7 +46432,7 @@
       <c r="DT104" s="9"/>
       <c r="DU104" s="9"/>
       <c r="DV104" s="9" t="str">
-        <f>IF(SUM(DT74,DT101),SUM(DT74,DT101)*100/SUM(DS74,DS101),0) &amp; "%"</f>
+        <f>IF(SUM(DT74,DT101),ROUND(SUM(DT74,DT101)*100/SUM(DS74,DS101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW104" s="10"/>
@@ -46439,7 +46442,7 @@
       <c r="DY104" s="9"/>
       <c r="DZ104" s="9"/>
       <c r="EA104" s="9" t="str">
-        <f>IF(SUM(DY74,DY101),SUM(DY74,DY101)*100/SUM(DX74,DX101),0) &amp; "%"</f>
+        <f>IF(SUM(DY74,DY101),ROUND(SUM(DY74,DY101)*100/SUM(DX74,DX101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB104" s="10"/>
@@ -46449,7 +46452,7 @@
       <c r="ED104" s="9"/>
       <c r="EE104" s="9"/>
       <c r="EF104" s="9" t="str">
-        <f>IF(SUM(ED74,ED101),SUM(ED74,ED101)*100/SUM(EC74,EC101),0) &amp; "%"</f>
+        <f>IF(SUM(ED74,ED101),ROUND(SUM(ED74,ED101)*100/SUM(EC74,EC101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG104" s="10"/>
@@ -46459,7 +46462,7 @@
       <c r="EI104" s="9"/>
       <c r="EJ104" s="9"/>
       <c r="EK104" s="9" t="str">
-        <f>IF(SUM(EI74,EI101),SUM(EI74,EI101)*100/SUM(EH74,EH101),0) &amp; "%"</f>
+        <f>IF(SUM(EI74,EI101),ROUND(SUM(EI74,EI101)*100/SUM(EH74,EH101),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL104" s="10"/>
@@ -46469,17 +46472,17 @@
       <c r="EN104" s="9"/>
       <c r="EO104" s="9"/>
       <c r="EP104" s="9" t="str">
-        <f>IF(SUM(EN74,EN101),SUM(EN74,EN101)*100/SUM(EM74,EM101),0) &amp; "%"</f>
-        <v>0%</v>
-      </c>
-      <c r="EQ104" s="9"/>
+        <f>IF(SUM(EN74,EN101),ROUND(SUM(EN74,EN101)*100/SUM(EM74,EM101),2),0) &amp; "%"</f>
+        <v>0%</v>
+      </c>
+      <c r="EQ104" s="10"/>
       <c r="ER104" s="9" t="s">
         <v>148</v>
       </c>
       <c r="ES104" s="9"/>
       <c r="ET104" s="9"/>
       <c r="EU104" s="9" t="str">
-        <f>IF(SUM(ES74,ES101),SUM(ES74,ES101)*100/SUM(ER74,ER101),0) &amp; "%"</f>
+        <f>IF(SUM(ES74,ES101),ROUND(SUM(ES74,ES101)*100/SUM(ER74,ER101),2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="EV104" s="3"/>
@@ -47206,7 +47209,7 @@
         <v>0</v>
       </c>
       <c r="F108" s="7" t="str">
-        <f t="shared" ref="F108:F132" si="188">IF(C108,D108/C108*100,0) &amp; "%"</f>
+        <f>IF(C108,ROUND(D108/C108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G108" s="8"/>
@@ -47221,7 +47224,7 @@
         <v>0</v>
       </c>
       <c r="K108" s="7" t="str">
-        <f>IF(H108,I108/H108*100,0) &amp; "%"</f>
+        <f>IF(H108,ROUND(I108/H108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L108" s="8"/>
@@ -47236,7 +47239,7 @@
         <v>0</v>
       </c>
       <c r="P108" s="7" t="str">
-        <f>IF(M108,N108/M108*100,0) &amp; "%"</f>
+        <f>IF(M108,ROUND(N108/M108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q108" s="8"/>
@@ -47251,7 +47254,7 @@
         <v>0</v>
       </c>
       <c r="U108" s="7" t="str">
-        <f>IF(R108,S108/R108*100,0) &amp; "%"</f>
+        <f>IF(R108,ROUND(S108/R108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V108" s="8"/>
@@ -47266,7 +47269,7 @@
         <v>0</v>
       </c>
       <c r="Z108" s="7" t="str">
-        <f>IF(W108,X108/W108*100,0) &amp; "%"</f>
+        <f>IF(W108,ROUND(X108/W108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA108" s="8"/>
@@ -47281,7 +47284,7 @@
         <v>0</v>
       </c>
       <c r="AE108" s="7" t="str">
-        <f>IF(AB108,AC108/AB108*100,0) &amp; "%"</f>
+        <f>IF(AB108,ROUND(AC108/AB108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF108" s="8"/>
@@ -47296,7 +47299,7 @@
         <v>0</v>
       </c>
       <c r="AJ108" s="7" t="str">
-        <f>IF(AG108,AH108/AG108*100,0) &amp; "%"</f>
+        <f>IF(AG108,ROUND(AH108/AG108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK108" s="8"/>
@@ -47311,7 +47314,7 @@
         <v>0</v>
       </c>
       <c r="AO108" s="7" t="str">
-        <f>IF(AL108,AM108/AL108*100,0) &amp; "%"</f>
+        <f>IF(AL108,ROUND(AM108/AL108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP108" s="8"/>
@@ -47326,7 +47329,7 @@
         <v>0</v>
       </c>
       <c r="AT108" s="7" t="str">
-        <f>IF(AQ108,AR108/AQ108*100,0) &amp; "%"</f>
+        <f>IF(AQ108,ROUND(AR108/AQ108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU108" s="8"/>
@@ -47341,7 +47344,7 @@
         <v>0</v>
       </c>
       <c r="AY108" s="7" t="str">
-        <f>IF(AV108,AW108/AV108*100,0) &amp; "%"</f>
+        <f>IF(AV108,ROUND(AW108/AV108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ108" s="8"/>
@@ -47356,7 +47359,7 @@
         <v>0</v>
       </c>
       <c r="BD108" s="7" t="str">
-        <f>IF(BA108,BB108/BA108*100,0) &amp; "%"</f>
+        <f>IF(BA108,ROUND(BB108/BA108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE108" s="8"/>
@@ -47371,7 +47374,7 @@
         <v>0</v>
       </c>
       <c r="BI108" s="7" t="str">
-        <f>IF(BF108,BG108/BF108*100,0) &amp; "%"</f>
+        <f>IF(BF108,ROUND(BG108/BF108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ108" s="8"/>
@@ -47386,7 +47389,7 @@
         <v>0</v>
       </c>
       <c r="BN108" s="7" t="str">
-        <f>IF(BK108,BL108/BK108*100,0) &amp; "%"</f>
+        <f>IF(BK108,ROUND(BL108/BK108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO108" s="8"/>
@@ -47401,7 +47404,7 @@
         <v>0</v>
       </c>
       <c r="BS108" s="7" t="str">
-        <f>IF(BP108,BQ108/BP108*100,0) &amp; "%"</f>
+        <f>IF(BP108,ROUND(BQ108/BP108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT108" s="8"/>
@@ -47416,7 +47419,7 @@
         <v>0</v>
       </c>
       <c r="BX108" s="7" t="str">
-        <f>IF(BU108,BV108/BU108*100,0) &amp; "%"</f>
+        <f>IF(BU108,ROUND(BV108/BU108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY108" s="8"/>
@@ -47431,7 +47434,7 @@
         <v>0</v>
       </c>
       <c r="CC108" s="7" t="str">
-        <f>IF(BZ108,CA108/BZ108*100,0) &amp; "%"</f>
+        <f>IF(BZ108,ROUND(CA108/BZ108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD108" s="8"/>
@@ -47446,7 +47449,7 @@
         <v>0</v>
       </c>
       <c r="CH108" s="7" t="str">
-        <f>IF(CE108,CF108/CE108*100,0) &amp; "%"</f>
+        <f>IF(CE108,ROUND(CF108/CE108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI108" s="8"/>
@@ -47461,7 +47464,7 @@
         <v>0</v>
       </c>
       <c r="CM108" s="7" t="str">
-        <f>IF(CJ108,CK108/CJ108*100,0) &amp; "%"</f>
+        <f>IF(CJ108,ROUND(CK108/CJ108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN108" s="8"/>
@@ -47476,7 +47479,7 @@
         <v>0</v>
       </c>
       <c r="CR108" s="7" t="str">
-        <f>IF(CO108,CP108/CO108*100,0) &amp; "%"</f>
+        <f>IF(CO108,ROUND(CP108/CO108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS108" s="8"/>
@@ -47491,7 +47494,7 @@
         <v>0</v>
       </c>
       <c r="CW108" s="7" t="str">
-        <f>IF(CT108,CU108/CT108*100,0) &amp; "%"</f>
+        <f>IF(CT108,ROUND(CU108/CT108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX108" s="8"/>
@@ -47506,7 +47509,7 @@
         <v>0</v>
       </c>
       <c r="DB108" s="7" t="str">
-        <f>IF(CY108,CZ108/CY108*100,0) &amp; "%"</f>
+        <f>IF(CY108,ROUND(CZ108/CY108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC108" s="8"/>
@@ -47521,7 +47524,7 @@
         <v>0</v>
       </c>
       <c r="DG108" s="7" t="str">
-        <f>IF(DD108,DE108/DD108*100,0) &amp; "%"</f>
+        <f>IF(DD108,ROUND(DE108/DD108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH108" s="8"/>
@@ -47536,7 +47539,7 @@
         <v>0</v>
       </c>
       <c r="DL108" s="7" t="str">
-        <f>IF(DI108,DJ108/DI108*100,0) &amp; "%"</f>
+        <f>IF(DI108,ROUND(DJ108/DI108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM108" s="8"/>
@@ -47551,7 +47554,7 @@
         <v>0</v>
       </c>
       <c r="DQ108" s="7" t="str">
-        <f>IF(DN108,DO108/DN108*100,0) &amp; "%"</f>
+        <f>IF(DN108,ROUND(DO108/DN108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR108" s="8"/>
@@ -47566,7 +47569,7 @@
         <v>0</v>
       </c>
       <c r="DV108" s="7" t="str">
-        <f>IF(DS108,DT108/DS108*100,0) &amp; "%"</f>
+        <f>IF(DS108,ROUND(DT108/DS108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW108" s="8"/>
@@ -47581,7 +47584,7 @@
         <v>0</v>
       </c>
       <c r="EA108" s="7" t="str">
-        <f>IF(DX108,DY108/DX108*100,0) &amp; "%"</f>
+        <f>IF(DX108,ROUND(DY108/DX108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB108" s="8"/>
@@ -47596,7 +47599,7 @@
         <v>0</v>
       </c>
       <c r="EF108" s="7" t="str">
-        <f>IF(EC108,ED108/EC108*100,0) &amp; "%"</f>
+        <f>IF(EC108,ROUND(ED108/EC108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG108" s="8"/>
@@ -47611,7 +47614,7 @@
         <v>0</v>
       </c>
       <c r="EK108" s="7" t="str">
-        <f>IF(EH108,EI108/EH108*100,0) &amp; "%"</f>
+        <f>IF(EH108,ROUND(EI108/EH108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL108" s="8"/>
@@ -47626,7 +47629,7 @@
         <v>0</v>
       </c>
       <c r="EP108" s="7" t="str">
-        <f>IF(EM108,EN108/EM108*100,0) &amp; "%"</f>
+        <f>IF(EM108,ROUND(EN108/EM108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ108" s="8"/>
@@ -47641,7 +47644,7 @@
         <v>0</v>
       </c>
       <c r="EU108" s="7" t="str">
-        <f>IF(ER108,ES108/ER108*100,0) &amp; "%"</f>
+        <f>IF(ER108,ROUND(ES108/ER108*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV108" s="3"/>
@@ -47652,7 +47655,7 @@
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="7">
-        <f t="shared" ref="C109:C132" si="189">SUM(H109,M109,R109,W109,AB109,AG109,AL109,AQ109,AV109,BA109,BF109,BK109,BP109,BU109,BZ109,CE109,CJ109,CO109,CT109,CY109,DD109,DI109,DN109,DS109,DX109,EC109,EH109,EM109,ER109)</f>
+        <f t="shared" ref="C109:C132" si="188">SUM(H109,M109,R109,W109,AB109,AG109,AL109,AQ109,AV109,BA109,BF109,BK109,BP109,BU109,BZ109,CE109,CJ109,CO109,CT109,CY109,DD109,DI109,DN109,DS109,DX109,EC109,EH109,EM109,ER109)</f>
         <v>0</v>
       </c>
       <c r="D109" s="7">
@@ -47664,7 +47667,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" ref="F109:F132" si="189">IF(C109,ROUND(D109/C109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G109" s="8"/>
@@ -47679,7 +47682,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="7" t="str">
-        <f t="shared" ref="K109:K132" si="191">IF(H109,I109/H109*100,0) &amp; "%"</f>
+        <f t="shared" ref="K109:K132" si="191">IF(H109,ROUND(I109/H109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L109" s="8"/>
@@ -47694,7 +47697,7 @@
         <v>0</v>
       </c>
       <c r="P109" s="7" t="str">
-        <f t="shared" ref="P109:P132" si="193">IF(M109,N109/M109*100,0) &amp; "%"</f>
+        <f t="shared" ref="P109:P132" si="193">IF(M109,ROUND(N109/M109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q109" s="8"/>
@@ -47709,7 +47712,7 @@
         <v>0</v>
       </c>
       <c r="U109" s="7" t="str">
-        <f t="shared" ref="U109:U132" si="195">IF(R109,S109/R109*100,0) &amp; "%"</f>
+        <f t="shared" ref="U109:U132" si="195">IF(R109,ROUND(S109/R109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V109" s="8"/>
@@ -47724,7 +47727,7 @@
         <v>0</v>
       </c>
       <c r="Z109" s="7" t="str">
-        <f t="shared" ref="Z109:Z132" si="197">IF(W109,X109/W109*100,0) &amp; "%"</f>
+        <f t="shared" ref="Z109:Z132" si="197">IF(W109,ROUND(X109/W109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA109" s="8"/>
@@ -47739,7 +47742,7 @@
         <v>0</v>
       </c>
       <c r="AE109" s="7" t="str">
-        <f t="shared" ref="AE109:AE132" si="199">IF(AB109,AC109/AB109*100,0) &amp; "%"</f>
+        <f t="shared" ref="AE109:AE132" si="199">IF(AB109,ROUND(AC109/AB109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF109" s="8"/>
@@ -47754,7 +47757,7 @@
         <v>0</v>
       </c>
       <c r="AJ109" s="7" t="str">
-        <f t="shared" ref="AJ109:AJ132" si="201">IF(AG109,AH109/AG109*100,0) &amp; "%"</f>
+        <f t="shared" ref="AJ109:AJ132" si="201">IF(AG109,ROUND(AH109/AG109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK109" s="8"/>
@@ -47769,7 +47772,7 @@
         <v>0</v>
       </c>
       <c r="AO109" s="7" t="str">
-        <f t="shared" ref="AO109:AO132" si="203">IF(AL109,AM109/AL109*100,0) &amp; "%"</f>
+        <f t="shared" ref="AO109:AO132" si="203">IF(AL109,ROUND(AM109/AL109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP109" s="8"/>
@@ -47784,7 +47787,7 @@
         <v>0</v>
       </c>
       <c r="AT109" s="7" t="str">
-        <f t="shared" ref="AT109:AT132" si="205">IF(AQ109,AR109/AQ109*100,0) &amp; "%"</f>
+        <f t="shared" ref="AT109:AT132" si="205">IF(AQ109,ROUND(AR109/AQ109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU109" s="8"/>
@@ -47799,7 +47802,7 @@
         <v>0</v>
       </c>
       <c r="AY109" s="7" t="str">
-        <f t="shared" ref="AY109:AY132" si="207">IF(AV109,AW109/AV109*100,0) &amp; "%"</f>
+        <f t="shared" ref="AY109:AY132" si="207">IF(AV109,ROUND(AW109/AV109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ109" s="8"/>
@@ -47814,7 +47817,7 @@
         <v>0</v>
       </c>
       <c r="BD109" s="7" t="str">
-        <f t="shared" ref="BD109:BD132" si="209">IF(BA109,BB109/BA109*100,0) &amp; "%"</f>
+        <f t="shared" ref="BD109:BD132" si="209">IF(BA109,ROUND(BB109/BA109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE109" s="8"/>
@@ -47829,7 +47832,7 @@
         <v>0</v>
       </c>
       <c r="BI109" s="7" t="str">
-        <f t="shared" ref="BI109:BI132" si="211">IF(BF109,BG109/BF109*100,0) &amp; "%"</f>
+        <f t="shared" ref="BI109:BI132" si="211">IF(BF109,ROUND(BG109/BF109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ109" s="8"/>
@@ -47844,7 +47847,7 @@
         <v>0</v>
       </c>
       <c r="BN109" s="7" t="str">
-        <f t="shared" ref="BN109:BN132" si="213">IF(BK109,BL109/BK109*100,0) &amp; "%"</f>
+        <f t="shared" ref="BN109:BN132" si="213">IF(BK109,ROUND(BL109/BK109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO109" s="8"/>
@@ -47859,7 +47862,7 @@
         <v>0</v>
       </c>
       <c r="BS109" s="7" t="str">
-        <f t="shared" ref="BS109:BS132" si="215">IF(BP109,BQ109/BP109*100,0) &amp; "%"</f>
+        <f t="shared" ref="BS109:BS132" si="215">IF(BP109,ROUND(BQ109/BP109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT109" s="8"/>
@@ -47874,7 +47877,7 @@
         <v>0</v>
       </c>
       <c r="BX109" s="7" t="str">
-        <f t="shared" ref="BX109:BX132" si="217">IF(BU109,BV109/BU109*100,0) &amp; "%"</f>
+        <f t="shared" ref="BX109:BX132" si="217">IF(BU109,ROUND(BV109/BU109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY109" s="8"/>
@@ -47889,7 +47892,7 @@
         <v>0</v>
       </c>
       <c r="CC109" s="7" t="str">
-        <f t="shared" ref="CC109:CC132" si="219">IF(BZ109,CA109/BZ109*100,0) &amp; "%"</f>
+        <f t="shared" ref="CC109:CC132" si="219">IF(BZ109,ROUND(CA109/BZ109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD109" s="8"/>
@@ -47904,7 +47907,7 @@
         <v>0</v>
       </c>
       <c r="CH109" s="7" t="str">
-        <f t="shared" ref="CH109:CH132" si="221">IF(CE109,CF109/CE109*100,0) &amp; "%"</f>
+        <f t="shared" ref="CH109:CH132" si="221">IF(CE109,ROUND(CF109/CE109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI109" s="8"/>
@@ -47919,7 +47922,7 @@
         <v>0</v>
       </c>
       <c r="CM109" s="7" t="str">
-        <f t="shared" ref="CM109:CM132" si="223">IF(CJ109,CK109/CJ109*100,0) &amp; "%"</f>
+        <f t="shared" ref="CM109:CM132" si="223">IF(CJ109,ROUND(CK109/CJ109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN109" s="8"/>
@@ -47934,7 +47937,7 @@
         <v>0</v>
       </c>
       <c r="CR109" s="7" t="str">
-        <f t="shared" ref="CR109:CR132" si="225">IF(CO109,CP109/CO109*100,0) &amp; "%"</f>
+        <f t="shared" ref="CR109:CR132" si="225">IF(CO109,ROUND(CP109/CO109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS109" s="8"/>
@@ -47949,7 +47952,7 @@
         <v>0</v>
       </c>
       <c r="CW109" s="7" t="str">
-        <f t="shared" ref="CW109:CW132" si="227">IF(CT109,CU109/CT109*100,0) &amp; "%"</f>
+        <f t="shared" ref="CW109:CW132" si="227">IF(CT109,ROUND(CU109/CT109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX109" s="8"/>
@@ -47964,7 +47967,7 @@
         <v>0</v>
       </c>
       <c r="DB109" s="7" t="str">
-        <f t="shared" ref="DB109:DB132" si="229">IF(CY109,CZ109/CY109*100,0) &amp; "%"</f>
+        <f t="shared" ref="DB109:DB132" si="229">IF(CY109,ROUND(CZ109/CY109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC109" s="8"/>
@@ -47979,7 +47982,7 @@
         <v>0</v>
       </c>
       <c r="DG109" s="7" t="str">
-        <f t="shared" ref="DG109:DG132" si="231">IF(DD109,DE109/DD109*100,0) &amp; "%"</f>
+        <f t="shared" ref="DG109:DG132" si="231">IF(DD109,ROUND(DE109/DD109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH109" s="8"/>
@@ -47994,7 +47997,7 @@
         <v>0</v>
       </c>
       <c r="DL109" s="7" t="str">
-        <f t="shared" ref="DL109:DL132" si="233">IF(DI109,DJ109/DI109*100,0) &amp; "%"</f>
+        <f t="shared" ref="DL109:DL132" si="233">IF(DI109,ROUND(DJ109/DI109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM109" s="8"/>
@@ -48009,7 +48012,7 @@
         <v>0</v>
       </c>
       <c r="DQ109" s="7" t="str">
-        <f t="shared" ref="DQ109:DQ132" si="235">IF(DN109,DO109/DN109*100,0) &amp; "%"</f>
+        <f t="shared" ref="DQ109:DQ132" si="235">IF(DN109,ROUND(DO109/DN109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR109" s="8"/>
@@ -48024,7 +48027,7 @@
         <v>0</v>
       </c>
       <c r="DV109" s="7" t="str">
-        <f t="shared" ref="DV109:DV132" si="237">IF(DS109,DT109/DS109*100,0) &amp; "%"</f>
+        <f t="shared" ref="DV109:DV132" si="237">IF(DS109,ROUND(DT109/DS109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW109" s="8"/>
@@ -48039,7 +48042,7 @@
         <v>0</v>
       </c>
       <c r="EA109" s="7" t="str">
-        <f t="shared" ref="EA109:EA132" si="239">IF(DX109,DY109/DX109*100,0) &amp; "%"</f>
+        <f t="shared" ref="EA109:EA132" si="239">IF(DX109,ROUND(DY109/DX109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB109" s="8"/>
@@ -48054,7 +48057,7 @@
         <v>0</v>
       </c>
       <c r="EF109" s="7" t="str">
-        <f t="shared" ref="EF109:EF132" si="241">IF(EC109,ED109/EC109*100,0) &amp; "%"</f>
+        <f t="shared" ref="EF109:EF132" si="241">IF(EC109,ROUND(ED109/EC109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG109" s="8"/>
@@ -48069,7 +48072,7 @@
         <v>0</v>
       </c>
       <c r="EK109" s="7" t="str">
-        <f t="shared" ref="EK109:EK132" si="243">IF(EH109,EI109/EH109*100,0) &amp; "%"</f>
+        <f t="shared" ref="EK109:EK132" si="243">IF(EH109,ROUND(EI109/EH109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL109" s="8"/>
@@ -48084,7 +48087,7 @@
         <v>0</v>
       </c>
       <c r="EP109" s="7" t="str">
-        <f t="shared" ref="EP109:EP132" si="245">IF(EM109,EN109/EM109*100,0) &amp; "%"</f>
+        <f t="shared" ref="EP109:EP132" si="245">IF(EM109,ROUND(EN109/EM109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ109" s="8"/>
@@ -48099,7 +48102,7 @@
         <v>0</v>
       </c>
       <c r="EU109" s="7" t="str">
-        <f t="shared" ref="EU109:EU132" si="247">IF(ER109,ES109/ER109*100,0) &amp; "%"</f>
+        <f t="shared" ref="EU109:EU132" si="247">IF(ER109,ROUND(ES109/ER109*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV109" s="3"/>
@@ -48110,7 +48113,7 @@
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="D110" s="7">
@@ -48122,7 +48125,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G110" s="8"/>
@@ -48568,7 +48571,7 @@
       </c>
       <c r="B111" s="8"/>
       <c r="C111" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D111" s="7">
@@ -48580,7 +48583,7 @@
         <v>0</v>
       </c>
       <c r="F111" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G111" s="8"/>
@@ -49026,7 +49029,7 @@
       </c>
       <c r="B112" s="8"/>
       <c r="C112" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D112" s="7">
@@ -49038,7 +49041,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G112" s="8"/>
@@ -49484,7 +49487,7 @@
       </c>
       <c r="B113" s="8"/>
       <c r="C113" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D113" s="7">
@@ -49496,7 +49499,7 @@
         <v>0</v>
       </c>
       <c r="F113" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G113" s="8"/>
@@ -49942,7 +49945,7 @@
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D114" s="7">
@@ -49954,7 +49957,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G114" s="8"/>
@@ -50400,7 +50403,7 @@
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>2</v>
       </c>
       <c r="D115" s="7">
@@ -50412,7 +50415,7 @@
         <v>0</v>
       </c>
       <c r="F115" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>100%</v>
       </c>
       <c r="G115" s="8"/>
@@ -50858,7 +50861,7 @@
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>3</v>
       </c>
       <c r="D116" s="7">
@@ -50870,8 +50873,8 @@
         <v>1</v>
       </c>
       <c r="F116" s="7" t="str">
-        <f t="shared" si="188"/>
-        <v>66.6666666666667%</v>
+        <f t="shared" si="189"/>
+        <v>66.67%</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
@@ -51316,7 +51319,7 @@
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>1</v>
       </c>
       <c r="D117" s="7">
@@ -51328,7 +51331,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G117" s="8"/>
@@ -51774,7 +51777,7 @@
       </c>
       <c r="B118" s="8"/>
       <c r="C118" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D118" s="7">
@@ -51786,7 +51789,7 @@
         <v>0</v>
       </c>
       <c r="F118" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G118" s="8"/>
@@ -52232,7 +52235,7 @@
       </c>
       <c r="B119" s="8"/>
       <c r="C119" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D119" s="7">
@@ -52244,7 +52247,7 @@
         <v>0</v>
       </c>
       <c r="F119" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G119" s="8"/>
@@ -52690,7 +52693,7 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D120" s="7">
@@ -52702,7 +52705,7 @@
         <v>0</v>
       </c>
       <c r="F120" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G120" s="8"/>
@@ -53148,7 +53151,7 @@
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D121" s="7">
@@ -53160,7 +53163,7 @@
         <v>0</v>
       </c>
       <c r="F121" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G121" s="8"/>
@@ -53606,7 +53609,7 @@
       </c>
       <c r="B122" s="8"/>
       <c r="C122" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D122" s="7">
@@ -53618,7 +53621,7 @@
         <v>0</v>
       </c>
       <c r="F122" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G122" s="8"/>
@@ -54064,7 +54067,7 @@
       </c>
       <c r="B123" s="8"/>
       <c r="C123" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D123" s="7">
@@ -54076,7 +54079,7 @@
         <v>0</v>
       </c>
       <c r="F123" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G123" s="8"/>
@@ -54522,7 +54525,7 @@
       </c>
       <c r="B124" s="8"/>
       <c r="C124" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D124" s="7">
@@ -54534,7 +54537,7 @@
         <v>0</v>
       </c>
       <c r="F124" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G124" s="8"/>
@@ -54980,7 +54983,7 @@
       </c>
       <c r="B125" s="8"/>
       <c r="C125" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D125" s="7">
@@ -54992,7 +54995,7 @@
         <v>0</v>
       </c>
       <c r="F125" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G125" s="8"/>
@@ -55438,7 +55441,7 @@
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>2</v>
       </c>
       <c r="D126" s="7">
@@ -55450,7 +55453,7 @@
         <v>0</v>
       </c>
       <c r="F126" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>100%</v>
       </c>
       <c r="G126" s="8"/>
@@ -55896,7 +55899,7 @@
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D127" s="7">
@@ -55908,7 +55911,7 @@
         <v>0</v>
       </c>
       <c r="F127" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G127" s="8"/>
@@ -56354,7 +56357,7 @@
       </c>
       <c r="B128" s="8"/>
       <c r="C128" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D128" s="7">
@@ -56366,7 +56369,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G128" s="8"/>
@@ -56812,7 +56815,7 @@
       </c>
       <c r="B129" s="8"/>
       <c r="C129" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D129" s="7">
@@ -56824,7 +56827,7 @@
         <v>0</v>
       </c>
       <c r="F129" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G129" s="8"/>
@@ -57270,7 +57273,7 @@
       </c>
       <c r="B130" s="8"/>
       <c r="C130" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D130" s="7">
@@ -57282,7 +57285,7 @@
         <v>0</v>
       </c>
       <c r="F130" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G130" s="8"/>
@@ -57728,7 +57731,7 @@
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="7">
-        <f t="shared" si="189"/>
+        <f t="shared" si="188"/>
         <v>0</v>
       </c>
       <c r="D131" s="7">
@@ -57740,7 +57743,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="7" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="189"/>
         <v>0%</v>
       </c>
       <c r="G131" s="8"/>
@@ -58186,20 +58189,20 @@
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="7">
-        <f t="shared" si="189"/>
-        <v>0</v>
+        <f t="shared" si="188"/>
+        <v>4</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="248"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" s="7">
         <f t="shared" si="249"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" s="7" t="str">
-        <f t="shared" si="188"/>
-        <v>0%</v>
+        <f t="shared" si="189"/>
+        <v>50%</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
@@ -58219,28 +58222,28 @@
       <c r="L132" s="8"/>
       <c r="M132" s="7">
         <f t="shared" si="192"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N132" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O132" s="7">
         <v>0</v>
       </c>
       <c r="P132" s="7" t="str">
         <f t="shared" si="193"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q132" s="8"/>
       <c r="R132" s="7">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="7">
         <v>0</v>
       </c>
       <c r="T132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" s="7" t="str">
         <f t="shared" si="195"/>
@@ -58519,13 +58522,13 @@
       <c r="DH132" s="8"/>
       <c r="DI132" s="7">
         <f t="shared" si="232"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ132" s="7">
         <v>0</v>
       </c>
       <c r="DK132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL132" s="7" t="str">
         <f t="shared" si="233"/>
@@ -58645,19 +58648,19 @@
       <c r="B133" s="8"/>
       <c r="C133" s="7">
         <f>SUM(C108:C132)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" ref="D133:E133" si="250">SUM(D108:D132)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E133" s="7">
         <f t="shared" si="250"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F133" s="7" t="str">
-        <f>IF(C133,D133/C133*100,0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(C133,ROUND(D133/C133*100,2),0) &amp; "%"</f>
+        <v>61.54%</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
@@ -58673,30 +58676,30 @@
         <v>0</v>
       </c>
       <c r="K133" s="7" t="str">
-        <f>IF(H133,I133/H133*100,0) &amp; "%"</f>
+        <f>IF(H133,ROUND(I133/H133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="7">
         <f>SUM(M108:M132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N133" s="7">
         <f t="shared" ref="N133" si="252">SUM(N108:N132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O133" s="7">
         <f t="shared" ref="O133" si="253">SUM(O108:O132)</f>
         <v>0</v>
       </c>
       <c r="P133" s="7" t="str">
-        <f>IF(M133,N133/M133*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(M133,ROUND(N133/M133*100,2),0) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="Q133" s="8"/>
       <c r="R133" s="7">
         <f>SUM(R108:R132)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S133" s="7">
         <f t="shared" ref="S133" si="254">SUM(S108:S132)</f>
@@ -58704,11 +58707,11 @@
       </c>
       <c r="T133" s="7">
         <f t="shared" ref="T133" si="255">SUM(T108:T132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133" s="7" t="str">
-        <f>IF(R133,S133/R133*100,0) &amp; "%"</f>
-        <v>100%</v>
+        <f>IF(R133,ROUND(S133/R133*100,2),0) &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="V133" s="8"/>
       <c r="W133" s="7">
@@ -58724,7 +58727,7 @@
         <v>1</v>
       </c>
       <c r="Z133" s="7" t="str">
-        <f>IF(W133,X133/W133*100,0) &amp; "%"</f>
+        <f>IF(W133,ROUND(X133/W133*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AA133" s="8"/>
@@ -58741,7 +58744,7 @@
         <v>0</v>
       </c>
       <c r="AE133" s="7" t="str">
-        <f>IF(AB133,AC133/AB133*100,0) &amp; "%"</f>
+        <f>IF(AB133,ROUND(AC133/AB133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF133" s="8"/>
@@ -58758,7 +58761,7 @@
         <v>0</v>
       </c>
       <c r="AJ133" s="7" t="str">
-        <f>IF(AG133,AH133/AG133*100,0) &amp; "%"</f>
+        <f>IF(AG133,ROUND(AH133/AG133*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="AK133" s="8"/>
@@ -58775,7 +58778,7 @@
         <v>1</v>
       </c>
       <c r="AO133" s="7" t="str">
-        <f>IF(AL133,AM133/AL133*100,0) &amp; "%"</f>
+        <f>IF(AL133,ROUND(AM133/AL133*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AP133" s="8"/>
@@ -58792,7 +58795,7 @@
         <v>1</v>
       </c>
       <c r="AT133" s="7" t="str">
-        <f>IF(AQ133,AR133/AQ133*100,0) &amp; "%"</f>
+        <f>IF(AQ133,ROUND(AR133/AQ133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU133" s="8"/>
@@ -58809,7 +58812,7 @@
         <v>0</v>
       </c>
       <c r="AY133" s="7" t="str">
-        <f>IF(AV133,AW133/AV133*100,0) &amp; "%"</f>
+        <f>IF(AV133,ROUND(AW133/AV133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ133" s="8"/>
@@ -58826,7 +58829,7 @@
         <v>0</v>
       </c>
       <c r="BD133" s="7" t="str">
-        <f>IF(BA133,BB133/BA133*100,0) &amp; "%"</f>
+        <f>IF(BA133,ROUND(BB133/BA133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE133" s="8"/>
@@ -58843,7 +58846,7 @@
         <v>0</v>
       </c>
       <c r="BI133" s="7" t="str">
-        <f>IF(BF133,BG133/BF133*100,0) &amp; "%"</f>
+        <f>IF(BF133,ROUND(BG133/BF133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ133" s="8"/>
@@ -58860,7 +58863,7 @@
         <v>0</v>
       </c>
       <c r="BN133" s="7" t="str">
-        <f>IF(BK133,BL133/BK133*100,0) &amp; "%"</f>
+        <f>IF(BK133,ROUND(BL133/BK133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO133" s="8"/>
@@ -58877,7 +58880,7 @@
         <v>0</v>
       </c>
       <c r="BS133" s="7" t="str">
-        <f>IF(BP133,BQ133/BP133*100,0) &amp; "%"</f>
+        <f>IF(BP133,ROUND(BQ133/BP133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT133" s="8"/>
@@ -58894,7 +58897,7 @@
         <v>0</v>
       </c>
       <c r="BX133" s="7" t="str">
-        <f>IF(BU133,BV133/BU133*100,0) &amp; "%"</f>
+        <f>IF(BU133,ROUND(BV133/BU133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY133" s="8"/>
@@ -58911,7 +58914,7 @@
         <v>0</v>
       </c>
       <c r="CC133" s="7" t="str">
-        <f>IF(BZ133,CA133/BZ133*100,0) &amp; "%"</f>
+        <f>IF(BZ133,ROUND(CA133/BZ133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD133" s="8"/>
@@ -58928,7 +58931,7 @@
         <v>0</v>
       </c>
       <c r="CH133" s="7" t="str">
-        <f>IF(CE133,CF133/CE133*100,0) &amp; "%"</f>
+        <f>IF(CE133,ROUND(CF133/CE133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI133" s="8"/>
@@ -58945,7 +58948,7 @@
         <v>0</v>
       </c>
       <c r="CM133" s="7" t="str">
-        <f>IF(CJ133,CK133/CJ133*100,0) &amp; "%"</f>
+        <f>IF(CJ133,ROUND(CK133/CJ133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN133" s="8"/>
@@ -58962,7 +58965,7 @@
         <v>0</v>
       </c>
       <c r="CR133" s="7" t="str">
-        <f>IF(CO133,CP133/CO133*100,0) &amp; "%"</f>
+        <f>IF(CO133,ROUND(CP133/CO133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS133" s="8"/>
@@ -58979,7 +58982,7 @@
         <v>0</v>
       </c>
       <c r="CW133" s="7" t="str">
-        <f>IF(CT133,CU133/CT133*100,0) &amp; "%"</f>
+        <f>IF(CT133,ROUND(CU133/CT133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX133" s="8"/>
@@ -58996,7 +58999,7 @@
         <v>0</v>
       </c>
       <c r="DB133" s="7" t="str">
-        <f>IF(CY133,CZ133/CY133*100,0) &amp; "%"</f>
+        <f>IF(CY133,ROUND(CZ133/CY133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC133" s="8"/>
@@ -59013,13 +59016,13 @@
         <v>0</v>
       </c>
       <c r="DG133" s="7" t="str">
-        <f>IF(DD133,DE133/DD133*100,0) &amp; "%"</f>
+        <f>IF(DD133,ROUND(DE133/DD133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH133" s="8"/>
       <c r="DI133" s="7">
         <f>SUM(DI108:DI132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ133" s="7">
         <f t="shared" ref="DJ133" si="292">SUM(DJ108:DJ132)</f>
@@ -59027,10 +59030,10 @@
       </c>
       <c r="DK133" s="7">
         <f t="shared" ref="DK133" si="293">SUM(DK108:DK132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL133" s="7" t="str">
-        <f>IF(DI133,DJ133/DI133*100,0) &amp; "%"</f>
+        <f>IF(DI133,ROUND(DJ133/DI133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM133" s="8"/>
@@ -59047,7 +59050,7 @@
         <v>0</v>
       </c>
       <c r="DQ133" s="7" t="str">
-        <f>IF(DN133,DO133/DN133*100,0) &amp; "%"</f>
+        <f>IF(DN133,ROUND(DO133/DN133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR133" s="8"/>
@@ -59064,7 +59067,7 @@
         <v>0</v>
       </c>
       <c r="DV133" s="7" t="str">
-        <f>IF(DS133,DT133/DS133*100,0) &amp; "%"</f>
+        <f>IF(DS133,ROUND(DT133/DS133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW133" s="8"/>
@@ -59081,7 +59084,7 @@
         <v>0</v>
       </c>
       <c r="EA133" s="7" t="str">
-        <f>IF(DX133,DY133/DX133*100,0) &amp; "%"</f>
+        <f>IF(DX133,ROUND(DY133/DX133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB133" s="8"/>
@@ -59098,7 +59101,7 @@
         <v>0</v>
       </c>
       <c r="EF133" s="7" t="str">
-        <f>IF(EC133,ED133/EC133*100,0) &amp; "%"</f>
+        <f>IF(EC133,ROUND(ED133/EC133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG133" s="8"/>
@@ -59115,7 +59118,7 @@
         <v>0</v>
       </c>
       <c r="EK133" s="7" t="str">
-        <f>IF(EH133,EI133/EH133*100,0) &amp; "%"</f>
+        <f>IF(EH133,ROUND(EI133/EH133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL133" s="8"/>
@@ -59132,7 +59135,7 @@
         <v>0</v>
       </c>
       <c r="EP133" s="7" t="str">
-        <f>IF(EM133,EN133/EM133*100,0) &amp; "%"</f>
+        <f>IF(EM133,ROUND(EN133/EM133*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ133" s="8"/>
@@ -59149,7 +59152,7 @@
         <v>0</v>
       </c>
       <c r="EU133" s="7" t="str">
-        <f>IF(ER133,ES133/ER133*100,0) &amp; "%"</f>
+        <f>IF(ER133,ROUND(ES133/ER133*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="EV133" s="3"/>
@@ -59876,7 +59879,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="13" t="str">
-        <f t="shared" ref="F137:F156" si="309">IF(C137,D137/C137*100,0) &amp; "%"</f>
+        <f>IF(C137,ROUND(D137/C137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G137" s="11"/>
@@ -59891,7 +59894,7 @@
         <v>0</v>
       </c>
       <c r="K137" s="13" t="str">
-        <f>IF(H137,I137/H137*100,0) &amp; "%"</f>
+        <f>IF(H137,ROUND(I137/H137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L137" s="11"/>
@@ -59906,7 +59909,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="13" t="str">
-        <f>IF(M137,N137/M137*100,0) &amp; "%"</f>
+        <f>IF(M137,ROUND(N137/M137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q137" s="11"/>
@@ -59921,7 +59924,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="13" t="str">
-        <f>IF(R137,S137/R137*100,0) &amp; "%"</f>
+        <f>IF(R137,ROUND(S137/R137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V137" s="11"/>
@@ -59936,7 +59939,7 @@
         <v>0</v>
       </c>
       <c r="Z137" s="13" t="str">
-        <f>IF(W137,X137/W137*100,0) &amp; "%"</f>
+        <f>IF(W137,ROUND(X137/W137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA137" s="11"/>
@@ -59951,7 +59954,7 @@
         <v>0</v>
       </c>
       <c r="AE137" s="13" t="str">
-        <f>IF(AB137,AC137/AB137*100,0) &amp; "%"</f>
+        <f>IF(AB137,ROUND(AC137/AB137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF137" s="11"/>
@@ -59966,7 +59969,7 @@
         <v>0</v>
       </c>
       <c r="AJ137" s="13" t="str">
-        <f>IF(AG137,AH137/AG137*100,0) &amp; "%"</f>
+        <f>IF(AG137,ROUND(AH137/AG137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK137" s="11"/>
@@ -59981,7 +59984,7 @@
         <v>0</v>
       </c>
       <c r="AO137" s="13" t="str">
-        <f>IF(AL137,AM137/AL137*100,0) &amp; "%"</f>
+        <f>IF(AL137,ROUND(AM137/AL137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP137" s="11"/>
@@ -59996,7 +59999,7 @@
         <v>0</v>
       </c>
       <c r="AT137" s="13" t="str">
-        <f>IF(AQ137,AR137/AQ137*100,0) &amp; "%"</f>
+        <f>IF(AQ137,ROUND(AR137/AQ137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU137" s="11"/>
@@ -60011,7 +60014,7 @@
         <v>0</v>
       </c>
       <c r="AY137" s="13" t="str">
-        <f>IF(AV137,AW137/AV137*100,0) &amp; "%"</f>
+        <f>IF(AV137,ROUND(AW137/AV137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ137" s="11"/>
@@ -60026,7 +60029,7 @@
         <v>0</v>
       </c>
       <c r="BD137" s="13" t="str">
-        <f>IF(BA137,BB137/BA137*100,0) &amp; "%"</f>
+        <f>IF(BA137,ROUND(BB137/BA137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE137" s="11"/>
@@ -60041,7 +60044,7 @@
         <v>0</v>
       </c>
       <c r="BI137" s="13" t="str">
-        <f>IF(BF137,BG137/BF137*100,0) &amp; "%"</f>
+        <f>IF(BF137,ROUND(BG137/BF137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ137" s="11"/>
@@ -60056,7 +60059,7 @@
         <v>0</v>
       </c>
       <c r="BN137" s="13" t="str">
-        <f>IF(BK137,BL137/BK137*100,0) &amp; "%"</f>
+        <f>IF(BK137,ROUND(BL137/BK137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO137" s="11"/>
@@ -60071,7 +60074,7 @@
         <v>0</v>
       </c>
       <c r="BS137" s="13" t="str">
-        <f>IF(BP137,BQ137/BP137*100,0) &amp; "%"</f>
+        <f>IF(BP137,ROUND(BQ137/BP137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT137" s="11"/>
@@ -60086,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="BX137" s="13" t="str">
-        <f>IF(BU137,BV137/BU137*100,0) &amp; "%"</f>
+        <f>IF(BU137,ROUND(BV137/BU137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY137" s="11"/>
@@ -60101,7 +60104,7 @@
         <v>0</v>
       </c>
       <c r="CC137" s="13" t="str">
-        <f>IF(BZ137,CA137/BZ137*100,0) &amp; "%"</f>
+        <f>IF(BZ137,ROUND(CA137/BZ137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD137" s="11"/>
@@ -60116,7 +60119,7 @@
         <v>0</v>
       </c>
       <c r="CH137" s="13" t="str">
-        <f>IF(CE137,CF137/CE137*100,0) &amp; "%"</f>
+        <f>IF(CE137,ROUND(CF137/CE137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI137" s="11"/>
@@ -60131,7 +60134,7 @@
         <v>0</v>
       </c>
       <c r="CM137" s="13" t="str">
-        <f>IF(CJ137,CK137/CJ137*100,0) &amp; "%"</f>
+        <f>IF(CJ137,ROUND(CK137/CJ137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN137" s="11"/>
@@ -60146,7 +60149,7 @@
         <v>0</v>
       </c>
       <c r="CR137" s="13" t="str">
-        <f>IF(CO137,CP137/CO137*100,0) &amp; "%"</f>
+        <f>IF(CO137,ROUND(CP137/CO137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS137" s="11"/>
@@ -60161,7 +60164,7 @@
         <v>0</v>
       </c>
       <c r="CW137" s="13" t="str">
-        <f>IF(CT137,CU137/CT137*100,0) &amp; "%"</f>
+        <f>IF(CT137,ROUND(CU137/CT137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX137" s="11"/>
@@ -60176,7 +60179,7 @@
         <v>0</v>
       </c>
       <c r="DB137" s="13" t="str">
-        <f>IF(CY137,CZ137/CY137*100,0) &amp; "%"</f>
+        <f>IF(CY137,ROUND(CZ137/CY137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC137" s="11"/>
@@ -60191,7 +60194,7 @@
         <v>0</v>
       </c>
       <c r="DG137" s="13" t="str">
-        <f>IF(DD137,DE137/DD137*100,0) &amp; "%"</f>
+        <f>IF(DD137,ROUND(DE137/DD137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH137" s="11"/>
@@ -60206,7 +60209,7 @@
         <v>0</v>
       </c>
       <c r="DL137" s="13" t="str">
-        <f>IF(DI137,DJ137/DI137*100,0) &amp; "%"</f>
+        <f>IF(DI137,ROUND(DJ137/DI137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM137" s="11"/>
@@ -60221,7 +60224,7 @@
         <v>0</v>
       </c>
       <c r="DQ137" s="13" t="str">
-        <f>IF(DN137,DO137/DN137*100,0) &amp; "%"</f>
+        <f>IF(DN137,ROUND(DO137/DN137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR137" s="11"/>
@@ -60236,7 +60239,7 @@
         <v>0</v>
       </c>
       <c r="DV137" s="13" t="str">
-        <f>IF(DS137,DT137/DS137*100,0) &amp; "%"</f>
+        <f>IF(DS137,ROUND(DT137/DS137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW137" s="11"/>
@@ -60251,7 +60254,7 @@
         <v>0</v>
       </c>
       <c r="EA137" s="13" t="str">
-        <f>IF(DX137,DY137/DX137*100,0) &amp; "%"</f>
+        <f>IF(DX137,ROUND(DY137/DX137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB137" s="11"/>
@@ -60266,7 +60269,7 @@
         <v>0</v>
       </c>
       <c r="EF137" s="13" t="str">
-        <f>IF(EC137,ED137/EC137*100,0) &amp; "%"</f>
+        <f>IF(EC137,ROUND(ED137/EC137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG137" s="11"/>
@@ -60281,7 +60284,7 @@
         <v>0</v>
       </c>
       <c r="EK137" s="13" t="str">
-        <f>IF(EH137,EI137/EH137*100,0) &amp; "%"</f>
+        <f>IF(EH137,ROUND(EI137/EH137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL137" s="11"/>
@@ -60296,7 +60299,7 @@
         <v>0</v>
       </c>
       <c r="EP137" s="13" t="str">
-        <f>IF(EM137,EN137/EM137*100,0) &amp; "%"</f>
+        <f>IF(EM137,ROUND(EN137/EM137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ137" s="14"/>
@@ -60311,7 +60314,7 @@
         <v>0</v>
       </c>
       <c r="EU137" s="13" t="str">
-        <f>IF(ER137,ES137/ER137*100,0) &amp; "%"</f>
+        <f>IF(ER137,ROUND(ES137/ER137*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV137" s="3"/>
@@ -60322,7 +60325,7 @@
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12">
-        <f t="shared" ref="C138:C156" si="310">SUM(H138,M138,R138,W138,AB138,AG138,AL138,AQ138,AV138,BA138,BF138,BK138,BP138,BU138,BZ138,CE138,CJ138,CO138,CT138,CY138,DD138,DI138,DN138,DS138,DX138,EC138,EH138,EM138,ER138)</f>
+        <f t="shared" ref="C138:C156" si="309">SUM(H138,M138,R138,W138,AB138,AG138,AL138,AQ138,AV138,BA138,BF138,BK138,BP138,BU138,BZ138,CE138,CJ138,CO138,CT138,CY138,DD138,DI138,DN138,DS138,DX138,EC138,EH138,EM138,ER138)</f>
         <v>1</v>
       </c>
       <c r="D138" s="12">
@@ -60334,7 +60337,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" ref="F138:F156" si="310">IF(C138,ROUND(D138/C138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="G138" s="11"/>
@@ -60349,7 +60352,7 @@
         <v>0</v>
       </c>
       <c r="K138" s="13" t="str">
-        <f t="shared" ref="K138:K156" si="312">IF(H138,I138/H138*100,0) &amp; "%"</f>
+        <f t="shared" ref="K138:K156" si="312">IF(H138,ROUND(I138/H138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L138" s="11"/>
@@ -60364,7 +60367,7 @@
         <v>0</v>
       </c>
       <c r="P138" s="13" t="str">
-        <f t="shared" ref="P138:P156" si="314">IF(M138,N138/M138*100,0) &amp; "%"</f>
+        <f t="shared" ref="P138:P156" si="314">IF(M138,ROUND(N138/M138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q138" s="11"/>
@@ -60379,7 +60382,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="13" t="str">
-        <f t="shared" ref="U138:U156" si="316">IF(R138,S138/R138*100,0) &amp; "%"</f>
+        <f t="shared" ref="U138:U156" si="316">IF(R138,ROUND(S138/R138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V138" s="11"/>
@@ -60394,7 +60397,7 @@
         <v>0</v>
       </c>
       <c r="Z138" s="13" t="str">
-        <f t="shared" ref="Z138:Z156" si="318">IF(W138,X138/W138*100,0) &amp; "%"</f>
+        <f t="shared" ref="Z138:Z156" si="318">IF(W138,ROUND(X138/W138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AA138" s="11"/>
@@ -60409,7 +60412,7 @@
         <v>0</v>
       </c>
       <c r="AE138" s="13" t="str">
-        <f t="shared" ref="AE138:AE156" si="320">IF(AB138,AC138/AB138*100,0) &amp; "%"</f>
+        <f t="shared" ref="AE138:AE156" si="320">IF(AB138,ROUND(AC138/AB138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AF138" s="11"/>
@@ -60424,7 +60427,7 @@
         <v>0</v>
       </c>
       <c r="AJ138" s="13" t="str">
-        <f t="shared" ref="AJ138:AJ156" si="322">IF(AG138,AH138/AG138*100,0) &amp; "%"</f>
+        <f t="shared" ref="AJ138:AJ156" si="322">IF(AG138,ROUND(AH138/AG138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AK138" s="11"/>
@@ -60439,7 +60442,7 @@
         <v>0</v>
       </c>
       <c r="AO138" s="13" t="str">
-        <f t="shared" ref="AO138:AO156" si="324">IF(AL138,AM138/AL138*100,0) &amp; "%"</f>
+        <f t="shared" ref="AO138:AO156" si="324">IF(AL138,ROUND(AM138/AL138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP138" s="11"/>
@@ -60454,7 +60457,7 @@
         <v>0</v>
       </c>
       <c r="AT138" s="13" t="str">
-        <f t="shared" ref="AT138:AT156" si="326">IF(AQ138,AR138/AQ138*100,0) &amp; "%"</f>
+        <f t="shared" ref="AT138:AT156" si="326">IF(AQ138,ROUND(AR138/AQ138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU138" s="11"/>
@@ -60469,7 +60472,7 @@
         <v>0</v>
       </c>
       <c r="AY138" s="13" t="str">
-        <f t="shared" ref="AY138:AY156" si="328">IF(AV138,AW138/AV138*100,0) &amp; "%"</f>
+        <f t="shared" ref="AY138:AY156" si="328">IF(AV138,ROUND(AW138/AV138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ138" s="11"/>
@@ -60484,7 +60487,7 @@
         <v>0</v>
       </c>
       <c r="BD138" s="13" t="str">
-        <f t="shared" ref="BD138:BD156" si="330">IF(BA138,BB138/BA138*100,0) &amp; "%"</f>
+        <f t="shared" ref="BD138:BD156" si="330">IF(BA138,ROUND(BB138/BA138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE138" s="11"/>
@@ -60499,7 +60502,7 @@
         <v>0</v>
       </c>
       <c r="BI138" s="13" t="str">
-        <f t="shared" ref="BI138:BI156" si="332">IF(BF138,BG138/BF138*100,0) &amp; "%"</f>
+        <f t="shared" ref="BI138:BI156" si="332">IF(BF138,ROUND(BG138/BF138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ138" s="11"/>
@@ -60514,7 +60517,7 @@
         <v>0</v>
       </c>
       <c r="BN138" s="13" t="str">
-        <f t="shared" ref="BN138:BN156" si="334">IF(BK138,BL138/BK138*100,0) &amp; "%"</f>
+        <f t="shared" ref="BN138:BN156" si="334">IF(BK138,ROUND(BL138/BK138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO138" s="11"/>
@@ -60529,7 +60532,7 @@
         <v>0</v>
       </c>
       <c r="BS138" s="13" t="str">
-        <f t="shared" ref="BS138:BS156" si="336">IF(BP138,BQ138/BP138*100,0) &amp; "%"</f>
+        <f t="shared" ref="BS138:BS156" si="336">IF(BP138,ROUND(BQ138/BP138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT138" s="11"/>
@@ -60544,7 +60547,7 @@
         <v>0</v>
       </c>
       <c r="BX138" s="13" t="str">
-        <f t="shared" ref="BX138:BX156" si="338">IF(BU138,BV138/BU138*100,0) &amp; "%"</f>
+        <f t="shared" ref="BX138:BX156" si="338">IF(BU138,ROUND(BV138/BU138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY138" s="11"/>
@@ -60559,7 +60562,7 @@
         <v>0</v>
       </c>
       <c r="CC138" s="13" t="str">
-        <f t="shared" ref="CC138:CC156" si="340">IF(BZ138,CA138/BZ138*100,0) &amp; "%"</f>
+        <f t="shared" ref="CC138:CC156" si="340">IF(BZ138,ROUND(CA138/BZ138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD138" s="11"/>
@@ -60574,7 +60577,7 @@
         <v>0</v>
       </c>
       <c r="CH138" s="13" t="str">
-        <f t="shared" ref="CH138:CH156" si="342">IF(CE138,CF138/CE138*100,0) &amp; "%"</f>
+        <f t="shared" ref="CH138:CH156" si="342">IF(CE138,ROUND(CF138/CE138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI138" s="11"/>
@@ -60589,7 +60592,7 @@
         <v>0</v>
       </c>
       <c r="CM138" s="13" t="str">
-        <f t="shared" ref="CM138:CM156" si="344">IF(CJ138,CK138/CJ138*100,0) &amp; "%"</f>
+        <f t="shared" ref="CM138:CM156" si="344">IF(CJ138,ROUND(CK138/CJ138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN138" s="11"/>
@@ -60604,7 +60607,7 @@
         <v>0</v>
       </c>
       <c r="CR138" s="13" t="str">
-        <f t="shared" ref="CR138:CR156" si="346">IF(CO138,CP138/CO138*100,0) &amp; "%"</f>
+        <f t="shared" ref="CR138:CR156" si="346">IF(CO138,ROUND(CP138/CO138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS138" s="11"/>
@@ -60619,7 +60622,7 @@
         <v>0</v>
       </c>
       <c r="CW138" s="13" t="str">
-        <f t="shared" ref="CW138:CW156" si="348">IF(CT138,CU138/CT138*100,0) &amp; "%"</f>
+        <f t="shared" ref="CW138:CW156" si="348">IF(CT138,ROUND(CU138/CT138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX138" s="11"/>
@@ -60634,7 +60637,7 @@
         <v>0</v>
       </c>
       <c r="DB138" s="13" t="str">
-        <f t="shared" ref="DB138:DB156" si="350">IF(CY138,CZ138/CY138*100,0) &amp; "%"</f>
+        <f t="shared" ref="DB138:DB156" si="350">IF(CY138,ROUND(CZ138/CY138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC138" s="11"/>
@@ -60649,7 +60652,7 @@
         <v>0</v>
       </c>
       <c r="DG138" s="13" t="str">
-        <f t="shared" ref="DG138:DG156" si="352">IF(DD138,DE138/DD138*100,0) &amp; "%"</f>
+        <f t="shared" ref="DG138:DG156" si="352">IF(DD138,ROUND(DE138/DD138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH138" s="11"/>
@@ -60664,7 +60667,7 @@
         <v>0</v>
       </c>
       <c r="DL138" s="13" t="str">
-        <f t="shared" ref="DL138:DL156" si="354">IF(DI138,DJ138/DI138*100,0) &amp; "%"</f>
+        <f t="shared" ref="DL138:DL156" si="354">IF(DI138,ROUND(DJ138/DI138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM138" s="11"/>
@@ -60679,7 +60682,7 @@
         <v>0</v>
       </c>
       <c r="DQ138" s="13" t="str">
-        <f t="shared" ref="DQ138:DQ156" si="356">IF(DN138,DO138/DN138*100,0) &amp; "%"</f>
+        <f t="shared" ref="DQ138:DQ156" si="356">IF(DN138,ROUND(DO138/DN138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DR138" s="11"/>
@@ -60694,7 +60697,7 @@
         <v>0</v>
       </c>
       <c r="DV138" s="13" t="str">
-        <f t="shared" ref="DV138:DV156" si="358">IF(DS138,DT138/DS138*100,0) &amp; "%"</f>
+        <f t="shared" ref="DV138:DV156" si="358">IF(DS138,ROUND(DT138/DS138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW138" s="11"/>
@@ -60709,7 +60712,7 @@
         <v>0</v>
       </c>
       <c r="EA138" s="13" t="str">
-        <f t="shared" ref="EA138:EA156" si="360">IF(DX138,DY138/DX138*100,0) &amp; "%"</f>
+        <f t="shared" ref="EA138:EA156" si="360">IF(DX138,ROUND(DY138/DX138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB138" s="11"/>
@@ -60724,7 +60727,7 @@
         <v>1</v>
       </c>
       <c r="EF138" s="13" t="str">
-        <f t="shared" ref="EF138:EF156" si="362">IF(EC138,ED138/EC138*100,0) &amp; "%"</f>
+        <f t="shared" ref="EF138:EF156" si="362">IF(EC138,ROUND(ED138/EC138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG138" s="11"/>
@@ -60739,7 +60742,7 @@
         <v>0</v>
       </c>
       <c r="EK138" s="13" t="str">
-        <f t="shared" ref="EK138:EK156" si="364">IF(EH138,EI138/EH138*100,0) &amp; "%"</f>
+        <f t="shared" ref="EK138:EK156" si="364">IF(EH138,ROUND(EI138/EH138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL138" s="11"/>
@@ -60754,7 +60757,7 @@
         <v>0</v>
       </c>
       <c r="EP138" s="13" t="str">
-        <f t="shared" ref="EP138:EP156" si="366">IF(EM138,EN138/EM138*100,0) &amp; "%"</f>
+        <f t="shared" ref="EP138:EP156" si="366">IF(EM138,ROUND(EN138/EM138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ138" s="14"/>
@@ -60769,7 +60772,7 @@
         <v>0</v>
       </c>
       <c r="EU138" s="13" t="str">
-        <f t="shared" ref="EU138:EU156" si="368">IF(ER138,ES138/ER138*100,0) &amp; "%"</f>
+        <f t="shared" ref="EU138:EU156" si="368">IF(ER138,ROUND(ES138/ER138*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV138" s="3"/>
@@ -60780,7 +60783,7 @@
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D139" s="12">
@@ -60792,7 +60795,7 @@
         <v>0</v>
       </c>
       <c r="F139" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G139" s="11"/>
@@ -61238,7 +61241,7 @@
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D140" s="12">
@@ -61250,7 +61253,7 @@
         <v>0</v>
       </c>
       <c r="F140" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G140" s="11"/>
@@ -61696,7 +61699,7 @@
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D141" s="12">
@@ -61708,7 +61711,7 @@
         <v>0</v>
       </c>
       <c r="F141" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G141" s="11"/>
@@ -62154,7 +62157,7 @@
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D142" s="12">
@@ -62166,7 +62169,7 @@
         <v>0</v>
       </c>
       <c r="F142" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G142" s="11"/>
@@ -62612,7 +62615,7 @@
       </c>
       <c r="B143" s="11"/>
       <c r="C143" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D143" s="12">
@@ -62624,7 +62627,7 @@
         <v>0</v>
       </c>
       <c r="F143" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G143" s="11"/>
@@ -63070,7 +63073,7 @@
       </c>
       <c r="B144" s="11"/>
       <c r="C144" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D144" s="12">
@@ -63082,7 +63085,7 @@
         <v>0</v>
       </c>
       <c r="F144" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G144" s="11"/>
@@ -63528,7 +63531,7 @@
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>1</v>
       </c>
       <c r="D145" s="12">
@@ -63540,7 +63543,7 @@
         <v>0</v>
       </c>
       <c r="F145" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>100%</v>
       </c>
       <c r="G145" s="11"/>
@@ -63986,7 +63989,7 @@
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>1</v>
       </c>
       <c r="D146" s="12">
@@ -63998,7 +64001,7 @@
         <v>0</v>
       </c>
       <c r="F146" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>100%</v>
       </c>
       <c r="G146" s="11"/>
@@ -64444,7 +64447,7 @@
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D147" s="12">
@@ -64456,7 +64459,7 @@
         <v>0</v>
       </c>
       <c r="F147" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G147" s="11"/>
@@ -64902,7 +64905,7 @@
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>1</v>
       </c>
       <c r="D148" s="12">
@@ -64914,7 +64917,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G148" s="11"/>
@@ -65360,7 +65363,7 @@
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>1</v>
       </c>
       <c r="D149" s="12">
@@ -65372,7 +65375,7 @@
         <v>0</v>
       </c>
       <c r="F149" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>100%</v>
       </c>
       <c r="G149" s="11"/>
@@ -65818,7 +65821,7 @@
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D150" s="12">
@@ -65830,7 +65833,7 @@
         <v>0</v>
       </c>
       <c r="F150" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G150" s="11"/>
@@ -66276,7 +66279,7 @@
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D151" s="12">
@@ -66288,7 +66291,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G151" s="11"/>
@@ -66734,7 +66737,7 @@
       </c>
       <c r="B152" s="11"/>
       <c r="C152" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D152" s="12">
@@ -66746,7 +66749,7 @@
         <v>0</v>
       </c>
       <c r="F152" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G152" s="11"/>
@@ -67192,7 +67195,7 @@
       </c>
       <c r="B153" s="11"/>
       <c r="C153" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D153" s="12">
@@ -67204,7 +67207,7 @@
         <v>0</v>
       </c>
       <c r="F153" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G153" s="11"/>
@@ -67650,7 +67653,7 @@
       </c>
       <c r="B154" s="11"/>
       <c r="C154" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D154" s="12">
@@ -67662,7 +67665,7 @@
         <v>0</v>
       </c>
       <c r="F154" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G154" s="11"/>
@@ -68108,7 +68111,7 @@
       </c>
       <c r="B155" s="11"/>
       <c r="C155" s="12">
-        <f t="shared" si="310"/>
+        <f t="shared" si="309"/>
         <v>0</v>
       </c>
       <c r="D155" s="12">
@@ -68120,7 +68123,7 @@
         <v>0</v>
       </c>
       <c r="F155" s="13" t="str">
-        <f t="shared" si="309"/>
+        <f t="shared" si="310"/>
         <v>0%</v>
       </c>
       <c r="G155" s="11"/>
@@ -68566,31 +68569,31 @@
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="12">
-        <f t="shared" si="310"/>
-        <v>0</v>
+        <f t="shared" si="309"/>
+        <v>5</v>
       </c>
       <c r="D156" s="12">
         <f t="shared" si="369"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" s="12">
         <f t="shared" si="370"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F156" s="13" t="str">
-        <f t="shared" si="309"/>
-        <v>0%</v>
+        <f t="shared" si="310"/>
+        <v>40%</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="12">
         <f t="shared" si="311"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="13">
         <v>0</v>
       </c>
       <c r="J156" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="13" t="str">
         <f t="shared" si="312"/>
@@ -68659,17 +68662,17 @@
       <c r="AF156" s="11"/>
       <c r="AG156" s="12">
         <f t="shared" si="321"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH156" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI156" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ156" s="13" t="str">
         <f t="shared" si="322"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AK156" s="11"/>
       <c r="AL156" s="12">
@@ -69025,24 +69028,24 @@
       <c r="B157" s="11"/>
       <c r="C157" s="13">
         <f>SUM(C137:C156)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D157" s="13">
         <f t="shared" ref="D157:E157" si="371">SUM(D137:D156)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E157" s="13">
         <f t="shared" si="371"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F157" s="13" t="str">
-        <f>IF(C157,D157/C157*100,0) &amp; "%"</f>
-        <v>60%</v>
+        <f>IF(C157,ROUND(D157/C157*100,2),0) &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="13">
         <f>SUM(H137:H156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" s="12">
         <f>SUM(I137:I156)</f>
@@ -69050,10 +69053,10 @@
       </c>
       <c r="J157" s="12">
         <f>SUM(J137:J156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157" s="13" t="str">
-        <f>IF(H157,I157/H157*100,0) &amp; "%"</f>
+        <f>IF(H157,ROUND(I157/H157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L157" s="11"/>
@@ -69070,7 +69073,7 @@
         <v>0</v>
       </c>
       <c r="P157" s="13" t="str">
-        <f>IF(M157,N157/M157*100,0) &amp; "%"</f>
+        <f>IF(M157,ROUND(N157/M157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="Q157" s="11"/>
@@ -69087,7 +69090,7 @@
         <v>0</v>
       </c>
       <c r="U157" s="13" t="str">
-        <f>IF(R157,S157/R157*100,0) &amp; "%"</f>
+        <f>IF(R157,ROUND(S157/R157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="V157" s="11"/>
@@ -69104,7 +69107,7 @@
         <v>0</v>
       </c>
       <c r="Z157" s="13" t="str">
-        <f>IF(W157,X157/W157*100,0) &amp; "%"</f>
+        <f>IF(W157,ROUND(X157/W157*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="AA157" s="11"/>
@@ -69121,25 +69124,24 @@
         <v>1</v>
       </c>
       <c r="AE157" s="13" t="str">
-        <f>IF(AB157,AC157/AB157*100,0) &amp; "%"</f>
+        <f>IF(AB157,ROUND(AC157/AB157*100,2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AF157" s="11"/>
       <c r="AG157" s="13">
         <f>SUM(AG137:AG156)</f>
-        <v>0</v>
-      </c>
-      <c r="AH157" s="12">
-        <f>SUM(AH137:AH156)</f>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="AH157" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="AI157" s="12">
         <f>SUM(AI137:AI156)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ157" s="13" t="str">
-        <f>IF(AG157,AH157/AG157*100,0) &amp; "%"</f>
-        <v>0%</v>
+        <v>2</v>
+      </c>
+      <c r="AJ157" s="13" t="e">
+        <f>IF(AG157,ROUND(AH157/AG157*100,2),0) &amp; "%"</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AK157" s="11"/>
       <c r="AL157" s="13">
@@ -69155,7 +69157,7 @@
         <v>0</v>
       </c>
       <c r="AO157" s="13" t="str">
-        <f>IF(AL157,AM157/AL157*100,0) &amp; "%"</f>
+        <f>IF(AL157,ROUND(AM157/AL157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AP157" s="11"/>
@@ -69172,7 +69174,7 @@
         <v>0</v>
       </c>
       <c r="AT157" s="13" t="str">
-        <f>IF(AQ157,AR157/AQ157*100,0) &amp; "%"</f>
+        <f>IF(AQ157,ROUND(AR157/AQ157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU157" s="11"/>
@@ -69189,7 +69191,7 @@
         <v>0</v>
       </c>
       <c r="AY157" s="13" t="str">
-        <f>IF(AV157,AW157/AV157*100,0) &amp; "%"</f>
+        <f>IF(AV157,ROUND(AW157/AV157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ157" s="11"/>
@@ -69206,7 +69208,7 @@
         <v>0</v>
       </c>
       <c r="BD157" s="13" t="str">
-        <f>IF(BA157,BB157/BA157*100,0) &amp; "%"</f>
+        <f>IF(BA157,ROUND(BB157/BA157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE157" s="11"/>
@@ -69223,7 +69225,7 @@
         <v>0</v>
       </c>
       <c r="BI157" s="13" t="str">
-        <f>IF(BF157,BG157/BF157*100,0) &amp; "%"</f>
+        <f>IF(BF157,ROUND(BG157/BF157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ157" s="11"/>
@@ -69240,7 +69242,7 @@
         <v>0</v>
       </c>
       <c r="BN157" s="13" t="str">
-        <f>IF(BK157,BL157/BK157*100,0) &amp; "%"</f>
+        <f>IF(BK157,ROUND(BL157/BK157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO157" s="11"/>
@@ -69257,7 +69259,7 @@
         <v>0</v>
       </c>
       <c r="BS157" s="13" t="str">
-        <f>IF(BP157,BQ157/BP157*100,0) &amp; "%"</f>
+        <f>IF(BP157,ROUND(BQ157/BP157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT157" s="11"/>
@@ -69274,7 +69276,7 @@
         <v>0</v>
       </c>
       <c r="BX157" s="13" t="str">
-        <f>IF(BU157,BV157/BU157*100,0) &amp; "%"</f>
+        <f>IF(BU157,ROUND(BV157/BU157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY157" s="11"/>
@@ -69291,7 +69293,7 @@
         <v>0</v>
       </c>
       <c r="CC157" s="13" t="str">
-        <f>IF(BZ157,CA157/BZ157*100,0) &amp; "%"</f>
+        <f>IF(BZ157,ROUND(CA157/BZ157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD157" s="11"/>
@@ -69308,7 +69310,7 @@
         <v>0</v>
       </c>
       <c r="CH157" s="13" t="str">
-        <f>IF(CE157,CF157/CE157*100,0) &amp; "%"</f>
+        <f>IF(CE157,ROUND(CF157/CE157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI157" s="11"/>
@@ -69325,7 +69327,7 @@
         <v>0</v>
       </c>
       <c r="CM157" s="13" t="str">
-        <f>IF(CJ157,CK157/CJ157*100,0) &amp; "%"</f>
+        <f>IF(CJ157,ROUND(CK157/CJ157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN157" s="11"/>
@@ -69342,7 +69344,7 @@
         <v>0</v>
       </c>
       <c r="CR157" s="13" t="str">
-        <f>IF(CO157,CP157/CO157*100,0) &amp; "%"</f>
+        <f>IF(CO157,ROUND(CP157/CO157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS157" s="11"/>
@@ -69359,7 +69361,7 @@
         <v>0</v>
       </c>
       <c r="CW157" s="13" t="str">
-        <f>IF(CT157,CU157/CT157*100,0) &amp; "%"</f>
+        <f>IF(CT157,ROUND(CU157/CT157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX157" s="11"/>
@@ -69376,7 +69378,7 @@
         <v>0</v>
       </c>
       <c r="DB157" s="13" t="str">
-        <f>IF(CY157,CZ157/CY157*100,0) &amp; "%"</f>
+        <f>IF(CY157,ROUND(CZ157/CY157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC157" s="11"/>
@@ -69393,7 +69395,7 @@
         <v>0</v>
       </c>
       <c r="DG157" s="13" t="str">
-        <f>IF(DD157,DE157/DD157*100,0) &amp; "%"</f>
+        <f>IF(DD157,ROUND(DE157/DD157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH157" s="11"/>
@@ -69410,7 +69412,7 @@
         <v>0</v>
       </c>
       <c r="DL157" s="13" t="str">
-        <f>IF(DI157,DJ157/DI157*100,0) &amp; "%"</f>
+        <f>IF(DI157,ROUND(DJ157/DI157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM157" s="11"/>
@@ -69427,7 +69429,7 @@
         <v>0</v>
       </c>
       <c r="DQ157" s="13" t="str">
-        <f>IF(DN157,DO157/DN157*100,0) &amp; "%"</f>
+        <f>IF(DN157,ROUND(DO157/DN157*100,2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="DR157" s="11"/>
@@ -69444,7 +69446,7 @@
         <v>0</v>
       </c>
       <c r="DV157" s="13" t="str">
-        <f>IF(DS157,DT157/DS157*100,0) &amp; "%"</f>
+        <f>IF(DS157,ROUND(DT157/DS157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW157" s="11"/>
@@ -69461,7 +69463,7 @@
         <v>0</v>
       </c>
       <c r="EA157" s="13" t="str">
-        <f>IF(DX157,DY157/DX157*100,0) &amp; "%"</f>
+        <f>IF(DX157,ROUND(DY157/DX157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB157" s="11"/>
@@ -69478,7 +69480,7 @@
         <v>1</v>
       </c>
       <c r="EF157" s="13" t="str">
-        <f>IF(EC157,ED157/EC157*100,0) &amp; "%"</f>
+        <f>IF(EC157,ROUND(ED157/EC157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG157" s="11"/>
@@ -69495,7 +69497,7 @@
         <v>0</v>
       </c>
       <c r="EK157" s="13" t="str">
-        <f>IF(EH157,EI157/EH157*100,0) &amp; "%"</f>
+        <f>IF(EH157,ROUND(EI157/EH157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EL157" s="11"/>
@@ -69512,7 +69514,7 @@
         <v>0</v>
       </c>
       <c r="EP157" s="13" t="str">
-        <f>IF(EM157,EN157/EM157*100,0) &amp; "%"</f>
+        <f>IF(EM157,ROUND(EN157/EM157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EQ157" s="14"/>
@@ -69529,7 +69531,7 @@
         <v>0</v>
       </c>
       <c r="EU157" s="13" t="str">
-        <f>IF(ER157,ES157/ER157*100,0) &amp; "%"</f>
+        <f>IF(ER157,ROUND(ES157/ER157*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EV157" s="3"/>
@@ -69853,8 +69855,8 @@
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="str">
-        <f>IF(SUM(D133,D157),SUM(D133,D157)*100/SUM(C133,C157),0) &amp; "%"</f>
-        <v>64.2857142857143%</v>
+        <f>IF(SUM(D133,D157),ROUND(SUM(D133,D157)*100/SUM(C133,C157),2),0) &amp; "%"</f>
+        <v>56.52%</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="9" t="s">
@@ -69863,7 +69865,7 @@
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="str">
-        <f>IF(SUM(I133,I157),SUM(I133,I157)*100/SUM(H133,H157),0) &amp; "%"</f>
+        <f>IF(SUM(I133,I157),ROUND(SUM(I133,I157)*100/SUM(H133,H157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L160" s="10"/>
@@ -69873,8 +69875,8 @@
       <c r="N160" s="9"/>
       <c r="O160" s="9"/>
       <c r="P160" s="9" t="str">
-        <f>IF(SUM(N133,N157),SUM(N133,N157)*100/SUM(M133,M157),0) &amp; "%"</f>
-        <v>0%</v>
+        <f>IF(SUM(N133,N157),ROUND(SUM(N133,N157)*100/SUM(M133,M157),2),0) &amp; "%"</f>
+        <v>100%</v>
       </c>
       <c r="Q160" s="10"/>
       <c r="R160" s="9" t="s">
@@ -69883,8 +69885,8 @@
       <c r="S160" s="9"/>
       <c r="T160" s="9"/>
       <c r="U160" s="9" t="str">
-        <f>IF(SUM(S133,S157),SUM(S133,S157)*100/SUM(R133,R157),0) &amp; "%"</f>
-        <v>100%</v>
+        <f>IF(SUM(S133,S157),ROUND(SUM(S133,S157)*100/SUM(R133,R157),2),0) &amp; "%"</f>
+        <v>50%</v>
       </c>
       <c r="V160" s="10"/>
       <c r="W160" s="9" t="s">
@@ -69893,8 +69895,8 @@
       <c r="X160" s="9"/>
       <c r="Y160" s="9"/>
       <c r="Z160" s="9" t="str">
-        <f>IF(SUM(X133,X157),SUM(X133,X157)*100/SUM(W133,W157),0) &amp; "%"</f>
-        <v>66.6666666666667%</v>
+        <f>IF(SUM(X133,X157),ROUND(SUM(X133,X157)*100/SUM(W133,W157),2),0) &amp; "%"</f>
+        <v>66.67%</v>
       </c>
       <c r="AA160" s="10"/>
       <c r="AB160" s="9" t="s">
@@ -69903,7 +69905,7 @@
       <c r="AC160" s="9"/>
       <c r="AD160" s="9"/>
       <c r="AE160" s="9" t="str">
-        <f>IF(SUM(AC133,AC157),SUM(AC133,AC157)*100/SUM(AB133,AB157),0) &amp; "%"</f>
+        <f>IF(SUM(AC133,AC157),ROUND(SUM(AC133,AC157)*100/SUM(AB133,AB157),2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AF160" s="10"/>
@@ -69913,8 +69915,8 @@
       <c r="AH160" s="9"/>
       <c r="AI160" s="9"/>
       <c r="AJ160" s="9" t="str">
-        <f>IF(SUM(AH133,AH157),SUM(AH133,AH157)*100/SUM(AG133,AG157),0) &amp; "%"</f>
-        <v>100%</v>
+        <f>IF(SUM(AH133,AH157),ROUND(SUM(AH133,AH157)*100/SUM(AG133,AG157),2),0) &amp; "%"</f>
+        <v>33.33%</v>
       </c>
       <c r="AK160" s="10"/>
       <c r="AL160" s="9" t="s">
@@ -69923,7 +69925,7 @@
       <c r="AM160" s="9"/>
       <c r="AN160" s="9"/>
       <c r="AO160" s="9" t="str">
-        <f>IF(SUM(AM133,AM157),SUM(AM133,AM157)*100/SUM(AL133,AL157),0) &amp; "%"</f>
+        <f>IF(SUM(AM133,AM157),ROUND(SUM(AM133,AM157)*100/SUM(AL133,AL157),2),0) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AP160" s="10"/>
@@ -69933,7 +69935,7 @@
       <c r="AR160" s="9"/>
       <c r="AS160" s="9"/>
       <c r="AT160" s="9" t="str">
-        <f>IF(SUM(AR133,AR157),SUM(AR133,AR157)*100/SUM(AQ133,AQ157),0) &amp; "%"</f>
+        <f>IF(SUM(AR133,AR157),ROUND(SUM(AR133,AR157)*100/SUM(AQ133,AQ157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AU160" s="10"/>
@@ -69943,7 +69945,7 @@
       <c r="AW160" s="9"/>
       <c r="AX160" s="9"/>
       <c r="AY160" s="9" t="str">
-        <f>IF(SUM(AW133,AW157),SUM(AW133,AW157)*100/SUM(AV133,AV157),0) &amp; "%"</f>
+        <f>IF(SUM(AW133,AW157),ROUND(SUM(AW133,AW157)*100/SUM(AV133,AV157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="AZ160" s="10"/>
@@ -69953,7 +69955,7 @@
       <c r="BB160" s="9"/>
       <c r="BC160" s="9"/>
       <c r="BD160" s="9" t="str">
-        <f>IF(SUM(BB133,BB157),SUM(BB133,BB157)*100/SUM(BA133,BA157),0) &amp; "%"</f>
+        <f>IF(SUM(BB133,BB157),ROUND(SUM(BB133,BB157)*100/SUM(BA133,BA157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BE160" s="10"/>
@@ -69963,7 +69965,7 @@
       <c r="BG160" s="9"/>
       <c r="BH160" s="9"/>
       <c r="BI160" s="9" t="str">
-        <f>IF(SUM(BG133,BG157),SUM(BG133,BG157)*100/SUM(BF133,BF157),0) &amp; "%"</f>
+        <f>IF(SUM(BG133,BG157),ROUND(SUM(BG133,BG157)*100/SUM(BF133,BF157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BJ160" s="10"/>
@@ -69973,7 +69975,7 @@
       <c r="BL160" s="9"/>
       <c r="BM160" s="9"/>
       <c r="BN160" s="9" t="str">
-        <f>IF(SUM(BL133,BL157),SUM(BL133,BL157)*100/SUM(BK133,BK157),0) &amp; "%"</f>
+        <f>IF(SUM(BL133,BL157),ROUND(SUM(BL133,BL157)*100/SUM(BK133,BK157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BO160" s="10"/>
@@ -69983,7 +69985,7 @@
       <c r="BQ160" s="9"/>
       <c r="BR160" s="9"/>
       <c r="BS160" s="9" t="str">
-        <f>IF(SUM(BQ133,BQ157),SUM(BQ133,BQ157)*100/SUM(BP133,BP157),0) &amp; "%"</f>
+        <f>IF(SUM(BQ133,BQ157),ROUND(SUM(BQ133,BQ157)*100/SUM(BP133,BP157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BT160" s="10"/>
@@ -69993,7 +69995,7 @@
       <c r="BV160" s="9"/>
       <c r="BW160" s="9"/>
       <c r="BX160" s="9" t="str">
-        <f>IF(SUM(BV133,BV157),SUM(BV133,BV157)*100/SUM(BU133,BU157),0) &amp; "%"</f>
+        <f>IF(SUM(BV133,BV157),ROUND(SUM(BV133,BV157)*100/SUM(BU133,BU157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="BY160" s="10"/>
@@ -70003,7 +70005,7 @@
       <c r="CA160" s="9"/>
       <c r="CB160" s="9"/>
       <c r="CC160" s="9" t="str">
-        <f>IF(SUM(CA133,CA157),SUM(CA133,CA157)*100/SUM(BZ133,BZ157),0) &amp; "%"</f>
+        <f>IF(SUM(CA133,CA157),ROUND(SUM(CA133,CA157)*100/SUM(BZ133,BZ157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CD160" s="10"/>
@@ -70013,7 +70015,7 @@
       <c r="CF160" s="9"/>
       <c r="CG160" s="9"/>
       <c r="CH160" s="9" t="str">
-        <f>IF(SUM(CF133,CF157),SUM(CF133,CF157)*100/SUM(CE133,CE157),0) &amp; "%"</f>
+        <f>IF(SUM(CF133,CF157),ROUND(SUM(CF133,CF157)*100/SUM(CE133,CE157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CI160" s="10"/>
@@ -70023,7 +70025,7 @@
       <c r="CK160" s="9"/>
       <c r="CL160" s="9"/>
       <c r="CM160" s="9" t="str">
-        <f>IF(SUM(CK133,CK157),SUM(CK133,CK157)*100/SUM(CJ133,CJ157),0) &amp; "%"</f>
+        <f>IF(SUM(CK133,CK157),ROUND(SUM(CK133,CK157)*100/SUM(CJ133,CJ157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CN160" s="10"/>
@@ -70033,7 +70035,7 @@
       <c r="CP160" s="9"/>
       <c r="CQ160" s="9"/>
       <c r="CR160" s="9" t="str">
-        <f>IF(SUM(CP133,CP157),SUM(CP133,CP157)*100/SUM(CO133,CO157),0) &amp; "%"</f>
+        <f>IF(SUM(CP133,CP157),ROUND(SUM(CP133,CP157)*100/SUM(CO133,CO157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CS160" s="10"/>
@@ -70043,7 +70045,7 @@
       <c r="CU160" s="9"/>
       <c r="CV160" s="9"/>
       <c r="CW160" s="9" t="str">
-        <f>IF(SUM(CU133,CU157),SUM(CU133,CU157)*100/SUM(CT133,CT157),0) &amp; "%"</f>
+        <f>IF(SUM(CU133,CU157),ROUND(SUM(CU133,CU157)*100/SUM(CT133,CT157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="CX160" s="10"/>
@@ -70053,7 +70055,7 @@
       <c r="CZ160" s="9"/>
       <c r="DA160" s="9"/>
       <c r="DB160" s="9" t="str">
-        <f>IF(SUM(CZ133,CZ157),SUM(CZ133,CZ157)*100/SUM(CY133,CY157),0) &amp; "%"</f>
+        <f>IF(SUM(CZ133,CZ157),ROUND(SUM(CZ133,CZ157)*100/SUM(CY133,CY157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DC160" s="10"/>
@@ -70063,7 +70065,7 @@
       <c r="DE160" s="9"/>
       <c r="DF160" s="9"/>
       <c r="DG160" s="9" t="str">
-        <f>IF(SUM(DE133,DE157),SUM(DE133,DE157)*100/SUM(DD133,DD157),0) &amp; "%"</f>
+        <f>IF(SUM(DE133,DE157),ROUND(SUM(DE133,DE157)*100/SUM(DD133,DD157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DH160" s="10"/>
@@ -70073,7 +70075,7 @@
       <c r="DJ160" s="9"/>
       <c r="DK160" s="9"/>
       <c r="DL160" s="9" t="str">
-        <f>IF(SUM(DJ133,DJ157),SUM(DJ133,DJ157)*100/SUM(DI133,DI157),0) &amp; "%"</f>
+        <f>IF(SUM(DJ133,DJ157),ROUND(SUM(DJ133,DJ157)*100/SUM(DI133,DI157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DM160" s="10"/>
@@ -70083,7 +70085,7 @@
       <c r="DO160" s="9"/>
       <c r="DP160" s="9"/>
       <c r="DQ160" s="9" t="str">
-        <f>IF(SUM(DO133,DO157),SUM(DO133,DO157)*100/SUM(DN133,DN157),0) &amp; "%"</f>
+        <f>IF(SUM(DO133,DO157),ROUND(SUM(DO133,DO157)*100/SUM(DN133,DN157),2),0) &amp; "%"</f>
         <v>100%</v>
       </c>
       <c r="DR160" s="10"/>
@@ -70093,7 +70095,7 @@
       <c r="DT160" s="9"/>
       <c r="DU160" s="9"/>
       <c r="DV160" s="9" t="str">
-        <f>IF(SUM(DT133,DT157),SUM(DT133,DT157)*100/SUM(DS133,DS157),0) &amp; "%"</f>
+        <f>IF(SUM(DT133,DT157),ROUND(SUM(DT133,DT157)*100/SUM(DS133,DS157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="DW160" s="10"/>
@@ -70103,7 +70105,7 @@
       <c r="DY160" s="9"/>
       <c r="DZ160" s="9"/>
       <c r="EA160" s="9" t="str">
-        <f>IF(SUM(DY133,DY157),SUM(DY133,DY157)*100/SUM(DX133,DX157),0) &amp; "%"</f>
+        <f>IF(SUM(DY133,DY157),ROUND(SUM(DY133,DY157)*100/SUM(DX133,DX157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EB160" s="10"/>
@@ -70113,7 +70115,7 @@
       <c r="ED160" s="9"/>
       <c r="EE160" s="9"/>
       <c r="EF160" s="9" t="str">
-        <f>IF(SUM(ED133,ED157),SUM(ED133,ED157)*100/SUM(EC133,EC157),0) &amp; "%"</f>
+        <f>IF(SUM(ED133,ED157),ROUND(SUM(ED133,ED157)*100/SUM(EC133,EC157),2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG160" s="10"/>
@@ -70156,9 +70158,9 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="16">
-        <f>(SUM(D74,D101)/SUM(C74,C101)+SUM(D133,D157)/SUM(C133,C157))/2</f>
-        <v>0.53354978354978355</v>
+      <c r="F161" s="16" t="str">
+        <f>ROUND(((SUM(D74,D101)/SUM(C74,C101)+SUM(D133,D157)/SUM(C133,C157))/2)*100,2) &amp; "%"</f>
+        <v>51.41%</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="9" t="s">
@@ -70166,9 +70168,9 @@
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="16" t="e">
-        <f>((SUM(I74,I101)/SUM(H74,H101)+SUM(I133,I157)/SUM(H133,H157))/2)*100  &amp; "%"</f>
-        <v>#DIV/0!</v>
+      <c r="K161" s="16" t="str">
+        <f>ROUND(((SUM(I74,I101)/SUM(H74,H101)+SUM(I133,I157)/SUM(H133,H157))/2)*100,2) &amp; "%"</f>
+        <v>16.67%</v>
       </c>
       <c r="L161" s="10"/>
       <c r="M161" s="9" t="s">
@@ -70176,9 +70178,9 @@
       </c>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
-      <c r="P161" s="16" t="e">
-        <f>((SUM(N74,N101)/SUM(M74,M101)+SUM(N133,N157)/SUM(M133,M157))/2)*100  &amp; "%"</f>
-        <v>#DIV/0!</v>
+      <c r="P161" s="16" t="str">
+        <f>ROUND(((SUM(N74,N101)/SUM(M74,M101)+SUM(N133,N157)/SUM(M133,M157))/2)*100,2) &amp; "%"</f>
+        <v>78.57%</v>
       </c>
       <c r="Q161" s="10"/>
       <c r="R161" s="9" t="s">
@@ -70187,8 +70189,8 @@
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
       <c r="U161" s="16" t="str">
-        <f>((SUM(S74,S101)/SUM(R74,R101)+SUM(S133,S157)/SUM(R133,R157))/2)*100  &amp; "%"</f>
-        <v>75%</v>
+        <f>ROUND(((SUM(S74,S101)/SUM(R74,R101)+SUM(S133,S157)/SUM(R133,R157))/2)*100,2) &amp; "%"</f>
+        <v>46.43%</v>
       </c>
       <c r="V161" s="10"/>
       <c r="W161" s="9" t="s">
@@ -70197,8 +70199,8 @@
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
       <c r="Z161" s="16" t="str">
-        <f>((SUM(X74,X101)/SUM(W74,W101)+SUM(X133,X157)/SUM(W133,W157))/2)*100  &amp; "%"</f>
-        <v>58.3333333333333%</v>
+        <f>ROUND(((SUM(X74,X101)/SUM(W74,W101)+SUM(X133,X157)/SUM(W133,W157))/2)*100,2) &amp; "%"</f>
+        <v>58.33%</v>
       </c>
       <c r="AA161" s="10"/>
       <c r="AB161" s="9" t="s">
@@ -70207,8 +70209,8 @@
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
       <c r="AE161" s="16" t="str">
-        <f>((SUM(AC74,AC101)/SUM(AB74,AB101)+SUM(AC133,AC157)/SUM(AB133,AB157))/2)*100  &amp; "%"</f>
-        <v>41.6666666666667%</v>
+        <f>ROUND(((SUM(AC74,AC101)/SUM(AB74,AB101)+SUM(AC133,AC157)/SUM(AB133,AB157))/2)*100,2) &amp; "%"</f>
+        <v>46.43%</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="9" t="s">
@@ -70217,8 +70219,8 @@
       <c r="AH161" s="9"/>
       <c r="AI161" s="9"/>
       <c r="AJ161" s="16" t="str">
-        <f>((SUM(AH74,AH101)/SUM(AG74,AG101)+SUM(AH133,AH157)/SUM(AG133,AG157))/2)*100  &amp; "%"</f>
-        <v>83.3333333333333%</v>
+        <f>ROUND(((SUM(AH74,AH101)/SUM(AG74,AG101)+SUM(AH133,AH157)/SUM(AG133,AG157))/2)*100,2) &amp; "%"</f>
+        <v>54.17%</v>
       </c>
       <c r="AK161" s="10"/>
       <c r="AL161" s="9" t="s">
@@ -70227,7 +70229,7 @@
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
       <c r="AO161" s="16" t="str">
-        <f>((SUM(AM74,AM101)/SUM(AL74,AL101)+SUM(AM133,AM157)/SUM(AL133,AL157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(AM74,AM101)/SUM(AL74,AL101)+SUM(AM133,AM157)/SUM(AL133,AL157))/2)*100,2) &amp; "%"</f>
         <v>50%</v>
       </c>
       <c r="AP161" s="10"/>
@@ -70237,7 +70239,7 @@
       <c r="AR161" s="9"/>
       <c r="AS161" s="9"/>
       <c r="AT161" s="16" t="str">
-        <f>((SUM(AR74,AR101)/SUM(AQ74,AQ101)+SUM(AR133,AR157)/SUM(AQ133,AQ157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(AR74,AR101)/SUM(AQ74,AQ101)+SUM(AR133,AR157)/SUM(AQ133,AQ157))/2)*100,2) &amp; "%"</f>
         <v>12.5%</v>
       </c>
       <c r="AU161" s="10"/>
@@ -70247,7 +70249,7 @@
       <c r="AW161" s="9"/>
       <c r="AX161" s="9"/>
       <c r="AY161" s="16" t="e">
-        <f>((SUM(AW74,AW101)/SUM(AV74,AV101)+SUM(AW133,AW157)/SUM(AV133,AV157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(AW74,AW101)/SUM(AV74,AV101)+SUM(AW133,AW157)/SUM(AV133,AV157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AZ161" s="10"/>
@@ -70257,7 +70259,7 @@
       <c r="BB161" s="9"/>
       <c r="BC161" s="9"/>
       <c r="BD161" s="16" t="e">
-        <f>((SUM(BB74,BB101)/SUM(BA74,BA101)+SUM(BB133,BB157)/SUM(BA133,BA157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(BB74,BB101)/SUM(BA74,BA101)+SUM(BB133,BB157)/SUM(BA133,BA157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BE161" s="10"/>
@@ -70267,7 +70269,7 @@
       <c r="BG161" s="9"/>
       <c r="BH161" s="9"/>
       <c r="BI161" s="16" t="e">
-        <f>((SUM(BG74,BG101)/SUM(BF74,BF101)+SUM(BG133,BG157)/SUM(BF133,BF157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(BG74,BG101)/SUM(BF74,BF101)+SUM(BG133,BG157)/SUM(BF133,BF157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BJ161" s="10"/>
@@ -70277,7 +70279,7 @@
       <c r="BL161" s="9"/>
       <c r="BM161" s="9"/>
       <c r="BN161" s="16" t="e">
-        <f>((SUM(BL74,BL101)/SUM(BK74,BK101)+SUM(BL133,BL157)/SUM(BK133,BK157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(BL74,BL101)/SUM(BK74,BK101)+SUM(BL133,BL157)/SUM(BK133,BK157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BO161" s="10"/>
@@ -70287,7 +70289,7 @@
       <c r="BQ161" s="9"/>
       <c r="BR161" s="9"/>
       <c r="BS161" s="16" t="e">
-        <f>((SUM(BQ74,BQ101)/SUM(BP74,BP101)+SUM(BQ133,BQ157)/SUM(BP133,BP157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(BQ74,BQ101)/SUM(BP74,BP101)+SUM(BQ133,BQ157)/SUM(BP133,BP157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BT161" s="10"/>
@@ -70297,7 +70299,7 @@
       <c r="BV161" s="9"/>
       <c r="BW161" s="9"/>
       <c r="BX161" s="16" t="e">
-        <f>((SUM(BV74,BV101)/SUM(BU74,BU101)+SUM(BV133,BV157)/SUM(BU133,BU157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(BV74,BV101)/SUM(BU74,BU101)+SUM(BV133,BV157)/SUM(BU133,BU157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BY161" s="10"/>
@@ -70307,7 +70309,7 @@
       <c r="CA161" s="9"/>
       <c r="CB161" s="9"/>
       <c r="CC161" s="16" t="e">
-        <f>((SUM(CA74,CA101)/SUM(BZ74,BZ101)+SUM(CA133,CA157)/SUM(BZ133,BZ157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CA74,CA101)/SUM(BZ74,BZ101)+SUM(CA133,CA157)/SUM(BZ133,BZ157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CD161" s="10"/>
@@ -70317,7 +70319,7 @@
       <c r="CF161" s="9"/>
       <c r="CG161" s="9"/>
       <c r="CH161" s="16" t="e">
-        <f>((SUM(CF74,CF101)/SUM(CE74,CE101)+SUM(CF133,CF157)/SUM(CE133,CE157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CF74,CF101)/SUM(CE74,CE101)+SUM(CF133,CF157)/SUM(CE133,CE157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI161" s="10"/>
@@ -70327,7 +70329,7 @@
       <c r="CK161" s="9"/>
       <c r="CL161" s="9"/>
       <c r="CM161" s="16" t="e">
-        <f>((SUM(CK74,CK101)/SUM(CJ74,CJ101)+SUM(CK133,CK157)/SUM(CJ133,CJ157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CK74,CK101)/SUM(CJ74,CJ101)+SUM(CK133,CK157)/SUM(CJ133,CJ157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CN161" s="10"/>
@@ -70337,7 +70339,7 @@
       <c r="CP161" s="9"/>
       <c r="CQ161" s="9"/>
       <c r="CR161" s="16" t="e">
-        <f>((SUM(CP74,CP101)/SUM(CO74,CO101)+SUM(CP133,CP157)/SUM(CO133,CO157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CP74,CP101)/SUM(CO74,CO101)+SUM(CP133,CP157)/SUM(CO133,CO157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CS161" s="10"/>
@@ -70347,7 +70349,7 @@
       <c r="CU161" s="9"/>
       <c r="CV161" s="9"/>
       <c r="CW161" s="16" t="e">
-        <f>((SUM(CU74,CU101)/SUM(CT74,CT101)+SUM(CU133,CU157)/SUM(CT133,CT157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CU74,CU101)/SUM(CT74,CT101)+SUM(CU133,CU157)/SUM(CT133,CT157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CX161" s="10"/>
@@ -70357,7 +70359,7 @@
       <c r="CZ161" s="9"/>
       <c r="DA161" s="9"/>
       <c r="DB161" s="16" t="e">
-        <f>((SUM(CZ74,CZ101)/SUM(CY74,CY101)+SUM(CZ133,CZ157)/SUM(CY133,CY157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(CZ74,CZ101)/SUM(CY74,CY101)+SUM(CZ133,CZ157)/SUM(CY133,CY157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DC161" s="10"/>
@@ -70367,7 +70369,7 @@
       <c r="DE161" s="9"/>
       <c r="DF161" s="9"/>
       <c r="DG161" s="16" t="e">
-        <f>((SUM(DE74,DE101)/SUM(DD74,DD101)+SUM(DE133,DE157)/SUM(DD133,DD157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(DE74,DE101)/SUM(DD74,DD101)+SUM(DE133,DE157)/SUM(DD133,DD157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DH161" s="10"/>
@@ -70376,9 +70378,9 @@
       </c>
       <c r="DJ161" s="9"/>
       <c r="DK161" s="9"/>
-      <c r="DL161" s="16" t="e">
-        <f>((SUM(DJ74,DJ101)/SUM(DI74,DI101)+SUM(DJ133,DJ157)/SUM(DI133,DI157))/2)*100  &amp; "%"</f>
-        <v>#DIV/0!</v>
+      <c r="DL161" s="16" t="str">
+        <f>ROUND(((SUM(DJ74,DJ101)/SUM(DI74,DI101)+SUM(DJ133,DJ157)/SUM(DI133,DI157))/2)*100,2) &amp; "%"</f>
+        <v>16.67%</v>
       </c>
       <c r="DM161" s="10"/>
       <c r="DN161" s="9" t="s">
@@ -70387,8 +70389,8 @@
       <c r="DO161" s="9"/>
       <c r="DP161" s="9"/>
       <c r="DQ161" s="16" t="str">
-        <f>((SUM(DO74,DO101)/SUM(DN74,DN101)+SUM(DO133,DO157)/SUM(DN133,DN157))/2)*100  &amp; "%"</f>
-        <v>83.3333333333333%</v>
+        <f>ROUND(((SUM(DO74,DO101)/SUM(DN74,DN101)+SUM(DO133,DO157)/SUM(DN133,DN157))/2)*100,2) &amp; "%"</f>
+        <v>83.33%</v>
       </c>
       <c r="DR161" s="10"/>
       <c r="DS161" s="9" t="s">
@@ -70397,7 +70399,7 @@
       <c r="DT161" s="9"/>
       <c r="DU161" s="9"/>
       <c r="DV161" s="16" t="e">
-        <f>((SUM(DT74,DT101)/SUM(DS74,DS101)+SUM(DT133,DT157)/SUM(DS133,DS157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(DT74,DT101)/SUM(DS74,DS101)+SUM(DT133,DT157)/SUM(DS133,DS157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="DW161" s="10"/>
@@ -70407,7 +70409,7 @@
       <c r="DY161" s="9"/>
       <c r="DZ161" s="9"/>
       <c r="EA161" s="16" t="e">
-        <f>((SUM(DY74,DY101)/SUM(DX74,DX101)+SUM(DY133,DY157)/SUM(DX133,DX157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(DY74,DY101)/SUM(DX74,DX101)+SUM(DY133,DY157)/SUM(DX133,DX157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="EB161" s="10"/>
@@ -70417,7 +70419,7 @@
       <c r="ED161" s="9"/>
       <c r="EE161" s="9"/>
       <c r="EF161" s="16" t="str">
-        <f>((SUM(ED74,ED101)/SUM(EC74,EC101)+SUM(ED133,ED157)/SUM(EC133,EC157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(ED74,ED101)/SUM(EC74,EC101)+SUM(ED133,ED157)/SUM(EC133,EC157))/2)*100,2) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="EG161" s="10"/>
@@ -70427,7 +70429,7 @@
       <c r="EI161" s="9"/>
       <c r="EJ161" s="9"/>
       <c r="EK161" s="16" t="e">
-        <f>((SUM(EI74,EI101)/SUM(EH74,EH101)+SUM(EI133,EI157)/SUM(EH133,EH157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(EI74,EI101)/SUM(EH74,EH101)+SUM(EI133,EI157)/SUM(EH133,EH157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="EL161" s="10"/>
@@ -70437,7 +70439,7 @@
       <c r="EN161" s="9"/>
       <c r="EO161" s="9"/>
       <c r="EP161" s="16" t="e">
-        <f>((SUM(EN74,EN101)/SUM(EM74,EM101)+SUM(EN133,EN157)/SUM(EM133,EM157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(EN74,EN101)/SUM(EM74,EM101)+SUM(EN133,EN157)/SUM(EM133,EM157))/2)*100,2) &amp; "%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="EQ161" s="15"/>
@@ -70447,7 +70449,7 @@
       <c r="ES161" s="9"/>
       <c r="ET161" s="9"/>
       <c r="EU161" s="16" t="str">
-        <f>((SUM(ES74,ES101)/SUM(ER74,ER101)+SUM(ES133,ES157)/SUM(ER133,ER157))/2)*100  &amp; "%"</f>
+        <f>ROUND(((SUM(ES74,ES101)/SUM(ER74,ER101)+SUM(ES133,ES157)/SUM(ER133,ER157))/2)*100,2) &amp; "%"</f>
         <v>75%</v>
       </c>
       <c r="EV161" s="3"/>
@@ -70462,7 +70464,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9">
         <f>+SUM(C157,C133,C101,C74)</f>
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="9" t="s">
@@ -70472,7 +70474,7 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9">
         <f>+SUM(H157,H133,H101,H74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L162" s="10"/>
       <c r="M162" s="9" t="s">
@@ -70482,7 +70484,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="9">
         <f>+SUM(M157,M133,M101,M74)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q162" s="10"/>
       <c r="R162" s="9" t="s">
@@ -70492,7 +70494,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9">
         <f>+SUM(R157,R133,R101,R74)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="V162" s="10"/>
       <c r="W162" s="9" t="s">
@@ -70502,7 +70504,7 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9">
         <f>+SUM(W157,W133,W101,W74)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AA162" s="10"/>
       <c r="AB162" s="9" t="s">
@@ -70512,7 +70514,7 @@
       <c r="AD162" s="9"/>
       <c r="AE162" s="9">
         <f>+SUM(AB157,AB133,AB101,AB74)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF162" s="10"/>
       <c r="AG162" s="9" t="s">
@@ -70522,7 +70524,7 @@
       <c r="AI162" s="9"/>
       <c r="AJ162" s="9">
         <f>+SUM(AG157,AG133,AG101,AG74)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="9" t="s">
@@ -70572,7 +70574,7 @@
       <c r="BH162" s="9"/>
       <c r="BI162" s="9">
         <f>+SUM(BF157,BF133,BF101,BF74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ162" s="10"/>
       <c r="BK162" s="9" t="s">
@@ -70682,7 +70684,7 @@
       <c r="DK162" s="9"/>
       <c r="DL162" s="9">
         <f>+SUM(DI157,DI133,DI101,DI74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DM162" s="10"/>
       <c r="DN162" s="9" t="s">
@@ -71071,14 +71073,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -71293,6 +71287,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71303,23 +71305,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71338,6 +71323,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ECE2CD-E455-4323-BF8B-4952BE732D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322EA92F-30EE-40E6-A63E-776AF9C67C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,23 +1065,23 @@
   <dimension ref="A1:EV164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="DR146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="EU161" sqref="EU161"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="7" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="7" width="15.25" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="88" max="92" width="15.42578125" customWidth="1"/>
-    <col min="93" max="97" width="14.140625" customWidth="1"/>
-    <col min="103" max="107" width="13.28515625" customWidth="1"/>
+    <col min="88" max="92" width="15.4140625" customWidth="1"/>
+    <col min="93" max="97" width="14.1640625" customWidth="1"/>
+    <col min="103" max="107" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="EU1" s="4"/>
       <c r="EV1" s="3"/>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1451,7 +1451,7 @@
       <c r="EU2" s="3"/>
       <c r="EV2" s="3"/>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1605,7 +1605,7 @@
       <c r="EU3" s="3"/>
       <c r="EV3" s="3"/>
     </row>
-    <row r="4" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:152">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="EV4" s="3"/>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="EV5" s="3"/>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="EV6" s="3"/>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3375,7 +3375,7 @@
       </c>
       <c r="EV7" s="3"/>
     </row>
-    <row r="8" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:152">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="EV8" s="3"/>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="EV9" s="3"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="EV10" s="3"/>
     </row>
-    <row r="11" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="EV11" s="3"/>
     </row>
-    <row r="12" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="EV12" s="3"/>
     </row>
-    <row r="13" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -6123,7 +6123,7 @@
       </c>
       <c r="EV13" s="3"/>
     </row>
-    <row r="14" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -6581,7 +6581,7 @@
       </c>
       <c r="EV14" s="3"/>
     </row>
-    <row r="15" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="EV15" s="3"/>
     </row>
-    <row r="16" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="EV16" s="3"/>
     </row>
-    <row r="17" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="EV17" s="3"/>
     </row>
-    <row r="18" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -8413,7 +8413,7 @@
       </c>
       <c r="EV18" s="3"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="EV19" s="3"/>
     </row>
-    <row r="20" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -9329,7 +9329,7 @@
       </c>
       <c r="EV20" s="3"/>
     </row>
-    <row r="21" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="EV21" s="3"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="EV22" s="3"/>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -10703,7 +10703,7 @@
       </c>
       <c r="EV23" s="3"/>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="EV24" s="3"/>
     </row>
-    <row r="25" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:152">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="EV25" s="3"/>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="EV26" s="3"/>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
@@ -12535,7 +12535,7 @@
       </c>
       <c r="EV27" s="3"/>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="EV28" s="3"/>
     </row>
-    <row r="29" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:152">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="EV29" s="3"/>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="EV30" s="3"/>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="EV31" s="3"/>
     </row>
-    <row r="32" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -14825,7 +14825,7 @@
       </c>
       <c r="EV32" s="3"/>
     </row>
-    <row r="33" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:152">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="EV33" s="3"/>
     </row>
-    <row r="34" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="EV34" s="3"/>
     </row>
-    <row r="35" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -16199,7 +16199,7 @@
       </c>
       <c r="EV35" s="3"/>
     </row>
-    <row r="36" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -16657,7 +16657,7 @@
       </c>
       <c r="EV36" s="3"/>
     </row>
-    <row r="37" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -17115,7 +17115,7 @@
       </c>
       <c r="EV37" s="3"/>
     </row>
-    <row r="38" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -17573,7 +17573,7 @@
       </c>
       <c r="EV38" s="3"/>
     </row>
-    <row r="39" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -18031,7 +18031,7 @@
       </c>
       <c r="EV39" s="3"/>
     </row>
-    <row r="40" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -18489,7 +18489,7 @@
       </c>
       <c r="EV40" s="3"/>
     </row>
-    <row r="41" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -18947,7 +18947,7 @@
       </c>
       <c r="EV41" s="3"/>
     </row>
-    <row r="42" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="EV42" s="3"/>
     </row>
-    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="EV43" s="3"/>
     </row>
-    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="EV44" s="3"/>
     </row>
-    <row r="45" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:152">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -20779,7 +20779,7 @@
       </c>
       <c r="EV45" s="3"/>
     </row>
-    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:152">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -21237,7 +21237,7 @@
       </c>
       <c r="EV46" s="3"/>
     </row>
-    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
@@ -21695,7 +21695,7 @@
       </c>
       <c r="EV47" s="3"/>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="EV48" s="3"/>
     </row>
-    <row r="49" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:152">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -22611,7 +22611,7 @@
       </c>
       <c r="EV49" s="3"/>
     </row>
-    <row r="50" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:152">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -23069,7 +23069,7 @@
       </c>
       <c r="EV50" s="3"/>
     </row>
-    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:152">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -23527,7 +23527,7 @@
       </c>
       <c r="EV51" s="3"/>
     </row>
-    <row r="52" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:152">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -23985,7 +23985,7 @@
       </c>
       <c r="EV52" s="3"/>
     </row>
-    <row r="53" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:152">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -24443,7 +24443,7 @@
       </c>
       <c r="EV53" s="3"/>
     </row>
-    <row r="54" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:152">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -24901,7 +24901,7 @@
       </c>
       <c r="EV54" s="3"/>
     </row>
-    <row r="55" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:152">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -25359,7 +25359,7 @@
       </c>
       <c r="EV55" s="3"/>
     </row>
-    <row r="56" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:152">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
@@ -25817,7 +25817,7 @@
       </c>
       <c r="EV56" s="3"/>
     </row>
-    <row r="57" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:152">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -26275,7 +26275,7 @@
       </c>
       <c r="EV57" s="3"/>
     </row>
-    <row r="58" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:152">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -26733,7 +26733,7 @@
       </c>
       <c r="EV58" s="3"/>
     </row>
-    <row r="59" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:152">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
@@ -27191,7 +27191,7 @@
       </c>
       <c r="EV59" s="3"/>
     </row>
-    <row r="60" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:152">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
@@ -27649,7 +27649,7 @@
       </c>
       <c r="EV60" s="3"/>
     </row>
-    <row r="61" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:152">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="EV61" s="3"/>
     </row>
-    <row r="62" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:152">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
@@ -28565,7 +28565,7 @@
       </c>
       <c r="EV62" s="3"/>
     </row>
-    <row r="63" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:152">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
@@ -29023,7 +29023,7 @@
       </c>
       <c r="EV63" s="3"/>
     </row>
-    <row r="64" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:152">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -29481,7 +29481,7 @@
       </c>
       <c r="EV64" s="3"/>
     </row>
-    <row r="65" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:152">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -29939,7 +29939,7 @@
       </c>
       <c r="EV65" s="3"/>
     </row>
-    <row r="66" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:152">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -30397,7 +30397,7 @@
       </c>
       <c r="EV66" s="3"/>
     </row>
-    <row r="67" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:152">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
@@ -30855,7 +30855,7 @@
       </c>
       <c r="EV67" s="3"/>
     </row>
-    <row r="68" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:152">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
@@ -31313,7 +31313,7 @@
       </c>
       <c r="EV68" s="3"/>
     </row>
-    <row r="69" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:152">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -31771,7 +31771,7 @@
       </c>
       <c r="EV69" s="3"/>
     </row>
-    <row r="70" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:152">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -32229,7 +32229,7 @@
       </c>
       <c r="EV70" s="3"/>
     </row>
-    <row r="71" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:152">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
@@ -32687,7 +32687,7 @@
       </c>
       <c r="EV71" s="3"/>
     </row>
-    <row r="72" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:152">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="EV72" s="3"/>
     </row>
-    <row r="73" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:152">
       <c r="A73" s="1" t="s">
         <v>180</v>
       </c>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="EV73" s="3"/>
     </row>
-    <row r="74" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:152">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
@@ -34119,7 +34119,7 @@
       </c>
       <c r="EV74" s="3"/>
     </row>
-    <row r="75" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:152">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -34273,7 +34273,7 @@
       <c r="EU75" s="3"/>
       <c r="EV75" s="3"/>
     </row>
-    <row r="76" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:152">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -34427,7 +34427,7 @@
       <c r="EU76" s="3"/>
       <c r="EV76" s="3"/>
     </row>
-    <row r="77" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:152">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -34823,7 +34823,7 @@
       </c>
       <c r="EV77" s="3"/>
     </row>
-    <row r="78" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:152">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -35281,7 +35281,7 @@
       </c>
       <c r="EV78" s="3"/>
     </row>
-    <row r="79" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:152">
       <c r="A79" s="2" t="s">
         <v>102</v>
       </c>
@@ -35739,7 +35739,7 @@
       </c>
       <c r="EV79" s="3"/>
     </row>
-    <row r="80" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:152">
       <c r="A80" s="2" t="s">
         <v>103</v>
       </c>
@@ -36197,7 +36197,7 @@
       </c>
       <c r="EV80" s="3"/>
     </row>
-    <row r="81" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:152">
       <c r="A81" s="2" t="s">
         <v>104</v>
       </c>
@@ -36655,7 +36655,7 @@
       </c>
       <c r="EV81" s="3"/>
     </row>
-    <row r="82" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:152">
       <c r="A82" s="2" t="s">
         <v>105</v>
       </c>
@@ -37113,7 +37113,7 @@
       </c>
       <c r="EV82" s="3"/>
     </row>
-    <row r="83" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:152">
       <c r="A83" s="2" t="s">
         <v>106</v>
       </c>
@@ -37571,7 +37571,7 @@
       </c>
       <c r="EV83" s="3"/>
     </row>
-    <row r="84" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:152">
       <c r="A84" s="2" t="s">
         <v>107</v>
       </c>
@@ -38029,7 +38029,7 @@
       </c>
       <c r="EV84" s="3"/>
     </row>
-    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:152">
       <c r="A85" s="2" t="s">
         <v>108</v>
       </c>
@@ -38487,7 +38487,7 @@
       </c>
       <c r="EV85" s="3"/>
     </row>
-    <row r="86" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:152">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
@@ -38945,7 +38945,7 @@
       </c>
       <c r="EV86" s="3"/>
     </row>
-    <row r="87" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:152">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
@@ -39403,7 +39403,7 @@
       </c>
       <c r="EV87" s="3"/>
     </row>
-    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:152">
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
@@ -39861,7 +39861,7 @@
       </c>
       <c r="EV88" s="3"/>
     </row>
-    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:152">
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
@@ -40319,7 +40319,7 @@
       </c>
       <c r="EV89" s="3"/>
     </row>
-    <row r="90" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:152">
       <c r="A90" s="2" t="s">
         <v>113</v>
       </c>
@@ -40777,7 +40777,7 @@
       </c>
       <c r="EV90" s="3"/>
     </row>
-    <row r="91" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:152">
       <c r="A91" s="2" t="s">
         <v>114</v>
       </c>
@@ -41235,7 +41235,7 @@
       </c>
       <c r="EV91" s="3"/>
     </row>
-    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:152">
       <c r="A92" s="2" t="s">
         <v>115</v>
       </c>
@@ -41693,7 +41693,7 @@
       </c>
       <c r="EV92" s="3"/>
     </row>
-    <row r="93" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:152">
       <c r="A93" s="2" t="s">
         <v>116</v>
       </c>
@@ -42151,7 +42151,7 @@
       </c>
       <c r="EV93" s="3"/>
     </row>
-    <row r="94" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:152">
       <c r="A94" s="2" t="s">
         <v>117</v>
       </c>
@@ -42609,7 +42609,7 @@
       </c>
       <c r="EV94" s="3"/>
     </row>
-    <row r="95" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:152">
       <c r="A95" s="2" t="s">
         <v>118</v>
       </c>
@@ -43067,7 +43067,7 @@
       </c>
       <c r="EV95" s="3"/>
     </row>
-    <row r="96" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:152">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -43525,7 +43525,7 @@
       </c>
       <c r="EV96" s="3"/>
     </row>
-    <row r="97" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:152">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -43983,7 +43983,7 @@
       </c>
       <c r="EV97" s="3"/>
     </row>
-    <row r="98" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:152">
       <c r="A98" s="2" t="s">
         <v>121</v>
       </c>
@@ -44441,7 +44441,7 @@
       </c>
       <c r="EV98" s="3"/>
     </row>
-    <row r="99" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:152">
       <c r="A99" s="2" t="s">
         <v>122</v>
       </c>
@@ -44899,7 +44899,7 @@
       </c>
       <c r="EV99" s="3"/>
     </row>
-    <row r="100" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:152">
       <c r="A100" s="2" t="s">
         <v>181</v>
       </c>
@@ -45357,7 +45357,7 @@
       </c>
       <c r="EV100" s="3"/>
     </row>
-    <row r="101" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:152">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -45873,7 +45873,7 @@
       </c>
       <c r="EV101" s="3"/>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:152">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
@@ -46027,7 +46027,7 @@
       <c r="EU102" s="3"/>
       <c r="EV102" s="3"/>
     </row>
-    <row r="103" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:152">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
@@ -46181,7 +46181,7 @@
       <c r="EU103" s="3"/>
       <c r="EV103" s="3"/>
     </row>
-    <row r="104" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:152">
       <c r="A104" s="9" t="s">
         <v>172</v>
       </c>
@@ -46487,7 +46487,7 @@
       </c>
       <c r="EV104" s="3"/>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:152">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
@@ -46641,7 +46641,7 @@
       <c r="EU105" s="3"/>
       <c r="EV105" s="3"/>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:152">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -46795,7 +46795,7 @@
       <c r="EU106" s="3"/>
       <c r="EV106" s="3"/>
     </row>
-    <row r="107" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:152">
       <c r="A107" s="7" t="s">
         <v>123</v>
       </c>
@@ -47191,7 +47191,7 @@
       </c>
       <c r="EV107" s="3"/>
     </row>
-    <row r="108" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:152">
       <c r="A108" s="7" t="s">
         <v>124</v>
       </c>
@@ -47649,7 +47649,7 @@
       </c>
       <c r="EV108" s="3"/>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:152">
       <c r="A109" s="7" t="s">
         <v>125</v>
       </c>
@@ -48107,7 +48107,7 @@
       </c>
       <c r="EV109" s="3"/>
     </row>
-    <row r="110" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:152">
       <c r="A110" s="7" t="s">
         <v>126</v>
       </c>
@@ -48565,7 +48565,7 @@
       </c>
       <c r="EV110" s="3"/>
     </row>
-    <row r="111" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:152">
       <c r="A111" s="7" t="s">
         <v>127</v>
       </c>
@@ -49023,7 +49023,7 @@
       </c>
       <c r="EV111" s="3"/>
     </row>
-    <row r="112" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:152">
       <c r="A112" s="7" t="s">
         <v>128</v>
       </c>
@@ -49481,7 +49481,7 @@
       </c>
       <c r="EV112" s="3"/>
     </row>
-    <row r="113" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:152">
       <c r="A113" s="7" t="s">
         <v>129</v>
       </c>
@@ -49939,7 +49939,7 @@
       </c>
       <c r="EV113" s="3"/>
     </row>
-    <row r="114" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:152">
       <c r="A114" s="7" t="s">
         <v>130</v>
       </c>
@@ -50397,7 +50397,7 @@
       </c>
       <c r="EV114" s="3"/>
     </row>
-    <row r="115" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:152">
       <c r="A115" s="7" t="s">
         <v>131</v>
       </c>
@@ -50855,7 +50855,7 @@
       </c>
       <c r="EV115" s="3"/>
     </row>
-    <row r="116" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:152">
       <c r="A116" s="7" t="s">
         <v>132</v>
       </c>
@@ -51313,7 +51313,7 @@
       </c>
       <c r="EV116" s="3"/>
     </row>
-    <row r="117" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:152">
       <c r="A117" s="7" t="s">
         <v>133</v>
       </c>
@@ -51771,7 +51771,7 @@
       </c>
       <c r="EV117" s="3"/>
     </row>
-    <row r="118" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:152">
       <c r="A118" s="7" t="s">
         <v>134</v>
       </c>
@@ -52229,7 +52229,7 @@
       </c>
       <c r="EV118" s="3"/>
     </row>
-    <row r="119" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:152">
       <c r="A119" s="7" t="s">
         <v>135</v>
       </c>
@@ -52687,7 +52687,7 @@
       </c>
       <c r="EV119" s="3"/>
     </row>
-    <row r="120" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:152">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -53145,7 +53145,7 @@
       </c>
       <c r="EV120" s="3"/>
     </row>
-    <row r="121" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:152">
       <c r="A121" s="7" t="s">
         <v>137</v>
       </c>
@@ -53603,7 +53603,7 @@
       </c>
       <c r="EV121" s="3"/>
     </row>
-    <row r="122" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:152">
       <c r="A122" s="7" t="s">
         <v>138</v>
       </c>
@@ -54061,7 +54061,7 @@
       </c>
       <c r="EV122" s="3"/>
     </row>
-    <row r="123" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:152">
       <c r="A123" s="7" t="s">
         <v>139</v>
       </c>
@@ -54519,7 +54519,7 @@
       </c>
       <c r="EV123" s="3"/>
     </row>
-    <row r="124" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:152">
       <c r="A124" s="7" t="s">
         <v>140</v>
       </c>
@@ -54977,7 +54977,7 @@
       </c>
       <c r="EV124" s="3"/>
     </row>
-    <row r="125" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:152">
       <c r="A125" s="7" t="s">
         <v>141</v>
       </c>
@@ -55435,7 +55435,7 @@
       </c>
       <c r="EV125" s="3"/>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:152">
       <c r="A126" s="7" t="s">
         <v>142</v>
       </c>
@@ -55893,7 +55893,7 @@
       </c>
       <c r="EV126" s="3"/>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:152">
       <c r="A127" s="7" t="s">
         <v>143</v>
       </c>
@@ -56351,7 +56351,7 @@
       </c>
       <c r="EV127" s="3"/>
     </row>
-    <row r="128" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:152">
       <c r="A128" s="7" t="s">
         <v>144</v>
       </c>
@@ -56809,7 +56809,7 @@
       </c>
       <c r="EV128" s="3"/>
     </row>
-    <row r="129" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:152">
       <c r="A129" s="7" t="s">
         <v>145</v>
       </c>
@@ -57267,7 +57267,7 @@
       </c>
       <c r="EV129" s="3"/>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:152">
       <c r="A130" s="7" t="s">
         <v>146</v>
       </c>
@@ -57725,7 +57725,7 @@
       </c>
       <c r="EV130" s="3"/>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:152">
       <c r="A131" s="7" t="s">
         <v>147</v>
       </c>
@@ -58183,7 +58183,7 @@
       </c>
       <c r="EV131" s="3"/>
     </row>
-    <row r="132" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:152">
       <c r="A132" s="7" t="s">
         <v>182</v>
       </c>
@@ -58641,7 +58641,7 @@
       </c>
       <c r="EV132" s="3"/>
     </row>
-    <row r="133" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:152">
       <c r="A133" s="7" t="s">
         <v>95</v>
       </c>
@@ -59157,7 +59157,7 @@
       </c>
       <c r="EV133" s="3"/>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:152">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -59311,7 +59311,7 @@
       <c r="EU134" s="3"/>
       <c r="EV134" s="3"/>
     </row>
-    <row r="135" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:152">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -59465,7 +59465,7 @@
       <c r="EU135" s="3"/>
       <c r="EV135" s="3"/>
     </row>
-    <row r="136" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:152">
       <c r="A136" s="12" t="s">
         <v>149</v>
       </c>
@@ -59861,7 +59861,7 @@
       </c>
       <c r="EV136" s="3"/>
     </row>
-    <row r="137" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:152">
       <c r="A137" s="12" t="s">
         <v>150</v>
       </c>
@@ -60319,7 +60319,7 @@
       </c>
       <c r="EV137" s="3"/>
     </row>
-    <row r="138" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:152">
       <c r="A138" s="12" t="s">
         <v>151</v>
       </c>
@@ -60777,7 +60777,7 @@
       </c>
       <c r="EV138" s="3"/>
     </row>
-    <row r="139" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:152">
       <c r="A139" s="12" t="s">
         <v>152</v>
       </c>
@@ -61235,7 +61235,7 @@
       </c>
       <c r="EV139" s="3"/>
     </row>
-    <row r="140" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:152">
       <c r="A140" s="12" t="s">
         <v>153</v>
       </c>
@@ -61693,7 +61693,7 @@
       </c>
       <c r="EV140" s="3"/>
     </row>
-    <row r="141" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:152">
       <c r="A141" s="12" t="s">
         <v>154</v>
       </c>
@@ -62151,7 +62151,7 @@
       </c>
       <c r="EV141" s="3"/>
     </row>
-    <row r="142" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:152">
       <c r="A142" s="12" t="s">
         <v>155</v>
       </c>
@@ -62609,7 +62609,7 @@
       </c>
       <c r="EV142" s="3"/>
     </row>
-    <row r="143" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:152">
       <c r="A143" s="12" t="s">
         <v>156</v>
       </c>
@@ -63067,7 +63067,7 @@
       </c>
       <c r="EV143" s="3"/>
     </row>
-    <row r="144" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:152">
       <c r="A144" s="12" t="s">
         <v>157</v>
       </c>
@@ -63525,7 +63525,7 @@
       </c>
       <c r="EV144" s="3"/>
     </row>
-    <row r="145" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:152">
       <c r="A145" s="12" t="s">
         <v>158</v>
       </c>
@@ -63983,7 +63983,7 @@
       </c>
       <c r="EV145" s="3"/>
     </row>
-    <row r="146" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:152">
       <c r="A146" s="12" t="s">
         <v>159</v>
       </c>
@@ -64441,7 +64441,7 @@
       </c>
       <c r="EV146" s="3"/>
     </row>
-    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:152">
       <c r="A147" s="12" t="s">
         <v>160</v>
       </c>
@@ -64899,7 +64899,7 @@
       </c>
       <c r="EV147" s="3"/>
     </row>
-    <row r="148" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:152">
       <c r="A148" s="12" t="s">
         <v>161</v>
       </c>
@@ -65357,7 +65357,7 @@
       </c>
       <c r="EV148" s="3"/>
     </row>
-    <row r="149" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:152">
       <c r="A149" s="12" t="s">
         <v>162</v>
       </c>
@@ -65815,7 +65815,7 @@
       </c>
       <c r="EV149" s="3"/>
     </row>
-    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:152">
       <c r="A150" s="12" t="s">
         <v>163</v>
       </c>
@@ -66273,7 +66273,7 @@
       </c>
       <c r="EV150" s="3"/>
     </row>
-    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:152">
       <c r="A151" s="12" t="s">
         <v>164</v>
       </c>
@@ -66731,7 +66731,7 @@
       </c>
       <c r="EV151" s="3"/>
     </row>
-    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:152">
       <c r="A152" s="12" t="s">
         <v>165</v>
       </c>
@@ -67189,7 +67189,7 @@
       </c>
       <c r="EV152" s="3"/>
     </row>
-    <row r="153" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:152">
       <c r="A153" s="12" t="s">
         <v>166</v>
       </c>
@@ -67647,7 +67647,7 @@
       </c>
       <c r="EV153" s="3"/>
     </row>
-    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:152">
       <c r="A154" s="12" t="s">
         <v>167</v>
       </c>
@@ -68105,7 +68105,7 @@
       </c>
       <c r="EV154" s="3"/>
     </row>
-    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:152">
       <c r="A155" s="12" t="s">
         <v>168</v>
       </c>
@@ -68563,7 +68563,7 @@
       </c>
       <c r="EV155" s="3"/>
     </row>
-    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:152">
       <c r="A156" s="12" t="s">
         <v>183</v>
       </c>
@@ -69021,7 +69021,7 @@
       </c>
       <c r="EV156" s="3"/>
     </row>
-    <row r="157" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:152">
       <c r="A157" s="12" t="s">
         <v>95</v>
       </c>
@@ -69536,7 +69536,7 @@
       </c>
       <c r="EV157" s="3"/>
     </row>
-    <row r="158" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:152">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -69690,7 +69690,7 @@
       <c r="EU158" s="3"/>
       <c r="EV158" s="3"/>
     </row>
-    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:152">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -69844,7 +69844,7 @@
       <c r="EU159" s="3"/>
       <c r="EV159" s="3"/>
     </row>
-    <row r="160" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:152">
       <c r="A160" s="9" t="s">
         <v>172</v>
       </c>
@@ -70150,7 +70150,7 @@
       </c>
       <c r="EV160" s="3"/>
     </row>
-    <row r="161" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:152">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="9" t="s">
@@ -70454,7 +70454,7 @@
       </c>
       <c r="EV161" s="3"/>
     </row>
-    <row r="162" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:152">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="9" t="s">
@@ -70758,7 +70758,7 @@
       </c>
       <c r="EV162" s="3"/>
     </row>
-    <row r="163" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:152">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -70912,7 +70912,7 @@
       <c r="EU163" s="3"/>
       <c r="EV163" s="3"/>
     </row>
-    <row r="164" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:152">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -71073,6 +71073,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -71287,14 +71295,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71305,6 +71305,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71323,23 +71340,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25A5377-B699-4561-BD10-FBC21F9682F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4C0A5-47B7-4446-A266-FEAF3E334FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1062,23 +1062,23 @@
   <dimension ref="A1:EV164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="I76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U82" sqref="U82"/>
+      <selection pane="bottomRight" activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.75" customWidth="1"/>
-    <col min="2" max="7" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="7" width="15.28515625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="88" max="92" width="15.4140625" customWidth="1"/>
-    <col min="93" max="97" width="14.1640625" customWidth="1"/>
-    <col min="103" max="107" width="13.25" customWidth="1"/>
+    <col min="88" max="92" width="15.42578125" customWidth="1"/>
+    <col min="93" max="97" width="14.140625" customWidth="1"/>
+    <col min="103" max="107" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="EU1" s="4"/>
       <c r="EV1" s="3"/>
     </row>
-    <row r="2" spans="1:152">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1448,7 +1448,7 @@
       <c r="EU2" s="3"/>
       <c r="EV2" s="3"/>
     </row>
-    <row r="3" spans="1:152">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1602,7 +1602,7 @@
       <c r="EU3" s="3"/>
       <c r="EV3" s="3"/>
     </row>
-    <row r="4" spans="1:152">
+    <row r="4" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="EV4" s="3"/>
     </row>
-    <row r="5" spans="1:152">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="EV5" s="3"/>
     </row>
-    <row r="6" spans="1:152">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2914,7 +2914,7 @@
       </c>
       <c r="EV6" s="3"/>
     </row>
-    <row r="7" spans="1:152">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="EV7" s="3"/>
     </row>
-    <row r="8" spans="1:152">
+    <row r="8" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -3830,18 +3830,18 @@
       </c>
       <c r="EV8" s="3"/>
     </row>
-    <row r="9" spans="1:152">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="1">
@@ -3929,17 +3929,17 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="1">
         <v>0</v>
       </c>
       <c r="AJ9" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="1">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="EV9" s="3"/>
     </row>
-    <row r="10" spans="1:152">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4746,7 +4746,7 @@
       </c>
       <c r="EV10" s="3"/>
     </row>
-    <row r="11" spans="1:152">
+    <row r="11" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="EV11" s="3"/>
     </row>
-    <row r="12" spans="1:152">
+    <row r="12" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="EV12" s="3"/>
     </row>
-    <row r="13" spans="1:152">
+    <row r="13" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -6120,7 +6120,7 @@
       </c>
       <c r="EV13" s="3"/>
     </row>
-    <row r="14" spans="1:152">
+    <row r="14" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="EV14" s="3"/>
     </row>
-    <row r="15" spans="1:152">
+    <row r="15" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="EV15" s="3"/>
     </row>
-    <row r="16" spans="1:152">
+    <row r="16" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -7494,7 +7494,7 @@
       </c>
       <c r="EV16" s="3"/>
     </row>
-    <row r="17" spans="1:152">
+    <row r="17" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="EV17" s="3"/>
     </row>
-    <row r="18" spans="1:152">
+    <row r="18" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
       <c r="EV18" s="3"/>
     </row>
-    <row r="19" spans="1:152">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="EV19" s="3"/>
     </row>
-    <row r="20" spans="1:152">
+    <row r="20" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -9326,7 +9326,7 @@
       </c>
       <c r="EV20" s="3"/>
     </row>
-    <row r="21" spans="1:152">
+    <row r="21" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="EV21" s="3"/>
     </row>
-    <row r="22" spans="1:152">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
@@ -10242,7 +10242,7 @@
       </c>
       <c r="EV22" s="3"/>
     </row>
-    <row r="23" spans="1:152">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="EV23" s="3"/>
     </row>
-    <row r="24" spans="1:152">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="EV24" s="3"/>
     </row>
-    <row r="25" spans="1:152">
+    <row r="25" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -11616,14 +11616,14 @@
       </c>
       <c r="EV25" s="3"/>
     </row>
-    <row r="26" spans="1:152">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="61"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
@@ -11655,13 +11655,13 @@
       <c r="L26" s="2"/>
       <c r="M26" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N26" s="1">
         <v>0</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="6"/>
@@ -11700,13 +11700,13 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="1">
         <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26" s="1" t="str">
         <f t="shared" si="12"/>
@@ -12074,26 +12074,26 @@
       </c>
       <c r="EV26" s="3"/>
     </row>
-    <row r="27" spans="1:152">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="1">
@@ -12428,17 +12428,17 @@
       <c r="DM27" s="2"/>
       <c r="DN27" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DO27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ27" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="DR27" s="2"/>
       <c r="DS27" s="1">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="EV27" s="3"/>
     </row>
-    <row r="28" spans="1:152">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -12990,7 +12990,7 @@
       </c>
       <c r="EV28" s="3"/>
     </row>
-    <row r="29" spans="1:152">
+    <row r="29" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -13448,18 +13448,18 @@
       </c>
       <c r="EV29" s="3"/>
     </row>
-    <row r="30" spans="1:152">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="62"/>
@@ -13467,7 +13467,7 @@
       </c>
       <c r="F30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="1">
@@ -13892,40 +13892,40 @@
       <c r="EQ30" s="2"/>
       <c r="ER30" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET30" s="1">
         <v>0</v>
       </c>
       <c r="EU30" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="EV30" s="3"/>
     </row>
-    <row r="31" spans="1:152">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="1">
@@ -13945,13 +13945,13 @@
       <c r="L31" s="2"/>
       <c r="M31" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="1">
         <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="6"/>
@@ -13975,17 +13975,17 @@
       <c r="V31" s="2"/>
       <c r="W31" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="1">
         <v>0</v>
       </c>
       <c r="Z31" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="1">
@@ -14364,7 +14364,7 @@
       </c>
       <c r="EV31" s="3"/>
     </row>
-    <row r="32" spans="1:152">
+    <row r="32" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -14822,18 +14822,18 @@
       </c>
       <c r="EV32" s="3"/>
     </row>
-    <row r="33" spans="1:152">
+    <row r="33" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="62"/>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="F33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="1">
@@ -14936,17 +14936,17 @@
       <c r="AK33" s="2"/>
       <c r="AL33" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN33" s="1">
         <v>0</v>
       </c>
       <c r="AO33" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP33" s="2"/>
       <c r="AQ33" s="1">
@@ -15280,14 +15280,14 @@
       </c>
       <c r="EV33" s="3"/>
     </row>
-    <row r="34" spans="1:152">
+    <row r="34" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="61"/>
@@ -15295,7 +15295,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="2"/>
@@ -15334,13 +15334,13 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34" s="1">
         <v>0</v>
       </c>
       <c r="T34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1" t="str">
         <f t="shared" si="8"/>
@@ -15364,13 +15364,13 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" s="1">
         <v>0</v>
       </c>
       <c r="AD34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="1" t="str">
         <f t="shared" si="12"/>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="EV34" s="3"/>
     </row>
-    <row r="35" spans="1:152">
+    <row r="35" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -16196,18 +16196,18 @@
       </c>
       <c r="EV35" s="3"/>
     </row>
-    <row r="36" spans="1:152">
+    <row r="36" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="62"/>
@@ -16215,7 +16215,7 @@
       </c>
       <c r="F36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="1">
@@ -16295,17 +16295,17 @@
       <c r="AF36" s="2"/>
       <c r="AG36" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36" s="1">
         <v>0</v>
       </c>
       <c r="AJ36" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK36" s="2"/>
       <c r="AL36" s="1">
@@ -16654,7 +16654,7 @@
       </c>
       <c r="EV36" s="3"/>
     </row>
-    <row r="37" spans="1:152">
+    <row r="37" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>59</v>
       </c>
@@ -17112,14 +17112,14 @@
       </c>
       <c r="EV37" s="3"/>
     </row>
-    <row r="38" spans="1:152">
+    <row r="38" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="61"/>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="str">
         <f t="shared" si="2"/>
@@ -17226,13 +17226,13 @@
       <c r="AK38" s="2"/>
       <c r="AL38" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM38" s="1">
         <v>0</v>
       </c>
       <c r="AN38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO38" s="1" t="str">
         <f t="shared" si="16"/>
@@ -17556,13 +17556,13 @@
       <c r="EQ38" s="2"/>
       <c r="ER38" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES38" s="1">
         <v>0</v>
       </c>
       <c r="ET38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU38" s="1" t="str">
         <f t="shared" si="60"/>
@@ -17570,7 +17570,7 @@
       </c>
       <c r="EV38" s="3"/>
     </row>
-    <row r="39" spans="1:152">
+    <row r="39" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
@@ -18028,7 +18028,7 @@
       </c>
       <c r="EV39" s="3"/>
     </row>
-    <row r="40" spans="1:152">
+    <row r="40" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="EV40" s="3"/>
     </row>
-    <row r="41" spans="1:152">
+    <row r="41" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="EV41" s="3"/>
     </row>
-    <row r="42" spans="1:152">
+    <row r="42" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>64</v>
       </c>
@@ -19402,7 +19402,7 @@
       </c>
       <c r="EV42" s="3"/>
     </row>
-    <row r="43" spans="1:152">
+    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -19860,7 +19860,7 @@
       </c>
       <c r="EV43" s="3"/>
     </row>
-    <row r="44" spans="1:152">
+    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>66</v>
       </c>
@@ -20318,7 +20318,7 @@
       </c>
       <c r="EV44" s="3"/>
     </row>
-    <row r="45" spans="1:152">
+    <row r="45" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="EV45" s="3"/>
     </row>
-    <row r="46" spans="1:152">
+    <row r="46" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>68</v>
       </c>
@@ -21234,26 +21234,26 @@
       </c>
       <c r="EV46" s="3"/>
     </row>
-    <row r="47" spans="1:152">
+    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1">
@@ -21633,13 +21633,13 @@
       <c r="EB47" s="2"/>
       <c r="EC47" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED47" s="1">
         <v>0</v>
       </c>
       <c r="EE47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF47" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21678,21 +21678,21 @@
       <c r="EQ47" s="2"/>
       <c r="ER47" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ES47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EU47" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="EV47" s="3"/>
     </row>
-    <row r="48" spans="1:152">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>70</v>
       </c>
@@ -22150,7 +22150,7 @@
       </c>
       <c r="EV48" s="3"/>
     </row>
-    <row r="49" spans="1:152">
+    <row r="49" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>71</v>
       </c>
@@ -22608,7 +22608,7 @@
       </c>
       <c r="EV49" s="3"/>
     </row>
-    <row r="50" spans="1:152">
+    <row r="50" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>72</v>
       </c>
@@ -23066,7 +23066,7 @@
       </c>
       <c r="EV50" s="3"/>
     </row>
-    <row r="51" spans="1:152">
+    <row r="51" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>73</v>
       </c>
@@ -23524,7 +23524,7 @@
       </c>
       <c r="EV51" s="3"/>
     </row>
-    <row r="52" spans="1:152">
+    <row r="52" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>74</v>
       </c>
@@ -23982,7 +23982,7 @@
       </c>
       <c r="EV52" s="3"/>
     </row>
-    <row r="53" spans="1:152">
+    <row r="53" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -24440,7 +24440,7 @@
       </c>
       <c r="EV53" s="3"/>
     </row>
-    <row r="54" spans="1:152">
+    <row r="54" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>76</v>
       </c>
@@ -24898,7 +24898,7 @@
       </c>
       <c r="EV54" s="3"/>
     </row>
-    <row r="55" spans="1:152">
+    <row r="55" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>77</v>
       </c>
@@ -25356,18 +25356,18 @@
       </c>
       <c r="EV55" s="3"/>
     </row>
-    <row r="56" spans="1:152">
+    <row r="56" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <f t="shared" si="62"/>
@@ -25375,7 +25375,7 @@
       </c>
       <c r="F56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="1">
@@ -25710,17 +25710,17 @@
       <c r="DM56" s="2"/>
       <c r="DN56" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP56" s="1">
         <v>0</v>
       </c>
       <c r="DQ56" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="DR56" s="2"/>
       <c r="DS56" s="1">
@@ -25814,7 +25814,7 @@
       </c>
       <c r="EV56" s="3"/>
     </row>
-    <row r="57" spans="1:152">
+    <row r="57" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>79</v>
       </c>
@@ -26272,7 +26272,7 @@
       </c>
       <c r="EV57" s="3"/>
     </row>
-    <row r="58" spans="1:152">
+    <row r="58" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>80</v>
       </c>
@@ -26730,18 +26730,18 @@
       </c>
       <c r="EV58" s="3"/>
     </row>
-    <row r="59" spans="1:152">
+    <row r="59" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1">
         <f t="shared" si="62"/>
@@ -26749,7 +26749,7 @@
       </c>
       <c r="F59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="1">
@@ -26784,17 +26784,17 @@
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" s="1">
         <v>0</v>
       </c>
       <c r="U59" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V59" s="2"/>
       <c r="W59" s="1">
@@ -27188,18 +27188,18 @@
       </c>
       <c r="EV59" s="3"/>
     </row>
-    <row r="60" spans="1:152">
+    <row r="60" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
         <f t="shared" si="62"/>
@@ -27207,7 +27207,7 @@
       </c>
       <c r="F60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="1">
@@ -27242,17 +27242,17 @@
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" s="1">
         <v>0</v>
       </c>
       <c r="U60" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V60" s="2"/>
       <c r="W60" s="1">
@@ -27646,7 +27646,7 @@
       </c>
       <c r="EV60" s="3"/>
     </row>
-    <row r="61" spans="1:152">
+    <row r="61" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>83</v>
       </c>
@@ -28104,26 +28104,26 @@
       </c>
       <c r="EV61" s="3"/>
     </row>
-    <row r="62" spans="1:152">
+    <row r="62" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="1">
@@ -28188,17 +28188,17 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="1">
         <v>0</v>
       </c>
       <c r="AE62" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF62" s="2"/>
       <c r="AG62" s="1">
@@ -28233,13 +28233,13 @@
       <c r="AP62" s="2"/>
       <c r="AQ62" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR62" s="1">
         <v>0</v>
       </c>
       <c r="AS62" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT62" s="1" t="str">
         <f t="shared" si="18"/>
@@ -28562,14 +28562,14 @@
       </c>
       <c r="EV62" s="3"/>
     </row>
-    <row r="63" spans="1:152">
+    <row r="63" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="61"/>
@@ -28577,7 +28577,7 @@
       </c>
       <c r="E63" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="2"/>
@@ -28661,13 +28661,13 @@
       <c r="AF63" s="2"/>
       <c r="AG63" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH63" s="1">
         <v>0</v>
       </c>
       <c r="AI63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" s="1" t="str">
         <f t="shared" si="14"/>
@@ -28961,13 +28961,13 @@
       <c r="EB63" s="2"/>
       <c r="EC63" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED63" s="1">
         <v>0</v>
       </c>
       <c r="EE63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF63" s="1" t="str">
         <f t="shared" si="54"/>
@@ -29020,7 +29020,7 @@
       </c>
       <c r="EV63" s="3"/>
     </row>
-    <row r="64" spans="1:152">
+    <row r="64" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -29478,7 +29478,7 @@
       </c>
       <c r="EV64" s="3"/>
     </row>
-    <row r="65" spans="1:152">
+    <row r="65" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -29936,7 +29936,7 @@
       </c>
       <c r="EV65" s="3"/>
     </row>
-    <row r="66" spans="1:152">
+    <row r="66" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
@@ -30394,18 +30394,18 @@
       </c>
       <c r="EV66" s="3"/>
     </row>
-    <row r="67" spans="1:152">
+    <row r="67" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1">
         <f t="shared" si="62"/>
@@ -30413,7 +30413,7 @@
       </c>
       <c r="F67" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="1">
@@ -30433,17 +30433,17 @@
       <c r="L67" s="2"/>
       <c r="M67" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="1">
         <v>0</v>
       </c>
       <c r="P67" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
@@ -30852,14 +30852,14 @@
       </c>
       <c r="EV67" s="3"/>
     </row>
-    <row r="68" spans="1:152">
+    <row r="68" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="61"/>
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E68" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="2"/>
@@ -30981,13 +30981,13 @@
       <c r="AP68" s="2"/>
       <c r="AQ68" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68" s="1">
         <v>0</v>
       </c>
       <c r="AS68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" s="1" t="str">
         <f t="shared" si="18"/>
@@ -31310,7 +31310,7 @@
       </c>
       <c r="EV68" s="3"/>
     </row>
-    <row r="69" spans="1:152">
+    <row r="69" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>91</v>
       </c>
@@ -31768,7 +31768,7 @@
       </c>
       <c r="EV69" s="3"/>
     </row>
-    <row r="70" spans="1:152">
+    <row r="70" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>92</v>
       </c>
@@ -32226,14 +32226,14 @@
       </c>
       <c r="EV70" s="3"/>
     </row>
-    <row r="71" spans="1:152">
+    <row r="71" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1">
         <f t="shared" si="61"/>
@@ -32241,7 +32241,7 @@
       </c>
       <c r="E71" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" s="1" t="str">
         <f t="shared" si="64"/>
@@ -32295,13 +32295,13 @@
       <c r="V71" s="2"/>
       <c r="W71" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" s="1">
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z71" s="1" t="str">
         <f t="shared" si="72"/>
@@ -32684,7 +32684,7 @@
       </c>
       <c r="EV71" s="3"/>
     </row>
-    <row r="72" spans="1:152">
+    <row r="72" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>94</v>
       </c>
@@ -33142,101 +33142,101 @@
       </c>
       <c r="EV72" s="3"/>
     </row>
-    <row r="73" spans="1:152">
+    <row r="73" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D73" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E73" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F73" s="1" t="str">
         <f t="shared" si="64"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="1" t="str">
         <f t="shared" si="66"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" s="1">
         <v>0</v>
       </c>
       <c r="P73" s="1" t="str">
         <f t="shared" si="68"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U73" s="1" t="str">
         <f t="shared" si="70"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="V73" s="2"/>
       <c r="W73" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z73" s="1" t="str">
         <f t="shared" si="72"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AA73" s="2"/>
       <c r="AB73" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE73" s="1" t="str">
         <f t="shared" si="74"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF73" s="2"/>
       <c r="AG73" s="1">
@@ -33481,17 +33481,17 @@
       <c r="DH73" s="2"/>
       <c r="DI73" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK73" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL73" s="1" t="str">
         <f t="shared" si="108"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="DM73" s="2"/>
       <c r="DN73" s="1">
@@ -33600,150 +33600,150 @@
       </c>
       <c r="EV73" s="3"/>
     </row>
-    <row r="74" spans="1:152">
+    <row r="74" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="1">
         <f>SUM(C5:C73)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" ref="D74:E74" si="123">SUM(D5:D73)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(C74,ROUND(D74/C74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>44.68%</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" s="1">
         <f>SUM(I5:I73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" s="1">
         <f>SUM(J5:J73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="1" t="str">
         <f>IF(H74,ROUND(I74/H74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="1">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N74" s="1">
         <f>SUM(N5:N73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O74" s="1">
         <f>SUM(O5:O73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P74" s="1" t="str">
         <f>IF(M74,ROUND(N74/M74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="1">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S74" s="1">
         <f>SUM(S5:S73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T74" s="1">
         <f>SUM(T5:T73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U74" s="1" t="str">
         <f>IF(R74,ROUND(S74/R74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="1">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X74" s="1">
         <f>SUM(X5:X73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y74" s="1">
         <f>SUM(Y5:Y73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z74" s="1" t="str">
         <f>IF(W74,ROUND(X74/W74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="1">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC74" s="1">
         <f>SUM(AC5:AC73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD74" s="1">
         <f>SUM(AD5:AD73)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE74" s="1" t="str">
         <f>IF(AB74,ROUND(AC74/AB74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>42.86%</v>
       </c>
       <c r="AF74" s="2"/>
       <c r="AG74" s="1">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH74" s="1">
         <f>SUM(AH5:AH73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI74" s="1">
         <f>SUM(AI5:AI73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ74" s="1" t="str">
         <f>IF(AG74,ROUND(AH74/AG74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="AK74" s="2"/>
       <c r="AL74" s="1">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM74" s="1">
         <f>SUM(AM5:AM73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN74" s="1">
         <f>SUM(AN5:AN73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO74" s="1" t="str">
         <f>IF(AL74,ROUND(AM74/AL74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR74" s="1">
         <f>SUM(AR5:AR73)</f>
@@ -33751,7 +33751,7 @@
       </c>
       <c r="AS74" s="1">
         <f>SUM(AS5:AS73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AT74" s="1" t="str">
         <f>IF(AQ74,ROUND(AR74/AQ74*100,2),0) &amp; "%"</f>
@@ -33981,36 +33981,36 @@
       <c r="DH74" s="2"/>
       <c r="DI74" s="1">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ74" s="1">
         <f>SUM(DJ5:DJ73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK74" s="1">
         <f>SUM(DK5:DK73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DL74" s="1" t="str">
         <f>IF(DI74,ROUND(DJ74/DI74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="DM74" s="2"/>
       <c r="DN74" s="1">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DO74" s="1">
         <f>SUM(DO5:DO73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DP74" s="1">
         <f>SUM(DP5:DP73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ74" s="1" t="str">
         <f>IF(DN74,ROUND(DO74/DN74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="DR74" s="2"/>
       <c r="DS74" s="1">
@@ -34049,7 +34049,7 @@
       <c r="EB74" s="2"/>
       <c r="EC74" s="1">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED74" s="1">
         <f>SUM(ED5:ED73)</f>
@@ -34057,7 +34057,7 @@
       </c>
       <c r="EE74" s="1">
         <f>SUM(EE5:EE73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF74" s="1" t="str">
         <f>IF(EC74,ROUND(ED74/EC74*100,2),0) &amp; "%"</f>
@@ -34100,23 +34100,23 @@
       <c r="EQ74" s="2"/>
       <c r="ER74" s="1">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="ES74" s="1">
         <f>SUM(ES5:ES73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ET74" s="1">
         <f>SUM(ET5:ET73)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EU74" s="1" t="str">
         <f>IF(ER74,ROUND(ES74/ER74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="EV74" s="3"/>
     </row>
-    <row r="75" spans="1:152">
+    <row r="75" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -34270,7 +34270,7 @@
       <c r="EU75" s="3"/>
       <c r="EV75" s="3"/>
     </row>
-    <row r="76" spans="1:152">
+    <row r="76" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -34424,7 +34424,7 @@
       <c r="EU76" s="3"/>
       <c r="EV76" s="3"/>
     </row>
-    <row r="77" spans="1:152">
+    <row r="77" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -34820,7 +34820,7 @@
       </c>
       <c r="EV77" s="3"/>
     </row>
-    <row r="78" spans="1:152">
+    <row r="78" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -35278,7 +35278,7 @@
       </c>
       <c r="EV78" s="3"/>
     </row>
-    <row r="79" spans="1:152">
+    <row r="79" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>102</v>
       </c>
@@ -35736,7 +35736,7 @@
       </c>
       <c r="EV79" s="3"/>
     </row>
-    <row r="80" spans="1:152">
+    <row r="80" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>103</v>
       </c>
@@ -36194,7 +36194,7 @@
       </c>
       <c r="EV80" s="3"/>
     </row>
-    <row r="81" spans="1:152">
+    <row r="81" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>104</v>
       </c>
@@ -36652,14 +36652,14 @@
       </c>
       <c r="EV81" s="3"/>
     </row>
-    <row r="82" spans="1:152">
+    <row r="82" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" s="2">
         <f t="shared" si="124"/>
@@ -36667,7 +36667,7 @@
       </c>
       <c r="E82" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="126"/>
@@ -36706,13 +36706,13 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="2">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S82" s="2">
         <v>0</v>
       </c>
       <c r="T82" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U82" s="2" t="str">
         <f t="shared" si="132"/>
@@ -37110,18 +37110,18 @@
       </c>
       <c r="EV82" s="3"/>
     </row>
-    <row r="83" spans="1:152">
+    <row r="83" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="2">
         <f t="shared" si="124"/>
@@ -37129,7 +37129,7 @@
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="126"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="2">
@@ -37239,17 +37239,17 @@
       <c r="AP83" s="5"/>
       <c r="AQ83" s="2">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR83" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS83" s="2">
         <v>0</v>
       </c>
       <c r="AT83" s="2" t="str">
         <f t="shared" si="142"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AU83" s="5"/>
       <c r="AV83" s="2">
@@ -37568,7 +37568,7 @@
       </c>
       <c r="EV83" s="3"/>
     </row>
-    <row r="84" spans="1:152">
+    <row r="84" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>107</v>
       </c>
@@ -38026,7 +38026,7 @@
       </c>
       <c r="EV84" s="3"/>
     </row>
-    <row r="85" spans="1:152">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>108</v>
       </c>
@@ -38484,18 +38484,18 @@
       </c>
       <c r="EV85" s="3"/>
     </row>
-    <row r="86" spans="1:152">
+    <row r="86" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="2">
         <f t="shared" si="124"/>
@@ -38503,7 +38503,7 @@
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="126"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G86" s="5"/>
       <c r="H86" s="2">
@@ -38523,17 +38523,17 @@
       <c r="L86" s="5"/>
       <c r="M86" s="2">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="2">
         <v>0</v>
       </c>
       <c r="P86" s="2" t="str">
         <f t="shared" si="130"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q86" s="5"/>
       <c r="R86" s="2">
@@ -38942,7 +38942,7 @@
       </c>
       <c r="EV86" s="3"/>
     </row>
-    <row r="87" spans="1:152">
+    <row r="87" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
@@ -39400,7 +39400,7 @@
       </c>
       <c r="EV87" s="3"/>
     </row>
-    <row r="88" spans="1:152">
+    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
@@ -39858,7 +39858,7 @@
       </c>
       <c r="EV88" s="3"/>
     </row>
-    <row r="89" spans="1:152">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
@@ -40316,7 +40316,7 @@
       </c>
       <c r="EV89" s="3"/>
     </row>
-    <row r="90" spans="1:152">
+    <row r="90" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>113</v>
       </c>
@@ -40774,7 +40774,7 @@
       </c>
       <c r="EV90" s="3"/>
     </row>
-    <row r="91" spans="1:152">
+    <row r="91" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>114</v>
       </c>
@@ -41232,7 +41232,7 @@
       </c>
       <c r="EV91" s="3"/>
     </row>
-    <row r="92" spans="1:152">
+    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>115</v>
       </c>
@@ -41690,14 +41690,14 @@
       </c>
       <c r="EV92" s="3"/>
     </row>
-    <row r="93" spans="1:152">
+    <row r="93" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2">
         <f t="shared" si="124"/>
@@ -41705,7 +41705,7 @@
       </c>
       <c r="E93" s="2">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="126"/>
@@ -42089,13 +42089,13 @@
       <c r="EB93" s="5"/>
       <c r="EC93" s="2">
         <f t="shared" si="177"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED93" s="2">
         <v>0</v>
       </c>
       <c r="EE93" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF93" s="2" t="str">
         <f t="shared" si="178"/>
@@ -42148,7 +42148,7 @@
       </c>
       <c r="EV93" s="3"/>
     </row>
-    <row r="94" spans="1:152">
+    <row r="94" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>117</v>
       </c>
@@ -42606,7 +42606,7 @@
       </c>
       <c r="EV94" s="3"/>
     </row>
-    <row r="95" spans="1:152">
+    <row r="95" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>118</v>
       </c>
@@ -43064,7 +43064,7 @@
       </c>
       <c r="EV95" s="3"/>
     </row>
-    <row r="96" spans="1:152">
+    <row r="96" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -43522,7 +43522,7 @@
       </c>
       <c r="EV96" s="3"/>
     </row>
-    <row r="97" spans="1:152">
+    <row r="97" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -43980,7 +43980,7 @@
       </c>
       <c r="EV97" s="3"/>
     </row>
-    <row r="98" spans="1:152">
+    <row r="98" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>121</v>
       </c>
@@ -44438,7 +44438,7 @@
       </c>
       <c r="EV98" s="3"/>
     </row>
-    <row r="99" spans="1:152">
+    <row r="99" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>122</v>
       </c>
@@ -44896,18 +44896,18 @@
       </c>
       <c r="EV99" s="3"/>
     </row>
-    <row r="100" spans="1:152">
+    <row r="100" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B100" s="5"/>
       <c r="C100" s="2">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D100" s="2">
         <f t="shared" si="185"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100" s="2">
         <f t="shared" si="186"/>
@@ -44915,7 +44915,7 @@
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="126"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="2">
@@ -44995,17 +44995,17 @@
       <c r="AF100" s="5"/>
       <c r="AG100" s="2">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI100" s="2">
         <v>0</v>
       </c>
       <c r="AJ100" s="2" t="str">
         <f t="shared" si="138"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK100" s="5"/>
       <c r="AL100" s="2">
@@ -45070,17 +45070,17 @@
       <c r="BE100" s="5"/>
       <c r="BF100" s="2">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG100" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH100" s="2">
         <v>0</v>
       </c>
       <c r="BI100" s="2" t="str">
         <f t="shared" si="148"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="BJ100" s="5"/>
       <c r="BK100" s="2">
@@ -45354,26 +45354,26 @@
       </c>
       <c r="EV100" s="3"/>
     </row>
-    <row r="101" spans="1:152">
+    <row r="101" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="2">
         <f>SUM(C78:C100)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D101" s="2">
         <f>SUM(D78:D100)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" s="2">
         <f>SUM(E78:E100)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" s="2" t="str">
         <f>IF(C101,ROUND(D101/C101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="2">
@@ -45395,11 +45395,11 @@
       <c r="L101" s="5"/>
       <c r="M101" s="2">
         <f>+SUM(N101,O101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101" s="2">
         <f>SUM(N78:N100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" s="2">
         <f>SUM(O78:O100)</f>
@@ -45407,12 +45407,12 @@
       </c>
       <c r="P101" s="2" t="str">
         <f>IF(M101,ROUND(N101/M101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q101" s="5"/>
       <c r="R101" s="2">
         <f>+SUM(S101,T101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101" s="2">
         <f>SUM(S78:S100)</f>
@@ -45420,7 +45420,7 @@
       </c>
       <c r="T101" s="2">
         <f>SUM(T78:T100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101" s="2" t="str">
         <f>IF(R101,ROUND(S101/R101*100,2),0) &amp; "%"</f>
@@ -45463,11 +45463,11 @@
       <c r="AF101" s="5"/>
       <c r="AG101" s="2">
         <f>+SUM(AH101,AI101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH101" s="2">
         <f>SUM(AH78:AH100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI101" s="2">
         <f>SUM(AI78:AI100)</f>
@@ -45475,7 +45475,7 @@
       </c>
       <c r="AJ101" s="2" t="str">
         <f>IF(AG101,ROUND(AH101/AG101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK101" s="5"/>
       <c r="AL101" s="2">
@@ -45497,11 +45497,11 @@
       <c r="AP101" s="5"/>
       <c r="AQ101" s="2">
         <f>+SUM(AR101,AS101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR101" s="2">
         <f>SUM(AR78:AR100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS101" s="2">
         <f>SUM(AS78:AS100)</f>
@@ -45509,7 +45509,7 @@
       </c>
       <c r="AT101" s="2" t="str">
         <f>IF(AQ101,ROUND(AR101/AQ101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AU101" s="5"/>
       <c r="AV101" s="2">
@@ -45548,11 +45548,11 @@
       <c r="BE101" s="5"/>
       <c r="BF101" s="2">
         <f>+SUM(BG101,BH101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG101" s="2">
         <f>SUM(BG78:BG100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH101" s="2">
         <f>SUM(BH78:BH100)</f>
@@ -45560,7 +45560,7 @@
       </c>
       <c r="BI101" s="2" t="str">
         <f>IF(BF101,ROUND(BG101/BF101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="BJ101" s="5"/>
       <c r="BK101" s="2">
@@ -45803,7 +45803,7 @@
       <c r="EB101" s="5"/>
       <c r="EC101" s="2">
         <f>+SUM(ED101,EE101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED101" s="2">
         <f>SUM(ED78:ED100)</f>
@@ -45811,7 +45811,7 @@
       </c>
       <c r="EE101" s="2">
         <f>SUM(EE78:EE100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF101" s="2" t="str">
         <f>IF(EC101,ROUND(ED101/EC101*100,2),0) &amp; "%"</f>
@@ -45870,7 +45870,7 @@
       </c>
       <c r="EV101" s="3"/>
     </row>
-    <row r="102" spans="1:152">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="6"/>
@@ -46024,7 +46024,7 @@
       <c r="EU102" s="3"/>
       <c r="EV102" s="3"/>
     </row>
-    <row r="103" spans="1:152">
+    <row r="103" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="6"/>
@@ -46178,7 +46178,7 @@
       <c r="EU103" s="3"/>
       <c r="EV103" s="3"/>
     </row>
-    <row r="104" spans="1:152">
+    <row r="104" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>172</v>
       </c>
@@ -46190,7 +46190,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="str">
         <f>IF(SUM(D74,D101),ROUND(SUM(D74,D101)*100/SUM(C74,C101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>47.17%</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9" t="s">
@@ -46200,7 +46200,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="str">
         <f>IF(SUM(I74,I101),ROUND(SUM(I74,I101)*100/SUM(H74,H101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
@@ -46210,7 +46210,7 @@
       <c r="O104" s="9"/>
       <c r="P104" s="9" t="str">
         <f>IF(SUM(N74,N101),ROUND(SUM(N74,N101)*100/SUM(M74,M101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>57.14%</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="9" t="s">
@@ -46220,7 +46220,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9" t="str">
         <f>IF(SUM(S74,S101),ROUND(SUM(S74,S101)*100/SUM(R74,R101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>42.86%</v>
       </c>
       <c r="V104" s="10"/>
       <c r="W104" s="9" t="s">
@@ -46230,7 +46230,7 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9" t="str">
         <f>IF(SUM(X74,X101),ROUND(SUM(X74,X101)*100/SUM(W74,W101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AA104" s="10"/>
       <c r="AB104" s="9" t="s">
@@ -46240,7 +46240,7 @@
       <c r="AD104" s="9"/>
       <c r="AE104" s="9" t="str">
         <f>IF(SUM(AC74,AC101),ROUND(SUM(AC74,AC101)*100/SUM(AB74,AB101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>42.86%</v>
       </c>
       <c r="AF104" s="10"/>
       <c r="AG104" s="9" t="s">
@@ -46250,7 +46250,7 @@
       <c r="AI104" s="9"/>
       <c r="AJ104" s="9" t="str">
         <f>IF(SUM(AH74,AH101),ROUND(SUM(AH74,AH101)*100/SUM(AG74,AG101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>75%</v>
       </c>
       <c r="AK104" s="10"/>
       <c r="AL104" s="9" t="s">
@@ -46260,7 +46260,7 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9" t="str">
         <f>IF(SUM(AM74,AM101),ROUND(SUM(AM74,AM101)*100/SUM(AL74,AL101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AP104" s="10"/>
       <c r="AQ104" s="9" t="s">
@@ -46270,7 +46270,7 @@
       <c r="AS104" s="9"/>
       <c r="AT104" s="9" t="str">
         <f>IF(SUM(AR74,AR101),ROUND(SUM(AR74,AR101)*100/SUM(AQ74,AQ101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>25%</v>
       </c>
       <c r="AU104" s="10"/>
       <c r="AV104" s="9" t="s">
@@ -46300,7 +46300,7 @@
       <c r="BH104" s="9"/>
       <c r="BI104" s="9" t="str">
         <f>IF(SUM(BG74,BG101),ROUND(SUM(BG74,BG101)*100/SUM(BF74,BF101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="BJ104" s="10"/>
       <c r="BK104" s="9" t="s">
@@ -46410,7 +46410,7 @@
       <c r="DK104" s="9"/>
       <c r="DL104" s="9" t="str">
         <f>IF(SUM(DJ74,DJ101),ROUND(SUM(DJ74,DJ101)*100/SUM(DI74,DI101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="DM104" s="10"/>
       <c r="DN104" s="9" t="s">
@@ -46420,7 +46420,7 @@
       <c r="DP104" s="9"/>
       <c r="DQ104" s="9" t="str">
         <f>IF(SUM(DO74,DO101),ROUND(SUM(DO74,DO101)*100/SUM(DN74,DN101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="DR104" s="10"/>
       <c r="DS104" s="9" t="s">
@@ -46480,11 +46480,11 @@
       <c r="ET104" s="9"/>
       <c r="EU104" s="9" t="str">
         <f>IF(SUM(ES74,ES101),ROUND(SUM(ES74,ES101)*100/SUM(ER74,ER101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="EV104" s="3"/>
     </row>
-    <row r="105" spans="1:152">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="6"/>
@@ -46638,7 +46638,7 @@
       <c r="EU105" s="3"/>
       <c r="EV105" s="3"/>
     </row>
-    <row r="106" spans="1:152">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -46792,7 +46792,7 @@
       <c r="EU106" s="3"/>
       <c r="EV106" s="3"/>
     </row>
-    <row r="107" spans="1:152">
+    <row r="107" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>123</v>
       </c>
@@ -47188,7 +47188,7 @@
       </c>
       <c r="EV107" s="3"/>
     </row>
-    <row r="108" spans="1:152">
+    <row r="108" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>124</v>
       </c>
@@ -47646,7 +47646,7 @@
       </c>
       <c r="EV108" s="3"/>
     </row>
-    <row r="109" spans="1:152">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>125</v>
       </c>
@@ -48104,14 +48104,14 @@
       </c>
       <c r="EV109" s="3"/>
     </row>
-    <row r="110" spans="1:152">
+    <row r="110" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>126</v>
       </c>
       <c r="B110" s="8"/>
       <c r="C110" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="187"/>
@@ -48119,7 +48119,7 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="7" t="str">
         <f t="shared" si="189"/>
@@ -48218,13 +48218,13 @@
       <c r="AK110" s="8"/>
       <c r="AL110" s="7">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM110" s="7">
         <v>0</v>
       </c>
       <c r="AN110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO110" s="7" t="str">
         <f t="shared" si="203"/>
@@ -48562,7 +48562,7 @@
       </c>
       <c r="EV110" s="3"/>
     </row>
-    <row r="111" spans="1:152">
+    <row r="111" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>127</v>
       </c>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="EV111" s="3"/>
     </row>
-    <row r="112" spans="1:152">
+    <row r="112" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>128</v>
       </c>
@@ -49478,7 +49478,7 @@
       </c>
       <c r="EV112" s="3"/>
     </row>
-    <row r="113" spans="1:152">
+    <row r="113" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>129</v>
       </c>
@@ -49936,7 +49936,7 @@
       </c>
       <c r="EV113" s="3"/>
     </row>
-    <row r="114" spans="1:152">
+    <row r="114" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>130</v>
       </c>
@@ -50394,18 +50394,18 @@
       </c>
       <c r="EV114" s="3"/>
     </row>
-    <row r="115" spans="1:152">
+    <row r="115" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D115" s="7">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E115" s="7">
         <f t="shared" si="187"/>
@@ -50413,7 +50413,7 @@
       </c>
       <c r="F115" s="7" t="str">
         <f t="shared" si="189"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="7">
@@ -50508,17 +50508,17 @@
       <c r="AK115" s="8"/>
       <c r="AL115" s="7">
         <f t="shared" si="202"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN115" s="7">
         <v>0</v>
       </c>
       <c r="AO115" s="7" t="str">
         <f t="shared" si="203"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP115" s="8"/>
       <c r="AQ115" s="7">
@@ -50838,40 +50838,40 @@
       <c r="EQ115" s="8"/>
       <c r="ER115" s="7">
         <f t="shared" si="246"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES115" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET115" s="7">
         <v>0</v>
       </c>
       <c r="EU115" s="7" t="str">
         <f t="shared" si="247"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="EV115" s="3"/>
     </row>
-    <row r="116" spans="1:152">
+    <row r="116" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D116" s="7">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E116" s="7">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="7" t="str">
         <f t="shared" si="189"/>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="7">
@@ -50906,17 +50906,17 @@
       <c r="Q116" s="8"/>
       <c r="R116" s="7">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" s="7">
         <v>0</v>
       </c>
       <c r="U116" s="7" t="str">
         <f t="shared" si="195"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V116" s="8"/>
       <c r="W116" s="7">
@@ -50951,17 +50951,17 @@
       <c r="AF116" s="8"/>
       <c r="AG116" s="7">
         <f t="shared" si="200"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI116" s="7">
         <v>0</v>
       </c>
       <c r="AJ116" s="7" t="str">
         <f t="shared" si="201"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK116" s="8"/>
       <c r="AL116" s="7">
@@ -50981,13 +50981,13 @@
       <c r="AP116" s="8"/>
       <c r="AQ116" s="7">
         <f t="shared" si="204"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR116" s="7">
         <v>0</v>
       </c>
       <c r="AS116" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT116" s="7" t="str">
         <f t="shared" si="205"/>
@@ -51310,14 +51310,14 @@
       </c>
       <c r="EV116" s="3"/>
     </row>
-    <row r="117" spans="1:152">
+    <row r="117" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" s="7">
         <f t="shared" si="187"/>
@@ -51325,7 +51325,7 @@
       </c>
       <c r="E117" s="7">
         <f t="shared" si="187"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" s="7" t="str">
         <f t="shared" si="189"/>
@@ -51379,13 +51379,13 @@
       <c r="V117" s="8"/>
       <c r="W117" s="7">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X117" s="7">
         <v>0</v>
       </c>
       <c r="Y117" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z117" s="7" t="str">
         <f t="shared" si="197"/>
@@ -51768,7 +51768,7 @@
       </c>
       <c r="EV117" s="3"/>
     </row>
-    <row r="118" spans="1:152">
+    <row r="118" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>134</v>
       </c>
@@ -52226,7 +52226,7 @@
       </c>
       <c r="EV118" s="3"/>
     </row>
-    <row r="119" spans="1:152">
+    <row r="119" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>135</v>
       </c>
@@ -52684,7 +52684,7 @@
       </c>
       <c r="EV119" s="3"/>
     </row>
-    <row r="120" spans="1:152">
+    <row r="120" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>136</v>
       </c>
@@ -53142,7 +53142,7 @@
       </c>
       <c r="EV120" s="3"/>
     </row>
-    <row r="121" spans="1:152">
+    <row r="121" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>137</v>
       </c>
@@ -53600,7 +53600,7 @@
       </c>
       <c r="EV121" s="3"/>
     </row>
-    <row r="122" spans="1:152">
+    <row r="122" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>138</v>
       </c>
@@ -54058,7 +54058,7 @@
       </c>
       <c r="EV122" s="3"/>
     </row>
-    <row r="123" spans="1:152">
+    <row r="123" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>139</v>
       </c>
@@ -54516,7 +54516,7 @@
       </c>
       <c r="EV123" s="3"/>
     </row>
-    <row r="124" spans="1:152">
+    <row r="124" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>140</v>
       </c>
@@ -54974,7 +54974,7 @@
       </c>
       <c r="EV124" s="3"/>
     </row>
-    <row r="125" spans="1:152">
+    <row r="125" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>141</v>
       </c>
@@ -55432,18 +55432,18 @@
       </c>
       <c r="EV125" s="3"/>
     </row>
-    <row r="126" spans="1:152">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>142</v>
       </c>
       <c r="B126" s="8"/>
       <c r="C126" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="248"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E126" s="7">
         <f t="shared" si="249"/>
@@ -55451,7 +55451,7 @@
       </c>
       <c r="F126" s="7" t="str">
         <f t="shared" si="189"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
@@ -55501,17 +55501,17 @@
       <c r="V126" s="8"/>
       <c r="W126" s="7">
         <f t="shared" si="196"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y126" s="7">
         <v>0</v>
       </c>
       <c r="Z126" s="7" t="str">
         <f t="shared" si="197"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA126" s="8"/>
       <c r="AB126" s="7">
@@ -55531,17 +55531,17 @@
       <c r="AF126" s="8"/>
       <c r="AG126" s="7">
         <f t="shared" si="200"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI126" s="7">
         <v>0</v>
       </c>
       <c r="AJ126" s="7" t="str">
         <f t="shared" si="201"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK126" s="8"/>
       <c r="AL126" s="7">
@@ -55890,7 +55890,7 @@
       </c>
       <c r="EV126" s="3"/>
     </row>
-    <row r="127" spans="1:152">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>143</v>
       </c>
@@ -56348,7 +56348,7 @@
       </c>
       <c r="EV127" s="3"/>
     </row>
-    <row r="128" spans="1:152">
+    <row r="128" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>144</v>
       </c>
@@ -56806,7 +56806,7 @@
       </c>
       <c r="EV128" s="3"/>
     </row>
-    <row r="129" spans="1:152">
+    <row r="129" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>145</v>
       </c>
@@ -57264,7 +57264,7 @@
       </c>
       <c r="EV129" s="3"/>
     </row>
-    <row r="130" spans="1:152">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>146</v>
       </c>
@@ -57722,7 +57722,7 @@
       </c>
       <c r="EV130" s="3"/>
     </row>
-    <row r="131" spans="1:152">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>147</v>
       </c>
@@ -58180,67 +58180,67 @@
       </c>
       <c r="EV131" s="3"/>
     </row>
-    <row r="132" spans="1:152">
+    <row r="132" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="7">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="248"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E132" s="7">
         <f t="shared" si="249"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F132" s="7" t="str">
         <f t="shared" si="189"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="7">
         <f t="shared" si="190"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" s="7">
         <v>0</v>
       </c>
       <c r="K132" s="7" t="str">
         <f t="shared" si="191"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="L132" s="8"/>
       <c r="M132" s="7">
         <f t="shared" si="192"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" s="7">
         <v>0</v>
       </c>
       <c r="P132" s="7" t="str">
         <f t="shared" si="193"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q132" s="8"/>
       <c r="R132" s="7">
         <f t="shared" si="194"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" s="7">
         <v>0</v>
       </c>
       <c r="T132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U132" s="7" t="str">
         <f t="shared" si="195"/>
@@ -58519,13 +58519,13 @@
       <c r="DH132" s="8"/>
       <c r="DI132" s="7">
         <f t="shared" si="232"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ132" s="7">
         <v>0</v>
       </c>
       <c r="DK132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL132" s="7" t="str">
         <f t="shared" si="233"/>
@@ -58638,35 +58638,35 @@
       </c>
       <c r="EV132" s="3"/>
     </row>
-    <row r="133" spans="1:152">
+    <row r="133" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B133" s="8"/>
       <c r="C133" s="7">
         <f>SUM(C108:C132)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" ref="D133:E133" si="250">SUM(D108:D132)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E133" s="7">
         <f t="shared" si="250"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F133" s="7" t="str">
         <f>IF(C133,ROUND(D133/C133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>61.54%</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
         <f>SUM(H108:H132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" s="7">
         <f t="shared" ref="I133:J133" si="251">SUM(I108:I132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" s="7">
         <f t="shared" si="251"/>
@@ -58674,16 +58674,16 @@
       </c>
       <c r="K133" s="7" t="str">
         <f>IF(H133,ROUND(I133/H133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="L133" s="8"/>
       <c r="M133" s="7">
         <f>SUM(M108:M132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" s="7">
         <f>SUM(N108:N132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" s="7">
         <f t="shared" ref="O133" si="252">SUM(O108:O132)</f>
@@ -58691,41 +58691,41 @@
       </c>
       <c r="P133" s="7" t="str">
         <f>IF(M133,ROUND(N133/M133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q133" s="8"/>
       <c r="R133" s="7">
         <f>SUM(R108:R132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S133" s="7">
         <f t="shared" ref="S133" si="253">SUM(S108:S132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T133" s="7">
         <f t="shared" ref="T133" si="254">SUM(T108:T132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U133" s="7" t="str">
         <f>IF(R133,ROUND(S133/R133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="V133" s="8"/>
       <c r="W133" s="7">
         <f>SUM(W108:W132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X133" s="7">
         <f t="shared" ref="X133" si="255">SUM(X108:X132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y133" s="7">
         <f t="shared" ref="Y133" si="256">SUM(Y108:Y132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z133" s="7" t="str">
         <f>IF(W133,ROUND(X133/W133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AA133" s="8"/>
       <c r="AB133" s="7">
@@ -58747,11 +58747,11 @@
       <c r="AF133" s="8"/>
       <c r="AG133" s="7">
         <f>SUM(AG108:AG132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH133" s="7">
         <f t="shared" ref="AH133" si="259">SUM(AH108:AH132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI133" s="7">
         <f t="shared" ref="AI133" si="260">SUM(AI108:AI132)</f>
@@ -58759,29 +58759,29 @@
       </c>
       <c r="AJ133" s="7" t="str">
         <f>IF(AG133,ROUND(AH133/AG133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK133" s="8"/>
       <c r="AL133" s="7">
         <f>SUM(AL108:AL132)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM133" s="7">
         <f t="shared" ref="AM133" si="261">SUM(AM108:AM132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN133" s="7">
         <f t="shared" ref="AN133" si="262">SUM(AN108:AN132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO133" s="7" t="str">
         <f>IF(AL133,ROUND(AM133/AL133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AP133" s="8"/>
       <c r="AQ133" s="7">
         <f>SUM(AQ108:AQ132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR133" s="7">
         <f t="shared" ref="AR133" si="263">SUM(AR108:AR132)</f>
@@ -58789,7 +58789,7 @@
       </c>
       <c r="AS133" s="7">
         <f t="shared" ref="AS133" si="264">SUM(AS108:AS132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT133" s="7" t="str">
         <f>IF(AQ133,ROUND(AR133/AQ133*100,2),0) &amp; "%"</f>
@@ -59019,7 +59019,7 @@
       <c r="DH133" s="8"/>
       <c r="DI133" s="7">
         <f>SUM(DI108:DI132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ133" s="7">
         <f t="shared" ref="DJ133" si="291">SUM(DJ108:DJ132)</f>
@@ -59027,7 +59027,7 @@
       </c>
       <c r="DK133" s="7">
         <f t="shared" ref="DK133" si="292">SUM(DK108:DK132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL133" s="7" t="str">
         <f>IF(DI133,ROUND(DJ133/DI133*100,2),0) &amp; "%"</f>
@@ -59138,11 +59138,11 @@
       <c r="EQ133" s="8"/>
       <c r="ER133" s="7">
         <f>SUM(ER108:ER132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ES133" s="7">
         <f t="shared" ref="ES133" si="305">SUM(ES108:ES132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ET133" s="7">
         <f t="shared" ref="ET133" si="306">SUM(ET108:ET132)</f>
@@ -59150,11 +59150,11 @@
       </c>
       <c r="EU133" s="7" t="str">
         <f>IF(ER133,ROUND(ES133/ER133*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="EV133" s="3"/>
     </row>
-    <row r="134" spans="1:152">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -59308,7 +59308,7 @@
       <c r="EU134" s="3"/>
       <c r="EV134" s="3"/>
     </row>
-    <row r="135" spans="1:152">
+    <row r="135" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -59462,7 +59462,7 @@
       <c r="EU135" s="3"/>
       <c r="EV135" s="3"/>
     </row>
-    <row r="136" spans="1:152">
+    <row r="136" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>149</v>
       </c>
@@ -59858,7 +59858,7 @@
       </c>
       <c r="EV136" s="3"/>
     </row>
-    <row r="137" spans="1:152">
+    <row r="137" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>150</v>
       </c>
@@ -60316,14 +60316,14 @@
       </c>
       <c r="EV137" s="3"/>
     </row>
-    <row r="138" spans="1:152">
+    <row r="138" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
         <v>151</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="12">
         <f t="shared" ref="C138:C156" si="308">SUM(H138,M138,R138,W138,AB138,AG138,AL138,AQ138,AV138,BA138,BF138,BK138,BP138,BU138,BZ138,CE138,CJ138,CO138,CT138,CY138,DD138,DI138,DN138,DS138,DX138,EC138,EH138,EM138,ER138)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" s="12">
         <f t="shared" si="307"/>
@@ -60331,7 +60331,7 @@
       </c>
       <c r="E138" s="12">
         <f t="shared" si="307"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" s="13" t="str">
         <f t="shared" ref="F138:F156" si="309">IF(C138,ROUND(D138/C138*100,2),0) &amp; "%"</f>
@@ -60715,13 +60715,13 @@
       <c r="EB138" s="11"/>
       <c r="EC138" s="12">
         <f t="shared" ref="EC138:EC156" si="360">+SUM(ED138,EE138)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED138" s="13">
         <v>0</v>
       </c>
       <c r="EE138" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF138" s="13" t="str">
         <f t="shared" ref="EF138:EF156" si="361">IF(EC138,ROUND(ED138/EC138*100,2),0) &amp; "%"</f>
@@ -60774,7 +60774,7 @@
       </c>
       <c r="EV138" s="3"/>
     </row>
-    <row r="139" spans="1:152">
+    <row r="139" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
         <v>152</v>
       </c>
@@ -61232,7 +61232,7 @@
       </c>
       <c r="EV139" s="3"/>
     </row>
-    <row r="140" spans="1:152">
+    <row r="140" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>153</v>
       </c>
@@ -61690,7 +61690,7 @@
       </c>
       <c r="EV140" s="3"/>
     </row>
-    <row r="141" spans="1:152">
+    <row r="141" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>154</v>
       </c>
@@ -62148,7 +62148,7 @@
       </c>
       <c r="EV141" s="3"/>
     </row>
-    <row r="142" spans="1:152">
+    <row r="142" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>155</v>
       </c>
@@ -62606,7 +62606,7 @@
       </c>
       <c r="EV142" s="3"/>
     </row>
-    <row r="143" spans="1:152">
+    <row r="143" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>156</v>
       </c>
@@ -63064,7 +63064,7 @@
       </c>
       <c r="EV143" s="3"/>
     </row>
-    <row r="144" spans="1:152">
+    <row r="144" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>157</v>
       </c>
@@ -63522,18 +63522,18 @@
       </c>
       <c r="EV144" s="3"/>
     </row>
-    <row r="145" spans="1:152">
+    <row r="145" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B145" s="11"/>
       <c r="C145" s="12">
         <f t="shared" si="308"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" s="12">
         <f t="shared" si="307"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" s="12">
         <f t="shared" si="307"/>
@@ -63541,7 +63541,7 @@
       </c>
       <c r="F145" s="13" t="str">
         <f t="shared" si="309"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G145" s="11"/>
       <c r="H145" s="12">
@@ -63876,17 +63876,17 @@
       <c r="DM145" s="11"/>
       <c r="DN145" s="12">
         <f t="shared" si="354"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO145" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP145" s="13">
         <v>0</v>
       </c>
       <c r="DQ145" s="13" t="str">
         <f t="shared" si="355"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="DR145" s="11"/>
       <c r="DS145" s="12">
@@ -63980,18 +63980,18 @@
       </c>
       <c r="EV145" s="3"/>
     </row>
-    <row r="146" spans="1:152">
+    <row r="146" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="12">
         <f t="shared" si="308"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" s="12">
         <f t="shared" si="307"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E146" s="12">
         <f t="shared" si="307"/>
@@ -63999,7 +63999,7 @@
       </c>
       <c r="F146" s="13" t="str">
         <f t="shared" si="309"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G146" s="11"/>
       <c r="H146" s="12">
@@ -64064,17 +64064,17 @@
       <c r="AA146" s="11"/>
       <c r="AB146" s="12">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC146" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD146" s="13">
         <v>0</v>
       </c>
       <c r="AE146" s="13" t="str">
         <f t="shared" si="319"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF146" s="11"/>
       <c r="AG146" s="12">
@@ -64438,7 +64438,7 @@
       </c>
       <c r="EV146" s="3"/>
     </row>
-    <row r="147" spans="1:152">
+    <row r="147" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>160</v>
       </c>
@@ -64896,14 +64896,14 @@
       </c>
       <c r="EV147" s="3"/>
     </row>
-    <row r="148" spans="1:152">
+    <row r="148" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="12">
         <f t="shared" si="308"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D148" s="12">
         <f t="shared" si="307"/>
@@ -64911,7 +64911,7 @@
       </c>
       <c r="E148" s="12">
         <f t="shared" si="307"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" s="13" t="str">
         <f t="shared" si="309"/>
@@ -64980,13 +64980,13 @@
       <c r="AA148" s="11"/>
       <c r="AB148" s="12">
         <f t="shared" si="318"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC148" s="13">
         <v>0</v>
       </c>
       <c r="AD148" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE148" s="13" t="str">
         <f t="shared" si="319"/>
@@ -65354,18 +65354,18 @@
       </c>
       <c r="EV148" s="3"/>
     </row>
-    <row r="149" spans="1:152">
+    <row r="149" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
         <v>162</v>
       </c>
       <c r="B149" s="11"/>
       <c r="C149" s="12">
         <f t="shared" si="308"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" s="12">
         <f t="shared" si="307"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="12">
         <f t="shared" si="307"/>
@@ -65373,7 +65373,7 @@
       </c>
       <c r="F149" s="13" t="str">
         <f t="shared" si="309"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G149" s="11"/>
       <c r="H149" s="12">
@@ -65423,17 +65423,17 @@
       <c r="V149" s="11"/>
       <c r="W149" s="12">
         <f t="shared" si="316"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X149" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y149" s="13">
         <v>0</v>
       </c>
       <c r="Z149" s="13" t="str">
         <f t="shared" si="317"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA149" s="11"/>
       <c r="AB149" s="12">
@@ -65812,7 +65812,7 @@
       </c>
       <c r="EV149" s="3"/>
     </row>
-    <row r="150" spans="1:152">
+    <row r="150" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
         <v>163</v>
       </c>
@@ -66270,7 +66270,7 @@
       </c>
       <c r="EV150" s="3"/>
     </row>
-    <row r="151" spans="1:152">
+    <row r="151" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>164</v>
       </c>
@@ -66728,7 +66728,7 @@
       </c>
       <c r="EV151" s="3"/>
     </row>
-    <row r="152" spans="1:152">
+    <row r="152" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>165</v>
       </c>
@@ -67186,7 +67186,7 @@
       </c>
       <c r="EV152" s="3"/>
     </row>
-    <row r="153" spans="1:152">
+    <row r="153" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>166</v>
       </c>
@@ -67644,7 +67644,7 @@
       </c>
       <c r="EV153" s="3"/>
     </row>
-    <row r="154" spans="1:152">
+    <row r="154" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>167</v>
       </c>
@@ -68102,7 +68102,7 @@
       </c>
       <c r="EV154" s="3"/>
     </row>
-    <row r="155" spans="1:152">
+    <row r="155" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>168</v>
       </c>
@@ -68560,37 +68560,37 @@
       </c>
       <c r="EV155" s="3"/>
     </row>
-    <row r="156" spans="1:152">
+    <row r="156" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>183</v>
       </c>
       <c r="B156" s="11"/>
       <c r="C156" s="12">
         <f t="shared" si="308"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D156" s="12">
         <f t="shared" si="368"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E156" s="12">
         <f t="shared" si="369"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F156" s="13" t="str">
         <f t="shared" si="309"/>
-        <v>0%</v>
+        <v>40%</v>
       </c>
       <c r="G156" s="11"/>
       <c r="H156" s="12">
         <f t="shared" si="310"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" s="13">
         <v>0</v>
       </c>
       <c r="J156" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K156" s="13" t="str">
         <f t="shared" si="311"/>
@@ -68599,17 +68599,17 @@
       <c r="L156" s="11"/>
       <c r="M156" s="12">
         <f t="shared" si="312"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O156" s="13">
         <v>0</v>
       </c>
       <c r="P156" s="13" t="str">
         <f t="shared" si="313"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q156" s="11"/>
       <c r="R156" s="12">
@@ -68659,17 +68659,17 @@
       <c r="AF156" s="11"/>
       <c r="AG156" s="12">
         <f t="shared" si="320"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH156" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI156" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ156" s="13" t="str">
         <f t="shared" si="321"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="AK156" s="11"/>
       <c r="AL156" s="12">
@@ -69018,31 +69018,31 @@
       </c>
       <c r="EV156" s="3"/>
     </row>
-    <row r="157" spans="1:152">
+    <row r="157" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B157" s="11"/>
       <c r="C157" s="13">
         <f>SUM(C137:C156)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D157" s="13">
         <f t="shared" ref="D157:E157" si="370">SUM(D137:D156)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E157" s="13">
         <f t="shared" si="370"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F157" s="13" t="str">
         <f>IF(C157,ROUND(D157/C157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="13">
         <f>SUM(H137:H156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" s="12">
         <f>SUM(I137:I156)</f>
@@ -69058,11 +69058,11 @@
       <c r="L157" s="11"/>
       <c r="M157" s="13">
         <f>SUM(M137:M156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N157" s="12">
         <f>SUM(N137:N156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" s="12">
         <f>SUM(O137:O156)</f>
@@ -69070,7 +69070,7 @@
       </c>
       <c r="P157" s="13" t="str">
         <f>IF(M157,ROUND(N157/M157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q157" s="11"/>
       <c r="R157" s="13">
@@ -69092,11 +69092,11 @@
       <c r="V157" s="11"/>
       <c r="W157" s="13">
         <f>SUM(W137:W156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X157" s="12">
         <f>SUM(X137:X156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y157" s="12">
         <f>SUM(Y137:Y156)</f>
@@ -69104,41 +69104,41 @@
       </c>
       <c r="Z157" s="13" t="str">
         <f>IF(W157,ROUND(X157/W157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA157" s="11"/>
       <c r="AB157" s="13">
         <f>SUM(AB137:AB156)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC157" s="12">
         <f>SUM(AC137:AC156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD157" s="12">
         <f>SUM(AD137:AD156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE157" s="13" t="str">
         <f>IF(AB157,ROUND(AC157/AB157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF157" s="11"/>
       <c r="AG157" s="13">
         <f>SUM(AG137:AG156)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH157" s="13">
         <f t="shared" ref="AH157:AI157" si="371">SUM(AH137:AH156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI157" s="13">
         <f t="shared" si="371"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ157" s="13" t="str">
         <f>IF(AG157,ROUND(AH157/AG157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="AK157" s="11"/>
       <c r="AL157" s="13">
@@ -69415,11 +69415,11 @@
       <c r="DM157" s="11"/>
       <c r="DN157" s="13">
         <f>SUM(DN137:DN156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DO157" s="12">
         <f>SUM(DO137:DO156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DP157" s="12">
         <f>SUM(DP137:DP156)</f>
@@ -69427,7 +69427,7 @@
       </c>
       <c r="DQ157" s="13" t="str">
         <f>IF(DN157,ROUND(DO157/DN157*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="DR157" s="11"/>
       <c r="DS157" s="13">
@@ -69466,7 +69466,7 @@
       <c r="EB157" s="11"/>
       <c r="EC157" s="13">
         <f>SUM(EC137:EC156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ED157" s="12">
         <f>SUM(ED137:ED156)</f>
@@ -69474,7 +69474,7 @@
       </c>
       <c r="EE157" s="12">
         <f>SUM(EE137:EE156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EF157" s="13" t="str">
         <f>IF(EC157,ROUND(ED157/EC157*100,2),0) &amp; "%"</f>
@@ -69533,7 +69533,7 @@
       </c>
       <c r="EV157" s="3"/>
     </row>
-    <row r="158" spans="1:152">
+    <row r="158" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -69687,7 +69687,7 @@
       <c r="EU158" s="3"/>
       <c r="EV158" s="3"/>
     </row>
-    <row r="159" spans="1:152">
+    <row r="159" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -69841,7 +69841,7 @@
       <c r="EU159" s="3"/>
       <c r="EV159" s="3"/>
     </row>
-    <row r="160" spans="1:152">
+    <row r="160" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>172</v>
       </c>
@@ -69853,7 +69853,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="str">
         <f>IF(SUM(D133,D157),ROUND(SUM(D133,D157)*100/SUM(C133,C157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>56.52%</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="9" t="s">
@@ -69863,7 +69863,7 @@
       <c r="J160" s="9"/>
       <c r="K160" s="9" t="str">
         <f>IF(SUM(I133,I157),ROUND(SUM(I133,I157)*100/SUM(H133,H157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="L160" s="10"/>
       <c r="M160" s="9" t="s">
@@ -69873,7 +69873,7 @@
       <c r="O160" s="9"/>
       <c r="P160" s="9" t="str">
         <f>IF(SUM(N133,N157),ROUND(SUM(N133,N157)*100/SUM(M133,M157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q160" s="10"/>
       <c r="R160" s="9" t="s">
@@ -69883,7 +69883,7 @@
       <c r="T160" s="9"/>
       <c r="U160" s="9" t="str">
         <f>IF(SUM(S133,S157),ROUND(SUM(S133,S157)*100/SUM(R133,R157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="V160" s="10"/>
       <c r="W160" s="9" t="s">
@@ -69893,7 +69893,7 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9" t="str">
         <f>IF(SUM(X133,X157),ROUND(SUM(X133,X157)*100/SUM(W133,W157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>66.67%</v>
       </c>
       <c r="AA160" s="10"/>
       <c r="AB160" s="9" t="s">
@@ -69903,7 +69903,7 @@
       <c r="AD160" s="9"/>
       <c r="AE160" s="9" t="str">
         <f>IF(SUM(AC133,AC157),ROUND(SUM(AC133,AC157)*100/SUM(AB133,AB157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AF160" s="10"/>
       <c r="AG160" s="9" t="s">
@@ -69913,7 +69913,7 @@
       <c r="AI160" s="9"/>
       <c r="AJ160" s="9" t="str">
         <f>IF(SUM(AH133,AH157),ROUND(SUM(AH133,AH157)*100/SUM(AG133,AG157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>60%</v>
       </c>
       <c r="AK160" s="10"/>
       <c r="AL160" s="9" t="s">
@@ -69923,7 +69923,7 @@
       <c r="AN160" s="9"/>
       <c r="AO160" s="9" t="str">
         <f>IF(SUM(AM133,AM157),ROUND(SUM(AM133,AM157)*100/SUM(AL133,AL157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="AP160" s="10"/>
       <c r="AQ160" s="9" t="s">
@@ -70083,7 +70083,7 @@
       <c r="DP160" s="9"/>
       <c r="DQ160" s="9" t="str">
         <f>IF(SUM(DO133,DO157),ROUND(SUM(DO133,DO157)*100/SUM(DN133,DN157),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="DR160" s="10"/>
       <c r="DS160" s="9" t="s">
@@ -70143,11 +70143,11 @@
       <c r="ET160" s="9"/>
       <c r="EU160" s="9" t="str">
         <f>IF(SUM(ES133,ES157),SUM(ES133,ES157)*100/SUM(ER133,ER157),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="EV160" s="3"/>
     </row>
-    <row r="161" spans="1:152">
+    <row r="161" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="9" t="s">
@@ -70155,9 +70155,9 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="16" t="e">
+      <c r="F161" s="16" t="str">
         <f>ROUND(((SUM(D74,D101)/SUM(C74,C101)+SUM(D133,D157)/SUM(C133,C157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>51.85%</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="9" t="s">
@@ -70165,9 +70165,9 @@
       </c>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="16" t="e">
+      <c r="K161" s="16" t="str">
         <f>ROUND(((SUM(I74,I101)/SUM(H74,H101)+SUM(I133,I157)/SUM(H133,H157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>50%</v>
       </c>
       <c r="L161" s="10"/>
       <c r="M161" s="9" t="s">
@@ -70175,9 +70175,9 @@
       </c>
       <c r="N161" s="9"/>
       <c r="O161" s="9"/>
-      <c r="P161" s="16" t="e">
+      <c r="P161" s="16" t="str">
         <f>ROUND(((SUM(N74,N101)/SUM(M74,M101)+SUM(N133,N157)/SUM(M133,M157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>78.57%</v>
       </c>
       <c r="Q161" s="10"/>
       <c r="R161" s="9" t="s">
@@ -70185,9 +70185,9 @@
       </c>
       <c r="S161" s="9"/>
       <c r="T161" s="9"/>
-      <c r="U161" s="16" t="e">
+      <c r="U161" s="16" t="str">
         <f>ROUND(((SUM(S74,S101)/SUM(R74,R101)+SUM(S133,S157)/SUM(R133,R157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>46.43%</v>
       </c>
       <c r="V161" s="10"/>
       <c r="W161" s="9" t="s">
@@ -70195,9 +70195,9 @@
       </c>
       <c r="X161" s="9"/>
       <c r="Y161" s="9"/>
-      <c r="Z161" s="16" t="e">
+      <c r="Z161" s="16" t="str">
         <f>ROUND(((SUM(X74,X101)/SUM(W74,W101)+SUM(X133,X157)/SUM(W133,W157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>58.33%</v>
       </c>
       <c r="AA161" s="10"/>
       <c r="AB161" s="9" t="s">
@@ -70205,9 +70205,9 @@
       </c>
       <c r="AC161" s="9"/>
       <c r="AD161" s="9"/>
-      <c r="AE161" s="16" t="e">
+      <c r="AE161" s="16" t="str">
         <f>ROUND(((SUM(AC74,AC101)/SUM(AB74,AB101)+SUM(AC133,AC157)/SUM(AB133,AB157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>46.43%</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="9" t="s">
@@ -70215,9 +70215,9 @@
       </c>
       <c r="AH161" s="9"/>
       <c r="AI161" s="9"/>
-      <c r="AJ161" s="16" t="e">
+      <c r="AJ161" s="16" t="str">
         <f>ROUND(((SUM(AH74,AH101)/SUM(AG74,AG101)+SUM(AH133,AH157)/SUM(AG133,AG157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>67.5%</v>
       </c>
       <c r="AK161" s="10"/>
       <c r="AL161" s="9" t="s">
@@ -70225,9 +70225,9 @@
       </c>
       <c r="AM161" s="9"/>
       <c r="AN161" s="9"/>
-      <c r="AO161" s="16" t="e">
+      <c r="AO161" s="16" t="str">
         <f>ROUND(((SUM(AM74,AM101)/SUM(AL74,AL101)+SUM(AM133,AM157)/SUM(AL133,AL157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>50%</v>
       </c>
       <c r="AP161" s="10"/>
       <c r="AQ161" s="9" t="s">
@@ -70235,9 +70235,9 @@
       </c>
       <c r="AR161" s="9"/>
       <c r="AS161" s="9"/>
-      <c r="AT161" s="16" t="e">
+      <c r="AT161" s="16" t="str">
         <f>ROUND(((SUM(AR74,AR101)/SUM(AQ74,AQ101)+SUM(AR133,AR157)/SUM(AQ133,AQ157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>12.5%</v>
       </c>
       <c r="AU161" s="10"/>
       <c r="AV161" s="9" t="s">
@@ -70375,9 +70375,9 @@
       </c>
       <c r="DJ161" s="9"/>
       <c r="DK161" s="9"/>
-      <c r="DL161" s="16" t="e">
+      <c r="DL161" s="16" t="str">
         <f>ROUND(((SUM(DJ74,DJ101)/SUM(DI74,DI101)+SUM(DJ133,DJ157)/SUM(DI133,DI157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>16.67%</v>
       </c>
       <c r="DM161" s="10"/>
       <c r="DN161" s="9" t="s">
@@ -70385,9 +70385,9 @@
       </c>
       <c r="DO161" s="9"/>
       <c r="DP161" s="9"/>
-      <c r="DQ161" s="16" t="e">
+      <c r="DQ161" s="16" t="str">
         <f>ROUND(((SUM(DO74,DO101)/SUM(DN74,DN101)+SUM(DO133,DO157)/SUM(DN133,DN157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>83.33%</v>
       </c>
       <c r="DR161" s="10"/>
       <c r="DS161" s="9" t="s">
@@ -70415,9 +70415,9 @@
       </c>
       <c r="ED161" s="9"/>
       <c r="EE161" s="9"/>
-      <c r="EF161" s="16" t="e">
+      <c r="EF161" s="16" t="str">
         <f>ROUND(((SUM(ED74,ED101)/SUM(EC74,EC101)+SUM(ED133,ED157)/SUM(EC133,EC157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>0%</v>
       </c>
       <c r="EG161" s="10"/>
       <c r="EH161" s="9" t="s">
@@ -70445,13 +70445,13 @@
       </c>
       <c r="ES161" s="9"/>
       <c r="ET161" s="9"/>
-      <c r="EU161" s="16" t="e">
+      <c r="EU161" s="16" t="str">
         <f>ROUND(((SUM(ES74,ES101)/SUM(ER74,ER101)+SUM(ES133,ES157)/SUM(ER133,ER157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>75%</v>
       </c>
       <c r="EV161" s="3"/>
     </row>
-    <row r="162" spans="1:152">
+    <row r="162" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="9" t="s">
@@ -70461,7 +70461,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9">
         <f>+SUM(C157,C133,C101,C74)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="9" t="s">
@@ -70471,7 +70471,7 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9">
         <f>+SUM(H157,H133,H101,H74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L162" s="10"/>
       <c r="M162" s="9" t="s">
@@ -70481,7 +70481,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="9">
         <f>+SUM(M157,M133,M101,M74)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q162" s="10"/>
       <c r="R162" s="9" t="s">
@@ -70491,7 +70491,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9">
         <f>+SUM(R157,R133,R101,R74)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V162" s="10"/>
       <c r="W162" s="9" t="s">
@@ -70501,7 +70501,7 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9">
         <f>+SUM(W157,W133,W101,W74)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA162" s="10"/>
       <c r="AB162" s="9" t="s">
@@ -70511,7 +70511,7 @@
       <c r="AD162" s="9"/>
       <c r="AE162" s="9">
         <f>+SUM(AB157,AB133,AB101,AB74)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF162" s="10"/>
       <c r="AG162" s="9" t="s">
@@ -70521,7 +70521,7 @@
       <c r="AI162" s="9"/>
       <c r="AJ162" s="9">
         <f>+SUM(AG157,AG133,AG101,AG74)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="9" t="s">
@@ -70531,7 +70531,7 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9">
         <f>+SUM(AL157,AL133,AL101,AL74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="9" t="s">
@@ -70541,7 +70541,7 @@
       <c r="AS162" s="9"/>
       <c r="AT162" s="9">
         <f>+SUM(AQ157,AQ133,AQ101,AQ74)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU162" s="10"/>
       <c r="AV162" s="9" t="s">
@@ -70571,7 +70571,7 @@
       <c r="BH162" s="9"/>
       <c r="BI162" s="9">
         <f>+SUM(BF157,BF133,BF101,BF74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ162" s="10"/>
       <c r="BK162" s="9" t="s">
@@ -70681,7 +70681,7 @@
       <c r="DK162" s="9"/>
       <c r="DL162" s="9">
         <f>+SUM(DI157,DI133,DI101,DI74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DM162" s="10"/>
       <c r="DN162" s="9" t="s">
@@ -70691,7 +70691,7 @@
       <c r="DP162" s="9"/>
       <c r="DQ162" s="9">
         <f>+SUM(DN157,DN133,DN101,DN74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DR162" s="10"/>
       <c r="DS162" s="9" t="s">
@@ -70721,7 +70721,7 @@
       <c r="EE162" s="9"/>
       <c r="EF162" s="9">
         <f>+SUM(EC157,EC133,EC101,EC74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="EG162" s="10"/>
       <c r="EH162" s="9" t="s">
@@ -70751,11 +70751,11 @@
       <c r="ET162" s="9"/>
       <c r="EU162" s="9">
         <f>+SUM(ER157,ER133,ER101,ER74)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="EV162" s="3"/>
     </row>
-    <row r="163" spans="1:152">
+    <row r="163" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -70909,7 +70909,7 @@
       <c r="EU163" s="3"/>
       <c r="EV163" s="3"/>
     </row>
-    <row r="164" spans="1:152">
+    <row r="164" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -71070,6 +71070,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -71284,14 +71292,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -71302,6 +71302,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -71320,23 +71337,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E862BCC1-95DA-4C02-B8CD-990D4E188D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1D974D-6802-4BA1-A7A6-FA504FAF4988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
@@ -3930,11 +3930,11 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -3977,17 +3977,17 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="1">
         <v>0</v>
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
@@ -4037,17 +4037,17 @@
       <c r="AK9" s="2"/>
       <c r="AL9" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="1">
         <v>0</v>
       </c>
       <c r="AO9" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="1">
@@ -4876,11 +4876,11 @@
       <c r="B11" s="2"/>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="1">
@@ -4923,17 +4923,17 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="1">
         <v>0</v>
       </c>
       <c r="U11" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
@@ -4968,17 +4968,17 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="1">
         <v>0</v>
       </c>
       <c r="AJ11" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="1">
@@ -8187,11 +8187,11 @@
       <c r="B18" s="2"/>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
@@ -8199,7 +8199,7 @@
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="1">
@@ -8324,17 +8324,17 @@
       <c r="AU18" s="2"/>
       <c r="AV18" s="1">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="1">
         <v>0</v>
       </c>
       <c r="AY18" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="1">
@@ -10079,11 +10079,11 @@
       <c r="B22" s="2"/>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="79"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="80"/>
@@ -10111,10 +10111,10 @@
       <c r="L22" s="2"/>
       <c r="M22" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" s="1">
         <v>0</v>
@@ -10171,17 +10171,17 @@
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="1">
         <v>0</v>
       </c>
       <c r="AJ22" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="1">
@@ -15282,11 +15282,11 @@
       <c r="B33" s="2"/>
       <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="79"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="80"/>
@@ -15314,17 +15314,17 @@
       <c r="L33" s="2"/>
       <c r="M33" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
@@ -15755,11 +15755,11 @@
       <c r="B34" s="2"/>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="80"/>
@@ -15767,7 +15767,7 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="1">
@@ -15787,17 +15787,17 @@
       <c r="L34" s="2"/>
       <c r="M34" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
@@ -19539,11 +19539,11 @@
       <c r="B42" s="2"/>
       <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="80"/>
@@ -19551,7 +19551,7 @@
       </c>
       <c r="F42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1">
@@ -19601,17 +19601,17 @@
       <c r="V42" s="2"/>
       <c r="W42" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
       <c r="Z42" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="1">
@@ -23323,11 +23323,11 @@
       <c r="B50" s="2"/>
       <c r="C50" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="79"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="80"/>
@@ -23385,10 +23385,10 @@
       <c r="V50" s="2"/>
       <c r="W50" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X50" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y50" s="1">
         <v>0</v>
@@ -23430,17 +23430,17 @@
       <c r="AK50" s="2"/>
       <c r="AL50" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="1">
         <v>0</v>
       </c>
       <c r="AO50" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP50" s="2"/>
       <c r="AQ50" s="1">
@@ -24742,11 +24742,11 @@
       <c r="B53" s="2"/>
       <c r="C53" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="80"/>
@@ -24754,7 +24754,7 @@
       </c>
       <c r="F53" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="1">
@@ -24849,17 +24849,17 @@
       <c r="AK53" s="2"/>
       <c r="AL53" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN53" s="1">
         <v>0</v>
       </c>
       <c r="AO53" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP53" s="2"/>
       <c r="AQ53" s="1">
@@ -25215,11 +25215,11 @@
       <c r="B54" s="2"/>
       <c r="C54" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="1">
         <f t="shared" si="79"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="80"/>
@@ -25307,10 +25307,10 @@
       <c r="AF54" s="2"/>
       <c r="AG54" s="1">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI54" s="1">
         <v>0</v>
@@ -34675,11 +34675,11 @@
       <c r="B74" s="2"/>
       <c r="C74" s="1">
         <f>SUM(C5:C73)</f>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" ref="D74:E74" si="141">SUM(D5:D73)</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="141"/>
@@ -34687,7 +34687,7 @@
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(C74,ROUND(D74/C74*100,2),0) &amp; "%"</f>
-        <v>50.94%</v>
+        <v>61.19%</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1">
@@ -34709,11 +34709,11 @@
       <c r="L74" s="2"/>
       <c r="M74" s="1">
         <f t="shared" si="85"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N74" s="1">
         <f>SUM(N5:N73)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O74" s="1">
         <f>SUM(O5:O73)</f>
@@ -34721,16 +34721,16 @@
       </c>
       <c r="P74" s="1" t="str">
         <f>IF(M74,ROUND(N74/M74*100,2),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>72.73%</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="1">
         <f t="shared" si="87"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S74" s="1">
         <f>SUM(S5:S73)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T74" s="1">
         <f>SUM(T5:T73)</f>
@@ -34738,16 +34738,16 @@
       </c>
       <c r="U74" s="1" t="str">
         <f>IF(R74,ROUND(S74/R74*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>62.5%</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="1">
         <f t="shared" si="89"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="X74" s="1">
         <f>SUM(X5:X73)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y74" s="1">
         <f>SUM(Y5:Y73)</f>
@@ -34755,7 +34755,7 @@
       </c>
       <c r="Z74" s="1" t="str">
         <f>IF(W74,ROUND(X74/W74*100,2),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>70%</v>
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="1">
@@ -34777,11 +34777,11 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="1">
         <f t="shared" si="93"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AH74" s="1">
         <f>SUM(AH5:AH73)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI74" s="1">
         <f>SUM(AI5:AI73)</f>
@@ -34789,16 +34789,16 @@
       </c>
       <c r="AJ74" s="1" t="str">
         <f>IF(AG74,ROUND(AH74/AG74*100,2),0) &amp; "%"</f>
-        <v>80%</v>
+        <v>87.5%</v>
       </c>
       <c r="AK74" s="2"/>
       <c r="AL74" s="1">
         <f t="shared" si="95"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AM74" s="1">
         <f>SUM(AM5:AM73)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN74" s="1">
         <f>SUM(AN5:AN73)</f>
@@ -34806,7 +34806,7 @@
       </c>
       <c r="AO74" s="1" t="str">
         <f>IF(AL74,ROUND(AM74/AL74*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>80%</v>
       </c>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="1">
@@ -34828,11 +34828,11 @@
       <c r="AU74" s="2"/>
       <c r="AV74" s="1">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW74" s="1">
         <f>SUM(AW5:AW73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX74" s="1">
         <f>SUM(AX5:AX73)</f>
@@ -34840,7 +34840,7 @@
       </c>
       <c r="AY74" s="1" t="str">
         <f>IF(AV74,ROUND(AW74/AV74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ74" s="2"/>
       <c r="BA74" s="1">
@@ -42084,11 +42084,11 @@
       <c r="B91" s="5"/>
       <c r="C91" s="2">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="142"/>
@@ -42096,7 +42096,7 @@
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="144"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="2">
@@ -42161,17 +42161,17 @@
       <c r="AA91" s="5"/>
       <c r="AB91" s="2">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC91" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD91" s="2">
         <v>0</v>
       </c>
       <c r="AE91" s="2" t="str">
         <f t="shared" si="154"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF91" s="5"/>
       <c r="AG91" s="2">
@@ -46814,11 +46814,11 @@
       <c r="B101" s="5"/>
       <c r="C101" s="2">
         <f>SUM(C78:C100)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101" s="2">
         <f>SUM(D78:D100)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" s="2">
         <f>SUM(E78:E100)</f>
@@ -46826,7 +46826,7 @@
       </c>
       <c r="F101" s="2" t="str">
         <f>IF(C101,ROUND(D101/C101*100,2),0) &amp; "%"</f>
-        <v>66.67%</v>
+        <v>71.43%</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="2">
@@ -46899,11 +46899,11 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="2">
         <f>+SUM(AC101,AD101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC101" s="2">
         <f>SUM(AC78:AC100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD101" s="2">
         <f>SUM(AD78:AD100)</f>
@@ -46911,7 +46911,7 @@
       </c>
       <c r="AE101" s="2" t="str">
         <f>IF(AB101,ROUND(AC101/AB101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF101" s="5"/>
       <c r="AG101" s="2">
@@ -47670,7 +47670,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="str">
         <f>IF(SUM(D74,D101),ROUND(SUM(D74,D101)*100/SUM(C74,C101),2),0) &amp; "%"</f>
-        <v>52.54%</v>
+        <v>62.16%</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9" t="s">
@@ -47690,7 +47690,7 @@
       <c r="O104" s="9"/>
       <c r="P104" s="9" t="str">
         <f>IF(SUM(N74,N101),ROUND(SUM(N74,N101)*100/SUM(M74,M101),2),0) &amp; "%"</f>
-        <v>66.67%</v>
+        <v>75%</v>
       </c>
       <c r="Q104" s="10"/>
       <c r="R104" s="9" t="s">
@@ -47700,7 +47700,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9" t="str">
         <f>IF(SUM(S74,S101),ROUND(SUM(S74,S101)*100/SUM(R74,R101),2),0) &amp; "%"</f>
-        <v>42.86%</v>
+        <v>55.56%</v>
       </c>
       <c r="V104" s="10"/>
       <c r="W104" s="9" t="s">
@@ -47710,7 +47710,7 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9" t="str">
         <f>IF(SUM(X74,X101),ROUND(SUM(X74,X101)*100/SUM(W74,W101),2),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>70%</v>
       </c>
       <c r="AA104" s="10"/>
       <c r="AB104" s="9" t="s">
@@ -47720,7 +47720,7 @@
       <c r="AD104" s="9"/>
       <c r="AE104" s="9" t="str">
         <f>IF(SUM(AC74,AC101),ROUND(SUM(AC74,AC101)*100/SUM(AB74,AB101),2),0) &amp; "%"</f>
-        <v>42.86%</v>
+        <v>50%</v>
       </c>
       <c r="AF104" s="10"/>
       <c r="AG104" s="9" t="s">
@@ -47730,7 +47730,7 @@
       <c r="AI104" s="9"/>
       <c r="AJ104" s="9" t="str">
         <f>IF(SUM(AH74,AH101),ROUND(SUM(AH74,AH101)*100/SUM(AG74,AG101),2),0) &amp; "%"</f>
-        <v>83.33%</v>
+        <v>88.89%</v>
       </c>
       <c r="AK104" s="10"/>
       <c r="AL104" s="9" t="s">
@@ -47740,7 +47740,7 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9" t="str">
         <f>IF(SUM(AM74,AM101),ROUND(SUM(AM74,AM101)*100/SUM(AL74,AL101),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>80%</v>
       </c>
       <c r="AP104" s="10"/>
       <c r="AQ104" s="9" t="s">
@@ -47760,7 +47760,7 @@
       <c r="AX104" s="9"/>
       <c r="AY104" s="9" t="str">
         <f>IF(SUM(AW74,AW101),ROUND(SUM(AW74,AW101)*100/SUM(AV74,AV101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AZ104" s="10"/>
       <c r="BA104" s="9" t="s">
@@ -49654,7 +49654,7 @@
       <c r="B110" s="8"/>
       <c r="C110" s="7">
         <f t="shared" si="208"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D110" s="7">
         <f t="shared" si="207"/>
@@ -49662,7 +49662,7 @@
       </c>
       <c r="E110" s="7">
         <f t="shared" si="207"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" s="7" t="str">
         <f t="shared" si="209"/>
@@ -49701,13 +49701,13 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="7">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S110" s="7">
         <v>0</v>
       </c>
       <c r="T110" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" s="7" t="str">
         <f t="shared" si="215"/>
@@ -56276,7 +56276,7 @@
       <c r="B124" s="8"/>
       <c r="C124" s="7">
         <f t="shared" si="208"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" ref="D124:D132" si="270">SUM(I124,N124,S124,X124,AC124,AH124,AM124,AR124,AW124,BB124,BG124,BL124,BQ124,BV124,CA124,CF124,CK124,CP124,CU124,CZ124,DE124,DJ124,DO124,DT124,DY124,ED124,EI124,EN124,ES124)</f>
@@ -56284,7 +56284,7 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" ref="E124:E132" si="271">SUM(J124,O124,T124,Y124,AD124,AI124,AN124,AS124,AX124,BC124,BH124,BM124,BR124,BW124,CB124,CG124,CL124,CQ124,CV124,DA124,DF124,DK124,DP124,DU124,DZ124,EE124,EJ124,EO124,ET124)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" s="7" t="str">
         <f t="shared" si="209"/>
@@ -56413,13 +56413,13 @@
       <c r="AU124" s="8"/>
       <c r="AV124" s="7">
         <f t="shared" si="226"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW124" s="7">
         <v>0</v>
       </c>
       <c r="AX124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY124" s="7" t="str">
         <f t="shared" si="227"/>
@@ -57222,7 +57222,7 @@
       <c r="B126" s="8"/>
       <c r="C126" s="7">
         <f t="shared" si="208"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D126" s="7">
         <f t="shared" si="270"/>
@@ -57230,11 +57230,11 @@
       </c>
       <c r="E126" s="7">
         <f t="shared" si="271"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F126" s="7" t="str">
         <f t="shared" si="209"/>
-        <v>100%</v>
+        <v>50%</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="7">
@@ -57284,28 +57284,28 @@
       <c r="V126" s="8"/>
       <c r="W126" s="7">
         <f t="shared" si="216"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X126" s="7">
         <v>1</v>
       </c>
       <c r="Y126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z126" s="7" t="str">
         <f t="shared" si="217"/>
-        <v>100%</v>
+        <v>50%</v>
       </c>
       <c r="AA126" s="8"/>
       <c r="AB126" s="7">
         <f t="shared" si="218"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC126" s="7">
         <v>0</v>
       </c>
       <c r="AD126" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE126" s="7" t="str">
         <f t="shared" si="219"/>
@@ -60533,7 +60533,7 @@
       <c r="B133" s="8"/>
       <c r="C133" s="7">
         <f>SUM(C108:C132)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D133" s="7">
         <f t="shared" ref="D133:E133" si="272">SUM(D108:D132)</f>
@@ -60541,11 +60541,11 @@
       </c>
       <c r="E133" s="7">
         <f t="shared" si="272"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F133" s="7" t="str">
         <f>IF(C133,ROUND(D133/C133*100,2),0) &amp; "%"</f>
-        <v>61.54%</v>
+        <v>47.06%</v>
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="7">
@@ -60584,7 +60584,7 @@
       <c r="Q133" s="8"/>
       <c r="R133" s="7">
         <f>SUM(R108:R132)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S133" s="7">
         <f t="shared" ref="S133" si="275">SUM(S108:S132)</f>
@@ -60592,16 +60592,16 @@
       </c>
       <c r="T133" s="7">
         <f t="shared" ref="T133" si="276">SUM(T108:T132)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U133" s="7" t="str">
         <f>IF(R133,ROUND(S133/R133*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="V133" s="8"/>
       <c r="W133" s="7">
         <f>SUM(W108:W132)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X133" s="7">
         <f t="shared" ref="X133" si="277">SUM(X108:X132)</f>
@@ -60609,16 +60609,16 @@
       </c>
       <c r="Y133" s="7">
         <f t="shared" ref="Y133" si="278">SUM(Y108:Y132)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z133" s="7" t="str">
         <f>IF(W133,ROUND(X133/W133*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="AA133" s="8"/>
       <c r="AB133" s="7">
         <f>SUM(AB108:AB132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC133" s="7">
         <f t="shared" ref="AC133" si="279">SUM(AC108:AC132)</f>
@@ -60626,7 +60626,7 @@
       </c>
       <c r="AD133" s="7">
         <f t="shared" ref="AD133" si="280">SUM(AD108:AD132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE133" s="7" t="str">
         <f>IF(AB133,ROUND(AC133/AB133*100,2),0) &amp; "%"</f>
@@ -60686,7 +60686,7 @@
       <c r="AU133" s="8"/>
       <c r="AV133" s="7">
         <f>SUM(AV108:AV132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW133" s="7">
         <f t="shared" ref="AW133" si="287">SUM(AW108:AW132)</f>
@@ -60694,7 +60694,7 @@
       </c>
       <c r="AX133" s="7">
         <f t="shared" ref="AX133" si="288">SUM(AX108:AX132)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY133" s="7" t="str">
         <f>IF(AV133,ROUND(AW133/AV133*100,2),0) &amp; "%"</f>
@@ -65083,13 +65083,13 @@
       <c r="EV143" s="14"/>
       <c r="EW143" s="12">
         <f t="shared" si="391"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX143" s="13">
         <v>0</v>
       </c>
       <c r="EY143" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ143" s="13" t="str">
         <f t="shared" si="392"/>
@@ -66523,7 +66523,7 @@
       <c r="B147" s="11"/>
       <c r="C147" s="12">
         <f t="shared" si="331"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147" s="12">
         <f t="shared" si="330"/>
@@ -66531,7 +66531,7 @@
       </c>
       <c r="E147" s="12">
         <f t="shared" si="330"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F147" s="13" t="str">
         <f t="shared" si="332"/>
@@ -66600,13 +66600,13 @@
       <c r="AA147" s="11"/>
       <c r="AB147" s="12">
         <f t="shared" si="341"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC147" s="13">
         <v>0</v>
       </c>
       <c r="AD147" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE147" s="13" t="str">
         <f t="shared" si="342"/>
@@ -66660,13 +66660,13 @@
       <c r="AU147" s="11"/>
       <c r="AV147" s="12">
         <f t="shared" si="349"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW147" s="13">
         <v>0</v>
       </c>
       <c r="AX147" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY147" s="13" t="str">
         <f t="shared" si="350"/>
@@ -71253,7 +71253,7 @@
       <c r="B157" s="11"/>
       <c r="C157" s="13">
         <f>SUM(C137:C156)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D157" s="13">
         <f t="shared" ref="D157:E157" si="395">SUM(D137:D156)</f>
@@ -71261,11 +71261,11 @@
       </c>
       <c r="E157" s="13">
         <f t="shared" si="395"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F157" s="13" t="str">
         <f>IF(C157,ROUND(D157/C157*100,2),0) &amp; "%"</f>
-        <v>41.67%</v>
+        <v>35.71%</v>
       </c>
       <c r="G157" s="11"/>
       <c r="H157" s="13">
@@ -71337,7 +71337,7 @@
       <c r="AA157" s="11"/>
       <c r="AB157" s="13">
         <f>SUM(AB137:AB156)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC157" s="12">
         <f>SUM(AC137:AC156)</f>
@@ -71345,11 +71345,11 @@
       </c>
       <c r="AD157" s="12">
         <f>SUM(AD137:AD156)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE157" s="13" t="str">
         <f>IF(AB157,ROUND(AC157/AB157*100,2),0) &amp; "%"</f>
-        <v>25%</v>
+        <v>20%</v>
       </c>
       <c r="AF157" s="11"/>
       <c r="AG157" s="13">
@@ -71405,7 +71405,7 @@
       <c r="AU157" s="11"/>
       <c r="AV157" s="13">
         <f>SUM(AV137:AV156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW157" s="12">
         <f>SUM(AW137:AW156)</f>
@@ -71413,7 +71413,7 @@
       </c>
       <c r="AX157" s="12">
         <f>SUM(AX137:AX156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY157" s="13" t="str">
         <f>IF(AV157,ROUND(AW157/AV157*100,2),0) &amp; "%"</f>
@@ -71762,7 +71762,7 @@
       <c r="EV157" s="14"/>
       <c r="EW157" s="13">
         <f>SUM(EW137:EW156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX157" s="12">
         <f>SUM(EX137:EX156)</f>
@@ -71770,7 +71770,7 @@
       </c>
       <c r="EY157" s="12">
         <f>SUM(EY137:EY156)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EZ157" s="13" t="str">
         <f>IF(EW157,ROUND(EX157/EW157*100,2),0) &amp; "%"</f>
@@ -72108,7 +72108,7 @@
       <c r="E160" s="9"/>
       <c r="F160" s="9" t="str">
         <f>IF(SUM(D133,D157),ROUND(SUM(D133,D157)*100/SUM(C133,C157),2),0) &amp; "%"</f>
-        <v>52%</v>
+        <v>41.94%</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="9" t="s">
@@ -72138,7 +72138,7 @@
       <c r="T160" s="9"/>
       <c r="U160" s="9" t="str">
         <f>IF(SUM(S133,S157),ROUND(SUM(S133,S157)*100/SUM(R133,R157),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="V160" s="10"/>
       <c r="W160" s="9" t="s">
@@ -72148,7 +72148,7 @@
       <c r="Y160" s="9"/>
       <c r="Z160" s="9" t="str">
         <f>IF(SUM(X133,X157),ROUND(SUM(X133,X157)*100/SUM(W133,W157),2),0) &amp; "%"</f>
-        <v>66.67%</v>
+        <v>50%</v>
       </c>
       <c r="AA160" s="10"/>
       <c r="AB160" s="9" t="s">
@@ -72158,7 +72158,7 @@
       <c r="AD160" s="9"/>
       <c r="AE160" s="9" t="str">
         <f>IF(SUM(AC133,AC157),ROUND(SUM(AC133,AC157)*100/SUM(AB133,AB157),2),0) &amp; "%"</f>
-        <v>25%</v>
+        <v>16.67%</v>
       </c>
       <c r="AF160" s="10"/>
       <c r="AG160" s="9" t="s">
@@ -72422,7 +72422,7 @@
       <c r="E161" s="9"/>
       <c r="F161" s="16" t="str">
         <f>ROUND(((SUM(D74,D101)/SUM(C74,C101)+SUM(D133,D157)/SUM(C133,C157))/2)*100,2) &amp; "%"</f>
-        <v>52.27%</v>
+        <v>52.05%</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="9" t="s">
@@ -72442,7 +72442,7 @@
       <c r="O161" s="9"/>
       <c r="P161" s="16" t="str">
         <f>ROUND(((SUM(N74,N101)/SUM(M74,M101)+SUM(N133,N157)/SUM(M133,M157))/2)*100,2) &amp; "%"</f>
-        <v>83.33%</v>
+        <v>87.5%</v>
       </c>
       <c r="Q161" s="10"/>
       <c r="R161" s="9" t="s">
@@ -72452,7 +72452,7 @@
       <c r="T161" s="9"/>
       <c r="U161" s="16" t="str">
         <f>ROUND(((SUM(S74,S101)/SUM(R74,R101)+SUM(S133,S157)/SUM(R133,R157))/2)*100,2) &amp; "%"</f>
-        <v>46.43%</v>
+        <v>44.44%</v>
       </c>
       <c r="V161" s="10"/>
       <c r="W161" s="9" t="s">
@@ -72462,7 +72462,7 @@
       <c r="Y161" s="9"/>
       <c r="Z161" s="16" t="str">
         <f>ROUND(((SUM(X74,X101)/SUM(W74,W101)+SUM(X133,X157)/SUM(W133,W157))/2)*100,2) &amp; "%"</f>
-        <v>64.58%</v>
+        <v>60%</v>
       </c>
       <c r="AA161" s="10"/>
       <c r="AB161" s="9" t="s">
@@ -72472,7 +72472,7 @@
       <c r="AD161" s="9"/>
       <c r="AE161" s="16" t="str">
         <f>ROUND(((SUM(AC74,AC101)/SUM(AB74,AB101)+SUM(AC133,AC157)/SUM(AB133,AB157))/2)*100,2) &amp; "%"</f>
-        <v>33.93%</v>
+        <v>33.33%</v>
       </c>
       <c r="AF161" s="10"/>
       <c r="AG161" s="9" t="s">
@@ -72482,7 +72482,7 @@
       <c r="AI161" s="9"/>
       <c r="AJ161" s="16" t="str">
         <f>ROUND(((SUM(AH74,AH101)/SUM(AG74,AG101)+SUM(AH133,AH157)/SUM(AG133,AG157))/2)*100,2) &amp; "%"</f>
-        <v>71.67%</v>
+        <v>74.44%</v>
       </c>
       <c r="AK161" s="10"/>
       <c r="AL161" s="9" t="s">
@@ -72492,7 +72492,7 @@
       <c r="AN161" s="9"/>
       <c r="AO161" s="16" t="str">
         <f>ROUND(((SUM(AM74,AM101)/SUM(AL74,AL101)+SUM(AM133,AM157)/SUM(AL133,AL157))/2)*100,2) &amp; "%"</f>
-        <v>50%</v>
+        <v>65%</v>
       </c>
       <c r="AP161" s="10"/>
       <c r="AQ161" s="9" t="s">
@@ -72510,9 +72510,9 @@
       </c>
       <c r="AW161" s="9"/>
       <c r="AX161" s="9"/>
-      <c r="AY161" s="16" t="e">
+      <c r="AY161" s="16" t="str">
         <f>ROUND(((SUM(AW74,AW101)/SUM(AV74,AV101)+SUM(AW133,AW157)/SUM(AV133,AV157))/2)*100,2) &amp; "%"</f>
-        <v>#DIV/0!</v>
+        <v>50%</v>
       </c>
       <c r="AZ161" s="10"/>
       <c r="BA161" s="9" t="s">
@@ -72736,7 +72736,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9">
         <f>+SUM(C157,C133,C101,C74)</f>
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="9" t="s">
@@ -72756,7 +72756,7 @@
       <c r="O162" s="9"/>
       <c r="P162" s="9">
         <f>+SUM(M157,M133,M101,M74)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q162" s="10"/>
       <c r="R162" s="9" t="s">
@@ -72766,7 +72766,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9">
         <f>+SUM(R157,R133,R101,R74)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="V162" s="10"/>
       <c r="W162" s="9" t="s">
@@ -72776,7 +72776,7 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9">
         <f>+SUM(W157,W133,W101,W74)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA162" s="10"/>
       <c r="AB162" s="9" t="s">
@@ -72786,7 +72786,7 @@
       <c r="AD162" s="9"/>
       <c r="AE162" s="9">
         <f>+SUM(AB157,AB133,AB101,AB74)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF162" s="10"/>
       <c r="AG162" s="9" t="s">
@@ -72796,7 +72796,7 @@
       <c r="AI162" s="9"/>
       <c r="AJ162" s="9">
         <f>+SUM(AG157,AG133,AG101,AG74)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="9" t="s">
@@ -72806,7 +72806,7 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9">
         <f>+SUM(AL157,AL133,AL101,AL74)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="9" t="s">
@@ -72826,7 +72826,7 @@
       <c r="AX162" s="9"/>
       <c r="AY162" s="9">
         <f>+SUM(AV157,AV133,AV101,AV74)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ162" s="10"/>
       <c r="BA162" s="9" t="s">
@@ -73036,7 +73036,7 @@
       <c r="EY162" s="9"/>
       <c r="EZ162" s="9">
         <f>+SUM(EW157,EW133,EW101,EW74)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FA162" s="3"/>
     </row>
@@ -73365,6 +73365,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -73579,14 +73587,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -73597,6 +73597,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73615,23 +73632,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6798178D-FF33-4A01-8662-03628908BE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AC1F4B-4742-4F11-A0DE-BD6BB2DCD02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-30000" yWindow="855" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:FF166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="EB5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="EK59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="EX116" sqref="EX116"/>
@@ -7445,11 +7445,11 @@
       <c r="B16" s="2"/>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
@@ -7457,22 +7457,22 @@
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="1">
@@ -10373,11 +10373,11 @@
       <c r="B22" s="2"/>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="81"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="82"/>
@@ -10435,32 +10435,32 @@
       <c r="V22" s="2"/>
       <c r="W22" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y22" s="1">
         <v>0</v>
       </c>
       <c r="Z22" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD22" s="1">
         <v>0</v>
       </c>
       <c r="AE22" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF22" s="2"/>
       <c r="AG22" s="1">
@@ -10495,17 +10495,17 @@
       <c r="AP22" s="2"/>
       <c r="AQ22" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="1">
         <v>0</v>
       </c>
       <c r="AT22" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AU22" s="2"/>
       <c r="AV22" s="1">
@@ -11837,11 +11837,11 @@
       <c r="B25" s="2"/>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="82"/>
@@ -11849,7 +11849,7 @@
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1">
@@ -11914,17 +11914,17 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" s="1">
         <v>0</v>
       </c>
       <c r="AE25" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF25" s="2"/>
       <c r="AG25" s="1">
@@ -12325,11 +12325,11 @@
       <c r="B26" s="2"/>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="82"/>
@@ -12337,22 +12337,22 @@
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>25%</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
@@ -12777,17 +12777,17 @@
       <c r="EV26" s="2"/>
       <c r="EW26" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY26" s="1">
         <v>0</v>
       </c>
       <c r="EZ26" s="1" t="str">
         <f t="shared" si="62"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA26" s="2"/>
       <c r="FB26" s="1">
@@ -13789,11 +13789,11 @@
       <c r="B29" s="2"/>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="82"/>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="F29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="1">
@@ -13836,32 +13836,32 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="1">
         <v>0</v>
       </c>
       <c r="U29" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" s="1">
         <v>0</v>
       </c>
       <c r="Z29" s="1" t="str">
         <f t="shared" si="10"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="1">
@@ -16229,11 +16229,11 @@
       <c r="B34" s="2"/>
       <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="81"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="82"/>
@@ -16241,7 +16241,7 @@
       </c>
       <c r="F34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.33%</v>
+        <v>66.67%</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="1">
@@ -16276,17 +16276,17 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
         <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
         <v>1</v>
-      </c>
-      <c r="S34" s="1">
-        <v>0</v>
       </c>
       <c r="T34" s="1">
         <v>1</v>
       </c>
       <c r="U34" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
@@ -16321,32 +16321,32 @@
       <c r="AF34" s="2"/>
       <c r="AG34" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI34" s="1">
         <v>0</v>
       </c>
       <c r="AJ34" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK34" s="2"/>
       <c r="AL34" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN34" s="1">
         <v>0</v>
       </c>
       <c r="AO34" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP34" s="2"/>
       <c r="AQ34" s="1">
@@ -17693,11 +17693,11 @@
       <c r="B37" s="2"/>
       <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="82"/>
@@ -17705,7 +17705,7 @@
       </c>
       <c r="F37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="1">
@@ -17785,17 +17785,17 @@
       <c r="AF37" s="2"/>
       <c r="AG37" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="1">
         <v>0</v>
       </c>
       <c r="AJ37" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK37" s="2"/>
       <c r="AL37" s="1">
@@ -21597,11 +21597,11 @@
       <c r="B45" s="2"/>
       <c r="C45" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="82"/>
@@ -21609,7 +21609,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="1">
@@ -21644,17 +21644,17 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="1">
         <v>0</v>
       </c>
       <c r="U45" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="1">
@@ -21704,17 +21704,17 @@
       <c r="AK45" s="2"/>
       <c r="AL45" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN45" s="1">
         <v>0</v>
       </c>
       <c r="AO45" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP45" s="2"/>
       <c r="AQ45" s="1">
@@ -22573,11 +22573,11 @@
       <c r="B47" s="2"/>
       <c r="C47" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="81"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="82"/>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="F47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.33%</v>
+        <v>50%</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="1">
@@ -22665,17 +22665,17 @@
       <c r="AF47" s="2"/>
       <c r="AG47" s="1">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="1">
         <v>0</v>
       </c>
       <c r="AJ47" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AK47" s="2"/>
       <c r="AL47" s="1">
@@ -30345,17 +30345,17 @@
       <c r="EV62" s="2"/>
       <c r="EW62" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY62" s="1">
         <v>0</v>
       </c>
       <c r="EZ62" s="1" t="str">
         <f t="shared" si="62"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA62" s="2"/>
       <c r="FB62" s="1">
@@ -30381,11 +30381,11 @@
       <c r="B63" s="2"/>
       <c r="C63" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="82"/>
@@ -30393,22 +30393,22 @@
       </c>
       <c r="F63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>33.33%</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="1">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1">
@@ -31809,17 +31809,17 @@
       <c r="EV65" s="2"/>
       <c r="EW65" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY65" s="1">
         <v>0</v>
       </c>
       <c r="EZ65" s="1" t="str">
         <f t="shared" si="62"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA65" s="2"/>
       <c r="FB65" s="1">
@@ -32821,11 +32821,11 @@
       <c r="B68" s="2"/>
       <c r="C68" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68" s="1">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <f t="shared" si="82"/>
@@ -32833,7 +32833,7 @@
       </c>
       <c r="F68" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0%</v>
+        <v>50%</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="1">
@@ -32928,17 +32928,17 @@
       <c r="AK68" s="2"/>
       <c r="AL68" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN68" s="1">
         <v>0</v>
       </c>
       <c r="AO68" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AP68" s="2"/>
       <c r="AQ68" s="1">
@@ -35749,11 +35749,11 @@
       <c r="B74" s="2"/>
       <c r="C74" s="1">
         <f>SUM(C5:C73)</f>
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="D74" s="1">
         <f t="shared" ref="D74:E74" si="145">SUM(D5:D73)</f>
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E74" s="1">
         <f t="shared" si="145"/>
@@ -35761,16 +35761,16 @@
       </c>
       <c r="F74" s="1" t="str">
         <f>IF(C74,ROUND(D74/C74*100,2),0) &amp; "%"</f>
-        <v>61.19%</v>
+        <v>70.11%</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="1">
         <f t="shared" si="85"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I74" s="1">
         <f>SUM(I5:I73)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1">
         <f>SUM(J5:J73)</f>
@@ -35778,7 +35778,7 @@
       </c>
       <c r="K74" s="1" t="str">
         <f>IF(H74,ROUND(I74/H74*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>80%</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="1">
@@ -35800,11 +35800,11 @@
       <c r="Q74" s="2"/>
       <c r="R74" s="1">
         <f t="shared" si="89"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S74" s="1">
         <f>SUM(S5:S73)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T74" s="1">
         <f>SUM(T5:T73)</f>
@@ -35812,16 +35812,16 @@
       </c>
       <c r="U74" s="1" t="str">
         <f>IF(R74,ROUND(S74/R74*100,2),0) &amp; "%"</f>
-        <v>62.5%</v>
+        <v>72.73%</v>
       </c>
       <c r="V74" s="2"/>
       <c r="W74" s="1">
         <f t="shared" si="91"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X74" s="1">
         <f>SUM(X5:X73)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y74" s="1">
         <f>SUM(Y5:Y73)</f>
@@ -35829,16 +35829,16 @@
       </c>
       <c r="Z74" s="1" t="str">
         <f>IF(W74,ROUND(X74/W74*100,2),0) &amp; "%"</f>
-        <v>70%</v>
+        <v>76.92%</v>
       </c>
       <c r="AA74" s="2"/>
       <c r="AB74" s="1">
         <f t="shared" si="93"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AC74" s="1">
         <f>SUM(AC5:AC73)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AD74" s="1">
         <f>SUM(AD5:AD73)</f>
@@ -35846,16 +35846,16 @@
       </c>
       <c r="AE74" s="1" t="str">
         <f>IF(AB74,ROUND(AC74/AB74*100,2),0) &amp; "%"</f>
-        <v>42.86%</v>
+        <v>63.64%</v>
       </c>
       <c r="AF74" s="2"/>
       <c r="AG74" s="1">
         <f t="shared" si="95"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH74" s="1">
         <f>SUM(AH5:AH73)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI74" s="1">
         <f>SUM(AI5:AI73)</f>
@@ -35863,16 +35863,16 @@
       </c>
       <c r="AJ74" s="1" t="str">
         <f>IF(AG74,ROUND(AH74/AG74*100,2),0) &amp; "%"</f>
-        <v>87.5%</v>
+        <v>90.91%</v>
       </c>
       <c r="AK74" s="2"/>
       <c r="AL74" s="1">
         <f t="shared" si="97"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AM74" s="1">
         <f>SUM(AM5:AM73)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AN74" s="1">
         <f>SUM(AN5:AN73)</f>
@@ -35880,16 +35880,16 @@
       </c>
       <c r="AO74" s="1" t="str">
         <f>IF(AL74,ROUND(AM74/AL74*100,2),0) &amp; "%"</f>
-        <v>80%</v>
+        <v>87.5%</v>
       </c>
       <c r="AP74" s="2"/>
       <c r="AQ74" s="1">
         <f t="shared" si="99"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR74" s="1">
         <f>SUM(AR5:AR73)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS74" s="1">
         <f>SUM(AS5:AS73)</f>
@@ -35897,7 +35897,7 @@
       </c>
       <c r="AT74" s="1" t="str">
         <f>IF(AQ74,ROUND(AR74/AQ74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>25%</v>
       </c>
       <c r="AU74" s="2"/>
       <c r="AV74" s="1">
@@ -36259,11 +36259,11 @@
       <c r="EV74" s="2"/>
       <c r="EW74" s="1">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EX74" s="1">
         <f>SUM(EX5:EX73)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EY74" s="1">
         <f>SUM(EY5:EY73)</f>
@@ -36271,7 +36271,7 @@
       </c>
       <c r="EZ74" s="1" t="str">
         <f>IF(EW74,ROUND(EX74/EW74*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA74" s="2"/>
       <c r="FB74" s="1">
@@ -44857,11 +44857,11 @@
       <c r="B94" s="5"/>
       <c r="C94" s="2">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="2">
         <f t="shared" ref="D94:D100" si="211">SUM(I94,N94,S94,X94,AC94,AH94,AM94,AR94,AW94,BB94,BG94,BL94,BQ94,BV94,CA94,CF94,CK94,CP94,CU94,CZ94,DE94,DJ94,DO94,DT94,DY94,ED94,EI94,EN94,ES94)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="2">
         <f t="shared" ref="E94:E100" si="212">SUM(J94,O94,T94,Y94,AD94,AI94,AN94,AS94,AX94,BC94,BH94,BM94,BR94,BW94,CB94,CG94,CL94,CQ94,CV94,DA94,DF94,DK94,DP94,DU94,DZ94,EE94,EJ94,EO94,ET94)</f>
@@ -44869,7 +44869,7 @@
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="148"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="G94" s="5"/>
       <c r="H94" s="2">
@@ -44934,17 +44934,17 @@
       <c r="AA94" s="5"/>
       <c r="AB94" s="2">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD94" s="2">
         <v>0</v>
       </c>
       <c r="AE94" s="2" t="str">
         <f t="shared" si="158"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="AF94" s="5"/>
       <c r="AG94" s="2">
@@ -45797,17 +45797,17 @@
       <c r="EV95" s="5"/>
       <c r="EW95" s="2">
         <f t="shared" si="207"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX95" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY95" s="2">
         <v>0</v>
       </c>
       <c r="EZ95" s="2" t="str">
         <f t="shared" si="208"/>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA95" s="5"/>
       <c r="FB95" s="2">
@@ -48273,11 +48273,11 @@
       <c r="B101" s="5"/>
       <c r="C101" s="2">
         <f>SUM(C78:C100)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" s="2">
         <f>SUM(D78:D100)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2">
         <f>SUM(E78:E100)</f>
@@ -48285,7 +48285,7 @@
       </c>
       <c r="F101" s="2" t="str">
         <f>IF(C101,ROUND(D101/C101*100,2),0) &amp; "%"</f>
-        <v>71.43%</v>
+        <v>75%</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="2">
@@ -48358,11 +48358,11 @@
       <c r="AA101" s="5"/>
       <c r="AB101" s="2">
         <f>+SUM(AC101,AD101)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC101" s="2">
         <f>SUM(AC78:AC100)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD101" s="2">
         <f>SUM(AD78:AD100)</f>
@@ -48783,11 +48783,11 @@
       <c r="EV101" s="5"/>
       <c r="EW101" s="2">
         <f>+SUM(EX101,EY101)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EX101" s="2">
         <f>SUM(EX78:EX100)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EY101" s="2">
         <f>SUM(EY78:EY100)</f>
@@ -48795,7 +48795,7 @@
       </c>
       <c r="EZ101" s="2" t="str">
         <f>IF(EW101,ROUND(EX101/EW101*100,2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA101" s="5"/>
       <c r="FB101" s="2">
@@ -49156,7 +49156,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="9" t="str">
         <f>IF(SUM(D74,D101),ROUND(SUM(D74,D101)*100/SUM(C74,C101),2),0) &amp; "%"</f>
-        <v>62.16%</v>
+        <v>70.53%</v>
       </c>
       <c r="G104" s="10"/>
       <c r="H104" s="9" t="s">
@@ -49166,7 +49166,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9" t="str">
         <f>IF(SUM(I74,I101),ROUND(SUM(I74,I101)*100/SUM(H74,H101),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>80%</v>
       </c>
       <c r="L104" s="10"/>
       <c r="M104" s="9" t="s">
@@ -49186,7 +49186,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9" t="str">
         <f>IF(SUM(S74,S101),ROUND(SUM(S74,S101)*100/SUM(R74,R101),2),0) &amp; "%"</f>
-        <v>55.56%</v>
+        <v>66.67%</v>
       </c>
       <c r="V104" s="10"/>
       <c r="W104" s="9" t="s">
@@ -49196,7 +49196,7 @@
       <c r="Y104" s="9"/>
       <c r="Z104" s="9" t="str">
         <f>IF(SUM(X74,X101),ROUND(SUM(X74,X101)*100/SUM(W74,W101),2),0) &amp; "%"</f>
-        <v>70%</v>
+        <v>76.92%</v>
       </c>
       <c r="AA104" s="10"/>
       <c r="AB104" s="9" t="s">
@@ -49206,7 +49206,7 @@
       <c r="AD104" s="9"/>
       <c r="AE104" s="9" t="str">
         <f>IF(SUM(AC74,AC101),ROUND(SUM(AC74,AC101)*100/SUM(AB74,AB101),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>69.23%</v>
       </c>
       <c r="AF104" s="10"/>
       <c r="AG104" s="9" t="s">
@@ -49216,7 +49216,7 @@
       <c r="AI104" s="9"/>
       <c r="AJ104" s="9" t="str">
         <f>IF(SUM(AH74,AH101),ROUND(SUM(AH74,AH101)*100/SUM(AG74,AG101),2),0) &amp; "%"</f>
-        <v>88.89%</v>
+        <v>91.67%</v>
       </c>
       <c r="AK104" s="10"/>
       <c r="AL104" s="9" t="s">
@@ -49226,7 +49226,7 @@
       <c r="AN104" s="9"/>
       <c r="AO104" s="9" t="str">
         <f>IF(SUM(AM74,AM101),ROUND(SUM(AM74,AM101)*100/SUM(AL74,AL101),2),0) &amp; "%"</f>
-        <v>80%</v>
+        <v>87.5%</v>
       </c>
       <c r="AP104" s="10"/>
       <c r="AQ104" s="9" t="s">
@@ -49236,7 +49236,7 @@
       <c r="AS104" s="9"/>
       <c r="AT104" s="9" t="str">
         <f>IF(SUM(AR74,AR101),ROUND(SUM(AR74,AR101)*100/SUM(AQ74,AQ101),2),0) &amp; "%"</f>
-        <v>25%</v>
+        <v>40%</v>
       </c>
       <c r="AU104" s="10"/>
       <c r="AV104" s="9" t="s">
@@ -49456,7 +49456,7 @@
       <c r="EY104" s="9"/>
       <c r="EZ104" s="9" t="str">
         <f>IF(SUM(EX74,EX101),ROUND(SUM(EX74,EX101)*100/SUM(EW74,EW101),2),0) &amp; "%"</f>
-        <v>0%</v>
+        <v>100%</v>
       </c>
       <c r="FA104" s="10"/>
       <c r="FB104" s="9" t="s">
@@ -58035,7 +58035,7 @@
       <c r="B124" s="8"/>
       <c r="C124" s="7">
         <f t="shared" si="214"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D124" s="7">
         <f t="shared" ref="D124:D134" si="278">SUM(I124,N124,S124,X124,AC124,AH124,AM124,AR124,AW124,BB124,BG124,BL124,BQ124,BV124,CA124,CF124,CK124,CP124,CU124,CZ124,DE124,DJ124,DO124,DT124,DY124,ED124,EI124,EN124,ES124)</f>
@@ -58043,7 +58043,7 @@
       </c>
       <c r="E124" s="7">
         <f t="shared" ref="E124:E134" si="279">SUM(J124,O124,T124,Y124,AD124,AI124,AN124,AS124,AX124,BC124,BH124,BM124,BR124,BW124,CB124,CG124,CL124,CQ124,CV124,DA124,DF124,DK124,DP124,DU124,DZ124,EE124,EJ124,EO124,ET124)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124" s="7" t="str">
         <f t="shared" si="215"/>
@@ -58142,13 +58142,13 @@
       <c r="AK124" s="8"/>
       <c r="AL124" s="7">
         <f t="shared" si="228"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM124" s="7">
         <v>0</v>
       </c>
       <c r="AN124" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO124" s="7" t="str">
         <f t="shared" si="229"/>
@@ -59499,7 +59499,7 @@
       <c r="B127" s="8"/>
       <c r="C127" s="7">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" s="7">
         <f t="shared" si="278"/>
@@ -59507,7 +59507,7 @@
       </c>
       <c r="E127" s="7">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" s="7" t="str">
         <f t="shared" si="215"/>
@@ -59621,13 +59621,13 @@
       <c r="AP127" s="8"/>
       <c r="AQ127" s="7">
         <f t="shared" si="230"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR127" s="7">
         <v>0</v>
       </c>
       <c r="AS127" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT127" s="7" t="str">
         <f t="shared" si="231"/>
@@ -61939,7 +61939,7 @@
       <c r="B132" s="8"/>
       <c r="C132" s="7">
         <f t="shared" si="214"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D132" s="7">
         <f t="shared" si="278"/>
@@ -61947,7 +61947,7 @@
       </c>
       <c r="E132" s="7">
         <f t="shared" si="279"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F132" s="7" t="str">
         <f t="shared" si="215"/>
@@ -62001,13 +62001,13 @@
       <c r="V132" s="8"/>
       <c r="W132" s="7">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X132" s="7">
         <v>0</v>
       </c>
       <c r="Y132" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z132" s="7" t="str">
         <f t="shared" si="223"/>
@@ -62031,13 +62031,13 @@
       <c r="AF132" s="8"/>
       <c r="AG132" s="7">
         <f t="shared" si="226"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH132" s="7">
         <v>0</v>
       </c>
       <c r="AI132" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ132" s="7" t="str">
         <f t="shared" si="227"/>
@@ -63403,7 +63403,7 @@
       <c r="B135" s="8"/>
       <c r="C135" s="7">
         <f>SUM(C108:C134)</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D135" s="7">
         <f>SUM(D108:D134)</f>
@@ -63411,11 +63411,11 @@
       </c>
       <c r="E135" s="7">
         <f>SUM(E108:E134)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F135" s="7" t="str">
         <f>IF(C135,ROUND(D135/C135*100,2),0) &amp; "%"</f>
-        <v>47.06%</v>
+        <v>36.36%</v>
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="7">
@@ -63471,7 +63471,7 @@
       <c r="V135" s="8"/>
       <c r="W135" s="7">
         <f>SUM(W108:W134)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X135" s="7">
         <f>SUM(X108:X134)</f>
@@ -63479,11 +63479,11 @@
       </c>
       <c r="Y135" s="7">
         <f>SUM(Y108:Y134)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z135" s="7" t="str">
         <f>IF(W135,ROUND(X135/W135*100,2),0) &amp; "%"</f>
-        <v>33.33%</v>
+        <v>25%</v>
       </c>
       <c r="AA135" s="8"/>
       <c r="AB135" s="7">
@@ -63505,7 +63505,7 @@
       <c r="AF135" s="8"/>
       <c r="AG135" s="7">
         <f>SUM(AG108:AG134)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH135" s="7">
         <f>SUM(AH108:AH134)</f>
@@ -63513,16 +63513,16 @@
       </c>
       <c r="AI135" s="7">
         <f>SUM(AI108:AI134)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ135" s="7" t="str">
         <f>IF(AG135,ROUND(AH135/AG135*100,2),0) &amp; "%"</f>
-        <v>100%</v>
+        <v>50%</v>
       </c>
       <c r="AK135" s="8"/>
       <c r="AL135" s="7">
         <f>SUM(AL108:AL134)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM135" s="7">
         <f>SUM(AM108:AM134)</f>
@@ -63530,16 +63530,16 @@
       </c>
       <c r="AN135" s="7">
         <f>SUM(AN108:AN134)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO135" s="7" t="str">
         <f>IF(AL135,ROUND(AM135/AL135*100,2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="AP135" s="8"/>
       <c r="AQ135" s="7">
         <f>SUM(AQ108:AQ134)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR135" s="7">
         <f>SUM(AR108:AR134)</f>
@@ -63547,7 +63547,7 @@
       </c>
       <c r="AS135" s="7">
         <f>SUM(AS108:AS134)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT135" s="7" t="str">
         <f>IF(AQ135,ROUND(AR135/AQ135*100,2),0) &amp; "%"</f>
@@ -65679,7 +65679,7 @@
       <c r="B141" s="11"/>
       <c r="C141" s="12">
         <f t="shared" si="281"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D141" s="12">
         <f t="shared" si="280"/>
@@ -65687,7 +65687,7 @@
       </c>
       <c r="E141" s="12">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F141" s="13" t="str">
         <f t="shared" si="282"/>
@@ -65726,13 +65726,13 @@
       <c r="Q141" s="11"/>
       <c r="R141" s="12">
         <f t="shared" si="287"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141" s="13">
         <v>0</v>
       </c>
       <c r="T141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U141" s="13" t="str">
         <f t="shared" si="288"/>
@@ -65741,13 +65741,13 @@
       <c r="V141" s="11"/>
       <c r="W141" s="12">
         <f t="shared" si="289"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X141" s="13">
         <v>0</v>
       </c>
       <c r="Y141" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z141" s="13" t="str">
         <f t="shared" si="290"/>
@@ -65801,13 +65801,13 @@
       <c r="AP141" s="11"/>
       <c r="AQ141" s="12">
         <f t="shared" si="297"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR141" s="13">
         <v>0</v>
       </c>
       <c r="AS141" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT141" s="13" t="str">
         <f t="shared" si="298"/>
@@ -66167,7 +66167,7 @@
       <c r="B142" s="11"/>
       <c r="C142" s="12">
         <f t="shared" si="281"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" s="12">
         <f t="shared" si="280"/>
@@ -66175,7 +66175,7 @@
       </c>
       <c r="E142" s="12">
         <f t="shared" si="280"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" s="13" t="str">
         <f t="shared" si="282"/>
@@ -66184,13 +66184,13 @@
       <c r="G142" s="11"/>
       <c r="H142" s="12">
         <f t="shared" si="283"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" s="13">
         <v>0</v>
       </c>
       <c r="J142" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" s="13" t="str">
         <f t="shared" si="284"/>
@@ -74463,7 +74463,7 @@
       <c r="B159" s="11"/>
       <c r="C159" s="13">
         <f>SUM(C139:C158)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D159" s="13">
         <f t="shared" ref="D159:E159" si="347">SUM(D139:D158)</f>
@@ -74471,16 +74471,16 @@
       </c>
       <c r="E159" s="13">
         <f t="shared" si="347"/>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F159" s="13" t="str">
         <f>IF(C159,ROUND(D159/C159*100,2),0) &amp; "%"</f>
-        <v>35.71%</v>
+        <v>26.32%</v>
       </c>
       <c r="G159" s="11"/>
       <c r="H159" s="13">
         <f>SUM(H139:H158)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" s="12">
         <f>SUM(I139:I158)</f>
@@ -74513,7 +74513,7 @@
       <c r="Q159" s="11"/>
       <c r="R159" s="13">
         <f>SUM(R139:R158)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S159" s="12">
         <f>SUM(S139:S158)</f>
@@ -74521,7 +74521,7 @@
       </c>
       <c r="T159" s="12">
         <f>SUM(T139:T158)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U159" s="13" t="str">
         <f>IF(R159,ROUND(S159/R159*100,2),0) &amp; "%"</f>
@@ -74530,7 +74530,7 @@
       <c r="V159" s="11"/>
       <c r="W159" s="13">
         <f>SUM(W139:W158)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X159" s="12">
         <f>SUM(X139:X158)</f>
@@ -74538,11 +74538,11 @@
       </c>
       <c r="Y159" s="12">
         <f>SUM(Y139:Y158)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z159" s="13" t="str">
         <f>IF(W159,ROUND(X159/W159*100,2),0) &amp; "%"</f>
-        <v>100%</v>
+        <v>50%</v>
       </c>
       <c r="AA159" s="11"/>
       <c r="AB159" s="13">
@@ -74598,7 +74598,7 @@
       <c r="AP159" s="11"/>
       <c r="AQ159" s="13">
         <f>SUM(AQ139:AQ158)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR159" s="12">
         <f>SUM(AR139:AR158)</f>
@@ -74606,7 +74606,7 @@
       </c>
       <c r="AS159" s="12">
         <f>SUM(AS139:AS158)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT159" s="13" t="str">
         <f>IF(AQ159,ROUND(AR159/AQ159*100,2),0) &amp; "%"</f>
@@ -75345,7 +75345,7 @@
       <c r="E162" s="9"/>
       <c r="F162" s="9" t="str">
         <f>IF(SUM(D135,D159),ROUND(SUM(D135,D159)*100/SUM(C135,C159),2),0) &amp; "%"</f>
-        <v>41.94%</v>
+        <v>31.71%</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="9" t="s">
@@ -75355,7 +75355,7 @@
       <c r="J162" s="9"/>
       <c r="K162" s="9" t="str">
         <f>IF(SUM(I135,I159),ROUND(SUM(I135,I159)*100/SUM(H135,H159),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="L162" s="10"/>
       <c r="M162" s="9" t="s">
@@ -75375,7 +75375,7 @@
       <c r="T162" s="9"/>
       <c r="U162" s="9" t="str">
         <f>IF(SUM(S135,S159),ROUND(SUM(S135,S159)*100/SUM(R135,R159),2),0) &amp; "%"</f>
-        <v>33.33%</v>
+        <v>25%</v>
       </c>
       <c r="V162" s="10"/>
       <c r="W162" s="9" t="s">
@@ -75385,7 +75385,7 @@
       <c r="Y162" s="9"/>
       <c r="Z162" s="9" t="str">
         <f>IF(SUM(X135,X159),ROUND(SUM(X135,X159)*100/SUM(W135,W159),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="AA162" s="10"/>
       <c r="AB162" s="9" t="s">
@@ -75405,7 +75405,7 @@
       <c r="AI162" s="9"/>
       <c r="AJ162" s="9" t="str">
         <f>IF(SUM(AH135,AH159),ROUND(SUM(AH135,AH159)*100/SUM(AG135,AG159),2),0) &amp; "%"</f>
-        <v>60%</v>
+        <v>42.86%</v>
       </c>
       <c r="AK162" s="10"/>
       <c r="AL162" s="9" t="s">
@@ -75415,7 +75415,7 @@
       <c r="AN162" s="9"/>
       <c r="AO162" s="9" t="str">
         <f>IF(SUM(AM135,AM159),ROUND(SUM(AM135,AM159)*100/SUM(AL135,AL159),2),0) &amp; "%"</f>
-        <v>50%</v>
+        <v>33.33%</v>
       </c>
       <c r="AP162" s="10"/>
       <c r="AQ162" s="9" t="s">
@@ -75669,7 +75669,7 @@
       <c r="E163" s="9"/>
       <c r="F163" s="16" t="str">
         <f>ROUND(((SUM(D74,D101)/SUM(C74,C101)+SUM(D135,D159)/SUM(C135,C159))/2)*100,2) &amp; "%"</f>
-        <v>52.05%</v>
+        <v>51.12%</v>
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="9" t="s">
@@ -75679,7 +75679,7 @@
       <c r="J163" s="9"/>
       <c r="K163" s="16" t="str">
         <f>ROUND(((SUM(I74,I101)/SUM(H74,H101)+SUM(I135,I159)/SUM(H135,H159))/2)*100,2) &amp; "%"</f>
-        <v>50%</v>
+        <v>56.67%</v>
       </c>
       <c r="L163" s="10"/>
       <c r="M163" s="9" t="s">
@@ -75699,7 +75699,7 @@
       <c r="T163" s="9"/>
       <c r="U163" s="16" t="str">
         <f>ROUND(((SUM(S74,S101)/SUM(R74,R101)+SUM(S135,S159)/SUM(R135,R159))/2)*100,2) &amp; "%"</f>
-        <v>44.44%</v>
+        <v>45.83%</v>
       </c>
       <c r="V163" s="10"/>
       <c r="W163" s="9" t="s">
@@ -75709,7 +75709,7 @@
       <c r="Y163" s="9"/>
       <c r="Z163" s="16" t="str">
         <f>ROUND(((SUM(X74,X101)/SUM(W74,W101)+SUM(X135,X159)/SUM(W135,W159))/2)*100,2) &amp; "%"</f>
-        <v>60%</v>
+        <v>55.13%</v>
       </c>
       <c r="AA163" s="10"/>
       <c r="AB163" s="9" t="s">
@@ -75719,7 +75719,7 @@
       <c r="AD163" s="9"/>
       <c r="AE163" s="16" t="str">
         <f>ROUND(((SUM(AC74,AC101)/SUM(AB74,AB101)+SUM(AC135,AC159)/SUM(AB135,AB159))/2)*100,2) &amp; "%"</f>
-        <v>33.33%</v>
+        <v>42.95%</v>
       </c>
       <c r="AF163" s="10"/>
       <c r="AG163" s="9" t="s">
@@ -75729,7 +75729,7 @@
       <c r="AI163" s="9"/>
       <c r="AJ163" s="16" t="str">
         <f>ROUND(((SUM(AH74,AH101)/SUM(AG74,AG101)+SUM(AH135,AH159)/SUM(AG135,AG159))/2)*100,2) &amp; "%"</f>
-        <v>74.44%</v>
+        <v>67.26%</v>
       </c>
       <c r="AK163" s="10"/>
       <c r="AL163" s="9" t="s">
@@ -75739,7 +75739,7 @@
       <c r="AN163" s="9"/>
       <c r="AO163" s="16" t="str">
         <f>ROUND(((SUM(AM74,AM101)/SUM(AL74,AL101)+SUM(AM135,AM159)/SUM(AL135,AL159))/2)*100,2) &amp; "%"</f>
-        <v>65%</v>
+        <v>60.42%</v>
       </c>
       <c r="AP163" s="10"/>
       <c r="AQ163" s="9" t="s">
@@ -75749,7 +75749,7 @@
       <c r="AS163" s="9"/>
       <c r="AT163" s="16" t="str">
         <f>ROUND(((SUM(AR74,AR101)/SUM(AQ74,AQ101)+SUM(AR135,AR159)/SUM(AQ135,AQ159))/2)*100,2) &amp; "%"</f>
-        <v>12.5%</v>
+        <v>20%</v>
       </c>
       <c r="AU163" s="10"/>
       <c r="AV163" s="9" t="s">
@@ -75993,7 +75993,7 @@
       <c r="E164" s="9"/>
       <c r="F164" s="9">
         <f>+SUM(C159,C135,C101,C74)</f>
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="9" t="s">
@@ -76003,7 +76003,7 @@
       <c r="J164" s="9"/>
       <c r="K164" s="9">
         <f>+SUM(H159,H135,H101,H74)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L164" s="10"/>
       <c r="M164" s="9" t="s">
@@ -76023,7 +76023,7 @@
       <c r="T164" s="9"/>
       <c r="U164" s="9">
         <f>+SUM(R159,R135,R101,R74)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="V164" s="10"/>
       <c r="W164" s="9" t="s">
@@ -76033,7 +76033,7 @@
       <c r="Y164" s="9"/>
       <c r="Z164" s="9">
         <f>+SUM(W159,W135,W101,W74)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA164" s="10"/>
       <c r="AB164" s="9" t="s">
@@ -76043,7 +76043,7 @@
       <c r="AD164" s="9"/>
       <c r="AE164" s="9">
         <f>+SUM(AB159,AB135,AB101,AB74)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF164" s="10"/>
       <c r="AG164" s="9" t="s">
@@ -76053,7 +76053,7 @@
       <c r="AI164" s="9"/>
       <c r="AJ164" s="9">
         <f>+SUM(AG159,AG135,AG101,AG74)</f>
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AK164" s="10"/>
       <c r="AL164" s="9" t="s">
@@ -76063,7 +76063,7 @@
       <c r="AN164" s="9"/>
       <c r="AO164" s="9">
         <f>+SUM(AL159,AL135,AL101,AL74)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AP164" s="10"/>
       <c r="AQ164" s="9" t="s">
@@ -76073,7 +76073,7 @@
       <c r="AS164" s="9"/>
       <c r="AT164" s="9">
         <f>+SUM(AQ159,AQ135,AQ101,AQ74)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AU164" s="10"/>
       <c r="AV164" s="9" t="s">
@@ -76293,7 +76293,7 @@
       <c r="EY164" s="9"/>
       <c r="EZ164" s="9">
         <f>+SUM(EW159,EW135,EW101,EW74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FA164" s="15"/>
       <c r="FB164" s="9" t="s">
@@ -76637,6 +76637,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -76851,14 +76859,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -76869,6 +76869,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -76887,23 +76904,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="7ce3718d-1d19-4340-bc07-211e3ea25757"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
   <ds:schemaRefs>

--- a/BotC-Stats.xlsx
+++ b/BotC-Stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rainb\Documents\code\BotC-GroupTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D84D3AA-DD45-4104-A656-90E827580EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FD78F3-5795-4C86-8678-E97B3D489128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
+    <workbookView xWindow="-31770" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{6A883E2E-6B2D-4BEF-9626-D6F4FED911C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1105,10 +1105,10 @@
   <dimension ref="A1:AA214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A170" sqref="A170"/>
+      <selection pane="bottomRight" activeCell="I192" sqref="I192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="10"/>
+        <f>SUM(I46,N46,S46,X46)</f>
         <v>0</v>
       </c>
       <c r="E46" s="1">
@@ -15350,7 +15350,7 @@
         <v>0</v>
       </c>
       <c r="K188" s="20" t="str">
-        <f t="shared" si="76"/>
+        <f>IF(H188,ROUND(I188/H188*100,2),0) &amp; "%"</f>
         <v>0%</v>
       </c>
       <c r="L188" s="22"/>
@@ -15544,9 +15544,9 @@
       <c r="AA192" s="3"/>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A193" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A193" s="19" t="str">
+        <f>S1</f>
+        <v>Template</v>
       </c>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -16097,9 +16097,9 @@
       <c r="AA203" s="3"/>
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A204" s="19" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="A204" s="19" t="str">
+        <f>X1</f>
+        <v>In-Game (for lil monsta etc)</v>
       </c>
       <c r="B204" s="19"/>
       <c r="C204" s="19"/>
@@ -16664,15 +16664,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D6901F31B669244A77CF3DC592DC06F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3f07ba37d9f6a9a16ab78a3833be08f3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d74e12c9-bdf3-447e-ac63-b8aa30cb912e" xmlns:ns4="7ce3718d-1d19-4340-bc07-211e3ea25757" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3d76b4510715f63c0dd84a4bd0fa290f" ns3:_="" ns4:_="">
     <xsd:import namespace="d74e12c9-bdf3-447e-ac63-b8aa30cb912e"/>
@@ -16887,6 +16878,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E2E85D4-37C6-4843-9D21-AD40AB5F6E3A}">
   <ds:schemaRefs>
@@ -16905,14 +16905,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D93BBC3-F948-4065-9078-5D0662F77D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16929,4 +16921,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BF8F943-7811-4141-8F4E-8FF466B07D87}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>